--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FAF9BD-0BE9-4C83-B587-5FC3528FAB51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE2C18D-1E2D-4AE2-86A0-100320059E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
+    <workbookView xWindow="-16320" yWindow="-9420" windowWidth="16440" windowHeight="28440" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stimulus" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
   <si>
     <t>apple</t>
   </si>
@@ -186,6 +186,78 @@
   </si>
   <si>
     <t>Blender 5, part 10</t>
+  </si>
+  <si>
+    <t>Female1</t>
+  </si>
+  <si>
+    <t>Female2</t>
+  </si>
+  <si>
+    <t>Female3</t>
+  </si>
+  <si>
+    <t>Female4</t>
+  </si>
+  <si>
+    <t>Female5</t>
+  </si>
+  <si>
+    <t>Female6</t>
+  </si>
+  <si>
+    <t>Female7</t>
+  </si>
+  <si>
+    <t>Female8</t>
+  </si>
+  <si>
+    <t>Female9</t>
+  </si>
+  <si>
+    <t>Female10</t>
+  </si>
+  <si>
+    <t>Female11</t>
+  </si>
+  <si>
+    <t>Female12</t>
+  </si>
+  <si>
+    <t>Male1</t>
+  </si>
+  <si>
+    <t>Male2</t>
+  </si>
+  <si>
+    <t>Male3</t>
+  </si>
+  <si>
+    <t>Male4</t>
+  </si>
+  <si>
+    <t>Male5</t>
+  </si>
+  <si>
+    <t>Male6</t>
+  </si>
+  <si>
+    <t>Male7</t>
+  </si>
+  <si>
+    <t>Male8</t>
+  </si>
+  <si>
+    <t>Male9</t>
+  </si>
+  <si>
+    <t>Male10</t>
+  </si>
+  <si>
+    <t>Male12</t>
+  </si>
+  <si>
+    <t>Male13</t>
   </si>
 </sst>
 </file>
@@ -352,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -372,7 +444,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -381,70 +452,6 @@
   <dxfs count="22">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -487,12 +494,18 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
+        <top/>
+        <bottom/>
         <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -524,15 +537,15 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
         <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -564,6 +577,49 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -574,6 +630,21 @@
       <font>
         <b/>
       </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -637,20 +708,20 @@
     <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{154C99C7-865E-4E8A-A7F6-E66DA111723A}" name="min (mm)"/>
     <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:D45" totalsRowShown="0" headerRowDxfId="18" headerRowBorderDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:D45" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A25:D45" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{618FF384-60A0-48F4-BD3B-20158698512B}" name="BodyPart"/>
-    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="3">
+    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="12">
       <calculatedColumnFormula>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -659,13 +730,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A47:D67" totalsRowShown="0" tableBorderDxfId="13">
-  <autoFilter ref="A47:D67" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A47:D71" totalsRowShown="0" tableBorderDxfId="11">
+  <autoFilter ref="A47:D71" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A15C451F-5A5A-4ABC-B01B-2C4F05011809}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="8">
       <calculatedColumnFormula>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -674,13 +745,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A69:D89" totalsRowShown="0" tableBorderDxfId="10">
-  <autoFilter ref="A69:D89" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A73:D93" totalsRowShown="0" tableBorderDxfId="7">
+  <autoFilter ref="A73:D93" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4ABA85F0-A778-40FD-BD59-C5D4666608AA}" name="Scene"/>
-    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="4">
       <calculatedColumnFormula>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -689,12 +760,12 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A91:D111" totalsRowShown="0" tableBorderDxfId="7">
-  <autoFilter ref="A91:D111" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A95:D115" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="A95:D115" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7067C8DA-7BB5-4270-8F77-26A275840009}" name="ObjectScrambled"/>
-    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="0">
       <calculatedColumnFormula>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
@@ -1000,10 +1071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305C46E9-DBCF-4732-A226-FBA3B04D35E8}">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,10 +1083,9 @@
     <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>25</v>
       </c>
@@ -1029,9 +1099,8 @@
         <v>24</v>
       </c>
       <c r="E1" s="6"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1045,9 +1114,8 @@
         <v>96.424999999999997</v>
       </c>
       <c r="E2" s="6"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1061,9 +1129,8 @@
         <v>44.561999999999998</v>
       </c>
       <c r="E3" s="6"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
@@ -1077,9 +1144,8 @@
         <v>104.587</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -1093,9 +1159,8 @@
         <v>61.048000000000002</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
@@ -1109,9 +1174,8 @@
         <v>109.76900000000001</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
@@ -1125,9 +1189,8 @@
         <v>57.819000000000003</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
@@ -1141,9 +1204,8 @@
         <v>100.39400000000001</v>
       </c>
       <c r="E8" s="6"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
@@ -1157,9 +1219,8 @@
         <v>115.7158</v>
       </c>
       <c r="E9" s="6"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
@@ -1173,9 +1234,8 @@
         <v>109.5731</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
@@ -1189,9 +1249,8 @@
         <v>60.86</v>
       </c>
       <c r="E11" s="6"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
@@ -1205,9 +1264,8 @@
         <v>65.296999999999997</v>
       </c>
       <c r="E12" s="6"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
@@ -1221,9 +1279,8 @@
         <v>24.213999999999999</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
@@ -1237,9 +1294,8 @@
         <v>91.054000000000002</v>
       </c>
       <c r="E14" s="6"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
@@ -1253,9 +1309,8 @@
         <v>39.151000000000003</v>
       </c>
       <c r="E15" s="6"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
@@ -1269,9 +1324,8 @@
         <v>54.86</v>
       </c>
       <c r="E16" s="6"/>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>13</v>
       </c>
@@ -1285,9 +1339,8 @@
         <v>189.697</v>
       </c>
       <c r="E17" s="6"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>14</v>
       </c>
@@ -1301,9 +1354,8 @@
         <v>87.605999999999995</v>
       </c>
       <c r="E18" s="6"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
@@ -1317,9 +1369,8 @@
         <v>123.47</v>
       </c>
       <c r="E19" s="6"/>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
@@ -1333,9 +1384,8 @@
         <v>83.828999999999994</v>
       </c>
       <c r="E20" s="6"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>17</v>
       </c>
@@ -1349,9 +1399,8 @@
         <v>49.26</v>
       </c>
       <c r="E21" s="6"/>
-      <c r="F21" s="19"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>18</v>
       </c>
@@ -1365,9 +1414,8 @@
         <v>110.72499999999999</v>
       </c>
       <c r="E22" s="6"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>19</v>
       </c>
@@ -1381,9 +1429,8 @@
         <v>104.876</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>26</v>
       </c>
@@ -1397,7 +1444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -1412,7 +1459,7 @@
         <v>88.768000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>33</v>
       </c>
@@ -1427,7 +1474,7 @@
         <v>65.040900000000008</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1442,7 +1489,7 @@
         <v>150.31393</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -1457,7 +1504,7 @@
         <v>132.81190000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
@@ -1472,7 +1519,7 @@
         <v>106.622</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1487,7 +1534,7 @@
         <v>65.325500000000005</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1677,7 +1724,7 @@
       <c r="C44" s="2">
         <v>93.831000000000003</v>
       </c>
-      <c r="D44" s="20">
+      <c r="D44">
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>94.170280000000005</v>
       </c>
@@ -1712,286 +1759,382 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>1</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="5"/>
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="3">
+        <v>33.822000000000003</v>
+      </c>
+      <c r="C48" s="5">
+        <v>312.24</v>
+      </c>
       <c r="D48" s="4">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>278.41800000000001</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="2"/>
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="6">
+        <v>-0.28106999999999999</v>
+      </c>
+      <c r="C49" s="2">
+        <v>267.87</v>
+      </c>
       <c r="D49">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>268.15107</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>3</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="2"/>
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="6">
+        <v>-6.3395999999999999</v>
+      </c>
+      <c r="C50" s="2">
+        <v>218.51</v>
+      </c>
       <c r="D50">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>224.84959999999998</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>4</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="2"/>
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="6">
+        <v>12.791</v>
+      </c>
+      <c r="C51" s="2">
+        <v>277.73</v>
+      </c>
       <c r="D51">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>264.93900000000002</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>5</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="2"/>
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="6">
+        <v>18.2</v>
+      </c>
+      <c r="C52" s="2">
+        <v>283.26</v>
+      </c>
       <c r="D52">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>265.06</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>6</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="2"/>
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="6">
+        <v>-11.695</v>
+      </c>
+      <c r="C53" s="2">
+        <v>287.24</v>
+      </c>
       <c r="D53">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>298.935</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>7</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="2"/>
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="6">
+        <v>5.8310000000000004</v>
+      </c>
+      <c r="C54" s="2">
+        <v>215.83</v>
+      </c>
       <c r="D54">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>209.99900000000002</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>8</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="2"/>
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="6">
+        <v>8.4276999999999997</v>
+      </c>
+      <c r="C55" s="2">
+        <v>282.39999999999998</v>
+      </c>
       <c r="D55">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>273.97229999999996</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>9</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="2"/>
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="6">
+        <v>55.694000000000003</v>
+      </c>
+      <c r="C56" s="2">
+        <v>293.45999999999998</v>
+      </c>
       <c r="D56">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>237.76599999999996</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>10</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="2"/>
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="6">
+        <v>8.5954999999999995</v>
+      </c>
+      <c r="C57" s="2">
+        <v>341.02</v>
+      </c>
       <c r="D57">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>332.42449999999997</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>11</v>
-      </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="2"/>
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="6">
+        <v>-8.9504000000000001</v>
+      </c>
+      <c r="C58" s="2">
+        <v>260.52</v>
+      </c>
       <c r="D58">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>269.47039999999998</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>12</v>
-      </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="2"/>
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="6">
+        <v>5.5094000000000003</v>
+      </c>
+      <c r="C59" s="2">
+        <v>349.56</v>
+      </c>
       <c r="D59">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>344.05059999999997</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>13</v>
-      </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="2"/>
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="6">
+        <v>-24.779</v>
+      </c>
+      <c r="C60" s="2">
+        <v>210.46</v>
+      </c>
       <c r="D60">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>235.239</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>14</v>
-      </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="2"/>
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0.72641</v>
+      </c>
+      <c r="C61" s="2">
+        <v>233.88</v>
+      </c>
       <c r="D61">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>233.15359000000001</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>15</v>
-      </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="2"/>
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="6">
+        <v>14.340999999999999</v>
+      </c>
+      <c r="C62" s="2">
+        <v>279.16000000000003</v>
+      </c>
       <c r="D62">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>264.81900000000002</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>16</v>
-      </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="2"/>
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="6">
+        <v>19.591999999999999</v>
+      </c>
+      <c r="C63" s="2">
+        <v>237.34</v>
+      </c>
       <c r="D63">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>217.74799999999999</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>17</v>
-      </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="2"/>
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="6">
+        <v>-24.585999999999999</v>
+      </c>
+      <c r="C64" s="2">
+        <v>210.64</v>
+      </c>
       <c r="D64">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>235.226</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>18</v>
-      </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="2"/>
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="6">
+        <v>-12.287000000000001</v>
+      </c>
+      <c r="C65" s="2">
+        <v>250.69</v>
+      </c>
       <c r="D65">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>262.97699999999998</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>19</v>
-      </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="2"/>
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="6">
+        <v>-7.22</v>
+      </c>
+      <c r="C66" s="2">
+        <v>265.94</v>
+      </c>
       <c r="D66">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>273.16000000000003</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>20</v>
-      </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="2"/>
-      <c r="D67">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="6">
+        <v>-26.268000000000001</v>
+      </c>
+      <c r="C67" s="2">
+        <v>233.3</v>
+      </c>
+      <c r="D67" s="19">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+        <v>259.56799999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="6">
+        <v>1.2215</v>
+      </c>
+      <c r="C68" s="2">
+        <v>227.56</v>
+      </c>
+      <c r="D68" s="19">
+        <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
+        <v>226.33850000000001</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="6">
+        <v>-6.9671000000000003</v>
+      </c>
+      <c r="C69" s="2">
+        <v>272.31</v>
+      </c>
+      <c r="D69" s="19">
+        <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
+        <v>279.27710000000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="6">
+        <v>29.971</v>
+      </c>
+      <c r="C70" s="2">
+        <v>267.67</v>
+      </c>
+      <c r="D70" s="19">
+        <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
+        <v>237.69900000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="6">
+        <v>-6.7194000000000003</v>
+      </c>
+      <c r="C71" s="2">
+        <v>238.61</v>
+      </c>
+      <c r="D71">
+        <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
+        <v>245.32940000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B73" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="C73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D73" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>1</v>
-      </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="2"/>
-      <c r="D70">
-        <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>2</v>
-      </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="2"/>
-      <c r="D71">
-        <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>3</v>
-      </c>
-      <c r="B72" s="6"/>
-      <c r="C72" s="2"/>
-      <c r="D72">
-        <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>4</v>
-      </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="2"/>
-      <c r="D73">
-        <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="2"/>
@@ -2002,7 +2145,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="2"/>
@@ -2013,7 +2156,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="2"/>
@@ -2024,7 +2167,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="2"/>
@@ -2035,7 +2178,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="2"/>
@@ -2046,7 +2189,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="2"/>
@@ -2057,7 +2200,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="2"/>
@@ -2068,7 +2211,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="2"/>
@@ -2079,7 +2222,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="2"/>
@@ -2090,7 +2233,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="2"/>
@@ -2101,7 +2244,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="2"/>
@@ -2112,7 +2255,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="2"/>
@@ -2123,7 +2266,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="2"/>
@@ -2134,7 +2277,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="2"/>
@@ -2145,7 +2288,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="2"/>
@@ -2156,7 +2299,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="2"/>
@@ -2165,67 +2308,67 @@
         <v>0</v>
       </c>
     </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>17</v>
+      </c>
+      <c r="B90" s="6"/>
+      <c r="C90" s="2"/>
+      <c r="D90">
+        <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>29</v>
-      </c>
-      <c r="B91" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D91" t="s">
-        <v>24</v>
+      <c r="A91">
+        <v>18</v>
+      </c>
+      <c r="B91" s="6"/>
+      <c r="C91" s="2"/>
+      <c r="D91">
+        <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="2"/>
       <c r="D92">
-        <f>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</f>
+        <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="2"/>
       <c r="D93">
-        <f>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>3</v>
-      </c>
-      <c r="B94" s="6"/>
-      <c r="C94" s="2"/>
-      <c r="D94">
-        <f>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</f>
+        <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>4</v>
-      </c>
-      <c r="B95" s="6"/>
-      <c r="C95" s="2"/>
-      <c r="D95">
-        <f>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="2"/>
@@ -2236,7 +2379,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="2"/>
@@ -2247,7 +2390,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="2"/>
@@ -2258,7 +2401,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="2"/>
@@ -2269,7 +2412,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="2"/>
@@ -2280,7 +2423,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="2"/>
@@ -2291,7 +2434,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="2"/>
@@ -2302,7 +2445,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="2"/>
@@ -2313,7 +2456,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="2"/>
@@ -2324,7 +2467,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="2"/>
@@ -2335,7 +2478,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="2"/>
@@ -2346,7 +2489,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="2"/>
@@ -2357,7 +2500,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="2"/>
@@ -2368,7 +2511,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="2"/>
@@ -2379,7 +2522,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="2"/>
@@ -2390,11 +2533,55 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
+        <v>16</v>
+      </c>
+      <c r="B111" s="6"/>
+      <c r="C111" s="2"/>
+      <c r="D111">
+        <f>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>17</v>
+      </c>
+      <c r="B112" s="6"/>
+      <c r="C112" s="2"/>
+      <c r="D112">
+        <f>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>18</v>
+      </c>
+      <c r="B113" s="6"/>
+      <c r="C113" s="2"/>
+      <c r="D113">
+        <f>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>19</v>
+      </c>
+      <c r="B114" s="6"/>
+      <c r="C114" s="2"/>
+      <c r="D114">
+        <f>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115">
         <v>20</v>
       </c>
-      <c r="B111" s="7"/>
-      <c r="C111" s="9"/>
-      <c r="D111">
+      <c r="B115" s="7"/>
+      <c r="C115" s="9"/>
+      <c r="D115">
         <f>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</f>
         <v>0</v>
       </c>

--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE2C18D-1E2D-4AE2-86A0-100320059E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004F7881-D280-426C-9F2F-F7352D9069C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-9420" windowWidth="16440" windowHeight="28440" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stimulus" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
   <si>
     <t>apple</t>
   </si>
@@ -116,9 +117,6 @@
     <t>Object</t>
   </si>
   <si>
-    <t>BodyPart</t>
-  </si>
-  <si>
     <t>Face</t>
   </si>
   <si>
@@ -143,9 +141,6 @@
     <t>Blender 1, part 6</t>
   </si>
   <si>
-    <t>Blender 2, part 7</t>
-  </si>
-  <si>
     <t>Blender 2, part 8</t>
   </si>
   <si>
@@ -173,9 +168,6 @@
     <t>Blender 4, part 10</t>
   </si>
   <si>
-    <t>Blender 4, part 11</t>
-  </si>
-  <si>
     <t>Blender 5, part 7</t>
   </si>
   <si>
@@ -258,6 +250,72 @@
   </si>
   <si>
     <t>Male13</t>
+  </si>
+  <si>
+    <t>Name for Laurie</t>
+  </si>
+  <si>
+    <t>body-part_01</t>
+  </si>
+  <si>
+    <t>body-part_02</t>
+  </si>
+  <si>
+    <t>body-part_03</t>
+  </si>
+  <si>
+    <t>body-part_04</t>
+  </si>
+  <si>
+    <t>body-part_05</t>
+  </si>
+  <si>
+    <t>body-part_06</t>
+  </si>
+  <si>
+    <t>body-part_07</t>
+  </si>
+  <si>
+    <t>body-part_08</t>
+  </si>
+  <si>
+    <t>body-part_09</t>
+  </si>
+  <si>
+    <t>body-part_10</t>
+  </si>
+  <si>
+    <t>body-part_11</t>
+  </si>
+  <si>
+    <t>body-part_12</t>
+  </si>
+  <si>
+    <t>body-part_14</t>
+  </si>
+  <si>
+    <t>body-part_15</t>
+  </si>
+  <si>
+    <t>body-part_16</t>
+  </si>
+  <si>
+    <t>body-part_17</t>
+  </si>
+  <si>
+    <t>body-part_18</t>
+  </si>
+  <si>
+    <t>body-part_19</t>
+  </si>
+  <si>
+    <t>body-part_20</t>
+  </si>
+  <si>
+    <t>BodyPart (Becca location)</t>
+  </si>
+  <si>
+    <t>Blender 2, base body 12</t>
   </si>
 </sst>
 </file>
@@ -715,23 +773,24 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:D45" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A25:D45" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{618FF384-60A0-48F4-BD3B-20158698512B}" name="BodyPart"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A25:E44" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{618FF384-60A0-48F4-BD3B-20158698512B}" name="BodyPart (Becca location)"/>
     <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="13"/>
     <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="12">
       <calculatedColumnFormula>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="5" xr3:uid="{B4C77F97-9F8F-4A06-A76F-20F90D6B2055}" name="Name for Laurie"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A47:D71" totalsRowShown="0" tableBorderDxfId="11">
-  <autoFilter ref="A47:D71" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="11">
+  <autoFilter ref="A46:D70" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A15C451F-5A5A-4ABC-B01B-2C4F05011809}" name="Face"/>
     <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="10"/>
@@ -745,8 +804,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A73:D93" totalsRowShown="0" tableBorderDxfId="7">
-  <autoFilter ref="A73:D93" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="7">
+  <autoFilter ref="A72:D92" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4ABA85F0-A778-40FD-BD59-C5D4666608AA}" name="Scene"/>
     <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="6"/>
@@ -760,8 +819,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A95:D115" totalsRowShown="0" tableBorderDxfId="3">
-  <autoFilter ref="A95:D115" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="A94:D114" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7067C8DA-7BB5-4270-8F77-26A275840009}" name="ObjectScrambled"/>
     <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="2"/>
@@ -1071,18 +1130,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305C46E9-DBCF-4732-A226-FBA3B04D35E8}">
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1432,7 +1491,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>23</v>
@@ -1443,10 +1502,13 @@
       <c r="D25" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="E25" s="14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="6">
         <v>18.802</v>
@@ -1458,10 +1520,13 @@
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>88.768000000000001</v>
       </c>
+      <c r="E26" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="6">
         <v>-1.2699</v>
@@ -1473,10 +1538,13 @@
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>65.040900000000008</v>
       </c>
+      <c r="E27" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B28" s="6">
         <v>-0.79393000000000002</v>
@@ -1488,10 +1556,13 @@
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>150.31393</v>
       </c>
+      <c r="E28" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="6">
         <v>-4.0918999999999999</v>
@@ -1503,10 +1574,13 @@
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>132.81190000000001</v>
       </c>
+      <c r="E29" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="6">
         <v>1.248</v>
@@ -1518,55 +1592,67 @@
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>106.622</v>
       </c>
+      <c r="E30" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B31" s="6">
-        <v>-4.9824999999999999</v>
+        <v>-9.2428000000000008</v>
       </c>
       <c r="C31" s="2">
-        <v>60.343000000000004</v>
+        <v>145.69</v>
       </c>
       <c r="D31">
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
-        <v>65.325500000000005</v>
+        <v>154.93279999999999</v>
+      </c>
+      <c r="E31" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="6">
-        <v>-9.2428000000000008</v>
+        <v>-4.5583</v>
       </c>
       <c r="C32" s="2">
-        <v>145.69</v>
+        <v>204.01</v>
       </c>
       <c r="D32">
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
-        <v>154.93279999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>208.56829999999999</v>
+      </c>
+      <c r="E32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="B33" s="6">
-        <v>-4.5583</v>
+        <v>2.3681000000000001</v>
       </c>
       <c r="C33" s="2">
-        <v>204.01</v>
-      </c>
-      <c r="D33">
+        <v>121.87</v>
+      </c>
+      <c r="D33" s="19">
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
-        <v>208.56829999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>119.50190000000001</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34" s="6">
         <v>-2.4845999999999999</v>
@@ -1578,10 +1664,13 @@
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>121.0046</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35" s="6">
         <v>1.0538000000000001</v>
@@ -1593,10 +1682,13 @@
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>145.59620000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="6">
         <v>0.78935999999999995</v>
@@ -1608,10 +1700,13 @@
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>121.78063999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="6">
         <v>15.566000000000001</v>
@@ -1623,10 +1718,13 @@
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>180.04400000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="6">
         <v>1.4372</v>
@@ -1638,10 +1736,13 @@
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>88.77579999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B39" s="6">
         <v>-6.1247999999999996</v>
@@ -1653,10 +1754,13 @@
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>200.54479999999998</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B40" s="6">
         <v>12.01</v>
@@ -1668,473 +1772,484 @@
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>151</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B41" s="6">
-        <v>-0.32967000000000002</v>
+        <v>-6.0292000000000003</v>
       </c>
       <c r="C41" s="2">
-        <v>175</v>
+        <v>127.26</v>
       </c>
       <c r="D41">
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
-        <v>175.32966999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>133.28919999999999</v>
+      </c>
+      <c r="E41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" s="6">
-        <v>-6.0292000000000003</v>
+        <v>0.65254000000000001</v>
       </c>
       <c r="C42" s="2">
-        <v>127.26</v>
+        <v>138.08000000000001</v>
       </c>
       <c r="D42">
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
-        <v>133.28919999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>137.42746000000002</v>
+      </c>
+      <c r="E42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" s="6">
-        <v>0.65254000000000001</v>
+        <v>-0.33928000000000003</v>
       </c>
       <c r="C43" s="2">
-        <v>138.08000000000001</v>
+        <v>93.831000000000003</v>
       </c>
       <c r="D43">
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
-        <v>137.42746000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94.170280000000005</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B44" s="6">
-        <v>-0.33928000000000003</v>
+        <v>1.5028999999999999</v>
       </c>
       <c r="C44" s="2">
-        <v>93.831000000000003</v>
+        <v>146.99</v>
       </c>
       <c r="D44">
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
-        <v>94.170280000000005</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="B45" s="6">
-        <v>1.5028999999999999</v>
-      </c>
-      <c r="C45" s="2">
-        <v>146.99</v>
-      </c>
-      <c r="D45">
-        <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>145.4871</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>27</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3">
         <v>33.822000000000003</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C47" s="5">
         <v>312.24</v>
       </c>
-      <c r="D48" s="4">
+      <c r="D47" s="4">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>278.41800000000001</v>
       </c>
     </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="6">
+        <v>-0.28106999999999999</v>
+      </c>
+      <c r="C48" s="2">
+        <v>267.87</v>
+      </c>
+      <c r="D48">
+        <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
+        <v>268.15107</v>
+      </c>
+    </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B49" s="6">
-        <v>-0.28106999999999999</v>
+        <v>-6.3395999999999999</v>
       </c>
       <c r="C49" s="2">
-        <v>267.87</v>
+        <v>218.51</v>
       </c>
       <c r="D49">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>268.15107</v>
+        <v>224.84959999999998</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" s="6">
-        <v>-6.3395999999999999</v>
+        <v>12.791</v>
       </c>
       <c r="C50" s="2">
-        <v>218.51</v>
+        <v>277.73</v>
       </c>
       <c r="D50">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>224.84959999999998</v>
+        <v>264.93900000000002</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" s="6">
-        <v>12.791</v>
+        <v>18.2</v>
       </c>
       <c r="C51" s="2">
-        <v>277.73</v>
+        <v>283.26</v>
       </c>
       <c r="D51">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>264.93900000000002</v>
+        <v>265.06</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B52" s="6">
-        <v>18.2</v>
+        <v>-11.695</v>
       </c>
       <c r="C52" s="2">
-        <v>283.26</v>
+        <v>287.24</v>
       </c>
       <c r="D52">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>265.06</v>
+        <v>298.935</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B53" s="6">
-        <v>-11.695</v>
+        <v>5.8310000000000004</v>
       </c>
       <c r="C53" s="2">
-        <v>287.24</v>
+        <v>215.83</v>
       </c>
       <c r="D53">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>298.935</v>
+        <v>209.99900000000002</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B54" s="6">
-        <v>5.8310000000000004</v>
+        <v>8.4276999999999997</v>
       </c>
       <c r="C54" s="2">
-        <v>215.83</v>
+        <v>282.39999999999998</v>
       </c>
       <c r="D54">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>209.99900000000002</v>
+        <v>273.97229999999996</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B55" s="6">
-        <v>8.4276999999999997</v>
+        <v>55.694000000000003</v>
       </c>
       <c r="C55" s="2">
-        <v>282.39999999999998</v>
+        <v>293.45999999999998</v>
       </c>
       <c r="D55">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>273.97229999999996</v>
+        <v>237.76599999999996</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B56" s="6">
-        <v>55.694000000000003</v>
+        <v>8.5954999999999995</v>
       </c>
       <c r="C56" s="2">
-        <v>293.45999999999998</v>
+        <v>341.02</v>
       </c>
       <c r="D56">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>237.76599999999996</v>
+        <v>332.42449999999997</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B57" s="6">
-        <v>8.5954999999999995</v>
+        <v>-8.9504000000000001</v>
       </c>
       <c r="C57" s="2">
-        <v>341.02</v>
+        <v>260.52</v>
       </c>
       <c r="D57">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>332.42449999999997</v>
+        <v>269.47039999999998</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B58" s="6">
-        <v>-8.9504000000000001</v>
+        <v>5.5094000000000003</v>
       </c>
       <c r="C58" s="2">
-        <v>260.52</v>
+        <v>349.56</v>
       </c>
       <c r="D58">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>269.47039999999998</v>
+        <v>344.05059999999997</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B59" s="6">
-        <v>5.5094000000000003</v>
+        <v>-24.779</v>
       </c>
       <c r="C59" s="2">
-        <v>349.56</v>
+        <v>210.46</v>
       </c>
       <c r="D59">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>344.05059999999997</v>
+        <v>235.239</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B60" s="6">
-        <v>-24.779</v>
+        <v>0.72641</v>
       </c>
       <c r="C60" s="2">
-        <v>210.46</v>
+        <v>233.88</v>
       </c>
       <c r="D60">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>235.239</v>
+        <v>233.15359000000001</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B61" s="6">
-        <v>0.72641</v>
+        <v>14.340999999999999</v>
       </c>
       <c r="C61" s="2">
-        <v>233.88</v>
+        <v>279.16000000000003</v>
       </c>
       <c r="D61">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>233.15359000000001</v>
+        <v>264.81900000000002</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B62" s="6">
-        <v>14.340999999999999</v>
+        <v>19.591999999999999</v>
       </c>
       <c r="C62" s="2">
-        <v>279.16000000000003</v>
+        <v>237.34</v>
       </c>
       <c r="D62">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>264.81900000000002</v>
+        <v>217.74799999999999</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B63" s="6">
-        <v>19.591999999999999</v>
+        <v>-24.585999999999999</v>
       </c>
       <c r="C63" s="2">
-        <v>237.34</v>
+        <v>210.64</v>
       </c>
       <c r="D63">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>217.74799999999999</v>
+        <v>235.226</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B64" s="6">
-        <v>-24.585999999999999</v>
+        <v>-12.287000000000001</v>
       </c>
       <c r="C64" s="2">
-        <v>210.64</v>
+        <v>250.69</v>
       </c>
       <c r="D64">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>235.226</v>
+        <v>262.97699999999998</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B65" s="6">
-        <v>-12.287000000000001</v>
+        <v>-7.22</v>
       </c>
       <c r="C65" s="2">
-        <v>250.69</v>
+        <v>265.94</v>
       </c>
       <c r="D65">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>262.97699999999998</v>
+        <v>273.16000000000003</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B66" s="6">
-        <v>-7.22</v>
+        <v>-26.268000000000001</v>
       </c>
       <c r="C66" s="2">
-        <v>265.94</v>
+        <v>233.3</v>
       </c>
       <c r="D66">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>273.16000000000003</v>
+        <v>259.56799999999998</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B67" s="6">
-        <v>-26.268000000000001</v>
+        <v>1.2215</v>
       </c>
       <c r="C67" s="2">
-        <v>233.3</v>
-      </c>
-      <c r="D67" s="19">
+        <v>227.56</v>
+      </c>
+      <c r="D67">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>259.56799999999998</v>
+        <v>226.33850000000001</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B68" s="6">
-        <v>1.2215</v>
+        <v>-6.9671000000000003</v>
       </c>
       <c r="C68" s="2">
-        <v>227.56</v>
-      </c>
-      <c r="D68" s="19">
+        <v>272.31</v>
+      </c>
+      <c r="D68">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>226.33850000000001</v>
+        <v>279.27710000000002</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B69" s="6">
-        <v>-6.9671000000000003</v>
+        <v>29.971</v>
       </c>
       <c r="C69" s="2">
-        <v>272.31</v>
-      </c>
-      <c r="D69" s="19">
+        <v>267.67</v>
+      </c>
+      <c r="D69">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>279.27710000000002</v>
+        <v>237.69900000000001</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B70" s="6">
-        <v>29.971</v>
+        <v>-6.7194000000000003</v>
       </c>
       <c r="C70" s="2">
-        <v>267.67</v>
-      </c>
-      <c r="D70" s="19">
-        <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
-        <v>237.69900000000001</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="6">
-        <v>-6.7194000000000003</v>
-      </c>
-      <c r="C71" s="2">
         <v>238.61</v>
       </c>
-      <c r="D71">
+      <c r="D70">
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>245.32940000000002</v>
       </c>
     </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>27</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>28</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D73" t="s">
-        <v>24</v>
+      <c r="A73">
+        <v>1</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="2"/>
+      <c r="D73">
+        <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="2"/>
@@ -2145,7 +2260,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="2"/>
@@ -2156,7 +2271,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="2"/>
@@ -2167,7 +2282,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="2"/>
@@ -2178,7 +2293,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="2"/>
@@ -2189,7 +2304,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="2"/>
@@ -2200,7 +2315,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="2"/>
@@ -2211,7 +2326,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="2"/>
@@ -2222,7 +2337,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="2"/>
@@ -2233,7 +2348,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="2"/>
@@ -2244,7 +2359,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="2"/>
@@ -2255,7 +2370,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="2"/>
@@ -2266,7 +2381,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="2"/>
@@ -2277,7 +2392,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="2"/>
@@ -2288,7 +2403,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="2"/>
@@ -2299,7 +2414,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="2"/>
@@ -2310,7 +2425,7 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="2"/>
@@ -2321,7 +2436,7 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="2"/>
@@ -2332,7 +2447,7 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="2"/>
@@ -2341,34 +2456,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>20</v>
-      </c>
-      <c r="B93" s="6"/>
-      <c r="C93" s="2"/>
-      <c r="D93">
-        <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>28</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>29</v>
-      </c>
-      <c r="B95" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D95" t="s">
-        <v>24</v>
+      <c r="A95">
+        <v>1</v>
+      </c>
+      <c r="B95" s="6"/>
+      <c r="C95" s="2"/>
+      <c r="D95">
+        <f>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</f>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="2"/>
@@ -2379,7 +2494,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="2"/>
@@ -2390,7 +2505,7 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="2"/>
@@ -2401,7 +2516,7 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="2"/>
@@ -2412,7 +2527,7 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="2"/>
@@ -2423,7 +2538,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="2"/>
@@ -2434,7 +2549,7 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B102" s="6"/>
       <c r="C102" s="2"/>
@@ -2445,7 +2560,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B103" s="6"/>
       <c r="C103" s="2"/>
@@ -2456,7 +2571,7 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B104" s="6"/>
       <c r="C104" s="2"/>
@@ -2467,7 +2582,7 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B105" s="6"/>
       <c r="C105" s="2"/>
@@ -2478,7 +2593,7 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B106" s="6"/>
       <c r="C106" s="2"/>
@@ -2489,7 +2604,7 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B107" s="6"/>
       <c r="C107" s="2"/>
@@ -2500,7 +2615,7 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B108" s="6"/>
       <c r="C108" s="2"/>
@@ -2511,7 +2626,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B109" s="6"/>
       <c r="C109" s="2"/>
@@ -2522,7 +2637,7 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B110" s="6"/>
       <c r="C110" s="2"/>
@@ -2533,7 +2648,7 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B111" s="6"/>
       <c r="C111" s="2"/>
@@ -2544,7 +2659,7 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B112" s="6"/>
       <c r="C112" s="2"/>
@@ -2555,7 +2670,7 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B113" s="6"/>
       <c r="C113" s="2"/>
@@ -2566,22 +2681,11 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>19</v>
-      </c>
-      <c r="B114" s="6"/>
-      <c r="C114" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="9"/>
       <c r="D114">
-        <f>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>20</v>
-      </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="9"/>
-      <c r="D115">
         <f>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</f>
         <v>0</v>
       </c>

--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{004F7881-D280-426C-9F2F-F7352D9069C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D596376E-F2E6-4F69-82D9-AC285FF5CC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
+    <workbookView xWindow="-16320" yWindow="-9420" windowWidth="16440" windowHeight="28440" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Stimulus" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="141">
   <si>
     <t>apple</t>
   </si>
@@ -316,13 +315,180 @@
   </si>
   <si>
     <t>Blender 2, base body 12</t>
+  </si>
+  <si>
+    <t>object-solid_07</t>
+  </si>
+  <si>
+    <t>object-solid_01</t>
+  </si>
+  <si>
+    <t>object-solid_02</t>
+  </si>
+  <si>
+    <t>object-solid_03</t>
+  </si>
+  <si>
+    <t>object-solid_04</t>
+  </si>
+  <si>
+    <t>object-solid_06</t>
+  </si>
+  <si>
+    <t>object-solid_08</t>
+  </si>
+  <si>
+    <t>object-solid_09</t>
+  </si>
+  <si>
+    <t>object-solid_11</t>
+  </si>
+  <si>
+    <t>object-solid_14</t>
+  </si>
+  <si>
+    <t>object-solid_16</t>
+  </si>
+  <si>
+    <t>object-solid_19</t>
+  </si>
+  <si>
+    <t>object-solid_17</t>
+  </si>
+  <si>
+    <t>object-solid_20</t>
+  </si>
+  <si>
+    <t>VX - object-solid_10</t>
+  </si>
+  <si>
+    <t>VX - object-solid_05</t>
+  </si>
+  <si>
+    <t>VX - object-solid_12</t>
+  </si>
+  <si>
+    <t>VX - object-solid_15</t>
+  </si>
+  <si>
+    <t>VX - object-solid_18</t>
+  </si>
+  <si>
+    <t>VX - object-solid_13</t>
+  </si>
+  <si>
+    <t>not used anymore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tiny &amp; flat, rotate and slant in depth? </t>
+  </si>
+  <si>
+    <t>ok, not enough depth</t>
+  </si>
+  <si>
+    <t>ok,  rotate</t>
+  </si>
+  <si>
+    <t>needs to be rotated</t>
+  </si>
+  <si>
+    <t>good, rotate  to add depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measure </t>
+  </si>
+  <si>
+    <t>good but also needs to be rotated a bit</t>
+  </si>
+  <si>
+    <t>good depth - add texture to pot</t>
+  </si>
+  <si>
+    <t>good depth, too small, scale up a bit</t>
+  </si>
+  <si>
+    <t>bit flat looking, tiny rotation?</t>
+  </si>
+  <si>
+    <t>good could be rotated to add a bit more depth</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>rotate to increase depth otherwise good</t>
+  </si>
+  <si>
+    <t>shallow depth, needs texture on surface - not sure why the depth map values are so high - please verify</t>
+  </si>
+  <si>
+    <t>looks like a broken finger - I'd omit</t>
+  </si>
+  <si>
+    <t>too flat  - rotate?</t>
+  </si>
+  <si>
+    <t>too compact, not enough variation - omit?</t>
+  </si>
+  <si>
+    <t>too flat  - omit</t>
+  </si>
+  <si>
+    <t>check this one - the depth differencce is high but it looks flat- rotate?</t>
+  </si>
+  <si>
+    <t>odd angle - either rotate or omit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim for  150 +- 2cm? - for objects &amp; body parts? Depending on feasiblity, could aim for 200 - that would bring them closer to the faces.  </t>
+  </si>
+  <si>
+    <t>Laurie feedback</t>
+  </si>
+  <si>
+    <t xml:space="preserve">too small - remove? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">there were two of these - I used the one </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>without</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> _v1</t>
+    </r>
+  </si>
+  <si>
+    <t>Cannot rescale the faces (orthostereopsis) but need to make sure 1. they are all positioned with the nasion at screen plane 2. drop extreme faces (&lt; 225 and &gt; 299 ?)</t>
+  </si>
+  <si>
+    <t>only version had _v1 - is this the correct one? Unsure why the disp diff is so large - is that correct? If so scale down or omit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*male 14 could be used instead of  other if needed. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +510,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -353,7 +545,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -478,11 +670,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -502,12 +709,35 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="23">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -690,6 +920,18 @@
       </font>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -760,13 +1002,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:D23" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A1:D23" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="22">
+  <autoFilter ref="A1:E23" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="21"/>
     <tableColumn id="2" xr3:uid="{154C99C7-865E-4E8A-A7F6-E66DA111723A}" name="min (mm)"/>
-    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1130,13 +1373,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305C46E9-DBCF-4732-A226-FBA3B04D35E8}">
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
@@ -1144,7 +1387,7 @@
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="A1" s="15" t="s">
         <v>25</v>
       </c>
@@ -1157,9 +1400,28 @@
       <c r="D1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E1" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="28"/>
+      <c r="N1" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="O1" s="29"/>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1172,9 +1434,30 @@
       <c r="D2" s="6">
         <v>96.424999999999997</v>
       </c>
-      <c r="E2" s="6"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="20">
+        <v>7.3550000000000004</v>
+      </c>
+      <c r="K2" s="21">
+        <v>46.506</v>
+      </c>
+      <c r="L2" s="22">
+        <v>39.151000000000003</v>
+      </c>
+      <c r="M2" s="22">
+        <v>16</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1187,9 +1470,30 @@
       <c r="D3" s="6">
         <v>44.561999999999998</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="20">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="K3" s="21">
+        <v>49.201999999999998</v>
+      </c>
+      <c r="L3" s="22">
+        <v>44.561999999999998</v>
+      </c>
+      <c r="M3" s="22">
+        <v>1</v>
+      </c>
+      <c r="N3" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
@@ -1202,9 +1506,30 @@
       <c r="D4" s="6">
         <v>104.587</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="20">
+        <v>7.7069999999999999</v>
+      </c>
+      <c r="K4" s="21">
+        <v>56.966999999999999</v>
+      </c>
+      <c r="L4" s="22">
+        <v>49.26</v>
+      </c>
+      <c r="M4" s="22">
+        <v>19</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -1217,9 +1542,30 @@
       <c r="D5" s="6">
         <v>61.048000000000002</v>
       </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="20">
+        <v>11.573</v>
+      </c>
+      <c r="K5" s="21">
+        <v>72.433000000000007</v>
+      </c>
+      <c r="L5" s="22">
+        <v>60.86</v>
+      </c>
+      <c r="M5" s="22">
+        <v>10</v>
+      </c>
+      <c r="N5" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
@@ -1232,9 +1578,30 @@
       <c r="D6" s="6">
         <v>109.76900000000001</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" s="20">
+        <v>23.443000000000001</v>
+      </c>
+      <c r="K6" s="20">
+        <v>84.491</v>
+      </c>
+      <c r="L6" s="20">
+        <v>61.048000000000002</v>
+      </c>
+      <c r="M6" s="20">
+        <v>3</v>
+      </c>
+      <c r="N6" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
@@ -1247,9 +1614,33 @@
       <c r="D7" s="6">
         <v>57.819000000000003</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>113</v>
+      </c>
+      <c r="I7" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="J7" s="20">
+        <v>13.423999999999999</v>
+      </c>
+      <c r="K7" s="21">
+        <v>101.03</v>
+      </c>
+      <c r="L7" s="22">
+        <v>87.605999999999995</v>
+      </c>
+      <c r="M7" s="22">
+        <v>12</v>
+      </c>
+      <c r="N7" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
@@ -1262,9 +1653,30 @@
       <c r="D8" s="6">
         <v>100.39400000000001</v>
       </c>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="20">
+        <v>-0.75900000000000001</v>
+      </c>
+      <c r="K8" s="21">
+        <v>90.295000000000002</v>
+      </c>
+      <c r="L8" s="22">
+        <v>91.054000000000002</v>
+      </c>
+      <c r="M8" s="22">
+        <v>14</v>
+      </c>
+      <c r="N8" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
@@ -1277,9 +1689,30 @@
       <c r="D9" s="6">
         <v>115.7158</v>
       </c>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="K9" s="21">
+        <v>96.849000000000004</v>
+      </c>
+      <c r="L9" s="22">
+        <v>96.424999999999997</v>
+      </c>
+      <c r="M9" s="22">
+        <v>7</v>
+      </c>
+      <c r="N9" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
@@ -1292,9 +1725,30 @@
       <c r="D10" s="6">
         <v>109.5731</v>
       </c>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="K10" s="21">
+        <v>101.26</v>
+      </c>
+      <c r="L10" s="22">
+        <v>100.39400000000001</v>
+      </c>
+      <c r="M10" s="22">
+        <v>6</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
@@ -1307,9 +1761,33 @@
       <c r="D11" s="6">
         <v>60.86</v>
       </c>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="20">
+        <v>9.0129999999999999</v>
+      </c>
+      <c r="K11" s="21">
+        <v>113.6</v>
+      </c>
+      <c r="L11" s="22">
+        <v>104.587</v>
+      </c>
+      <c r="M11" s="22">
+        <v>2</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
@@ -1322,9 +1800,30 @@
       <c r="D12" s="6">
         <v>65.296999999999997</v>
       </c>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="20">
+        <v>1.0669</v>
+      </c>
+      <c r="K12" s="21">
+        <v>110.64</v>
+      </c>
+      <c r="L12" s="22">
+        <v>109.5731</v>
+      </c>
+      <c r="M12" s="22">
+        <v>9</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="O12" s="36"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
@@ -1337,9 +1836,33 @@
       <c r="D13" s="6">
         <v>24.213999999999999</v>
       </c>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="20">
+        <v>13.301</v>
+      </c>
+      <c r="K13" s="21">
+        <v>123.07</v>
+      </c>
+      <c r="L13" s="22">
+        <v>109.76900000000001</v>
+      </c>
+      <c r="M13" s="22">
+        <v>4</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="O13" s="36"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
@@ -1352,9 +1875,30 @@
       <c r="D14" s="6">
         <v>91.054000000000002</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="20">
+        <v>6.4649999999999999</v>
+      </c>
+      <c r="K14" s="21">
+        <v>117.19</v>
+      </c>
+      <c r="L14" s="22">
+        <v>110.72499999999999</v>
+      </c>
+      <c r="M14" s="22">
+        <v>20</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" s="36"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
@@ -1367,9 +1911,30 @@
       <c r="D15" s="6">
         <v>39.151000000000003</v>
       </c>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="J15" s="20">
+        <v>2.4942000000000002</v>
+      </c>
+      <c r="K15" s="21">
+        <v>118.21</v>
+      </c>
+      <c r="L15" s="22">
+        <v>115.7158</v>
+      </c>
+      <c r="M15" s="22">
+        <v>8</v>
+      </c>
+      <c r="N15" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="O15" s="36"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
@@ -1382,9 +1947,33 @@
       <c r="D16" s="6">
         <v>54.86</v>
       </c>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E16" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="24">
+        <v>7.79</v>
+      </c>
+      <c r="K16" s="25">
+        <v>131.26</v>
+      </c>
+      <c r="L16" s="23">
+        <v>123.47</v>
+      </c>
+      <c r="M16" s="22">
+        <v>17</v>
+      </c>
+      <c r="N16" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="O16" s="36"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="17" t="s">
         <v>13</v>
       </c>
@@ -1399,7 +1988,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12">
       <c r="A18" s="17" t="s">
         <v>14</v>
       </c>
@@ -1412,9 +2001,14 @@
       <c r="D18" s="6">
         <v>87.605999999999995</v>
       </c>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E18" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
@@ -1427,9 +2021,11 @@
       <c r="D19" s="6">
         <v>123.47</v>
       </c>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E19" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
@@ -1442,9 +2038,14 @@
       <c r="D20" s="6">
         <v>83.828999999999994</v>
       </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="17" t="s">
         <v>17</v>
       </c>
@@ -1457,9 +2058,11 @@
       <c r="D21" s="6">
         <v>49.26</v>
       </c>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="17" t="s">
         <v>18</v>
       </c>
@@ -1472,9 +2075,11 @@
       <c r="D22" s="6">
         <v>110.72499999999999</v>
       </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="18" t="s">
         <v>19</v>
       </c>
@@ -1488,8 +2093,11 @@
         <v>104.876</v>
       </c>
       <c r="E23" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="14" t="s">
         <v>91</v>
       </c>
@@ -1505,8 +2113,11 @@
       <c r="E25" s="14" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I25" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1523,8 +2134,14 @@
       <c r="E26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I26" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="J26" s="37"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1541,8 +2158,12 @@
       <c r="E27" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I27" s="39"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1559,8 +2180,12 @@
       <c r="E28" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I28" s="39"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1577,8 +2202,14 @@
       <c r="E29" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I29" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37"/>
+      <c r="L29" s="37"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1595,8 +2226,12 @@
       <c r="E30" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I30" s="39"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1613,8 +2248,14 @@
       <c r="E31" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I31" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="37"/>
+      <c r="K31" s="37"/>
+      <c r="L31" s="37"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1631,8 +2272,12 @@
       <c r="E32" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I32" s="39"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -1642,15 +2287,21 @@
       <c r="C33" s="2">
         <v>121.87</v>
       </c>
-      <c r="D33" s="19">
+      <c r="D33">
         <f>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</f>
         <v>119.50190000000001</v>
       </c>
       <c r="E33" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I33" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -1667,8 +2318,12 @@
       <c r="E34" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I34" s="39"/>
+      <c r="J34" s="37"/>
+      <c r="K34" s="37"/>
+      <c r="L34" s="37"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -1685,8 +2340,12 @@
       <c r="E35" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I35" s="39"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -1703,8 +2362,12 @@
       <c r="E36" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I36" s="39"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="37"/>
+      <c r="L36" s="37"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -1721,8 +2384,14 @@
       <c r="E37" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I37" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="J37" s="37"/>
+      <c r="K37" s="37"/>
+      <c r="L37" s="37"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1739,8 +2408,12 @@
       <c r="E38" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I38" s="39"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1757,8 +2430,12 @@
       <c r="E39" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I39" s="39"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="37"/>
+      <c r="L39" s="37"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -1775,8 +2452,14 @@
       <c r="E40" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I40" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -1793,8 +2476,12 @@
       <c r="E41" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I41" s="39"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="37"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -1811,8 +2498,12 @@
       <c r="E42" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I42" s="39"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="37"/>
+      <c r="L42" s="37"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -1829,8 +2520,12 @@
       <c r="E43" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I43" s="39"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -1847,8 +2542,14 @@
       <c r="E44" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I44" s="39"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -1861,8 +2562,11 @@
       <c r="D46" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I46" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -1876,8 +2580,11 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>278.41800000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I47" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -1891,8 +2598,11 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>268.15107</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I48" s="39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1906,8 +2616,11 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>224.84959999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I49" s="39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -1921,8 +2634,11 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>264.93900000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I50" s="39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -1936,8 +2652,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>265.06</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I51" s="39"/>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -1951,8 +2668,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>298.935</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I52" s="39"/>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -1966,8 +2684,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>209.99900000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I53" s="39"/>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -1981,8 +2700,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>273.97229999999996</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I54" s="39"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -1996,8 +2716,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>237.76599999999996</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I55" s="39"/>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2011,8 +2732,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>332.42449999999997</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I56" s="39"/>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2026,8 +2748,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>269.47039999999998</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I57" s="39"/>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2041,8 +2764,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>344.05059999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I58" s="39"/>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2056,8 +2780,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>235.239</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I59" s="39"/>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2071,8 +2796,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>233.15359000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I60" s="39"/>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2086,8 +2812,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>264.81900000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I61" s="39"/>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2101,8 +2828,12 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>217.74799999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I62" s="39"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2116,8 +2847,12 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>235.226</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I63" s="39"/>
+      <c r="J63" s="40"/>
+      <c r="K63" s="40"/>
+      <c r="L63" s="40"/>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2131,8 +2866,12 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>262.97699999999998</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I64" s="39"/>
+      <c r="J64" s="40"/>
+      <c r="K64" s="40"/>
+      <c r="L64" s="40"/>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2146,8 +2885,14 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>273.16000000000003</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I65" s="39"/>
+      <c r="J65" s="40"/>
+      <c r="K65" s="40"/>
+      <c r="L65" s="41" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2161,8 +2906,12 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>259.56799999999998</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I66" s="39"/>
+      <c r="J66" s="40"/>
+      <c r="K66" s="40"/>
+      <c r="L66" s="40"/>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2176,8 +2925,12 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>226.33850000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I67" s="39"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="40"/>
+      <c r="L67" s="40"/>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2191,8 +2944,12 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>279.27710000000002</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I68" s="39"/>
+      <c r="J68" s="40"/>
+      <c r="K68" s="40"/>
+      <c r="L68" s="40"/>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2206,8 +2963,12 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>237.69900000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I69" s="39"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2221,8 +2982,19 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>245.32940000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I70" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="J70" s="40"/>
+      <c r="K70" s="40"/>
+      <c r="L70" s="40"/>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="J71" s="42" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -2236,227 +3008,307 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>1</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="2"/>
+      <c r="B73" s="6">
+        <v>7.6024000000000003</v>
+      </c>
+      <c r="C73" s="2">
+        <v>557.6</v>
+      </c>
       <c r="D73">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>549.99760000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>2</v>
       </c>
-      <c r="B74" s="6"/>
-      <c r="C74" s="2"/>
+      <c r="B74" s="6">
+        <v>6.5853000000000002</v>
+      </c>
+      <c r="C74" s="2">
+        <v>559.91</v>
+      </c>
       <c r="D74">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>553.32470000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>3</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="2"/>
+      <c r="B75" s="6">
+        <v>6.585</v>
+      </c>
+      <c r="C75" s="2">
+        <v>559.91</v>
+      </c>
       <c r="D75">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+        <v>553.32499999999993</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>4</v>
       </c>
-      <c r="B76" s="6"/>
-      <c r="C76" s="2"/>
+      <c r="B76" s="6">
+        <v>6.585</v>
+      </c>
+      <c r="C76" s="2">
+        <v>576.64</v>
+      </c>
       <c r="D76">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>570.05499999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>5</v>
       </c>
-      <c r="B77" s="6"/>
-      <c r="C77" s="2"/>
+      <c r="B77" s="6">
+        <v>6.585</v>
+      </c>
+      <c r="C77" s="2">
+        <v>576.64</v>
+      </c>
       <c r="D77">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>570.05499999999995</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>6</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="2"/>
+      <c r="B78" s="6">
+        <v>-1149</v>
+      </c>
+      <c r="C78" s="2">
+        <v>-9.6547000000000001</v>
+      </c>
       <c r="D78">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1139.3453</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>7</v>
       </c>
-      <c r="B79" s="6"/>
-      <c r="C79" s="2"/>
+      <c r="B79" s="6">
+        <v>33.917999999999999</v>
+      </c>
+      <c r="C79" s="2">
+        <v>311.38</v>
+      </c>
       <c r="D79">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+        <v>277.46199999999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>8</v>
       </c>
-      <c r="B80" s="6"/>
-      <c r="C80" s="2"/>
+      <c r="B80" s="6">
+        <v>-14.363</v>
+      </c>
+      <c r="C80" s="2">
+        <v>310.5</v>
+      </c>
       <c r="D80">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+        <v>324.863</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>9</v>
       </c>
-      <c r="B81" s="6"/>
-      <c r="C81" s="2"/>
+      <c r="B81" s="6">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="C81" s="2">
+        <v>429.14</v>
+      </c>
       <c r="D81">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+        <v>411.06</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>10</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="2"/>
+      <c r="B82" s="6">
+        <v>-11.029</v>
+      </c>
+      <c r="C82" s="2">
+        <v>605.14</v>
+      </c>
       <c r="D82">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+        <v>616.16899999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>11</v>
       </c>
-      <c r="B83" s="6"/>
-      <c r="C83" s="2"/>
+      <c r="B83" s="6">
+        <v>924544</v>
+      </c>
+      <c r="C83" s="2">
+        <v>934324</v>
+      </c>
       <c r="D83">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9780</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
         <v>12</v>
       </c>
-      <c r="B84" s="6"/>
-      <c r="C84" s="2"/>
+      <c r="B84" s="6">
+        <v>923177</v>
+      </c>
+      <c r="C84" s="2">
+        <v>934554</v>
+      </c>
       <c r="D84">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
         <v>13</v>
       </c>
-      <c r="B85" s="6"/>
-      <c r="C85" s="2"/>
+      <c r="B85" s="6">
+        <v>597.16</v>
+      </c>
+      <c r="C85" s="2">
+        <v>317.81</v>
+      </c>
       <c r="D85">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-279.34999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86">
         <v>14</v>
       </c>
-      <c r="B86" s="6"/>
-      <c r="C86" s="2"/>
+      <c r="B86" s="6">
+        <v>598.79999999999995</v>
+      </c>
+      <c r="C86" s="2">
+        <v>328.98</v>
+      </c>
       <c r="D86">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-269.81999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87">
         <v>15</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="2"/>
+      <c r="B87" s="6">
+        <v>147.85</v>
+      </c>
+      <c r="C87" s="2">
+        <v>502</v>
+      </c>
       <c r="D87">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+        <v>354.15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88">
         <v>16</v>
       </c>
-      <c r="B88" s="6"/>
-      <c r="C88" s="2"/>
+      <c r="B88" s="6">
+        <v>348.07</v>
+      </c>
+      <c r="C88" s="2">
+        <v>821.09</v>
+      </c>
       <c r="D88">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+        <v>473.02000000000004</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89">
         <v>17</v>
       </c>
-      <c r="B89" s="6"/>
-      <c r="C89" s="2"/>
+      <c r="B89" s="6">
+        <v>17.748000000000001</v>
+      </c>
+      <c r="C89" s="2">
+        <v>684.41</v>
+      </c>
       <c r="D89">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+        <v>666.66199999999992</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>18</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="2"/>
+      <c r="B90" s="6">
+        <v>-155.75</v>
+      </c>
+      <c r="C90" s="2">
+        <v>248.88</v>
+      </c>
       <c r="D90">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+        <v>404.63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>19</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="2"/>
+      <c r="B91" s="6">
+        <v>449.47</v>
+      </c>
+      <c r="C91" s="2">
+        <v>370.54</v>
+      </c>
       <c r="D91">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-78.930000000000007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>20</v>
       </c>
-      <c r="B92" s="6"/>
-      <c r="C92" s="2"/>
+      <c r="B92" s="6">
+        <v>-34.231000000000002</v>
+      </c>
+      <c r="C92" s="2">
+        <v>482.67</v>
+      </c>
       <c r="D92">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+        <v>516.90100000000007</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -2470,7 +3322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>1</v>
       </c>
@@ -2481,7 +3333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>2</v>
       </c>
@@ -2492,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>3</v>
       </c>
@@ -2503,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2514,7 +3366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>5</v>
       </c>
@@ -2525,7 +3377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>6</v>
       </c>
@@ -2536,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>7</v>
       </c>
@@ -2547,7 +3399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>8</v>
       </c>
@@ -2558,7 +3410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>9</v>
       </c>
@@ -2569,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>10</v>
       </c>
@@ -2580,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>11</v>
       </c>
@@ -2591,7 +3443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>12</v>
       </c>
@@ -2602,7 +3454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>13</v>
       </c>
@@ -2613,7 +3465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>14</v>
       </c>
@@ -2624,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>15</v>
       </c>
@@ -2635,7 +3487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>16</v>
       </c>
@@ -2646,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>17</v>
       </c>
@@ -2657,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>18</v>
       </c>
@@ -2668,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>19</v>
       </c>
@@ -2679,7 +3531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>20</v>
       </c>

--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D596376E-F2E6-4F69-82D9-AC285FF5CC1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805814FA-64EB-448D-8825-FAB79D38B019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-9420" windowWidth="16440" windowHeight="28440" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
   <si>
     <t>apple</t>
   </si>
@@ -483,12 +483,24 @@
   <si>
     <t xml:space="preserve">*male 14 could be used instead of  other if needed. </t>
   </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>difference (mm)</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>same as before</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +547,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -689,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -710,34 +732,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1002,27 +1055,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="25">
   <autoFilter ref="A1:E23" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="24"/>
     <tableColumn id="2" xr3:uid="{154C99C7-865E-4E8A-A7F6-E66DA111723A}" name="min (mm)"/>
-    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="A25:E44" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{618FF384-60A0-48F4-BD3B-20158698512B}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="15">
       <calculatedColumnFormula>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B4C77F97-9F8F-4A06-A76F-20F90D6B2055}" name="Name for Laurie"/>
@@ -1032,13 +1085,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="14">
   <autoFilter ref="A46:D70" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A15C451F-5A5A-4ABC-B01B-2C4F05011809}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="11">
       <calculatedColumnFormula>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1047,13 +1100,13 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="10">
   <autoFilter ref="A72:D92" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4ABA85F0-A778-40FD-BD59-C5D4666608AA}" name="Scene"/>
-    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="7">
       <calculatedColumnFormula>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1062,17 +1115,47 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="6">
   <autoFilter ref="A94:D114" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7067C8DA-7BB5-4270-8F77-26A275840009}" name="ObjectScrambled"/>
-    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="3">
       <calculatedColumnFormula>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+  <autoFilter ref="I1:N16" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A15B9D7D-90D4-4490-AD0F-6639C18D4AFE}" name="Object"/>
+    <tableColumn id="2" xr3:uid="{D7ED0EDC-C8C8-4BCE-AC26-E4BEE117B386}" name="min (mm)"/>
+    <tableColumn id="3" xr3:uid="{0D19BBCC-4180-4BBA-9303-E2AABBB69849}" name="max (mm)"/>
+    <tableColumn id="4" xr3:uid="{17A732FC-1E11-443A-B767-9B680CB793EF}" name="difference"/>
+    <tableColumn id="5" xr3:uid="{6818341E-367B-4A2C-B8B3-7EA9CAC9C1A7}" name="Column1"/>
+    <tableColumn id="6" xr3:uid="{BB9331E3-A228-431D-BF0B-1EE6062F47B1}" name="Laurie feedback"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{560324DD-C929-4520-93A8-0CEF3C451552}" name="Table2" displayName="Table2" ref="P1:S16" totalsRowShown="0">
+  <autoFilter ref="P1:S16" xr:uid="{560324DD-C929-4520-93A8-0CEF3C451552}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D1B66D51-F150-4275-ADA7-1487D665F468}" name="Object"/>
+    <tableColumn id="2" xr3:uid="{77CCAB04-4758-41A5-8AA1-A41933810BC4}" name="min (mm)"/>
+    <tableColumn id="3" xr3:uid="{D31DFAFD-0C00-4EB4-B987-763AC0BA76DD}" name="max (mm)"/>
+    <tableColumn id="4" xr3:uid="{3DBD5E6E-A947-4254-8DBA-18B7199D71E9}" name="difference (mm)" dataDxfId="0">
+      <calculatedColumnFormula>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1373,21 +1456,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305C46E9-DBCF-4732-A226-FBA3B04D35E8}">
-  <dimension ref="A1:O114"/>
+  <dimension ref="A1:S114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="95" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" customWidth="1"/>
+    <col min="18" max="18" width="12" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>25</v>
       </c>
@@ -1403,25 +1496,39 @@
       <c r="E1" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29" t="s">
+      <c r="M1" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="29"/>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="O1" s="13"/>
+      <c r="P1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1437,27 +1544,39 @@
       <c r="E2" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="I2" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="20">
-        <v>7.3550000000000004</v>
-      </c>
-      <c r="K2" s="21">
-        <v>46.506</v>
-      </c>
-      <c r="L2" s="22">
-        <v>39.151000000000003</v>
-      </c>
-      <c r="M2" s="22">
-        <v>16</v>
-      </c>
-      <c r="N2" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="O2" s="20"/>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="K2">
+        <v>96.849000000000004</v>
+      </c>
+      <c r="L2">
+        <v>96.424999999999997</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.9710000000000001</v>
+      </c>
+      <c r="R2">
+        <v>146.61000000000001</v>
+      </c>
+      <c r="S2">
+        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>144.63900000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1473,27 +1592,39 @@
       <c r="E3" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="20">
+      <c r="J3">
         <v>4.6399999999999997</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3">
         <v>49.201999999999998</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L3">
         <v>44.561999999999998</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M3">
         <v>1</v>
       </c>
-      <c r="N3" s="20" t="s">
+      <c r="N3" t="s">
         <v>115</v>
       </c>
-      <c r="O3" s="20"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>-0.90100000000000002</v>
+      </c>
+      <c r="R3">
+        <v>194.2</v>
+      </c>
+      <c r="S3">
+        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>195.101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
@@ -1509,27 +1640,39 @@
       <c r="E4" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="20">
-        <v>7.7069999999999999</v>
-      </c>
-      <c r="K4" s="21">
-        <v>56.966999999999999</v>
-      </c>
-      <c r="L4" s="22">
-        <v>49.26</v>
-      </c>
-      <c r="M4" s="22">
-        <v>19</v>
-      </c>
-      <c r="N4" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="O4" s="20"/>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="I4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>9.0129999999999999</v>
+      </c>
+      <c r="K4">
+        <v>113.6</v>
+      </c>
+      <c r="L4">
+        <v>104.587</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>124</v>
+      </c>
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="R4">
+        <v>175.62</v>
+      </c>
+      <c r="S4">
+        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>175.81800000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -1545,27 +1688,39 @@
       <c r="E5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="I5" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="J5" s="20">
-        <v>11.573</v>
-      </c>
-      <c r="K5" s="21">
-        <v>72.433000000000007</v>
-      </c>
-      <c r="L5" s="22">
-        <v>60.86</v>
-      </c>
-      <c r="M5" s="22">
-        <v>10</v>
-      </c>
-      <c r="N5" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="O5" s="20"/>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="I5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>23.443000000000001</v>
+      </c>
+      <c r="K5">
+        <v>84.491</v>
+      </c>
+      <c r="L5">
+        <v>61.048000000000002</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>118</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>1.345</v>
+      </c>
+      <c r="R5">
+        <v>183.1</v>
+      </c>
+      <c r="S5">
+        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>181.755</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
@@ -1581,27 +1736,39 @@
       <c r="E6" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="J6" s="20">
-        <v>23.443000000000001</v>
-      </c>
-      <c r="K6" s="20">
-        <v>84.491</v>
-      </c>
-      <c r="L6" s="20">
-        <v>61.048000000000002</v>
-      </c>
-      <c r="M6" s="20">
-        <v>3</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="O6" s="20"/>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>13.301</v>
+      </c>
+      <c r="K6">
+        <v>123.07</v>
+      </c>
+      <c r="L6">
+        <v>109.76900000000001</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>126</v>
+      </c>
+      <c r="P6" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q6">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="R6">
+        <v>245.48</v>
+      </c>
+      <c r="S6">
+        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>244.828</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
@@ -1620,27 +1787,39 @@
       <c r="F7" t="s">
         <v>113</v>
       </c>
-      <c r="I7" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="J7" s="20">
-        <v>13.423999999999999</v>
-      </c>
-      <c r="K7" s="21">
-        <v>101.03</v>
-      </c>
-      <c r="L7" s="22">
-        <v>87.605999999999995</v>
-      </c>
-      <c r="M7" s="22">
-        <v>12</v>
-      </c>
-      <c r="N7" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="O7" s="20"/>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="I7" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>0.86599999999999999</v>
+      </c>
+      <c r="K7">
+        <v>101.26</v>
+      </c>
+      <c r="L7">
+        <v>100.39400000000001</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P7" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="R7">
+        <v>220.13</v>
+      </c>
+      <c r="S7">
+        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>216.80500000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
@@ -1656,27 +1835,32 @@
       <c r="E8" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="20">
-        <v>-0.75900000000000001</v>
-      </c>
-      <c r="K8" s="21">
-        <v>90.295000000000002</v>
-      </c>
-      <c r="L8" s="22">
-        <v>91.054000000000002</v>
-      </c>
-      <c r="M8" s="22">
-        <v>14</v>
-      </c>
-      <c r="N8" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="O8" s="20"/>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="I8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>2.4942000000000002</v>
+      </c>
+      <c r="K8">
+        <v>118.21</v>
+      </c>
+      <c r="L8">
+        <v>115.7158</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
@@ -1692,27 +1876,39 @@
       <c r="E9" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0.42399999999999999</v>
-      </c>
-      <c r="K9" s="21">
-        <v>96.849000000000004</v>
-      </c>
-      <c r="L9" s="22">
-        <v>96.424999999999997</v>
-      </c>
-      <c r="M9" s="22">
+      <c r="I9" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="O9" s="20"/>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="J9">
+        <v>11.573</v>
+      </c>
+      <c r="K9">
+        <v>72.433000000000007</v>
+      </c>
+      <c r="L9">
+        <v>60.86</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>117</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>5.8259999999999996</v>
+      </c>
+      <c r="R9">
+        <v>204.89</v>
+      </c>
+      <c r="S9">
+        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>199.06399999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
@@ -1728,27 +1924,39 @@
       <c r="E10" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I10" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="J10" s="20">
-        <v>0.86599999999999999</v>
-      </c>
-      <c r="K10" s="21">
-        <v>101.26</v>
-      </c>
-      <c r="L10" s="22">
-        <v>100.39400000000001</v>
-      </c>
-      <c r="M10" s="22">
-        <v>6</v>
-      </c>
-      <c r="N10" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="I10" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10">
+        <v>13.423999999999999</v>
+      </c>
+      <c r="K10">
+        <v>101.03</v>
+      </c>
+      <c r="L10">
+        <v>87.605999999999995</v>
+      </c>
+      <c r="M10">
+        <v>12</v>
+      </c>
+      <c r="N10" t="s">
+        <v>120</v>
+      </c>
+      <c r="P10" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10">
+        <v>0.78700000000000003</v>
+      </c>
+      <c r="R10">
+        <v>167.39</v>
+      </c>
+      <c r="S10">
+        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>166.60299999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
@@ -1767,27 +1975,39 @@
       <c r="F11" t="s">
         <v>113</v>
       </c>
-      <c r="I11" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="20">
-        <v>9.0129999999999999</v>
-      </c>
-      <c r="K11" s="21">
-        <v>113.6</v>
-      </c>
-      <c r="L11" s="22">
-        <v>104.587</v>
-      </c>
-      <c r="M11" s="22">
-        <v>2</v>
-      </c>
-      <c r="N11" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <v>-0.75900000000000001</v>
+      </c>
+      <c r="K11">
+        <v>90.295000000000002</v>
+      </c>
+      <c r="L11">
+        <v>91.054000000000002</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11">
+        <v>-1.6990000000000001</v>
+      </c>
+      <c r="R11">
+        <v>184.25</v>
+      </c>
+      <c r="S11">
+        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>185.94900000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
@@ -1803,27 +2023,40 @@
       <c r="E12" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="20">
-        <v>1.0669</v>
-      </c>
-      <c r="K12" s="21">
-        <v>110.64</v>
-      </c>
-      <c r="L12" s="22">
-        <v>109.5731</v>
-      </c>
-      <c r="M12" s="22">
-        <v>9</v>
-      </c>
-      <c r="N12" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="O12" s="36"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="I12" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12">
+        <v>7.3550000000000004</v>
+      </c>
+      <c r="K12">
+        <v>46.506</v>
+      </c>
+      <c r="L12">
+        <v>39.151000000000003</v>
+      </c>
+      <c r="M12">
+        <v>16</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="R12">
+        <v>216.27</v>
+      </c>
+      <c r="S12">
+        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>215.25700000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
@@ -1842,27 +2075,33 @@
       <c r="F13" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="J13" s="20">
-        <v>13.301</v>
-      </c>
-      <c r="K13" s="21">
-        <v>123.07</v>
-      </c>
-      <c r="L13" s="22">
-        <v>109.76900000000001</v>
-      </c>
-      <c r="M13" s="22">
-        <v>4</v>
-      </c>
-      <c r="N13" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="O13" s="36"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13">
+        <v>1.0669</v>
+      </c>
+      <c r="K13">
+        <v>110.64</v>
+      </c>
+      <c r="L13">
+        <v>109.5731</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="N13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O13" s="20"/>
+      <c r="P13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
@@ -1878,27 +2117,33 @@
       <c r="E14" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="I14" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="20">
-        <v>6.4649999999999999</v>
-      </c>
-      <c r="K14" s="21">
-        <v>117.19</v>
-      </c>
-      <c r="L14" s="22">
-        <v>110.72499999999999</v>
-      </c>
-      <c r="M14" s="22">
-        <v>20</v>
-      </c>
-      <c r="N14" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="O14" s="36"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>7.79</v>
+      </c>
+      <c r="K14">
+        <v>131.26</v>
+      </c>
+      <c r="L14">
+        <v>123.47</v>
+      </c>
+      <c r="M14">
+        <v>17</v>
+      </c>
+      <c r="N14" t="s">
+        <v>125</v>
+      </c>
+      <c r="O14" s="20"/>
+      <c r="P14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
@@ -1914,27 +2159,40 @@
       <c r="E15" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I15" s="32" t="s">
-        <v>6</v>
-      </c>
-      <c r="J15" s="20">
-        <v>2.4942000000000002</v>
-      </c>
-      <c r="K15" s="21">
-        <v>118.21</v>
-      </c>
-      <c r="L15" s="22">
-        <v>115.7158</v>
-      </c>
-      <c r="M15" s="22">
-        <v>8</v>
-      </c>
-      <c r="N15" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="O15" s="36"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <v>7.7069999999999999</v>
+      </c>
+      <c r="K15">
+        <v>56.966999999999999</v>
+      </c>
+      <c r="L15">
+        <v>49.26</v>
+      </c>
+      <c r="M15">
+        <v>19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>116</v>
+      </c>
+      <c r="O15" s="20"/>
+      <c r="P15" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q15">
+        <v>2.6749999999999998</v>
+      </c>
+      <c r="R15">
+        <v>185.83</v>
+      </c>
+      <c r="S15">
+        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>183.155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
@@ -1953,27 +2211,40 @@
       <c r="F16" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="24">
-        <v>7.79</v>
-      </c>
-      <c r="K16" s="25">
-        <v>131.26</v>
-      </c>
-      <c r="L16" s="23">
-        <v>123.47</v>
-      </c>
-      <c r="M16" s="22">
-        <v>17</v>
-      </c>
-      <c r="N16" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="O16" s="36"/>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16">
+        <v>6.4649999999999999</v>
+      </c>
+      <c r="K16">
+        <v>117.19</v>
+      </c>
+      <c r="L16">
+        <v>110.72499999999999</v>
+      </c>
+      <c r="M16">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>127</v>
+      </c>
+      <c r="O16" s="20"/>
+      <c r="P16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16">
+        <v>-1.216</v>
+      </c>
+      <c r="R16">
+        <v>164.87</v>
+      </c>
+      <c r="S16">
+        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>166.08600000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>13</v>
       </c>
@@ -1988,7 +2259,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>14</v>
       </c>
@@ -2008,7 +2279,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
@@ -2025,7 +2296,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
@@ -2045,7 +2316,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>17</v>
       </c>
@@ -2062,7 +2333,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>18</v>
       </c>
@@ -2079,7 +2350,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>19</v>
       </c>
@@ -2097,7 +2368,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>91</v>
       </c>
@@ -2117,7 +2388,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2134,14 +2405,11 @@
       <c r="E26" t="s">
         <v>72</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2158,12 +2426,9 @@
       <c r="E27" t="s">
         <v>73</v>
       </c>
-      <c r="I27" s="39"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="I27" s="22"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2180,12 +2445,9 @@
       <c r="E28" t="s">
         <v>74</v>
       </c>
-      <c r="I28" s="39"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="37"/>
-      <c r="L28" s="37"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="I28" s="22"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2202,14 +2464,11 @@
       <c r="E29" t="s">
         <v>75</v>
       </c>
-      <c r="I29" s="39" t="s">
+      <c r="I29" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="37"/>
-      <c r="L29" s="37"/>
-    </row>
-    <row r="30" spans="1:12">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2226,12 +2485,9 @@
       <c r="E30" t="s">
         <v>76</v>
       </c>
-      <c r="I30" s="39"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="I30" s="22"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2248,14 +2504,11 @@
       <c r="E31" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="22" t="s">
         <v>130</v>
       </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-    </row>
-    <row r="32" spans="1:12">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2272,12 +2525,9 @@
       <c r="E32" t="s">
         <v>79</v>
       </c>
-      <c r="I32" s="39"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37"/>
-      <c r="L32" s="37"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="I32" s="22"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2294,14 +2544,11 @@
       <c r="E33" t="s">
         <v>77</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="37"/>
-      <c r="L33" s="37"/>
-    </row>
-    <row r="34" spans="1:12">
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2318,12 +2565,9 @@
       <c r="E34" t="s">
         <v>83</v>
       </c>
-      <c r="I34" s="39"/>
-      <c r="J34" s="37"/>
-      <c r="K34" s="37"/>
-      <c r="L34" s="37"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="I34" s="22"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2340,12 +2584,9 @@
       <c r="E35" t="s">
         <v>82</v>
       </c>
-      <c r="I35" s="39"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2362,12 +2603,9 @@
       <c r="E36" t="s">
         <v>87</v>
       </c>
-      <c r="I36" s="39"/>
-      <c r="J36" s="37"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="37"/>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="I36" s="22"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2384,14 +2622,11 @@
       <c r="E37" t="s">
         <v>81</v>
       </c>
-      <c r="I37" s="39" t="s">
+      <c r="I37" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="J37" s="37"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="37"/>
-    </row>
-    <row r="38" spans="1:12">
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2408,12 +2643,9 @@
       <c r="E38" t="s">
         <v>86</v>
       </c>
-      <c r="I38" s="39"/>
-      <c r="J38" s="37"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="37"/>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="I38" s="22"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2430,12 +2662,9 @@
       <c r="E39" t="s">
         <v>85</v>
       </c>
-      <c r="I39" s="39"/>
-      <c r="J39" s="37"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="37"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="I39" s="22"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2452,14 +2681,11 @@
       <c r="E40" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="I40" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="J40" s="37"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="37"/>
-    </row>
-    <row r="41" spans="1:12">
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2476,12 +2702,9 @@
       <c r="E41" t="s">
         <v>90</v>
       </c>
-      <c r="I41" s="39"/>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="37"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="I41" s="22"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2498,12 +2721,9 @@
       <c r="E42" t="s">
         <v>89</v>
       </c>
-      <c r="I42" s="39"/>
-      <c r="J42" s="37"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="37"/>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="I42" s="22"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2520,12 +2740,9 @@
       <c r="E43" t="s">
         <v>88</v>
       </c>
-      <c r="I43" s="39"/>
-      <c r="J43" s="37"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="37"/>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="I43" s="22"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2542,14 +2759,12 @@
       <c r="E44" t="s">
         <v>80</v>
       </c>
-      <c r="I44" s="39"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="38" t="s">
+      <c r="I44" s="22"/>
+      <c r="L44" s="21" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -2566,7 +2781,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2580,11 +2795,11 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>278.41800000000001</v>
       </c>
-      <c r="I47" s="39" t="s">
+      <c r="I47" s="22" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2598,11 +2813,11 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>268.15107</v>
       </c>
-      <c r="I48" s="39" t="s">
+      <c r="I48" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2616,11 +2831,11 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>224.84959999999998</v>
       </c>
-      <c r="I49" s="39" t="s">
+      <c r="I49" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2634,11 +2849,11 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>264.93900000000002</v>
       </c>
-      <c r="I50" s="39" t="s">
+      <c r="I50" s="22" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2652,9 +2867,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>265.06</v>
       </c>
-      <c r="I51" s="39"/>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="I51" s="22"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2668,9 +2883,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>298.935</v>
       </c>
-      <c r="I52" s="39"/>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="I52" s="22"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2684,9 +2899,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>209.99900000000002</v>
       </c>
-      <c r="I53" s="39"/>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="I53" s="22"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2700,9 +2915,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>273.97229999999996</v>
       </c>
-      <c r="I54" s="39"/>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="I54" s="22"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2716,9 +2931,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>237.76599999999996</v>
       </c>
-      <c r="I55" s="39"/>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="I55" s="22"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2732,9 +2947,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>332.42449999999997</v>
       </c>
-      <c r="I56" s="39"/>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="I56" s="22"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2748,9 +2963,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>269.47039999999998</v>
       </c>
-      <c r="I57" s="39"/>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="I57" s="22"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2764,9 +2979,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>344.05059999999997</v>
       </c>
-      <c r="I58" s="39"/>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="I58" s="22"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2780,9 +2995,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>235.239</v>
       </c>
-      <c r="I59" s="39"/>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="I59" s="22"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -2796,9 +3011,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>233.15359000000001</v>
       </c>
-      <c r="I60" s="39"/>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="I60" s="22"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -2812,9 +3027,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>264.81900000000002</v>
       </c>
-      <c r="I61" s="39"/>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="I61" s="22"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -2828,12 +3043,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>217.74799999999999</v>
       </c>
-      <c r="I62" s="39"/>
-      <c r="J62" s="40"/>
-      <c r="K62" s="40"/>
-      <c r="L62" s="40"/>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="I62" s="22"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -2847,12 +3059,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>235.226</v>
       </c>
-      <c r="I63" s="39"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="I63" s="22"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -2866,12 +3075,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>262.97699999999998</v>
       </c>
-      <c r="I64" s="39"/>
-      <c r="J64" s="40"/>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="I64" s="22"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -2885,14 +3091,12 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>273.16000000000003</v>
       </c>
-      <c r="I65" s="39"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="41" t="s">
+      <c r="I65" s="22"/>
+      <c r="L65" s="21" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -2906,12 +3110,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>259.56799999999998</v>
       </c>
-      <c r="I66" s="39"/>
-      <c r="J66" s="40"/>
-      <c r="K66" s="40"/>
-      <c r="L66" s="40"/>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="I66" s="22"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -2925,12 +3126,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>226.33850000000001</v>
       </c>
-      <c r="I67" s="39"/>
-      <c r="J67" s="40"/>
-      <c r="K67" s="40"/>
-      <c r="L67" s="40"/>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="I67" s="22"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -2944,12 +3142,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>279.27710000000002</v>
       </c>
-      <c r="I68" s="39"/>
-      <c r="J68" s="40"/>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="I68" s="22"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -2963,12 +3158,9 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>237.69900000000001</v>
       </c>
-      <c r="I69" s="39"/>
-      <c r="J69" s="40"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="I69" s="22"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -2982,19 +3174,16 @@
         <f>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</f>
         <v>245.32940000000002</v>
       </c>
-      <c r="I70" s="39" t="s">
+      <c r="I70" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="J70" s="40"/>
-      <c r="K70" s="40"/>
-      <c r="L70" s="40"/>
-    </row>
-    <row r="71" spans="1:12">
-      <c r="J71" s="42" t="s">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -3008,7 +3197,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3023,7 +3212,7 @@
         <v>549.99760000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -3038,7 +3227,7 @@
         <v>553.32470000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3053,7 +3242,7 @@
         <v>553.32499999999993</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -3068,7 +3257,7 @@
         <v>570.05499999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5</v>
       </c>
@@ -3083,7 +3272,7 @@
         <v>570.05499999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>6</v>
       </c>
@@ -3098,7 +3287,7 @@
         <v>1139.3453</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>7</v>
       </c>
@@ -3113,7 +3302,7 @@
         <v>277.46199999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>8</v>
       </c>
@@ -3128,7 +3317,7 @@
         <v>324.863</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>9</v>
       </c>
@@ -3143,7 +3332,7 @@
         <v>411.06</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>10</v>
       </c>
@@ -3158,7 +3347,7 @@
         <v>616.16899999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>11</v>
       </c>
@@ -3173,7 +3362,7 @@
         <v>9780</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>12</v>
       </c>
@@ -3188,7 +3377,7 @@
         <v>11377</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>13</v>
       </c>
@@ -3203,7 +3392,7 @@
         <v>-279.34999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>14</v>
       </c>
@@ -3218,7 +3407,7 @@
         <v>-269.81999999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>15</v>
       </c>
@@ -3233,7 +3422,7 @@
         <v>354.15</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>16</v>
       </c>
@@ -3248,7 +3437,7 @@
         <v>473.02000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>17</v>
       </c>
@@ -3263,7 +3452,7 @@
         <v>666.66199999999992</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>18</v>
       </c>
@@ -3278,7 +3467,7 @@
         <v>404.63</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>19</v>
       </c>
@@ -3293,7 +3482,7 @@
         <v>-78.930000000000007</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>20</v>
       </c>
@@ -3308,7 +3497,7 @@
         <v>516.90100000000007</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -3322,7 +3511,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3333,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -3344,7 +3533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3</v>
       </c>
@@ -3355,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -3366,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5</v>
       </c>
@@ -3377,7 +3566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6</v>
       </c>
@@ -3388,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>7</v>
       </c>
@@ -3399,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>8</v>
       </c>
@@ -3410,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>9</v>
       </c>
@@ -3421,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>10</v>
       </c>
@@ -3432,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>11</v>
       </c>
@@ -3443,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>12</v>
       </c>
@@ -3454,7 +3643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>13</v>
       </c>
@@ -3465,7 +3654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>14</v>
       </c>
@@ -3476,7 +3665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>15</v>
       </c>
@@ -3487,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>16</v>
       </c>
@@ -3498,7 +3687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>17</v>
       </c>
@@ -3509,7 +3698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>18</v>
       </c>
@@ -3520,7 +3709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>19</v>
       </c>
@@ -3531,7 +3720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>20</v>
       </c>
@@ -3543,15 +3732,20 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I2:N16">
+    <sortCondition ref="I2:I16"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="5">
+  <tableParts count="7">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805814FA-64EB-448D-8825-FAB79D38B019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1495D84A-5423-4132-AAA4-ED360453088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-9420" windowWidth="16440" windowHeight="28440" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Stimulus" sheetId="1" r:id="rId1"/>
+    <sheet name="final" sheetId="2" r:id="rId1"/>
+    <sheet name="old" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="149">
   <si>
     <t>apple</t>
   </si>
@@ -493,14 +494,26 @@
     <t>controller</t>
   </si>
   <si>
-    <t>same as before</t>
+    <t>THESE OBJECTS HAVE BEEN ADDED TO THE 'Final Stim for Use' folder</t>
+  </si>
+  <si>
+    <t>visible max</t>
+  </si>
+  <si>
+    <t>visible range</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>object-solid_18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +562,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -556,18 +570,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri (Body)"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -707,11 +729,174 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right style="thin">
+        <color theme="7"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -737,15 +922,117 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="62">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1041,6 +1328,621 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1055,27 +1957,101 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="25">
-  <autoFilter ref="A1:E23" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}" name="Table9" displayName="Table9" ref="A2:G15" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" headerRowBorderDxfId="1" tableBorderDxfId="59" totalsRowBorderDxfId="58">
+  <autoFilter ref="A2:G15" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{A4827EE5-A513-47B6-A2B8-5025802DF792}" name="Object" dataDxfId="57"/>
+    <tableColumn id="7" xr3:uid="{5C947B0D-2C2B-4626-A556-1DFD4728AEBA}" name="ID" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{B62FA381-A946-4C5D-87B0-25C94F47947E}" name="min (mm)" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{E5755554-E1B0-494A-92FB-875744A3C7EC}" name="max (mm)" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{146B5C7C-63AD-4333-A553-A05D927737AB}" name="difference (mm)" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{02D3617A-3D9C-4CA4-9AB7-E7F68D9DF901}" name="visible max" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{EC7B00FC-44A9-4F2E-97B8-AD1785358F4A}" name="visible range" dataDxfId="51">
+      <calculatedColumnFormula>F3-C3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="P25:T44" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{154C99C7-865E-4E8A-A7F6-E66DA111723A}" name="min (mm)"/>
-    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{7F529B42-9949-412D-81C6-BCE79AF237DB}" name="BodyPart (Becca location)"/>
+    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="4">
+      <calculatedColumnFormula>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{3C9C5DEB-D604-4E60-9DAF-E87D2FCCDA70}" name="Name for Laurie"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}" name="Table2" displayName="Table2" ref="A17:G34" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" headerRowBorderDxfId="2" tableBorderDxfId="48">
+  <autoFilter ref="A17:G34" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{64BD9CC4-2E86-456F-BE06-53A8ED1C7C7D}" name="BodyPart (Becca location)" dataDxfId="47"/>
+    <tableColumn id="2" xr3:uid="{A5438927-E5F7-4143-BE61-D498392C844E}" name="ID" dataDxfId="46"/>
+    <tableColumn id="3" xr3:uid="{B405A793-A1A0-49A2-BFC0-0CCAEBC5B54E}" name="min (mm)" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{8855E515-3101-4EF1-87A2-13CF2977C9E3}" name="max (mm)" dataDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{1A4988FC-4389-4AC8-81C3-B8E423D60DB7}" name="difference" dataDxfId="43">
+      <calculatedColumnFormula>D18-C18</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{FA4BE08B-DFF9-4264-A09B-9D261A266D72}" name="visible max" dataDxfId="42"/>
+    <tableColumn id="7" xr3:uid="{921F4F1D-661B-4855-987A-03D73A69766C}" name="visible range" dataDxfId="41">
+      <calculatedColumnFormula>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A36:G58" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="40">
+  <autoFilter ref="A36:G58" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F9320C00-040A-4ECC-97A9-CCBA240DFE63}" name="Face"/>
+    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="36">
+      <calculatedColumnFormula>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="35">
+      <calculatedColumnFormula>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="34">
+  <autoFilter ref="A1:E23" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{154C99C7-865E-4E8A-A7F6-E66DA111723A}" name="min (mm)"/>
+    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
   <autoFilter ref="A25:E44" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{618FF384-60A0-48F4-BD3B-20158698512B}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="24">
       <calculatedColumnFormula>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B4C77F97-9F8F-4A06-A76F-20F90D6B2055}" name="Name for Laurie"/>
@@ -1084,14 +2060,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="14">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="23">
   <autoFilter ref="A46:D70" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A15C451F-5A5A-4ABC-B01B-2C4F05011809}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="11">
+    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="20">
       <calculatedColumnFormula>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1099,14 +2075,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="10">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="19">
   <autoFilter ref="A72:D92" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4ABA85F0-A778-40FD-BD59-C5D4666608AA}" name="Scene"/>
-    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="7">
+    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="16">
       <calculatedColumnFormula>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1114,14 +2090,14 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="6">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="15">
   <autoFilter ref="A94:D114" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7067C8DA-7BB5-4270-8F77-26A275840009}" name="ObjectScrambled"/>
-    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="3">
+    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="12">
       <calculatedColumnFormula>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1129,8 +2105,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="I1:N16" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A15B9D7D-90D4-4490-AD0F-6639C18D4AFE}" name="Object"/>
@@ -1141,21 +2117,6 @@
     <tableColumn id="6" xr3:uid="{BB9331E3-A228-431D-BF0B-1EE6062F47B1}" name="Laurie feedback"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{560324DD-C929-4520-93A8-0CEF3C451552}" name="Table2" displayName="Table2" ref="P1:S16" totalsRowShown="0">
-  <autoFilter ref="P1:S16" xr:uid="{560324DD-C929-4520-93A8-0CEF3C451552}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D1B66D51-F150-4275-ADA7-1487D665F468}" name="Object"/>
-    <tableColumn id="2" xr3:uid="{77CCAB04-4758-41A5-8AA1-A41933810BC4}" name="min (mm)"/>
-    <tableColumn id="3" xr3:uid="{D31DFAFD-0C00-4EB4-B987-763AC0BA76DD}" name="max (mm)"/>
-    <tableColumn id="4" xr3:uid="{3DBD5E6E-A947-4254-8DBA-18B7199D71E9}" name="difference (mm)" dataDxfId="0">
-      <calculatedColumnFormula>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1455,14 +2416,1443 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305C46E9-DBCF-4732-A226-FBA3B04D35E8}">
-  <dimension ref="A1:S114"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEED5E-03E1-4D43-B753-B6D0E922BAC9}">
+  <dimension ref="A2:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A2" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="32">
+        <v>3.5190000000000001</v>
+      </c>
+      <c r="D3" s="33">
+        <v>196.37</v>
+      </c>
+      <c r="E3" s="33">
+        <f>final!$D3-final!$C3</f>
+        <v>192.851</v>
+      </c>
+      <c r="F3" s="31">
+        <v>124.35</v>
+      </c>
+      <c r="G3" s="30">
+        <f t="shared" ref="G3:G15" si="0">F3-C3</f>
+        <v>120.83099999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="32">
+        <v>-0.90100000000000002</v>
+      </c>
+      <c r="D4" s="33">
+        <v>194.2</v>
+      </c>
+      <c r="E4" s="33">
+        <f>final!$D4-final!$C4</f>
+        <v>195.101</v>
+      </c>
+      <c r="F4" s="31">
+        <v>179.68</v>
+      </c>
+      <c r="G4" s="30">
+        <f t="shared" si="0"/>
+        <v>180.58100000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="32">
+        <v>-0.19800000000000001</v>
+      </c>
+      <c r="D5" s="33">
+        <v>175.62</v>
+      </c>
+      <c r="E5" s="33">
+        <f>final!$D5-final!$C5</f>
+        <v>175.81800000000001</v>
+      </c>
+      <c r="F5" s="31">
+        <v>157.1</v>
+      </c>
+      <c r="G5" s="30">
+        <f t="shared" si="0"/>
+        <v>157.298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1.345</v>
+      </c>
+      <c r="D6" s="33">
+        <v>183.1</v>
+      </c>
+      <c r="E6" s="33">
+        <f>final!$D6-final!$C6</f>
+        <v>181.755</v>
+      </c>
+      <c r="F6" s="31">
+        <v>103.26</v>
+      </c>
+      <c r="G6" s="30">
+        <f t="shared" si="0"/>
+        <v>101.91500000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="32">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="D7" s="33">
+        <v>245.48</v>
+      </c>
+      <c r="E7" s="33">
+        <f>final!$D7-final!$C7</f>
+        <v>244.828</v>
+      </c>
+      <c r="F7" s="31">
+        <v>186.46</v>
+      </c>
+      <c r="G7" s="30">
+        <f t="shared" si="0"/>
+        <v>185.80800000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="32">
+        <v>3.3250000000000002</v>
+      </c>
+      <c r="D8" s="33">
+        <v>220.13</v>
+      </c>
+      <c r="E8" s="33">
+        <f>final!$D8-final!$C8</f>
+        <v>216.80500000000001</v>
+      </c>
+      <c r="F8" s="31">
+        <v>187.28</v>
+      </c>
+      <c r="G8" s="30">
+        <f t="shared" si="0"/>
+        <v>183.95500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="32">
+        <v>2.4942000000000002</v>
+      </c>
+      <c r="D9" s="33">
+        <v>118.21</v>
+      </c>
+      <c r="E9" s="33">
+        <v>115.7158</v>
+      </c>
+      <c r="F9" s="31">
+        <v>85.313999999999993</v>
+      </c>
+      <c r="G9" s="30">
+        <f t="shared" si="0"/>
+        <v>82.819799999999987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="32">
+        <v>-1.6990000000000001</v>
+      </c>
+      <c r="D10" s="33">
+        <v>184.25</v>
+      </c>
+      <c r="E10" s="33">
+        <f>final!$D10-final!$C10</f>
+        <v>185.94900000000001</v>
+      </c>
+      <c r="F10" s="31">
+        <v>161.08000000000001</v>
+      </c>
+      <c r="G10" s="30">
+        <f t="shared" si="0"/>
+        <v>162.77900000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="32">
+        <v>1.0129999999999999</v>
+      </c>
+      <c r="D11" s="33">
+        <v>216.27</v>
+      </c>
+      <c r="E11" s="33">
+        <f>final!$D11-final!$C11</f>
+        <v>215.25700000000001</v>
+      </c>
+      <c r="F11" s="31">
+        <v>212.12</v>
+      </c>
+      <c r="G11" s="30">
+        <f t="shared" si="0"/>
+        <v>211.107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="32">
+        <v>1.0669</v>
+      </c>
+      <c r="D12" s="33">
+        <v>110.64</v>
+      </c>
+      <c r="E12" s="33">
+        <v>109.5731</v>
+      </c>
+      <c r="F12" s="31">
+        <v>206.13</v>
+      </c>
+      <c r="G12" s="30">
+        <f t="shared" si="0"/>
+        <v>205.06309999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="32">
+        <v>7.79</v>
+      </c>
+      <c r="D13" s="33">
+        <v>131.26</v>
+      </c>
+      <c r="E13" s="33">
+        <v>123.47</v>
+      </c>
+      <c r="F13" s="31">
+        <v>112.9</v>
+      </c>
+      <c r="G13" s="30">
+        <f t="shared" si="0"/>
+        <v>105.11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="32">
+        <v>2.6749999999999998</v>
+      </c>
+      <c r="D14" s="33">
+        <v>185.83</v>
+      </c>
+      <c r="E14" s="33">
+        <f>final!$D14-final!$C14</f>
+        <v>183.155</v>
+      </c>
+      <c r="F14" s="31">
+        <v>169.43</v>
+      </c>
+      <c r="G14" s="30">
+        <f t="shared" si="0"/>
+        <v>166.755</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="35">
+        <v>-1.216</v>
+      </c>
+      <c r="D15" s="36">
+        <v>164.87</v>
+      </c>
+      <c r="E15" s="36">
+        <f>final!$D15-final!$C15</f>
+        <v>166.08600000000001</v>
+      </c>
+      <c r="F15" s="34">
+        <v>75.668999999999997</v>
+      </c>
+      <c r="G15" s="30">
+        <f t="shared" si="0"/>
+        <v>76.884999999999991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A17" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A18" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="32">
+        <v>18.802</v>
+      </c>
+      <c r="D18" s="33">
+        <v>107.57</v>
+      </c>
+      <c r="E18" s="31">
+        <f t="shared" ref="E18:E34" si="1">D18-C18</f>
+        <v>88.768000000000001</v>
+      </c>
+      <c r="F18" s="31">
+        <v>100.1</v>
+      </c>
+      <c r="G18" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>81.298000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="32">
+        <v>-1.2699</v>
+      </c>
+      <c r="D19" s="33">
+        <v>63.771000000000001</v>
+      </c>
+      <c r="E19" s="31">
+        <f t="shared" si="1"/>
+        <v>65.040900000000008</v>
+      </c>
+      <c r="F19" s="31">
+        <v>50.052999999999997</v>
+      </c>
+      <c r="G19" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>51.322899999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="32">
+        <v>-0.79393000000000002</v>
+      </c>
+      <c r="D20" s="33">
+        <v>149.52000000000001</v>
+      </c>
+      <c r="E20" s="31">
+        <f t="shared" si="1"/>
+        <v>150.31393</v>
+      </c>
+      <c r="F20" s="31">
+        <v>124.42</v>
+      </c>
+      <c r="G20" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>125.21393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="32">
+        <v>-4.0918999999999999</v>
+      </c>
+      <c r="D21" s="33">
+        <v>128.72</v>
+      </c>
+      <c r="E21" s="31">
+        <f t="shared" si="1"/>
+        <v>132.81190000000001</v>
+      </c>
+      <c r="F21" s="31">
+        <v>103.06</v>
+      </c>
+      <c r="G21" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>107.1519</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="32">
+        <v>1.248</v>
+      </c>
+      <c r="D22" s="33">
+        <v>107.87</v>
+      </c>
+      <c r="E22" s="31">
+        <f t="shared" si="1"/>
+        <v>106.622</v>
+      </c>
+      <c r="F22" s="31">
+        <v>89.73</v>
+      </c>
+      <c r="G22" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>88.481999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="32">
+        <v>-9.2428000000000008</v>
+      </c>
+      <c r="D23" s="33">
+        <v>145.69</v>
+      </c>
+      <c r="E23" s="31">
+        <f t="shared" si="1"/>
+        <v>154.93279999999999</v>
+      </c>
+      <c r="F23" s="31">
+        <v>90.77</v>
+      </c>
+      <c r="G23" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>100.0128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="32">
+        <v>-4.5583</v>
+      </c>
+      <c r="D24" s="33">
+        <v>204.01</v>
+      </c>
+      <c r="E24" s="31">
+        <f t="shared" si="1"/>
+        <v>208.56829999999999</v>
+      </c>
+      <c r="F24" s="31">
+        <v>185.08</v>
+      </c>
+      <c r="G24" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>189.63830000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="32">
+        <v>-2.4845999999999999</v>
+      </c>
+      <c r="D25" s="33">
+        <v>118.52</v>
+      </c>
+      <c r="E25" s="31">
+        <f t="shared" si="1"/>
+        <v>121.0046</v>
+      </c>
+      <c r="F25" s="31">
+        <v>103.01</v>
+      </c>
+      <c r="G25" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>105.49460000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="32">
+        <v>1.0538000000000001</v>
+      </c>
+      <c r="D26" s="33">
+        <v>146.65</v>
+      </c>
+      <c r="E26" s="31">
+        <f t="shared" si="1"/>
+        <v>145.59620000000001</v>
+      </c>
+      <c r="F26" s="31">
+        <v>127.59</v>
+      </c>
+      <c r="G26" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>126.53620000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="32">
+        <v>0.78935999999999995</v>
+      </c>
+      <c r="D27" s="33">
+        <v>122.57</v>
+      </c>
+      <c r="E27" s="31">
+        <f t="shared" si="1"/>
+        <v>121.78063999999999</v>
+      </c>
+      <c r="F27" s="31">
+        <v>105.75</v>
+      </c>
+      <c r="G27" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>104.96064</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="32">
+        <v>15.566000000000001</v>
+      </c>
+      <c r="D28" s="33">
+        <v>195.61</v>
+      </c>
+      <c r="E28" s="31">
+        <f t="shared" si="1"/>
+        <v>180.04400000000001</v>
+      </c>
+      <c r="F28" s="31">
+        <v>160.97999999999999</v>
+      </c>
+      <c r="G28" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>145.41399999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="32">
+        <v>1.4372</v>
+      </c>
+      <c r="D29" s="33">
+        <v>90.212999999999994</v>
+      </c>
+      <c r="E29" s="31">
+        <f t="shared" si="1"/>
+        <v>88.77579999999999</v>
+      </c>
+      <c r="F29" s="31">
+        <v>61.314</v>
+      </c>
+      <c r="G29" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>59.876800000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="32">
+        <v>-6.1247999999999996</v>
+      </c>
+      <c r="D30" s="33">
+        <v>194.42</v>
+      </c>
+      <c r="E30" s="31">
+        <f t="shared" si="1"/>
+        <v>200.54479999999998</v>
+      </c>
+      <c r="F30" s="31">
+        <v>171.42</v>
+      </c>
+      <c r="G30" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>177.54479999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="32">
+        <v>-6.0292000000000003</v>
+      </c>
+      <c r="D31" s="33">
+        <v>127.26</v>
+      </c>
+      <c r="E31" s="31">
+        <f t="shared" si="1"/>
+        <v>133.28919999999999</v>
+      </c>
+      <c r="F31" s="31">
+        <v>113.71</v>
+      </c>
+      <c r="G31" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>119.7392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="32">
+        <v>0.65254000000000001</v>
+      </c>
+      <c r="D32" s="33">
+        <v>138.08000000000001</v>
+      </c>
+      <c r="E32" s="31">
+        <f t="shared" si="1"/>
+        <v>137.42746000000002</v>
+      </c>
+      <c r="F32" s="31">
+        <v>116.45</v>
+      </c>
+      <c r="G32" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>115.79746</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="32">
+        <v>-0.33928000000000003</v>
+      </c>
+      <c r="D33" s="33">
+        <v>93.831000000000003</v>
+      </c>
+      <c r="E33" s="31">
+        <f t="shared" si="1"/>
+        <v>94.170280000000005</v>
+      </c>
+      <c r="F33" s="31">
+        <v>76.123000000000005</v>
+      </c>
+      <c r="G33" s="33">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>76.462280000000007</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="32">
+        <v>1.5028999999999999</v>
+      </c>
+      <c r="D34" s="33">
+        <v>146.99</v>
+      </c>
+      <c r="E34" s="31">
+        <f t="shared" si="1"/>
+        <v>145.4871</v>
+      </c>
+      <c r="F34" s="34">
+        <v>102.35</v>
+      </c>
+      <c r="G34" s="36">
+        <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
+        <v>100.8471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A36" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="6">
+        <v>-0.28106999999999999</v>
+      </c>
+      <c r="D37" s="2">
+        <v>267.87</v>
+      </c>
+      <c r="E37">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>268.15107</v>
+      </c>
+      <c r="F37" s="17">
+        <v>179.89</v>
+      </c>
+      <c r="G37">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>180.17106999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="6">
+        <v>-6.3395999999999999</v>
+      </c>
+      <c r="D38" s="2">
+        <v>218.51</v>
+      </c>
+      <c r="E38">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>224.84959999999998</v>
+      </c>
+      <c r="F38" s="17">
+        <v>151.24</v>
+      </c>
+      <c r="G38">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>157.5796</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>50</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="6">
+        <v>12.791</v>
+      </c>
+      <c r="D39" s="2">
+        <v>277.73</v>
+      </c>
+      <c r="E39">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>264.93900000000002</v>
+      </c>
+      <c r="F39" s="17">
+        <v>123.95</v>
+      </c>
+      <c r="G39">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>111.15900000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="6">
+        <v>18.2</v>
+      </c>
+      <c r="D40" s="2">
+        <v>283.26</v>
+      </c>
+      <c r="E40">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>265.06</v>
+      </c>
+      <c r="F40" s="17">
+        <v>163.76</v>
+      </c>
+      <c r="G40">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>145.56</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="6">
+        <v>-11.695</v>
+      </c>
+      <c r="D41" s="2">
+        <v>287.24</v>
+      </c>
+      <c r="E41">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>298.935</v>
+      </c>
+      <c r="F41" s="17">
+        <v>152.94999999999999</v>
+      </c>
+      <c r="G41">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>164.64499999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="6">
+        <v>5.8310000000000004</v>
+      </c>
+      <c r="D42" s="2">
+        <v>215.83</v>
+      </c>
+      <c r="E42">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>209.99900000000002</v>
+      </c>
+      <c r="F42" s="17">
+        <v>124.07</v>
+      </c>
+      <c r="G42">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>118.23899999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="6">
+        <v>8.4276999999999997</v>
+      </c>
+      <c r="D43" s="2">
+        <v>282.39999999999998</v>
+      </c>
+      <c r="E43">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>273.97229999999996</v>
+      </c>
+      <c r="F43" s="17">
+        <v>121.08</v>
+      </c>
+      <c r="G43">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>112.6523</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="6">
+        <v>55.694000000000003</v>
+      </c>
+      <c r="D44" s="2">
+        <v>293.45999999999998</v>
+      </c>
+      <c r="E44">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>237.76599999999996</v>
+      </c>
+      <c r="F44" s="17">
+        <v>164.18</v>
+      </c>
+      <c r="G44">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>108.486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="6">
+        <v>8.5954999999999995</v>
+      </c>
+      <c r="D45" s="2">
+        <v>341.02</v>
+      </c>
+      <c r="E45">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>332.42449999999997</v>
+      </c>
+      <c r="F45" s="17">
+        <v>104.21</v>
+      </c>
+      <c r="G45">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>95.614499999999992</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="6">
+        <v>-8.9504000000000001</v>
+      </c>
+      <c r="D46" s="2">
+        <v>260.52</v>
+      </c>
+      <c r="E46">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>269.47039999999998</v>
+      </c>
+      <c r="F46" s="17">
+        <v>117.59</v>
+      </c>
+      <c r="G46">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>126.54040000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="6">
+        <v>5.5094000000000003</v>
+      </c>
+      <c r="D47" s="2">
+        <v>349.56</v>
+      </c>
+      <c r="E47">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>344.05059999999997</v>
+      </c>
+      <c r="F47" s="17">
+        <v>167.75</v>
+      </c>
+      <c r="G47">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>162.2406</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>59</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="6">
+        <v>-24.779</v>
+      </c>
+      <c r="D48" s="2">
+        <v>210.46</v>
+      </c>
+      <c r="E48">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>235.239</v>
+      </c>
+      <c r="F48" s="17">
+        <v>131.13999999999999</v>
+      </c>
+      <c r="G48">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>155.91899999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.72641</v>
+      </c>
+      <c r="D49" s="2">
+        <v>233.88</v>
+      </c>
+      <c r="E49">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>233.15359000000001</v>
+      </c>
+      <c r="F49" s="17">
+        <v>155.56</v>
+      </c>
+      <c r="G49">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>154.83359000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="6">
+        <v>14.340999999999999</v>
+      </c>
+      <c r="D50" s="2">
+        <v>279.16000000000003</v>
+      </c>
+      <c r="E50">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>264.81900000000002</v>
+      </c>
+      <c r="F50" s="17">
+        <v>157.1</v>
+      </c>
+      <c r="G50">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>142.75899999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="6">
+        <v>19.591999999999999</v>
+      </c>
+      <c r="D51" s="2">
+        <v>237.34</v>
+      </c>
+      <c r="E51">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>217.74799999999999</v>
+      </c>
+      <c r="F51" s="17">
+        <v>134.15</v>
+      </c>
+      <c r="G51">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>114.55800000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="6">
+        <v>-24.585999999999999</v>
+      </c>
+      <c r="D52" s="2">
+        <v>210.64</v>
+      </c>
+      <c r="E52">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>235.226</v>
+      </c>
+      <c r="F52" s="17">
+        <v>100.29</v>
+      </c>
+      <c r="G52">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>124.876</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="6">
+        <v>-12.287000000000001</v>
+      </c>
+      <c r="D53" s="2">
+        <v>250.69</v>
+      </c>
+      <c r="E53">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>262.97699999999998</v>
+      </c>
+      <c r="F53" s="17">
+        <v>65.826999999999998</v>
+      </c>
+      <c r="G53">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>78.114000000000004</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>65</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="6">
+        <v>-7.22</v>
+      </c>
+      <c r="D54" s="2">
+        <v>265.94</v>
+      </c>
+      <c r="E54">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>273.16000000000003</v>
+      </c>
+      <c r="F54" s="17">
+        <v>149.04</v>
+      </c>
+      <c r="G54">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>156.26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="6">
+        <v>-26.268000000000001</v>
+      </c>
+      <c r="D55" s="2">
+        <v>233.3</v>
+      </c>
+      <c r="E55">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>259.56799999999998</v>
+      </c>
+      <c r="F55" s="17">
+        <v>112.06</v>
+      </c>
+      <c r="G55">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>138.328</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="6">
+        <v>1.2215</v>
+      </c>
+      <c r="D56" s="2">
+        <v>227.56</v>
+      </c>
+      <c r="E56">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>226.33850000000001</v>
+      </c>
+      <c r="F56" s="17">
+        <v>131.49</v>
+      </c>
+      <c r="G56">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>130.26850000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="6">
+        <v>-6.9671000000000003</v>
+      </c>
+      <c r="D57" s="2">
+        <v>272.31</v>
+      </c>
+      <c r="E57">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>279.27710000000002</v>
+      </c>
+      <c r="F57" s="17">
+        <v>124.48</v>
+      </c>
+      <c r="G57">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>131.44710000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="6">
+        <v>29.971</v>
+      </c>
+      <c r="D58" s="2">
+        <v>267.67</v>
+      </c>
+      <c r="E58">
+        <f>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>237.69900000000001</v>
+      </c>
+      <c r="F58" s="18">
+        <v>161.5</v>
+      </c>
+      <c r="G58">
+        <f>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</f>
+        <v>131.529</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A60" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B60" s="43" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F60" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G60" s="44" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" thickTop="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305C46E9-DBCF-4732-A226-FBA3B04D35E8}">
+  <dimension ref="A1:T114"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="3" width="11" customWidth="1"/>
@@ -1478,9 +3868,11 @@
     <col min="17" max="17" width="11.42578125" customWidth="1"/>
     <col min="18" max="18" width="12" customWidth="1"/>
     <col min="19" max="19" width="17.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13.28515625" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" s="15" t="s">
         <v>25</v>
       </c>
@@ -1515,20 +3907,8 @@
         <v>135</v>
       </c>
       <c r="O1" s="13"/>
-      <c r="P1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
@@ -1562,21 +3942,8 @@
       <c r="N2" t="s">
         <v>122</v>
       </c>
-      <c r="P2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1.9710000000000001</v>
-      </c>
-      <c r="R2">
-        <v>146.61000000000001</v>
-      </c>
-      <c r="S2">
-        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>144.63900000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
@@ -1610,21 +3977,8 @@
       <c r="N3" t="s">
         <v>115</v>
       </c>
-      <c r="P3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>-0.90100000000000002</v>
-      </c>
-      <c r="R3">
-        <v>194.2</v>
-      </c>
-      <c r="S3">
-        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>195.101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="17" t="s">
         <v>2</v>
       </c>
@@ -1658,21 +4012,8 @@
       <c r="N4" t="s">
         <v>124</v>
       </c>
-      <c r="P4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q4">
-        <v>-0.19800000000000001</v>
-      </c>
-      <c r="R4">
-        <v>175.62</v>
-      </c>
-      <c r="S4">
-        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>175.81800000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -1706,21 +4047,8 @@
       <c r="N5" t="s">
         <v>118</v>
       </c>
-      <c r="P5" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>1.345</v>
-      </c>
-      <c r="R5">
-        <v>183.1</v>
-      </c>
-      <c r="S5">
-        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>181.755</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="17" t="s">
         <v>4</v>
       </c>
@@ -1754,21 +4082,8 @@
       <c r="N6" t="s">
         <v>126</v>
       </c>
-      <c r="P6" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q6">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="R6">
-        <v>245.48</v>
-      </c>
-      <c r="S6">
-        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>244.828</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
@@ -1805,21 +4120,8 @@
       <c r="N7" t="s">
         <v>123</v>
       </c>
-      <c r="P7" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q7">
-        <v>3.3250000000000002</v>
-      </c>
-      <c r="R7">
-        <v>220.13</v>
-      </c>
-      <c r="S7">
-        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>216.80500000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
@@ -1853,14 +4155,8 @@
       <c r="N8" t="s">
         <v>125</v>
       </c>
-      <c r="P8" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="17" t="s">
         <v>6</v>
       </c>
@@ -1894,21 +4190,8 @@
       <c r="N9" t="s">
         <v>117</v>
       </c>
-      <c r="P9" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9">
-        <v>5.8259999999999996</v>
-      </c>
-      <c r="R9">
-        <v>204.89</v>
-      </c>
-      <c r="S9">
-        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>199.06399999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="17" t="s">
         <v>21</v>
       </c>
@@ -1942,21 +4225,8 @@
       <c r="N10" t="s">
         <v>120</v>
       </c>
-      <c r="P10" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q10">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="R10">
-        <v>167.39</v>
-      </c>
-      <c r="S10">
-        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>166.60299999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="17" t="s">
         <v>7</v>
       </c>
@@ -1993,21 +4263,8 @@
       <c r="N11" t="s">
         <v>121</v>
       </c>
-      <c r="P11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11">
-        <v>-1.6990000000000001</v>
-      </c>
-      <c r="R11">
-        <v>184.25</v>
-      </c>
-      <c r="S11">
-        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>185.94900000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="17" t="s">
         <v>8</v>
       </c>
@@ -2042,21 +4299,8 @@
         <v>114</v>
       </c>
       <c r="O12" s="20"/>
-      <c r="P12" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12">
-        <v>1.0129999999999999</v>
-      </c>
-      <c r="R12">
-        <v>216.27</v>
-      </c>
-      <c r="S12">
-        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>215.25700000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="17" t="s">
         <v>9</v>
       </c>
@@ -2094,14 +4338,8 @@
         <v>125</v>
       </c>
       <c r="O13" s="20"/>
-      <c r="P13" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="17" t="s">
         <v>10</v>
       </c>
@@ -2136,14 +4374,8 @@
         <v>125</v>
       </c>
       <c r="O14" s="20"/>
-      <c r="P14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="17" t="s">
         <v>11</v>
       </c>
@@ -2178,21 +4410,12 @@
         <v>116</v>
       </c>
       <c r="O15" s="20"/>
-      <c r="P15" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15">
-        <v>2.6749999999999998</v>
-      </c>
-      <c r="R15">
-        <v>185.83</v>
-      </c>
-      <c r="S15">
-        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>183.155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P15" s="27"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="28"/>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="17" t="s">
         <v>12</v>
       </c>
@@ -2230,21 +4453,14 @@
         <v>127</v>
       </c>
       <c r="O16" s="20"/>
-      <c r="P16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16">
-        <v>-1.216</v>
-      </c>
-      <c r="R16">
-        <v>164.87</v>
-      </c>
-      <c r="S16">
-        <f>Table2[[#This Row],[max (mm)]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>166.08600000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P16" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="29"/>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="17" t="s">
         <v>13</v>
       </c>
@@ -2259,7 +4475,7 @@
       </c>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20">
       <c r="A18" s="17" t="s">
         <v>14</v>
       </c>
@@ -2279,7 +4495,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20">
       <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
@@ -2296,7 +4512,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20">
       <c r="A20" s="17" t="s">
         <v>16</v>
       </c>
@@ -2316,7 +4532,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20">
       <c r="A21" s="17" t="s">
         <v>17</v>
       </c>
@@ -2333,7 +4549,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20">
       <c r="A22" s="17" t="s">
         <v>18</v>
       </c>
@@ -2350,7 +4566,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20">
       <c r="A23" s="18" t="s">
         <v>19</v>
       </c>
@@ -2368,7 +4584,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20">
       <c r="A25" s="14" t="s">
         <v>91</v>
       </c>
@@ -2387,8 +4603,23 @@
       <c r="I25" s="19" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P25" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -2408,8 +4639,24 @@
       <c r="I26" s="22" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>18.802</v>
+      </c>
+      <c r="R26" s="2">
+        <v>107.57</v>
+      </c>
+      <c r="S26">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>88.768000000000001</v>
+      </c>
+      <c r="T26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -2427,8 +4674,24 @@
         <v>73</v>
       </c>
       <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>-1.2699</v>
+      </c>
+      <c r="R27" s="2">
+        <v>63.771000000000001</v>
+      </c>
+      <c r="S27">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>65.040900000000008</v>
+      </c>
+      <c r="T27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2446,8 +4709,24 @@
         <v>74</v>
       </c>
       <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>-0.79393000000000002</v>
+      </c>
+      <c r="R28" s="2">
+        <v>149.52000000000001</v>
+      </c>
+      <c r="S28">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>150.31393</v>
+      </c>
+      <c r="T28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -2467,8 +4746,24 @@
       <c r="I29" s="22" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>-4.0918999999999999</v>
+      </c>
+      <c r="R29" s="2">
+        <v>128.72</v>
+      </c>
+      <c r="S29">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>132.81190000000001</v>
+      </c>
+      <c r="T29" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2486,8 +4781,24 @@
         <v>76</v>
       </c>
       <c r="I30" s="22"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>1.248</v>
+      </c>
+      <c r="R30" s="2">
+        <v>107.87</v>
+      </c>
+      <c r="S30">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>106.622</v>
+      </c>
+      <c r="T30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2507,8 +4818,24 @@
       <c r="I31" s="22" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>-9.2428000000000008</v>
+      </c>
+      <c r="R31" s="2">
+        <v>145.69</v>
+      </c>
+      <c r="S31">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>154.93279999999999</v>
+      </c>
+      <c r="T31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2526,8 +4853,24 @@
         <v>79</v>
       </c>
       <c r="I32" s="22"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q32" s="6">
+        <v>-4.5583</v>
+      </c>
+      <c r="R32" s="2">
+        <v>204.01</v>
+      </c>
+      <c r="S32">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>208.56829999999999</v>
+      </c>
+      <c r="T32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>92</v>
       </c>
@@ -2547,8 +4890,24 @@
       <c r="I33" s="22" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>-2.4845999999999999</v>
+      </c>
+      <c r="R33" s="2">
+        <v>118.52</v>
+      </c>
+      <c r="S33">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>121.0046</v>
+      </c>
+      <c r="T33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2566,8 +4925,24 @@
         <v>83</v>
       </c>
       <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>1.0538000000000001</v>
+      </c>
+      <c r="R34" s="2">
+        <v>146.65</v>
+      </c>
+      <c r="S34">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>145.59620000000001</v>
+      </c>
+      <c r="T34" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2585,8 +4960,24 @@
         <v>82</v>
       </c>
       <c r="I35" s="22"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q35" s="6">
+        <v>0.78935999999999995</v>
+      </c>
+      <c r="R35" s="2">
+        <v>122.57</v>
+      </c>
+      <c r="S35">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>121.78063999999999</v>
+      </c>
+      <c r="T35" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2604,8 +4995,24 @@
         <v>87</v>
       </c>
       <c r="I36" s="22"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>15.566000000000001</v>
+      </c>
+      <c r="R36" s="2">
+        <v>195.61</v>
+      </c>
+      <c r="S36">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>180.04400000000001</v>
+      </c>
+      <c r="T36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2625,8 +5032,24 @@
       <c r="I37" s="22" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q37" s="6">
+        <v>1.4372</v>
+      </c>
+      <c r="R37" s="2">
+        <v>90.212999999999994</v>
+      </c>
+      <c r="S37">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>88.77579999999999</v>
+      </c>
+      <c r="T37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2644,8 +5067,24 @@
         <v>86</v>
       </c>
       <c r="I38" s="22"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>-6.1247999999999996</v>
+      </c>
+      <c r="R38" s="2">
+        <v>194.42</v>
+      </c>
+      <c r="S38">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>200.54479999999998</v>
+      </c>
+      <c r="T38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2663,8 +5102,24 @@
         <v>85</v>
       </c>
       <c r="I39" s="22"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q39" s="6">
+        <v>-6.0292000000000003</v>
+      </c>
+      <c r="R39" s="2">
+        <v>127.26</v>
+      </c>
+      <c r="S39">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>133.28919999999999</v>
+      </c>
+      <c r="T39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2684,8 +5139,24 @@
       <c r="I40" s="22" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0.65254000000000001</v>
+      </c>
+      <c r="R40" s="2">
+        <v>138.08000000000001</v>
+      </c>
+      <c r="S40">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>137.42746000000002</v>
+      </c>
+      <c r="T40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2703,8 +5174,24 @@
         <v>90</v>
       </c>
       <c r="I41" s="22"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q41" s="6">
+        <v>-0.33928000000000003</v>
+      </c>
+      <c r="R41" s="2">
+        <v>93.831000000000003</v>
+      </c>
+      <c r="S41">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>94.170280000000005</v>
+      </c>
+      <c r="T41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2722,8 +5209,24 @@
         <v>89</v>
       </c>
       <c r="I42" s="22"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>1.5028999999999999</v>
+      </c>
+      <c r="R42" s="2">
+        <v>146.99</v>
+      </c>
+      <c r="S42">
+        <f>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</f>
+        <v>145.4871</v>
+      </c>
+      <c r="T42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +5244,10 @@
         <v>88</v>
       </c>
       <c r="I43" s="22"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q43" s="6"/>
+      <c r="R43" s="2"/>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2763,8 +5268,10 @@
       <c r="L44" s="21" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="Q44" s="6"/>
+      <c r="R44" s="2"/>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -2781,7 +5288,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -2799,7 +5306,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>48</v>
       </c>
@@ -2817,7 +5324,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -2835,7 +5342,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>50</v>
       </c>
@@ -2853,7 +5360,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -2869,7 +5376,7 @@
       </c>
       <c r="I51" s="22"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>52</v>
       </c>
@@ -2885,7 +5392,7 @@
       </c>
       <c r="I52" s="22"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -2901,7 +5408,7 @@
       </c>
       <c r="I53" s="22"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -2917,7 +5424,7 @@
       </c>
       <c r="I54" s="22"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>55</v>
       </c>
@@ -2933,7 +5440,7 @@
       </c>
       <c r="I55" s="22"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>56</v>
       </c>
@@ -2949,7 +5456,7 @@
       </c>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>57</v>
       </c>
@@ -2965,7 +5472,7 @@
       </c>
       <c r="I57" s="22"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>58</v>
       </c>
@@ -2981,7 +5488,7 @@
       </c>
       <c r="I58" s="22"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>59</v>
       </c>
@@ -2997,7 +5504,7 @@
       </c>
       <c r="I59" s="22"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>60</v>
       </c>
@@ -3013,7 +5520,7 @@
       </c>
       <c r="I60" s="22"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>61</v>
       </c>
@@ -3029,7 +5536,7 @@
       </c>
       <c r="I61" s="22"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>62</v>
       </c>
@@ -3045,7 +5552,7 @@
       </c>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>63</v>
       </c>
@@ -3061,7 +5568,7 @@
       </c>
       <c r="I63" s="22"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>64</v>
       </c>
@@ -3077,7 +5584,7 @@
       </c>
       <c r="I64" s="22"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
         <v>65</v>
       </c>
@@ -3096,7 +5603,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
         <v>66</v>
       </c>
@@ -3112,7 +5619,7 @@
       </c>
       <c r="I66" s="22"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
         <v>67</v>
       </c>
@@ -3128,7 +5635,7 @@
       </c>
       <c r="I67" s="22"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
         <v>68</v>
       </c>
@@ -3144,7 +5651,7 @@
       </c>
       <c r="I68" s="22"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
         <v>69</v>
       </c>
@@ -3160,7 +5667,7 @@
       </c>
       <c r="I69" s="22"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -3178,12 +5685,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12">
       <c r="J71" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
         <v>27</v>
       </c>
@@ -3197,7 +5704,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12">
       <c r="A73">
         <v>1</v>
       </c>
@@ -3212,7 +5719,7 @@
         <v>549.99760000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12">
       <c r="A74">
         <v>2</v>
       </c>
@@ -3227,7 +5734,7 @@
         <v>553.32470000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3242,7 +5749,7 @@
         <v>553.32499999999993</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12">
       <c r="A76">
         <v>4</v>
       </c>
@@ -3257,7 +5764,7 @@
         <v>570.05499999999995</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12">
       <c r="A77">
         <v>5</v>
       </c>
@@ -3272,7 +5779,7 @@
         <v>570.05499999999995</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12">
       <c r="A78">
         <v>6</v>
       </c>
@@ -3287,7 +5794,7 @@
         <v>1139.3453</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12">
       <c r="A79">
         <v>7</v>
       </c>
@@ -3302,7 +5809,7 @@
         <v>277.46199999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12">
       <c r="A80">
         <v>8</v>
       </c>
@@ -3317,7 +5824,7 @@
         <v>324.863</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>9</v>
       </c>
@@ -3332,7 +5839,7 @@
         <v>411.06</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>10</v>
       </c>
@@ -3347,7 +5854,7 @@
         <v>616.16899999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>11</v>
       </c>
@@ -3362,7 +5869,7 @@
         <v>9780</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>12</v>
       </c>
@@ -3377,37 +5884,37 @@
         <v>11377</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>13</v>
       </c>
       <c r="B85" s="6">
+        <v>317.81</v>
+      </c>
+      <c r="C85" s="2">
         <v>597.16</v>
-      </c>
-      <c r="C85" s="2">
-        <v>317.81</v>
       </c>
       <c r="D85">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>-279.34999999999997</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+        <v>279.34999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>14</v>
       </c>
       <c r="B86" s="6">
+        <v>328.98</v>
+      </c>
+      <c r="C86" s="2">
         <v>598.79999999999995</v>
-      </c>
-      <c r="C86" s="2">
-        <v>328.98</v>
       </c>
       <c r="D86">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>-269.81999999999994</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+        <v>269.81999999999994</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>15</v>
       </c>
@@ -3422,7 +5929,7 @@
         <v>354.15</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>16</v>
       </c>
@@ -3437,7 +5944,7 @@
         <v>473.02000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>17</v>
       </c>
@@ -3452,7 +5959,7 @@
         <v>666.66199999999992</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>18</v>
       </c>
@@ -3467,22 +5974,23 @@
         <v>404.63</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>19</v>
       </c>
       <c r="B91" s="6">
+        <v>370.54</v>
+      </c>
+      <c r="C91" s="2">
         <v>449.47</v>
-      </c>
-      <c r="C91" s="2">
-        <v>370.54</v>
       </c>
       <c r="D91">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>-78.930000000000007</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="E91" s="6"/>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>20</v>
       </c>
@@ -3497,7 +6005,7 @@
         <v>516.90100000000007</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -3511,7 +6019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>1</v>
       </c>
@@ -3522,7 +6030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>2</v>
       </c>
@@ -3533,7 +6041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>3</v>
       </c>
@@ -3544,7 +6052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>4</v>
       </c>
@@ -3555,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>5</v>
       </c>
@@ -3566,7 +6074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>6</v>
       </c>
@@ -3577,7 +6085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>7</v>
       </c>
@@ -3588,7 +6096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>8</v>
       </c>
@@ -3599,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>9</v>
       </c>
@@ -3610,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>10</v>
       </c>
@@ -3621,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>11</v>
       </c>
@@ -3632,7 +6140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>12</v>
       </c>
@@ -3643,7 +6151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>13</v>
       </c>
@@ -3654,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>14</v>
       </c>
@@ -3665,7 +6173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>15</v>
       </c>
@@ -3676,7 +6184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>16</v>
       </c>
@@ -3687,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>17</v>
       </c>
@@ -3698,7 +6206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>18</v>
       </c>
@@ -3709,7 +6217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>19</v>
       </c>
@@ -3720,7 +6228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>20</v>
       </c>

--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1495D84A-5423-4132-AAA4-ED360453088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3898F3-9B6E-4E9F-BE06-27E0EDC48A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="2" r:id="rId1"/>
@@ -948,38 +948,6 @@
   </cellStyles>
   <dxfs count="62">
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1332,6 +1300,17 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1383,6 +1362,13 @@
           <color indexed="64"/>
         </top>
         <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="double">
           <color indexed="64"/>
         </bottom>
       </border>
@@ -1631,6 +1617,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1910,6 +1903,13 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -1957,16 +1957,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}" name="Table9" displayName="Table9" ref="A2:G15" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" headerRowBorderDxfId="1" tableBorderDxfId="59" totalsRowBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}" name="Table9" displayName="Table9" ref="A2:G15" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <autoFilter ref="A2:G15" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G15">
+    <sortCondition ref="B2:B15"/>
+  </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A4827EE5-A513-47B6-A2B8-5025802DF792}" name="Object" dataDxfId="57"/>
-    <tableColumn id="7" xr3:uid="{5C947B0D-2C2B-4626-A556-1DFD4728AEBA}" name="ID" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{B62FA381-A946-4C5D-87B0-25C94F47947E}" name="min (mm)" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{E5755554-E1B0-494A-92FB-875744A3C7EC}" name="max (mm)" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{146B5C7C-63AD-4333-A553-A05D927737AB}" name="difference (mm)" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{02D3617A-3D9C-4CA4-9AB7-E7F68D9DF901}" name="visible max" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{EC7B00FC-44A9-4F2E-97B8-AD1785358F4A}" name="visible range" dataDxfId="51">
+    <tableColumn id="1" xr3:uid="{A4827EE5-A513-47B6-A2B8-5025802DF792}" name="Object" dataDxfId="56"/>
+    <tableColumn id="7" xr3:uid="{5C947B0D-2C2B-4626-A556-1DFD4728AEBA}" name="ID" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{B62FA381-A946-4C5D-87B0-25C94F47947E}" name="min (mm)" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{E5755554-E1B0-494A-92FB-875744A3C7EC}" name="max (mm)" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{146B5C7C-63AD-4333-A553-A05D927737AB}" name="difference (mm)" dataDxfId="52"/>
+    <tableColumn id="5" xr3:uid="{02D3617A-3D9C-4CA4-9AB7-E7F68D9DF901}" name="visible max" dataDxfId="51"/>
+    <tableColumn id="6" xr3:uid="{EC7B00FC-44A9-4F2E-97B8-AD1785358F4A}" name="visible range" dataDxfId="50">
       <calculatedColumnFormula>F3-C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1975,13 +1978,13 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="P25:T44" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7F529B42-9949-412D-81C6-BCE79AF237DB}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="4">
+    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="0">
       <calculatedColumnFormula>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3C9C5DEB-D604-4E60-9DAF-E87D2FCCDA70}" name="Name for Laurie"/>
@@ -1991,18 +1994,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}" name="Table2" displayName="Table2" ref="A17:G34" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49" headerRowBorderDxfId="2" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}" name="Table2" displayName="Table2" ref="A17:G34" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
   <autoFilter ref="A17:G34" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{64BD9CC4-2E86-456F-BE06-53A8ED1C7C7D}" name="BodyPart (Becca location)" dataDxfId="47"/>
-    <tableColumn id="2" xr3:uid="{A5438927-E5F7-4143-BE61-D498392C844E}" name="ID" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{B405A793-A1A0-49A2-BFC0-0CCAEBC5B54E}" name="min (mm)" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{8855E515-3101-4EF1-87A2-13CF2977C9E3}" name="max (mm)" dataDxfId="44"/>
-    <tableColumn id="5" xr3:uid="{1A4988FC-4389-4AC8-81C3-B8E423D60DB7}" name="difference" dataDxfId="43">
+    <tableColumn id="1" xr3:uid="{64BD9CC4-2E86-456F-BE06-53A8ED1C7C7D}" name="BodyPart (Becca location)" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{A5438927-E5F7-4143-BE61-D498392C844E}" name="ID" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{B405A793-A1A0-49A2-BFC0-0CCAEBC5B54E}" name="min (mm)" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{8855E515-3101-4EF1-87A2-13CF2977C9E3}" name="max (mm)" dataDxfId="42"/>
+    <tableColumn id="5" xr3:uid="{1A4988FC-4389-4AC8-81C3-B8E423D60DB7}" name="difference" dataDxfId="41">
       <calculatedColumnFormula>D18-C18</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FA4BE08B-DFF9-4264-A09B-9D261A266D72}" name="visible max" dataDxfId="42"/>
-    <tableColumn id="7" xr3:uid="{921F4F1D-661B-4855-987A-03D73A69766C}" name="visible range" dataDxfId="41">
+    <tableColumn id="6" xr3:uid="{FA4BE08B-DFF9-4264-A09B-9D261A266D72}" name="visible max" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{921F4F1D-661B-4855-987A-03D73A69766C}" name="visible range" dataDxfId="39">
       <calculatedColumnFormula>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2011,18 +2014,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A36:G58" totalsRowShown="0" headerRowBorderDxfId="3" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A36:G58" totalsRowShown="0" headerRowBorderDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="A36:G58" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F9320C00-040A-4ECC-97A9-CCBA240DFE63}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="36">
+    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="33">
       <calculatedColumnFormula>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="35">
+    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="31">
       <calculatedColumnFormula>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2031,27 +2034,27 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A1:E23" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{154C99C7-865E-4E8A-A7F6-E66DA111723A}" name="min (mm)"/>
-    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A25:E44" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{618FF384-60A0-48F4-BD3B-20158698512B}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="24">
+    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="20">
       <calculatedColumnFormula>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B4C77F97-9F8F-4A06-A76F-20F90D6B2055}" name="Name for Laurie"/>
@@ -2061,13 +2064,13 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="19">
   <autoFilter ref="A46:D70" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A15C451F-5A5A-4ABC-B01B-2C4F05011809}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="20">
+    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="16">
       <calculatedColumnFormula>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2076,13 +2079,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="15">
   <autoFilter ref="A72:D92" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4ABA85F0-A778-40FD-BD59-C5D4666608AA}" name="Scene"/>
-    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="12">
       <calculatedColumnFormula>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2091,13 +2094,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="11">
   <autoFilter ref="A94:D114" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7067C8DA-7BB5-4270-8F77-26A275840009}" name="ObjectScrambled"/>
-    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="12">
+    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="8">
       <calculatedColumnFormula>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2106,7 +2109,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="I1:N16" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A15B9D7D-90D4-4490-AD0F-6639C18D4AFE}" name="Object"/>
@@ -2419,8 +2422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEED5E-03E1-4D43-B753-B6D0E922BAC9}">
   <dimension ref="A2:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2459,152 +2462,152 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" thickTop="1">
       <c r="A3" s="31" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C3" s="32">
-        <v>3.5190000000000001</v>
+        <v>-0.90100000000000002</v>
       </c>
       <c r="D3" s="33">
-        <v>196.37</v>
+        <v>194.2</v>
       </c>
       <c r="E3" s="33">
-        <f>final!$D3-final!$C3</f>
-        <v>192.851</v>
+        <f>final!$D4-final!$C4</f>
+        <v>175.81800000000001</v>
       </c>
       <c r="F3" s="31">
-        <v>124.35</v>
+        <v>179.68</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" ref="G3:G15" si="0">F3-C3</f>
-        <v>120.83099999999999</v>
+        <f>F3-C3</f>
+        <v>180.58100000000002</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="31" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="32">
-        <v>-0.90100000000000002</v>
+        <v>-0.19800000000000001</v>
       </c>
       <c r="D4" s="33">
-        <v>194.2</v>
+        <v>175.62</v>
       </c>
       <c r="E4" s="33">
-        <f>final!$D4-final!$C4</f>
-        <v>195.101</v>
+        <f>final!$D5-final!$C5</f>
+        <v>181.755</v>
       </c>
       <c r="F4" s="31">
-        <v>179.68</v>
+        <v>157.1</v>
       </c>
       <c r="G4" s="30">
-        <f t="shared" si="0"/>
-        <v>180.58100000000002</v>
+        <f>F4-C4</f>
+        <v>157.298</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="31" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="32">
-        <v>-0.19800000000000001</v>
+        <v>1.345</v>
       </c>
       <c r="D5" s="33">
-        <v>175.62</v>
+        <v>183.1</v>
       </c>
       <c r="E5" s="33">
-        <f>final!$D5-final!$C5</f>
-        <v>175.81800000000001</v>
+        <f>final!$D6-final!$C6</f>
+        <v>244.828</v>
       </c>
       <c r="F5" s="31">
-        <v>157.1</v>
+        <v>103.26</v>
       </c>
       <c r="G5" s="30">
-        <f t="shared" si="0"/>
-        <v>157.298</v>
+        <f>F5-C5</f>
+        <v>101.91500000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="31" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C6" s="32">
-        <v>1.345</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="D6" s="33">
-        <v>183.1</v>
+        <v>245.48</v>
       </c>
       <c r="E6" s="33">
-        <f>final!$D6-final!$C6</f>
-        <v>181.755</v>
+        <f>final!$D7-final!$C7</f>
+        <v>216.80500000000001</v>
       </c>
       <c r="F6" s="31">
-        <v>103.26</v>
+        <v>186.46</v>
       </c>
       <c r="G6" s="30">
-        <f t="shared" si="0"/>
-        <v>101.91500000000001</v>
+        <f>F6-C6</f>
+        <v>185.80800000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="31" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" s="31" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C7" s="32">
-        <v>0.65200000000000002</v>
+        <v>3.3250000000000002</v>
       </c>
       <c r="D7" s="33">
-        <v>245.48</v>
+        <v>220.13</v>
       </c>
       <c r="E7" s="33">
-        <f>final!$D7-final!$C7</f>
-        <v>244.828</v>
+        <f>final!$D8-final!$C8</f>
+        <v>192.851</v>
       </c>
       <c r="F7" s="31">
-        <v>186.46</v>
+        <v>187.28</v>
       </c>
       <c r="G7" s="30">
-        <f t="shared" si="0"/>
-        <v>185.80800000000002</v>
+        <f>F7-C7</f>
+        <v>183.95500000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="31" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C8" s="32">
-        <v>3.3250000000000002</v>
+        <v>3.5190000000000001</v>
       </c>
       <c r="D8" s="33">
-        <v>220.13</v>
+        <v>196.37</v>
       </c>
       <c r="E8" s="33">
-        <f>final!$D8-final!$C8</f>
-        <v>216.80500000000001</v>
+        <f>final!$D3-final!$C3</f>
+        <v>195.101</v>
       </c>
       <c r="F8" s="31">
-        <v>187.28</v>
+        <v>124.35</v>
       </c>
       <c r="G8" s="30">
-        <f t="shared" si="0"/>
-        <v>183.95500000000001</v>
+        <f>F8-C8</f>
+        <v>120.83099999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2627,82 +2630,82 @@
         <v>85.313999999999993</v>
       </c>
       <c r="G9" s="30">
-        <f t="shared" si="0"/>
+        <f>F9-C9</f>
         <v>82.819799999999987</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="31" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C10" s="32">
-        <v>-1.6990000000000001</v>
+        <v>1.0669</v>
       </c>
       <c r="D10" s="33">
-        <v>184.25</v>
+        <v>110.64</v>
       </c>
       <c r="E10" s="33">
-        <f>final!$D10-final!$C10</f>
-        <v>185.94900000000001</v>
+        <v>109.5731</v>
       </c>
       <c r="F10" s="31">
-        <v>161.08000000000001</v>
+        <v>206.13</v>
       </c>
       <c r="G10" s="30">
-        <f t="shared" si="0"/>
-        <v>162.77900000000002</v>
+        <f>F10-C10</f>
+        <v>205.06309999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="32">
-        <v>1.0129999999999999</v>
+        <v>-1.6990000000000001</v>
       </c>
       <c r="D11" s="33">
-        <v>216.27</v>
+        <v>184.25</v>
       </c>
       <c r="E11" s="33">
-        <f>final!$D11-final!$C11</f>
-        <v>215.25700000000001</v>
+        <f>final!$D10-final!$C10</f>
+        <v>109.5731</v>
       </c>
       <c r="F11" s="31">
-        <v>212.12</v>
+        <v>161.08000000000001</v>
       </c>
       <c r="G11" s="30">
-        <f t="shared" si="0"/>
-        <v>211.107</v>
+        <f>F11-C11</f>
+        <v>162.77900000000002</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="31" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C12" s="32">
-        <v>1.0669</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="D12" s="33">
-        <v>110.64</v>
+        <v>216.27</v>
       </c>
       <c r="E12" s="33">
-        <v>109.5731</v>
+        <f>final!$D11-final!$C11</f>
+        <v>185.94900000000001</v>
       </c>
       <c r="F12" s="31">
-        <v>206.13</v>
+        <v>212.12</v>
       </c>
       <c r="G12" s="30">
-        <f t="shared" si="0"/>
-        <v>205.06309999999999</v>
+        <f>F12-C12</f>
+        <v>211.107</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2725,7 +2728,7 @@
         <v>112.9</v>
       </c>
       <c r="G13" s="30">
-        <f t="shared" si="0"/>
+        <f>F13-C13</f>
         <v>105.11</v>
       </c>
     </row>
@@ -2750,7 +2753,7 @@
         <v>169.43</v>
       </c>
       <c r="G14" s="30">
-        <f t="shared" si="0"/>
+        <f>F14-C14</f>
         <v>166.755</v>
       </c>
     </row>
@@ -2775,7 +2778,7 @@
         <v>75.668999999999997</v>
       </c>
       <c r="G15" s="30">
-        <f t="shared" si="0"/>
+        <f>F15-C15</f>
         <v>76.884999999999991</v>
       </c>
     </row>
@@ -2825,7 +2828,7 @@
         <v>107.57</v>
       </c>
       <c r="E18" s="31">
-        <f t="shared" ref="E18:E34" si="1">D18-C18</f>
+        <f t="shared" ref="E18:E34" si="0">D18-C18</f>
         <v>88.768000000000001</v>
       </c>
       <c r="F18" s="31">
@@ -2850,7 +2853,7 @@
         <v>63.771000000000001</v>
       </c>
       <c r="E19" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65.040900000000008</v>
       </c>
       <c r="F19" s="31">
@@ -2875,7 +2878,7 @@
         <v>149.52000000000001</v>
       </c>
       <c r="E20" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>150.31393</v>
       </c>
       <c r="F20" s="31">
@@ -2900,7 +2903,7 @@
         <v>128.72</v>
       </c>
       <c r="E21" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>132.81190000000001</v>
       </c>
       <c r="F21" s="31">
@@ -2925,7 +2928,7 @@
         <v>107.87</v>
       </c>
       <c r="E22" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>106.622</v>
       </c>
       <c r="F22" s="31">
@@ -2950,7 +2953,7 @@
         <v>145.69</v>
       </c>
       <c r="E23" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>154.93279999999999</v>
       </c>
       <c r="F23" s="31">
@@ -2975,7 +2978,7 @@
         <v>204.01</v>
       </c>
       <c r="E24" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>208.56829999999999</v>
       </c>
       <c r="F24" s="31">
@@ -3000,7 +3003,7 @@
         <v>118.52</v>
       </c>
       <c r="E25" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>121.0046</v>
       </c>
       <c r="F25" s="31">
@@ -3025,7 +3028,7 @@
         <v>146.65</v>
       </c>
       <c r="E26" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>145.59620000000001</v>
       </c>
       <c r="F26" s="31">
@@ -3050,7 +3053,7 @@
         <v>122.57</v>
       </c>
       <c r="E27" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>121.78063999999999</v>
       </c>
       <c r="F27" s="31">
@@ -3075,7 +3078,7 @@
         <v>195.61</v>
       </c>
       <c r="E28" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>180.04400000000001</v>
       </c>
       <c r="F28" s="31">
@@ -3100,7 +3103,7 @@
         <v>90.212999999999994</v>
       </c>
       <c r="E29" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88.77579999999999</v>
       </c>
       <c r="F29" s="31">
@@ -3125,7 +3128,7 @@
         <v>194.42</v>
       </c>
       <c r="E30" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>200.54479999999998</v>
       </c>
       <c r="F30" s="31">
@@ -3150,7 +3153,7 @@
         <v>127.26</v>
       </c>
       <c r="E31" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>133.28919999999999</v>
       </c>
       <c r="F31" s="31">
@@ -3175,7 +3178,7 @@
         <v>138.08000000000001</v>
       </c>
       <c r="E32" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>137.42746000000002</v>
       </c>
       <c r="F32" s="31">
@@ -3200,7 +3203,7 @@
         <v>93.831000000000003</v>
       </c>
       <c r="E33" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>94.170280000000005</v>
       </c>
       <c r="F33" s="31">
@@ -3225,7 +3228,7 @@
         <v>146.99</v>
       </c>
       <c r="E34" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>145.4871</v>
       </c>
       <c r="F34" s="34">

--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3898F3-9B6E-4E9F-BE06-27E0EDC48A5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7F1CC1-EAD4-412D-9EE8-C87DCBC6623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="final" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="153">
   <si>
     <t>apple</t>
   </si>
@@ -507,6 +507,18 @@
   </si>
   <si>
     <t>object-solid_18</t>
+  </si>
+  <si>
+    <t>add texture to background wall (slight, non-repeating)</t>
+  </si>
+  <si>
+    <t>change background texture, horizontal lines have no disparity</t>
+  </si>
+  <si>
+    <t>background texture is very very subtle, can we modify?</t>
+  </si>
+  <si>
+    <t>omit</t>
   </si>
 </sst>
 </file>
@@ -840,12 +852,19 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="7"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -858,9 +877,7 @@
       <right style="thin">
         <color theme="7"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="double">
         <color indexed="64"/>
       </bottom>
@@ -873,19 +890,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="double">
         <color indexed="64"/>
@@ -896,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -938,15 +942,256 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="73">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1044,49 +1289,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1957,19 +2159,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}" name="Table9" displayName="Table9" ref="A2:G15" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}" name="Table9" displayName="Table9" ref="A2:G15" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <autoFilter ref="A2:G15" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G15">
     <sortCondition ref="B2:B15"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A4827EE5-A513-47B6-A2B8-5025802DF792}" name="Object" dataDxfId="56"/>
-    <tableColumn id="7" xr3:uid="{5C947B0D-2C2B-4626-A556-1DFD4728AEBA}" name="ID" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{B62FA381-A946-4C5D-87B0-25C94F47947E}" name="min (mm)" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{E5755554-E1B0-494A-92FB-875744A3C7EC}" name="max (mm)" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{146B5C7C-63AD-4333-A553-A05D927737AB}" name="difference (mm)" dataDxfId="52"/>
-    <tableColumn id="5" xr3:uid="{02D3617A-3D9C-4CA4-9AB7-E7F68D9DF901}" name="visible max" dataDxfId="51"/>
-    <tableColumn id="6" xr3:uid="{EC7B00FC-44A9-4F2E-97B8-AD1785358F4A}" name="visible range" dataDxfId="50">
+    <tableColumn id="1" xr3:uid="{A4827EE5-A513-47B6-A2B8-5025802DF792}" name="Object" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{5C947B0D-2C2B-4626-A556-1DFD4728AEBA}" name="ID" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{B62FA381-A946-4C5D-87B0-25C94F47947E}" name="min (mm)" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{E5755554-E1B0-494A-92FB-875744A3C7EC}" name="max (mm)" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{146B5C7C-63AD-4333-A553-A05D927737AB}" name="difference (mm)" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{02D3617A-3D9C-4CA4-9AB7-E7F68D9DF901}" name="visible max" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{EC7B00FC-44A9-4F2E-97B8-AD1785358F4A}" name="visible range" dataDxfId="61">
       <calculatedColumnFormula>F3-C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1978,138 +2180,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="P25:T44" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7F529B42-9949-412D-81C6-BCE79AF237DB}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="0">
-      <calculatedColumnFormula>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{3C9C5DEB-D604-4E60-9DAF-E87D2FCCDA70}" name="Name for Laurie"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}" name="Table2" displayName="Table2" ref="A17:G34" totalsRowShown="0" headerRowDxfId="49" dataDxfId="47" headerRowBorderDxfId="48" tableBorderDxfId="46">
-  <autoFilter ref="A17:G34" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{64BD9CC4-2E86-456F-BE06-53A8ED1C7C7D}" name="BodyPart (Becca location)" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{A5438927-E5F7-4143-BE61-D498392C844E}" name="ID" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{B405A793-A1A0-49A2-BFC0-0CCAEBC5B54E}" name="min (mm)" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{8855E515-3101-4EF1-87A2-13CF2977C9E3}" name="max (mm)" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{1A4988FC-4389-4AC8-81C3-B8E423D60DB7}" name="difference" dataDxfId="41">
-      <calculatedColumnFormula>D18-C18</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{FA4BE08B-DFF9-4264-A09B-9D261A266D72}" name="visible max" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{921F4F1D-661B-4855-987A-03D73A69766C}" name="visible range" dataDxfId="39">
-      <calculatedColumnFormula>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A36:G58" totalsRowShown="0" headerRowBorderDxfId="38" tableBorderDxfId="37">
-  <autoFilter ref="A36:G58" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F9320C00-040A-4ECC-97A9-CCBA240DFE63}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="33">
-      <calculatedColumnFormula>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="31">
-      <calculatedColumnFormula>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="30">
-  <autoFilter ref="A1:E23" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{154C99C7-865E-4E8A-A7F6-E66DA111723A}" name="min (mm)"/>
-    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="26"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
-  <autoFilter ref="A25:E44" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{618FF384-60A0-48F4-BD3B-20158698512B}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="20">
-      <calculatedColumnFormula>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{B4C77F97-9F8F-4A06-A76F-20F90D6B2055}" name="Name for Laurie"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="19">
-  <autoFilter ref="A46:D70" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A15C451F-5A5A-4ABC-B01B-2C4F05011809}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="16">
-      <calculatedColumnFormula>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="15">
-  <autoFilter ref="A72:D92" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4ABA85F0-A778-40FD-BD59-C5D4666608AA}" name="Scene"/>
-    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="12">
-      <calculatedColumnFormula>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="11">
-  <autoFilter ref="A94:D114" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7067C8DA-7BB5-4270-8F77-26A275840009}" name="ObjectScrambled"/>
-    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="8">
-      <calculatedColumnFormula>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="22" tableBorderDxfId="21">
   <autoFilter ref="I1:N16" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A15B9D7D-90D4-4490-AD0F-6639C18D4AFE}" name="Object"/>
@@ -2120,6 +2191,157 @@
     <tableColumn id="6" xr3:uid="{BB9331E3-A228-431D-BF0B-1EE6062F47B1}" name="Laurie feedback"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="P25:T44" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7F529B42-9949-412D-81C6-BCE79AF237DB}" name="BodyPart (Becca location)"/>
+    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="15">
+      <calculatedColumnFormula>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{3C9C5DEB-D604-4E60-9DAF-E87D2FCCDA70}" name="Name for Laurie"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}" name="Table2" displayName="Table2" ref="A17:G34" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57">
+  <autoFilter ref="A17:G34" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{64BD9CC4-2E86-456F-BE06-53A8ED1C7C7D}" name="BodyPart (Becca location)" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{A5438927-E5F7-4143-BE61-D498392C844E}" name="ID" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{B405A793-A1A0-49A2-BFC0-0CCAEBC5B54E}" name="min (mm)" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{8855E515-3101-4EF1-87A2-13CF2977C9E3}" name="max (mm)" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{1A4988FC-4389-4AC8-81C3-B8E423D60DB7}" name="difference" dataDxfId="52">
+      <calculatedColumnFormula>D18-C18</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{FA4BE08B-DFF9-4264-A09B-9D261A266D72}" name="visible max" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{921F4F1D-661B-4855-987A-03D73A69766C}" name="visible range" dataDxfId="50">
+      <calculatedColumnFormula>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A36:G58" totalsRowShown="0" headerRowBorderDxfId="49" tableBorderDxfId="48">
+  <autoFilter ref="A36:G58" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{F9320C00-040A-4ECC-97A9-CCBA240DFE63}" name="Face"/>
+    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="44">
+      <calculatedColumnFormula>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="42">
+      <calculatedColumnFormula>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}" name="Table12" displayName="Table12" ref="A60:G75" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+  <autoFilter ref="A60:G75" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E0C98B60-AEE8-4106-98DF-C836FA204635}" name="Scene" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{4A5CA146-6F44-4292-AE40-9C210702001D}" name="ID" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{5BF1F243-5E74-4124-A4C6-50B3E8F4E9F7}" name="min (mm)" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{D6E08EAF-5732-4845-A782-4200E1A6DF31}" name="max (mm)" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{27AAF6CD-299E-4FA7-956A-A59501878BCF}" name="difference" dataDxfId="6">
+      <calculatedColumnFormula>D61-C61</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D0C20C5C-D18A-4D4E-8C35-9D2154952AA2}" name="visible max" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{B4D1D7D5-609F-4DE3-8363-9CBC9B676053}" name="visible range" dataDxfId="4">
+      <calculatedColumnFormula>F61-C61</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="41">
+  <autoFilter ref="A1:E23" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{154C99C7-865E-4E8A-A7F6-E66DA111723A}" name="min (mm)"/>
+    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="37"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
+  <autoFilter ref="A25:E44" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{618FF384-60A0-48F4-BD3B-20158698512B}" name="BodyPart (Becca location)"/>
+    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="31">
+      <calculatedColumnFormula>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{B4C77F97-9F8F-4A06-A76F-20F90D6B2055}" name="Name for Laurie"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="30">
+  <autoFilter ref="A46:D70" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A15C451F-5A5A-4ABC-B01B-2C4F05011809}" name="Face"/>
+    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="27">
+      <calculatedColumnFormula>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="3">
+  <autoFilter ref="A72:D92" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{4ABA85F0-A778-40FD-BD59-C5D4666608AA}" name="Scene"/>
+    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="0">
+      <calculatedColumnFormula>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="26">
+  <autoFilter ref="A94:D114" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7067C8DA-7BB5-4270-8F77-26A275840009}" name="ObjectScrambled"/>
+    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="23">
+      <calculatedColumnFormula>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2420,10 +2642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEED5E-03E1-4D43-B753-B6D0E922BAC9}">
-  <dimension ref="A2:G61"/>
+  <dimension ref="A2:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2433,8 +2655,7 @@
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" thickBot="1">
@@ -2481,7 +2702,7 @@
         <v>179.68</v>
       </c>
       <c r="G3" s="30">
-        <f>F3-C3</f>
+        <f t="shared" ref="G3:G15" si="0">F3-C3</f>
         <v>180.58100000000002</v>
       </c>
     </row>
@@ -2506,7 +2727,7 @@
         <v>157.1</v>
       </c>
       <c r="G4" s="30">
-        <f>F4-C4</f>
+        <f t="shared" si="0"/>
         <v>157.298</v>
       </c>
     </row>
@@ -2531,7 +2752,7 @@
         <v>103.26</v>
       </c>
       <c r="G5" s="30">
-        <f>F5-C5</f>
+        <f t="shared" si="0"/>
         <v>101.91500000000001</v>
       </c>
     </row>
@@ -2556,7 +2777,7 @@
         <v>186.46</v>
       </c>
       <c r="G6" s="30">
-        <f>F6-C6</f>
+        <f t="shared" si="0"/>
         <v>185.80800000000002</v>
       </c>
     </row>
@@ -2581,7 +2802,7 @@
         <v>187.28</v>
       </c>
       <c r="G7" s="30">
-        <f>F7-C7</f>
+        <f t="shared" si="0"/>
         <v>183.95500000000001</v>
       </c>
     </row>
@@ -2606,7 +2827,7 @@
         <v>124.35</v>
       </c>
       <c r="G8" s="30">
-        <f>F8-C8</f>
+        <f t="shared" si="0"/>
         <v>120.83099999999999</v>
       </c>
     </row>
@@ -2630,7 +2851,7 @@
         <v>85.313999999999993</v>
       </c>
       <c r="G9" s="30">
-        <f>F9-C9</f>
+        <f t="shared" si="0"/>
         <v>82.819799999999987</v>
       </c>
     </row>
@@ -2654,7 +2875,7 @@
         <v>206.13</v>
       </c>
       <c r="G10" s="30">
-        <f>F10-C10</f>
+        <f t="shared" si="0"/>
         <v>205.06309999999999</v>
       </c>
     </row>
@@ -2679,7 +2900,7 @@
         <v>161.08000000000001</v>
       </c>
       <c r="G11" s="30">
-        <f>F11-C11</f>
+        <f t="shared" si="0"/>
         <v>162.77900000000002</v>
       </c>
     </row>
@@ -2704,7 +2925,7 @@
         <v>212.12</v>
       </c>
       <c r="G12" s="30">
-        <f>F12-C12</f>
+        <f t="shared" si="0"/>
         <v>211.107</v>
       </c>
     </row>
@@ -2728,7 +2949,7 @@
         <v>112.9</v>
       </c>
       <c r="G13" s="30">
-        <f>F13-C13</f>
+        <f t="shared" si="0"/>
         <v>105.11</v>
       </c>
     </row>
@@ -2753,7 +2974,7 @@
         <v>169.43</v>
       </c>
       <c r="G14" s="30">
-        <f>F14-C14</f>
+        <f t="shared" si="0"/>
         <v>166.755</v>
       </c>
     </row>
@@ -2778,7 +2999,7 @@
         <v>75.668999999999997</v>
       </c>
       <c r="G15" s="30">
-        <f>F15-C15</f>
+        <f t="shared" si="0"/>
         <v>76.884999999999991</v>
       </c>
     </row>
@@ -2828,7 +3049,7 @@
         <v>107.57</v>
       </c>
       <c r="E18" s="31">
-        <f t="shared" ref="E18:E34" si="0">D18-C18</f>
+        <f t="shared" ref="E18:E34" si="1">D18-C18</f>
         <v>88.768000000000001</v>
       </c>
       <c r="F18" s="31">
@@ -2853,7 +3074,7 @@
         <v>63.771000000000001</v>
       </c>
       <c r="E19" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65.040900000000008</v>
       </c>
       <c r="F19" s="31">
@@ -2878,7 +3099,7 @@
         <v>149.52000000000001</v>
       </c>
       <c r="E20" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>150.31393</v>
       </c>
       <c r="F20" s="31">
@@ -2903,7 +3124,7 @@
         <v>128.72</v>
       </c>
       <c r="E21" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>132.81190000000001</v>
       </c>
       <c r="F21" s="31">
@@ -2928,7 +3149,7 @@
         <v>107.87</v>
       </c>
       <c r="E22" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>106.622</v>
       </c>
       <c r="F22" s="31">
@@ -2953,7 +3174,7 @@
         <v>145.69</v>
       </c>
       <c r="E23" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>154.93279999999999</v>
       </c>
       <c r="F23" s="31">
@@ -2978,7 +3199,7 @@
         <v>204.01</v>
       </c>
       <c r="E24" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>208.56829999999999</v>
       </c>
       <c r="F24" s="31">
@@ -3003,7 +3224,7 @@
         <v>118.52</v>
       </c>
       <c r="E25" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>121.0046</v>
       </c>
       <c r="F25" s="31">
@@ -3028,7 +3249,7 @@
         <v>146.65</v>
       </c>
       <c r="E26" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>145.59620000000001</v>
       </c>
       <c r="F26" s="31">
@@ -3053,7 +3274,7 @@
         <v>122.57</v>
       </c>
       <c r="E27" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>121.78063999999999</v>
       </c>
       <c r="F27" s="31">
@@ -3078,7 +3299,7 @@
         <v>195.61</v>
       </c>
       <c r="E28" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180.04400000000001</v>
       </c>
       <c r="F28" s="31">
@@ -3103,7 +3324,7 @@
         <v>90.212999999999994</v>
       </c>
       <c r="E29" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.77579999999999</v>
       </c>
       <c r="F29" s="31">
@@ -3128,7 +3349,7 @@
         <v>194.42</v>
       </c>
       <c r="E30" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200.54479999999998</v>
       </c>
       <c r="F30" s="31">
@@ -3153,7 +3374,7 @@
         <v>127.26</v>
       </c>
       <c r="E31" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133.28919999999999</v>
       </c>
       <c r="F31" s="31">
@@ -3178,7 +3399,7 @@
         <v>138.08000000000001</v>
       </c>
       <c r="E32" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>137.42746000000002</v>
       </c>
       <c r="F32" s="31">
@@ -3203,7 +3424,7 @@
         <v>93.831000000000003</v>
       </c>
       <c r="E33" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94.170280000000005</v>
       </c>
       <c r="F33" s="31">
@@ -3228,7 +3449,7 @@
         <v>146.99</v>
       </c>
       <c r="E34" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>145.4871</v>
       </c>
       <c r="F34" s="34">
@@ -3562,7 +3783,7 @@
         <v>155.91899999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -3587,7 +3808,7 @@
         <v>154.83359000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -3612,7 +3833,7 @@
         <v>142.75899999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -3637,7 +3858,7 @@
         <v>114.55800000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -3662,7 +3883,7 @@
         <v>124.876</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -3687,7 +3908,7 @@
         <v>78.114000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -3712,7 +3933,7 @@
         <v>156.26</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -3737,7 +3958,7 @@
         <v>138.328</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -3762,7 +3983,7 @@
         <v>130.26850000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -3787,7 +4008,7 @@
         <v>131.44710000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -3812,37 +4033,370 @@
         <v>131.529</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A60" s="42" t="s">
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A60" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="44" t="s">
+      <c r="D60" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="40" t="s">
+      <c r="E60" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="F60" s="40" t="s">
+      <c r="F60" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="G60" s="44" t="s">
+      <c r="G60" s="52" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="15.75" thickTop="1"/>
+    <row r="61" spans="1:8" ht="15.75" thickTop="1">
+      <c r="A61" s="46">
+        <v>3</v>
+      </c>
+      <c r="B61" s="50"/>
+      <c r="C61" s="42">
+        <v>6.585</v>
+      </c>
+      <c r="D61" s="44">
+        <v>559.91</v>
+      </c>
+      <c r="E61" s="50">
+        <f>D61-C61</f>
+        <v>553.32499999999993</v>
+      </c>
+      <c r="F61" s="53"/>
+      <c r="G61" s="50">
+        <f>F61-C61</f>
+        <v>-6.585</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="46">
+        <v>6</v>
+      </c>
+      <c r="B62" s="50"/>
+      <c r="C62" s="42">
+        <v>-1149</v>
+      </c>
+      <c r="D62" s="44">
+        <v>-9.6547000000000001</v>
+      </c>
+      <c r="E62" s="50">
+        <f t="shared" ref="E62:E75" si="2">D62-C62</f>
+        <v>1139.3453</v>
+      </c>
+      <c r="F62" s="53"/>
+      <c r="G62" s="50">
+        <f t="shared" ref="G62:G75" si="3">F62-C62</f>
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="46">
+        <v>7</v>
+      </c>
+      <c r="B63" s="50"/>
+      <c r="C63" s="42">
+        <v>33.917999999999999</v>
+      </c>
+      <c r="D63" s="44">
+        <v>311.38</v>
+      </c>
+      <c r="E63" s="50">
+        <f t="shared" si="2"/>
+        <v>277.46199999999999</v>
+      </c>
+      <c r="F63" s="53"/>
+      <c r="G63" s="50">
+        <f t="shared" si="3"/>
+        <v>-33.917999999999999</v>
+      </c>
+      <c r="H63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="46">
+        <v>8</v>
+      </c>
+      <c r="B64" s="50"/>
+      <c r="C64" s="42">
+        <v>-14.363</v>
+      </c>
+      <c r="D64" s="44">
+        <v>310.5</v>
+      </c>
+      <c r="E64" s="50">
+        <f t="shared" si="2"/>
+        <v>324.863</v>
+      </c>
+      <c r="F64" s="53"/>
+      <c r="G64" s="50">
+        <f t="shared" si="3"/>
+        <v>14.363</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="46">
+        <v>9</v>
+      </c>
+      <c r="B65" s="50"/>
+      <c r="C65" s="42">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="D65" s="44">
+        <v>429.14</v>
+      </c>
+      <c r="E65" s="50">
+        <f t="shared" si="2"/>
+        <v>411.06</v>
+      </c>
+      <c r="F65" s="53"/>
+      <c r="G65" s="50">
+        <f t="shared" si="3"/>
+        <v>-18.079999999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="46">
+        <v>10</v>
+      </c>
+      <c r="B66" s="50"/>
+      <c r="C66" s="42">
+        <v>-11.029</v>
+      </c>
+      <c r="D66" s="44">
+        <v>605.14</v>
+      </c>
+      <c r="E66" s="50">
+        <f t="shared" si="2"/>
+        <v>616.16899999999998</v>
+      </c>
+      <c r="F66" s="53"/>
+      <c r="G66" s="50">
+        <f t="shared" si="3"/>
+        <v>11.029</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="46">
+        <v>11</v>
+      </c>
+      <c r="B67" s="50"/>
+      <c r="C67" s="42">
+        <v>924544</v>
+      </c>
+      <c r="D67" s="44">
+        <v>934324</v>
+      </c>
+      <c r="E67" s="50">
+        <f t="shared" si="2"/>
+        <v>9780</v>
+      </c>
+      <c r="F67" s="53"/>
+      <c r="G67" s="50">
+        <f t="shared" si="3"/>
+        <v>-924544</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="46">
+        <v>12</v>
+      </c>
+      <c r="B68" s="50"/>
+      <c r="C68" s="42">
+        <v>923177</v>
+      </c>
+      <c r="D68" s="44">
+        <v>934554</v>
+      </c>
+      <c r="E68" s="50">
+        <f t="shared" si="2"/>
+        <v>11377</v>
+      </c>
+      <c r="F68" s="53"/>
+      <c r="G68" s="50">
+        <f t="shared" si="3"/>
+        <v>-923177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="46">
+        <v>13</v>
+      </c>
+      <c r="B69" s="50"/>
+      <c r="C69" s="42">
+        <v>317.81</v>
+      </c>
+      <c r="D69" s="44">
+        <v>597.16</v>
+      </c>
+      <c r="E69" s="50">
+        <f t="shared" si="2"/>
+        <v>279.34999999999997</v>
+      </c>
+      <c r="F69" s="53"/>
+      <c r="G69" s="50">
+        <f t="shared" si="3"/>
+        <v>-317.81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="46">
+        <v>14</v>
+      </c>
+      <c r="B70" s="50"/>
+      <c r="C70" s="42">
+        <v>328.98</v>
+      </c>
+      <c r="D70" s="44">
+        <v>598.79999999999995</v>
+      </c>
+      <c r="E70" s="50">
+        <f t="shared" si="2"/>
+        <v>269.81999999999994</v>
+      </c>
+      <c r="F70" s="53"/>
+      <c r="G70" s="50">
+        <f t="shared" si="3"/>
+        <v>-328.98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="46">
+        <v>15</v>
+      </c>
+      <c r="B71" s="50"/>
+      <c r="C71" s="42">
+        <v>147.85</v>
+      </c>
+      <c r="D71" s="44">
+        <v>502</v>
+      </c>
+      <c r="E71" s="50">
+        <f t="shared" si="2"/>
+        <v>354.15</v>
+      </c>
+      <c r="F71" s="53"/>
+      <c r="G71" s="50">
+        <f t="shared" si="3"/>
+        <v>-147.85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="46">
+        <v>16</v>
+      </c>
+      <c r="B72" s="50"/>
+      <c r="C72" s="42">
+        <v>348.07</v>
+      </c>
+      <c r="D72" s="44">
+        <v>821.09</v>
+      </c>
+      <c r="E72" s="50">
+        <f t="shared" si="2"/>
+        <v>473.02000000000004</v>
+      </c>
+      <c r="F72" s="53"/>
+      <c r="G72" s="50">
+        <f t="shared" si="3"/>
+        <v>-348.07</v>
+      </c>
+      <c r="H72" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="46">
+        <v>17</v>
+      </c>
+      <c r="B73" s="50"/>
+      <c r="C73" s="42">
+        <v>17.748000000000001</v>
+      </c>
+      <c r="D73" s="44">
+        <v>684.41</v>
+      </c>
+      <c r="E73" s="50">
+        <f t="shared" si="2"/>
+        <v>666.66199999999992</v>
+      </c>
+      <c r="F73" s="53"/>
+      <c r="G73" s="50">
+        <f t="shared" si="3"/>
+        <v>-17.748000000000001</v>
+      </c>
+      <c r="H73" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="46">
+        <v>18</v>
+      </c>
+      <c r="B74" s="50"/>
+      <c r="C74" s="42">
+        <v>-155.75</v>
+      </c>
+      <c r="D74" s="44">
+        <v>248.88</v>
+      </c>
+      <c r="E74" s="50">
+        <f t="shared" si="2"/>
+        <v>404.63</v>
+      </c>
+      <c r="F74" s="53"/>
+      <c r="G74" s="50">
+        <f t="shared" si="3"/>
+        <v>155.75</v>
+      </c>
+      <c r="H74" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="46">
+        <v>20</v>
+      </c>
+      <c r="B75" s="50"/>
+      <c r="C75" s="42">
+        <v>-34.231000000000002</v>
+      </c>
+      <c r="D75" s="44">
+        <v>482.67</v>
+      </c>
+      <c r="E75" s="50">
+        <f t="shared" si="2"/>
+        <v>516.90100000000007</v>
+      </c>
+      <c r="F75" s="54"/>
+      <c r="G75" s="50">
+        <f t="shared" si="3"/>
+        <v>34.231000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="42"/>
+      <c r="B79" s="43"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="44"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3851,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305C46E9-DBCF-4732-A226-FBA3B04D35E8}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5706,6 +6260,9 @@
       <c r="D72" t="s">
         <v>24</v>
       </c>
+      <c r="I72" s="13" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73">
@@ -5721,6 +6278,9 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>549.99760000000003</v>
       </c>
+      <c r="I73" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74">
@@ -5736,6 +6296,9 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>553.32470000000001</v>
       </c>
+      <c r="I74" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75">
@@ -5766,6 +6329,9 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>570.05499999999995</v>
       </c>
+      <c r="I76" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77">
@@ -5781,6 +6347,9 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>570.05499999999995</v>
       </c>
+      <c r="I77" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="78" spans="1:12">
       <c r="A78">
@@ -5811,6 +6380,9 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>277.46199999999999</v>
       </c>
+      <c r="I79" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="80" spans="1:12">
       <c r="A80">
@@ -5827,7 +6399,7 @@
         <v>324.863</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>9</v>
       </c>
@@ -5842,7 +6414,7 @@
         <v>411.06</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>10</v>
       </c>
@@ -5857,7 +6429,7 @@
         <v>616.16899999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>11</v>
       </c>
@@ -5872,7 +6444,7 @@
         <v>9780</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>12</v>
       </c>
@@ -5887,7 +6459,7 @@
         <v>11377</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>13</v>
       </c>
@@ -5902,7 +6474,7 @@
         <v>279.34999999999997</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>14</v>
       </c>
@@ -5917,7 +6489,7 @@
         <v>269.81999999999994</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>15</v>
       </c>
@@ -5932,7 +6504,7 @@
         <v>354.15</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>16</v>
       </c>
@@ -5946,8 +6518,11 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>473.02000000000004</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="I88" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>17</v>
       </c>
@@ -5961,8 +6536,11 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>666.66199999999992</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="I89" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>18</v>
       </c>
@@ -5976,8 +6554,11 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>404.63</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="I90" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>19</v>
       </c>
@@ -5991,9 +6572,11 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>78.930000000000007</v>
       </c>
-      <c r="E91" s="6"/>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="I91" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>20</v>
       </c>
@@ -6008,7 +6591,7 @@
         <v>516.90100000000007</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>28</v>
       </c>
@@ -6022,7 +6605,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>1</v>
       </c>
@@ -6033,7 +6616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>2</v>
       </c>

--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7F1CC1-EAD4-412D-9EE8-C87DCBC6623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB607813-7EBB-4B10-B012-22EE1E325FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="154">
   <si>
     <t>apple</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>omit</t>
+  </si>
+  <si>
+    <t>have now re-centred so that nose bridge is at 0</t>
   </si>
 </sst>
 </file>
@@ -900,7 +903,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -956,11 +959,89 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="73">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1497,83 +1578,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -2180,7 +2184,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="22" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
   <autoFilter ref="I1:N16" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A15B9D7D-90D4-4490-AD0F-6639C18D4AFE}" name="Object"/>
@@ -2195,13 +2199,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
   <autoFilter ref="P25:T44" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7F529B42-9949-412D-81C6-BCE79AF237DB}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="15">
+    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="24"/>
+    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="23">
       <calculatedColumnFormula>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3C9C5DEB-D604-4E60-9DAF-E87D2FCCDA70}" name="Name for Laurie"/>
@@ -2231,18 +2235,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A36:G58" totalsRowShown="0" headerRowBorderDxfId="49" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A36:G58" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
   <autoFilter ref="A36:G58" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F9320C00-040A-4ECC-97A9-CCBA240DFE63}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="44">
+    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="2">
       <calculatedColumnFormula>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="42">
+    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="0">
       <calculatedColumnFormula>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2251,18 +2255,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}" name="Table12" displayName="Table12" ref="A60:G75" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}" name="Table12" displayName="Table12" ref="A60:G75" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20">
   <autoFilter ref="A60:G75" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E0C98B60-AEE8-4106-98DF-C836FA204635}" name="Scene" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{4A5CA146-6F44-4292-AE40-9C210702001D}" name="ID" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{5BF1F243-5E74-4124-A4C6-50B3E8F4E9F7}" name="min (mm)" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{D6E08EAF-5732-4845-A782-4200E1A6DF31}" name="max (mm)" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{27AAF6CD-299E-4FA7-956A-A59501878BCF}" name="difference" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{E0C98B60-AEE8-4106-98DF-C836FA204635}" name="Scene" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{4A5CA146-6F44-4292-AE40-9C210702001D}" name="ID" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{5BF1F243-5E74-4124-A4C6-50B3E8F4E9F7}" name="min (mm)" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{D6E08EAF-5732-4845-A782-4200E1A6DF31}" name="max (mm)" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{27AAF6CD-299E-4FA7-956A-A59501878BCF}" name="difference" dataDxfId="14">
       <calculatedColumnFormula>D61-C61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D0C20C5C-D18A-4D4E-8C35-9D2154952AA2}" name="visible max" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{B4D1D7D5-609F-4DE3-8363-9CBC9B676053}" name="visible range" dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{D0C20C5C-D18A-4D4E-8C35-9D2154952AA2}" name="visible max" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{B4D1D7D5-609F-4DE3-8363-9CBC9B676053}" name="visible range" dataDxfId="12">
       <calculatedColumnFormula>F61-C61</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2271,27 +2275,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="49">
   <autoFilter ref="A1:E23" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="40"/>
+    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="48"/>
     <tableColumn id="2" xr3:uid="{154C99C7-865E-4E8A-A7F6-E66DA111723A}" name="min (mm)"/>
-    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="36" headerRowBorderDxfId="35" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42">
   <autoFilter ref="A25:E44" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{618FF384-60A0-48F4-BD3B-20158698512B}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="31">
+    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="39">
       <calculatedColumnFormula>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B4C77F97-9F8F-4A06-A76F-20F90D6B2055}" name="Name for Laurie"/>
@@ -2301,13 +2305,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="38">
   <autoFilter ref="A46:D70" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A15C451F-5A5A-4ABC-B01B-2C4F05011809}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="27">
+    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="35">
       <calculatedColumnFormula>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2316,13 +2320,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="11">
   <autoFilter ref="A72:D92" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4ABA85F0-A778-40FD-BD59-C5D4666608AA}" name="Scene"/>
-    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="8">
       <calculatedColumnFormula>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2331,13 +2335,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="34">
   <autoFilter ref="A94:D114" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7067C8DA-7BB5-4270-8F77-26A275840009}" name="ObjectScrambled"/>
-    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="25"/>
-    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="23">
+    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="31">
       <calculatedColumnFormula>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2645,7 +2649,7 @@
   <dimension ref="A2:H79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3410,7 +3414,7 @@
         <v>115.79746</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="30" t="s">
         <v>45</v>
       </c>
@@ -3435,7 +3439,7 @@
         <v>76.462280000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="30" t="s">
         <v>46</v>
       </c>
@@ -3460,7 +3464,7 @@
         <v>100.8471</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15.75" thickBot="1">
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
       <c r="A36" s="37" t="s">
         <v>26</v>
       </c>
@@ -3482,8 +3486,11 @@
       <c r="G36" s="37" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="15.75" thickTop="1">
+      <c r="H36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" thickTop="1">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -3508,7 +3515,7 @@
         <v>180.17106999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3533,7 +3540,7 @@
         <v>157.5796</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -3558,7 +3565,7 @@
         <v>111.15900000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -3583,7 +3590,7 @@
         <v>145.56</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -3608,7 +3615,7 @@
         <v>164.64499999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3633,7 +3640,7 @@
         <v>118.23899999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3658,7 +3665,7 @@
         <v>112.6523</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -3683,7 +3690,7 @@
         <v>108.486</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -3708,7 +3715,7 @@
         <v>95.614499999999992</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3733,7 +3740,7 @@
         <v>126.54040000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3758,7 +3765,7 @@
         <v>162.2406</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -4386,8 +4393,9 @@
     <row r="79" spans="1:8">
       <c r="A79" s="42"/>
       <c r="B79" s="43"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="44"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB607813-7EBB-4B10-B012-22EE1E325FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E4BCB7-25C8-43A6-A32C-9F7E99B9A509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="170">
   <si>
     <t>apple</t>
   </si>
@@ -522,6 +522,54 @@
   </si>
   <si>
     <t>have now re-centred so that nose bridge is at 0</t>
+  </si>
+  <si>
+    <t>body-part_21</t>
+  </si>
+  <si>
+    <t>Scene_3</t>
+  </si>
+  <si>
+    <t>Scene_6</t>
+  </si>
+  <si>
+    <t>Scene_7</t>
+  </si>
+  <si>
+    <t>Scene_8</t>
+  </si>
+  <si>
+    <t>Scene_9</t>
+  </si>
+  <si>
+    <t>Scene_10</t>
+  </si>
+  <si>
+    <t>Scene_11</t>
+  </si>
+  <si>
+    <t>Scene_12</t>
+  </si>
+  <si>
+    <t>Scene_13</t>
+  </si>
+  <si>
+    <t>Scene_14</t>
+  </si>
+  <si>
+    <t>Scene_15</t>
+  </si>
+  <si>
+    <t>Scene_16</t>
+  </si>
+  <si>
+    <t>Scene_17</t>
+  </si>
+  <si>
+    <t>Scene_18</t>
+  </si>
+  <si>
+    <t>Scene_20</t>
   </si>
 </sst>
 </file>
@@ -903,7 +951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -946,44 +994,36 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="73">
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -1012,34 +1052,71 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1086,29 +1163,219 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1219,13 +1486,6 @@
       </fill>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1248,6 +1508,13 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1278,6 +1545,21 @@
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <vertical/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color indexed="64"/>
@@ -1305,93 +1587,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top/>
         <bottom/>
@@ -1416,168 +1611,11 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <vertical/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
+      <border>
+        <bottom style="double">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -2184,7 +2222,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="I1:N16" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A15B9D7D-90D4-4490-AD0F-6639C18D4AFE}" name="Object"/>
@@ -2199,13 +2237,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="P25:T44" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7F529B42-9949-412D-81C6-BCE79AF237DB}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="23">
+    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="1">
       <calculatedColumnFormula>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3C9C5DEB-D604-4E60-9DAF-E87D2FCCDA70}" name="Name for Laurie"/>
@@ -2235,18 +2273,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A36:G58" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A36:G58" totalsRowShown="0" headerRowBorderDxfId="49" tableBorderDxfId="48">
   <autoFilter ref="A36:G58" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F9320C00-040A-4ECC-97A9-CCBA240DFE63}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="2">
+    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="44">
       <calculatedColumnFormula>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="42">
       <calculatedColumnFormula>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2255,18 +2293,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}" name="Table12" displayName="Table12" ref="A60:G75" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}" name="Table12" displayName="Table12" ref="A60:G75" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="A60:G75" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E0C98B60-AEE8-4106-98DF-C836FA204635}" name="Scene" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{4A5CA146-6F44-4292-AE40-9C210702001D}" name="ID" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{5BF1F243-5E74-4124-A4C6-50B3E8F4E9F7}" name="min (mm)" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{D6E08EAF-5732-4845-A782-4200E1A6DF31}" name="max (mm)" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{27AAF6CD-299E-4FA7-956A-A59501878BCF}" name="difference" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{E0C98B60-AEE8-4106-98DF-C836FA204635}" name="Scene" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{4A5CA146-6F44-4292-AE40-9C210702001D}" name="ID" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{5BF1F243-5E74-4124-A4C6-50B3E8F4E9F7}" name="min (mm)" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{D6E08EAF-5732-4845-A782-4200E1A6DF31}" name="max (mm)" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{27AAF6CD-299E-4FA7-956A-A59501878BCF}" name="difference" dataDxfId="33">
       <calculatedColumnFormula>D61-C61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D0C20C5C-D18A-4D4E-8C35-9D2154952AA2}" name="visible max" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{B4D1D7D5-609F-4DE3-8363-9CBC9B676053}" name="visible range" dataDxfId="12">
+    <tableColumn id="6" xr3:uid="{D0C20C5C-D18A-4D4E-8C35-9D2154952AA2}" name="visible max" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{B4D1D7D5-609F-4DE3-8363-9CBC9B676053}" name="visible range" dataDxfId="32">
       <calculatedColumnFormula>F61-C61</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2275,27 +2313,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="A1:E23" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="30"/>
     <tableColumn id="2" xr3:uid="{154C99C7-865E-4E8A-A7F6-E66DA111723A}" name="min (mm)"/>
-    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="29"/>
+    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="44" headerRowBorderDxfId="43" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
   <autoFilter ref="A25:E44" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{618FF384-60A0-48F4-BD3B-20158698512B}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="39">
+    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="21">
       <calculatedColumnFormula>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B4C77F97-9F8F-4A06-A76F-20F90D6B2055}" name="Name for Laurie"/>
@@ -2305,13 +2343,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="20">
   <autoFilter ref="A46:D70" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A15C451F-5A5A-4ABC-B01B-2C4F05011809}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="35">
+    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="17">
       <calculatedColumnFormula>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2320,13 +2358,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="16">
   <autoFilter ref="A72:D92" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4ABA85F0-A778-40FD-BD59-C5D4666608AA}" name="Scene"/>
-    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="13">
       <calculatedColumnFormula>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2335,13 +2373,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="12">
   <autoFilter ref="A94:D114" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7067C8DA-7BB5-4270-8F77-26A275840009}" name="ObjectScrambled"/>
-    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="33"/>
-    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="31">
+    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="9">
       <calculatedColumnFormula>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2648,8 +2686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEED5E-03E1-4D43-B753-B6D0E922BAC9}">
   <dimension ref="A2:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3419,24 +3457,24 @@
         <v>45</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
       <c r="C33" s="32">
-        <v>-0.33928000000000003</v>
+        <v>0.73014999999999997</v>
       </c>
       <c r="D33" s="33">
-        <v>93.831000000000003</v>
+        <v>201.68</v>
       </c>
       <c r="E33" s="31">
         <f t="shared" si="1"/>
-        <v>94.170280000000005</v>
+        <v>200.94985</v>
       </c>
       <c r="F33" s="31">
-        <v>76.123000000000005</v>
+        <v>173.87</v>
       </c>
       <c r="G33" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>76.462280000000007</v>
+        <v>173.13985</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -3790,7 +3828,7 @@
         <v>155.91899999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -3815,7 +3853,7 @@
         <v>154.83359000000002</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -3840,7 +3878,7 @@
         <v>142.75899999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -3865,7 +3903,7 @@
         <v>114.55800000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -3890,7 +3928,7 @@
         <v>124.876</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -3915,7 +3953,7 @@
         <v>78.114000000000004</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -3940,7 +3978,7 @@
         <v>156.26</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -3965,7 +4003,7 @@
         <v>138.328</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -3990,7 +4028,7 @@
         <v>130.26850000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -4015,7 +4053,7 @@
         <v>131.44710000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -4040,364 +4078,409 @@
         <v>131.529</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A60" s="47" t="s">
+    <row r="60" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A60" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="C60" s="48" t="s">
+      <c r="C60" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="D60" s="49" t="s">
+      <c r="D60" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="51" t="s">
+      <c r="E60" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="F60" s="45" t="s">
+      <c r="F60" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="G60" s="52" t="s">
+      <c r="G60" s="37" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" thickTop="1">
-      <c r="A61" s="46">
+    <row r="61" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A61">
         <v>3</v>
       </c>
-      <c r="B61" s="50"/>
-      <c r="C61" s="42">
+      <c r="B61" t="s">
+        <v>155</v>
+      </c>
+      <c r="C61" s="6">
         <v>6.585</v>
       </c>
-      <c r="D61" s="44">
+      <c r="D61" s="2">
         <v>559.91</v>
       </c>
-      <c r="E61" s="50">
+      <c r="E61">
         <f>D61-C61</f>
         <v>553.32499999999993</v>
       </c>
-      <c r="F61" s="53"/>
-      <c r="G61" s="50">
+      <c r="F61" s="2">
+        <v>559.91</v>
+      </c>
+      <c r="G61">
         <f>F61-C61</f>
-        <v>-6.585</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="46">
+        <v>553.32499999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
         <v>6</v>
       </c>
-      <c r="B62" s="50"/>
-      <c r="C62" s="42">
-        <v>-1149</v>
-      </c>
-      <c r="D62" s="44">
-        <v>-9.6547000000000001</v>
-      </c>
-      <c r="E62" s="50">
+      <c r="B62" t="s">
+        <v>156</v>
+      </c>
+      <c r="C62" s="6">
+        <v>-15.856999999999999</v>
+      </c>
+      <c r="D62" s="2">
+        <v>177.65700000000001</v>
+      </c>
+      <c r="E62">
         <f t="shared" ref="E62:E75" si="2">D62-C62</f>
-        <v>1139.3453</v>
-      </c>
-      <c r="F62" s="53"/>
-      <c r="G62" s="50">
+        <v>193.51400000000001</v>
+      </c>
+      <c r="F62" s="2">
+        <v>177.65700000000001</v>
+      </c>
+      <c r="G62">
         <f t="shared" ref="G62:G75" si="3">F62-C62</f>
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="46">
+        <v>193.51400000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
         <v>7</v>
       </c>
-      <c r="B63" s="50"/>
-      <c r="C63" s="42">
+      <c r="B63" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="6">
         <v>33.917999999999999</v>
       </c>
-      <c r="D63" s="44">
+      <c r="D63" s="2">
         <v>311.38</v>
       </c>
-      <c r="E63" s="50">
+      <c r="E63">
         <f t="shared" si="2"/>
         <v>277.46199999999999</v>
       </c>
-      <c r="F63" s="53"/>
-      <c r="G63" s="50">
+      <c r="F63" s="2">
+        <v>311.38</v>
+      </c>
+      <c r="G63">
         <f t="shared" si="3"/>
-        <v>-33.917999999999999</v>
-      </c>
-      <c r="H63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="46">
+        <v>277.46199999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
         <v>8</v>
       </c>
-      <c r="B64" s="50"/>
-      <c r="C64" s="42">
+      <c r="B64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" s="6">
         <v>-14.363</v>
       </c>
-      <c r="D64" s="44">
+      <c r="D64" s="2">
         <v>310.5</v>
       </c>
-      <c r="E64" s="50">
+      <c r="E64">
         <f t="shared" si="2"/>
         <v>324.863</v>
       </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="50">
+      <c r="F64" s="2">
+        <v>310.5</v>
+      </c>
+      <c r="G64">
         <f t="shared" si="3"/>
-        <v>14.363</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="46">
+        <v>324.863</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
         <v>9</v>
       </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="42">
+      <c r="B65" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" s="6">
         <v>18.079999999999998</v>
       </c>
-      <c r="D65" s="44">
+      <c r="D65" s="2">
         <v>429.14</v>
       </c>
-      <c r="E65" s="50">
+      <c r="E65">
         <f t="shared" si="2"/>
         <v>411.06</v>
       </c>
-      <c r="F65" s="53"/>
-      <c r="G65" s="50">
+      <c r="F65" s="2">
+        <v>429.14</v>
+      </c>
+      <c r="G65">
         <f t="shared" si="3"/>
-        <v>-18.079999999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="46">
+        <v>411.06</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
         <v>10</v>
       </c>
-      <c r="B66" s="50"/>
-      <c r="C66" s="42">
+      <c r="B66" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="6">
         <v>-11.029</v>
       </c>
-      <c r="D66" s="44">
+      <c r="D66" s="2">
         <v>605.14</v>
       </c>
-      <c r="E66" s="50">
+      <c r="E66">
         <f t="shared" si="2"/>
         <v>616.16899999999998</v>
       </c>
-      <c r="F66" s="53"/>
-      <c r="G66" s="50">
+      <c r="F66" s="2">
+        <v>605.14</v>
+      </c>
+      <c r="G66">
         <f t="shared" si="3"/>
-        <v>11.029</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="46">
+        <v>616.16899999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
         <v>11</v>
       </c>
-      <c r="B67" s="50"/>
-      <c r="C67" s="42">
+      <c r="B67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="6">
         <v>924544</v>
       </c>
-      <c r="D67" s="44">
+      <c r="D67" s="2">
         <v>934324</v>
       </c>
-      <c r="E67" s="50">
+      <c r="E67">
         <f t="shared" si="2"/>
         <v>9780</v>
       </c>
-      <c r="F67" s="53"/>
-      <c r="G67" s="50">
+      <c r="F67" s="2">
+        <v>934324</v>
+      </c>
+      <c r="G67">
         <f t="shared" si="3"/>
-        <v>-924544</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="46">
+        <v>9780</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
         <v>12</v>
       </c>
-      <c r="B68" s="50"/>
-      <c r="C68" s="42">
+      <c r="B68" t="s">
+        <v>162</v>
+      </c>
+      <c r="C68" s="6">
         <v>923177</v>
       </c>
-      <c r="D68" s="44">
+      <c r="D68" s="2">
         <v>934554</v>
       </c>
-      <c r="E68" s="50">
+      <c r="E68">
         <f t="shared" si="2"/>
         <v>11377</v>
       </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="50">
+      <c r="F68" s="2">
+        <v>934554</v>
+      </c>
+      <c r="G68">
         <f t="shared" si="3"/>
-        <v>-923177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="46">
+        <v>11377</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
         <v>13</v>
       </c>
-      <c r="B69" s="50"/>
-      <c r="C69" s="42">
+      <c r="B69" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="6">
         <v>317.81</v>
       </c>
-      <c r="D69" s="44">
+      <c r="D69" s="2">
         <v>597.16</v>
       </c>
-      <c r="E69" s="50">
+      <c r="E69">
         <f t="shared" si="2"/>
         <v>279.34999999999997</v>
       </c>
-      <c r="F69" s="53"/>
-      <c r="G69" s="50">
+      <c r="F69" s="2">
+        <v>597.16</v>
+      </c>
+      <c r="G69">
         <f t="shared" si="3"/>
-        <v>-317.81</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="46">
+        <v>279.34999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
         <v>14</v>
       </c>
-      <c r="B70" s="50"/>
-      <c r="C70" s="42">
+      <c r="B70" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="6">
         <v>328.98</v>
       </c>
-      <c r="D70" s="44">
+      <c r="D70" s="2">
         <v>598.79999999999995</v>
       </c>
-      <c r="E70" s="50">
+      <c r="E70">
         <f t="shared" si="2"/>
         <v>269.81999999999994</v>
       </c>
-      <c r="F70" s="53"/>
-      <c r="G70" s="50">
+      <c r="F70" s="2">
+        <v>598.79999999999995</v>
+      </c>
+      <c r="G70">
         <f t="shared" si="3"/>
-        <v>-328.98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="46">
+        <v>269.81999999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
         <v>15</v>
       </c>
-      <c r="B71" s="50"/>
-      <c r="C71" s="42">
+      <c r="B71" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="6">
         <v>147.85</v>
       </c>
-      <c r="D71" s="44">
+      <c r="D71" s="2">
         <v>502</v>
       </c>
-      <c r="E71" s="50">
+      <c r="E71">
         <f t="shared" si="2"/>
         <v>354.15</v>
       </c>
-      <c r="F71" s="53"/>
-      <c r="G71" s="50">
+      <c r="F71" s="2">
+        <v>502</v>
+      </c>
+      <c r="G71">
         <f t="shared" si="3"/>
-        <v>-147.85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="46">
+        <v>354.15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
         <v>16</v>
       </c>
-      <c r="B72" s="50"/>
-      <c r="C72" s="42">
+      <c r="B72" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="6">
         <v>348.07</v>
       </c>
-      <c r="D72" s="44">
+      <c r="D72" s="2">
         <v>821.09</v>
       </c>
-      <c r="E72" s="50">
+      <c r="E72">
         <f t="shared" si="2"/>
         <v>473.02000000000004</v>
       </c>
-      <c r="F72" s="53"/>
-      <c r="G72" s="50">
+      <c r="F72" s="2">
+        <v>821.09</v>
+      </c>
+      <c r="G72">
         <f t="shared" si="3"/>
-        <v>-348.07</v>
-      </c>
-      <c r="H72" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="46">
+        <v>473.02000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
         <v>17</v>
       </c>
-      <c r="B73" s="50"/>
-      <c r="C73" s="42">
+      <c r="B73" t="s">
+        <v>167</v>
+      </c>
+      <c r="C73" s="6">
         <v>17.748000000000001</v>
       </c>
-      <c r="D73" s="44">
+      <c r="D73" s="2">
         <v>684.41</v>
       </c>
-      <c r="E73" s="50">
+      <c r="E73">
         <f t="shared" si="2"/>
         <v>666.66199999999992</v>
       </c>
-      <c r="F73" s="53"/>
-      <c r="G73" s="50">
+      <c r="F73" s="2">
+        <v>684.41</v>
+      </c>
+      <c r="G73">
         <f t="shared" si="3"/>
-        <v>-17.748000000000001</v>
-      </c>
-      <c r="H73" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="46">
+        <v>666.66199999999992</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
         <v>18</v>
       </c>
-      <c r="B74" s="50"/>
-      <c r="C74" s="42">
+      <c r="B74" t="s">
+        <v>168</v>
+      </c>
+      <c r="C74" s="6">
         <v>-155.75</v>
       </c>
-      <c r="D74" s="44">
+      <c r="D74" s="2">
         <v>248.88</v>
       </c>
-      <c r="E74" s="50">
+      <c r="E74">
         <f t="shared" si="2"/>
         <v>404.63</v>
       </c>
-      <c r="F74" s="53"/>
-      <c r="G74" s="50">
+      <c r="F74" s="2">
+        <v>248.88</v>
+      </c>
+      <c r="G74">
         <f t="shared" si="3"/>
-        <v>155.75</v>
-      </c>
-      <c r="H74" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="46">
+        <v>404.63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
         <v>20</v>
       </c>
-      <c r="B75" s="50"/>
-      <c r="C75" s="42">
+      <c r="B75" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" s="6">
         <v>-34.231000000000002</v>
       </c>
-      <c r="D75" s="44">
+      <c r="D75" s="2">
         <v>482.67</v>
       </c>
-      <c r="E75" s="50">
+      <c r="E75">
         <f t="shared" si="2"/>
         <v>516.90100000000007</v>
       </c>
-      <c r="F75" s="54"/>
-      <c r="G75" s="50">
+      <c r="F75" s="2">
+        <v>482.67</v>
+      </c>
+      <c r="G75">
         <f t="shared" si="3"/>
-        <v>34.231000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="42"/>
-      <c r="B79" s="43"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="55"/>
+        <v>516.90100000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
@@ -4413,8 +4496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305C46E9-DBCF-4732-A226-FBA3B04D35E8}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F85" sqref="F85"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6268,7 +6351,7 @@
       <c r="D72" t="s">
         <v>24</v>
       </c>
-      <c r="I72" s="13" t="s">
+      <c r="I72" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6286,7 +6369,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>549.99760000000003</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="22" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6304,7 +6387,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>553.32470000000001</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="22" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6322,6 +6405,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>553.32499999999993</v>
       </c>
+      <c r="I75" s="22"/>
     </row>
     <row r="76" spans="1:12">
       <c r="A76">
@@ -6337,7 +6421,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>570.05499999999995</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="22" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6355,7 +6439,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>570.05499999999995</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="22" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6364,15 +6448,16 @@
         <v>6</v>
       </c>
       <c r="B78" s="6">
-        <v>-1149</v>
+        <v>-15.856999999999999</v>
       </c>
       <c r="C78" s="2">
-        <v>-9.6547000000000001</v>
+        <v>177.65700000000001</v>
       </c>
       <c r="D78">
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
-        <v>1139.3453</v>
-      </c>
+        <v>193.51400000000001</v>
+      </c>
+      <c r="I78" s="22"/>
     </row>
     <row r="79" spans="1:12">
       <c r="A79">
@@ -6388,7 +6473,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>277.46199999999999</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="22" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6406,6 +6491,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>324.863</v>
       </c>
+      <c r="I80" s="22"/>
     </row>
     <row r="81" spans="1:9">
       <c r="A81">
@@ -6421,6 +6507,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>411.06</v>
       </c>
+      <c r="I81" s="22"/>
     </row>
     <row r="82" spans="1:9">
       <c r="A82">
@@ -6436,6 +6523,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>616.16899999999998</v>
       </c>
+      <c r="I82" s="22"/>
     </row>
     <row r="83" spans="1:9">
       <c r="A83">
@@ -6451,6 +6539,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>9780</v>
       </c>
+      <c r="I83" s="22"/>
     </row>
     <row r="84" spans="1:9">
       <c r="A84">
@@ -6466,6 +6555,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>11377</v>
       </c>
+      <c r="I84" s="22"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85">
@@ -6481,6 +6571,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>279.34999999999997</v>
       </c>
+      <c r="I85" s="22"/>
     </row>
     <row r="86" spans="1:9">
       <c r="A86">
@@ -6496,6 +6587,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>269.81999999999994</v>
       </c>
+      <c r="I86" s="22"/>
     </row>
     <row r="87" spans="1:9">
       <c r="A87">
@@ -6511,6 +6603,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>354.15</v>
       </c>
+      <c r="I87" s="22"/>
     </row>
     <row r="88" spans="1:9">
       <c r="A88">
@@ -6526,7 +6619,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>473.02000000000004</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="22" t="s">
         <v>150</v>
       </c>
     </row>
@@ -6544,7 +6637,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>666.66199999999992</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="22" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6562,7 +6655,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>404.63</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="22" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6580,7 +6673,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>78.930000000000007</v>
       </c>
-      <c r="I91" s="6" t="s">
+      <c r="I91" s="22" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6598,6 +6691,7 @@
         <f>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</f>
         <v>516.90100000000007</v>
       </c>
+      <c r="I92" s="22"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" t="s">

--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02E4BCB7-25C8-43A6-A32C-9F7E99B9A509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBD2014-5CA5-4030-8890-94D174B40914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="169">
   <si>
     <t>apple</t>
   </si>
@@ -504,9 +504,6 @@
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>object-solid_18</t>
   </si>
   <si>
     <t>add texture to background wall (slight, non-repeating)</t>
@@ -1003,24 +1000,6 @@
   </cellStyles>
   <dxfs count="73">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1376,6 +1355,24 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2222,7 +2219,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="I1:N16" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A15B9D7D-90D4-4490-AD0F-6639C18D4AFE}" name="Object"/>
@@ -2237,13 +2234,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="P25:T44" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7F529B42-9949-412D-81C6-BCE79AF237DB}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="1">
+    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="0">
       <calculatedColumnFormula>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3C9C5DEB-D604-4E60-9DAF-E87D2FCCDA70}" name="Name for Laurie"/>
@@ -2303,8 +2300,8 @@
     <tableColumn id="5" xr3:uid="{27AAF6CD-299E-4FA7-956A-A59501878BCF}" name="difference" dataDxfId="33">
       <calculatedColumnFormula>D61-C61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D0C20C5C-D18A-4D4E-8C35-9D2154952AA2}" name="visible max" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{B4D1D7D5-609F-4DE3-8363-9CBC9B676053}" name="visible range" dataDxfId="32">
+    <tableColumn id="6" xr3:uid="{D0C20C5C-D18A-4D4E-8C35-9D2154952AA2}" name="visible max" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{B4D1D7D5-609F-4DE3-8363-9CBC9B676053}" name="visible range" dataDxfId="31">
       <calculatedColumnFormula>F61-C61</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2313,27 +2310,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A1:E23" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{154C99C7-865E-4E8A-A7F6-E66DA111723A}" name="min (mm)"/>
-    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="29"/>
-    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="26" headerRowBorderDxfId="25" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A25:E44" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{618FF384-60A0-48F4-BD3B-20158698512B}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="21">
+    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="20">
       <calculatedColumnFormula>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B4C77F97-9F8F-4A06-A76F-20F90D6B2055}" name="Name for Laurie"/>
@@ -2343,13 +2340,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="19">
   <autoFilter ref="A46:D70" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A15C451F-5A5A-4ABC-B01B-2C4F05011809}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="17">
+    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="16">
       <calculatedColumnFormula>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2358,13 +2355,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="15">
   <autoFilter ref="A72:D92" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4ABA85F0-A778-40FD-BD59-C5D4666608AA}" name="Scene"/>
-    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="13">
+    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="12">
       <calculatedColumnFormula>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2373,13 +2370,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="11">
   <autoFilter ref="A94:D114" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7067C8DA-7BB5-4270-8F77-26A275840009}" name="ObjectScrambled"/>
-    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="9">
+    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="8">
       <calculatedColumnFormula>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2686,8 +2683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEED5E-03E1-4D43-B753-B6D0E922BAC9}">
   <dimension ref="A2:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="J67" sqref="J67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3000,7 +2997,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>148</v>
+        <v>104</v>
       </c>
       <c r="C14" s="32">
         <v>2.6749999999999998</v>
@@ -3025,7 +3022,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C15" s="35">
         <v>-1.216</v>
@@ -3457,7 +3454,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C33" s="32">
         <v>0.73014999999999997</v>
@@ -3525,7 +3522,7 @@
         <v>146</v>
       </c>
       <c r="H36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" thickTop="1">
@@ -4106,7 +4103,7 @@
         <v>3</v>
       </c>
       <c r="B61" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C61" s="6">
         <v>6.585</v>
@@ -4131,7 +4128,7 @@
         <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C62" s="6">
         <v>-15.856999999999999</v>
@@ -4156,7 +4153,7 @@
         <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C63" s="6">
         <v>33.917999999999999</v>
@@ -4181,7 +4178,7 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C64" s="6">
         <v>-14.363</v>
@@ -4206,7 +4203,7 @@
         <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C65" s="6">
         <v>18.079999999999998</v>
@@ -4231,7 +4228,7 @@
         <v>10</v>
       </c>
       <c r="B66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C66" s="6">
         <v>-11.029</v>
@@ -4256,7 +4253,7 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C67" s="6">
         <v>924544</v>
@@ -4281,7 +4278,7 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C68" s="6">
         <v>923177</v>
@@ -4306,7 +4303,7 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C69" s="6">
         <v>317.81</v>
@@ -4331,7 +4328,7 @@
         <v>14</v>
       </c>
       <c r="B70" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C70" s="6">
         <v>328.98</v>
@@ -4356,7 +4353,7 @@
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C71" s="6">
         <v>147.85</v>
@@ -4381,7 +4378,7 @@
         <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C72" s="6">
         <v>348.07</v>
@@ -4406,7 +4403,7 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C73" s="6">
         <v>17.748000000000001</v>
@@ -4431,7 +4428,7 @@
         <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C74" s="6">
         <v>-155.75</v>
@@ -4456,7 +4453,7 @@
         <v>20</v>
       </c>
       <c r="B75" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C75" s="6">
         <v>-34.231000000000002</v>
@@ -6370,7 +6367,7 @@
         <v>549.99760000000003</v>
       </c>
       <c r="I73" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -6388,7 +6385,7 @@
         <v>553.32470000000001</v>
       </c>
       <c r="I74" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -6422,7 +6419,7 @@
         <v>570.05499999999995</v>
       </c>
       <c r="I76" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -6440,7 +6437,7 @@
         <v>570.05499999999995</v>
       </c>
       <c r="I77" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -6474,7 +6471,7 @@
         <v>277.46199999999999</v>
       </c>
       <c r="I79" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -6620,7 +6617,7 @@
         <v>473.02000000000004</v>
       </c>
       <c r="I88" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -6638,7 +6635,7 @@
         <v>666.66199999999992</v>
       </c>
       <c r="I89" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -6656,7 +6653,7 @@
         <v>404.63</v>
       </c>
       <c r="I90" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -6674,7 +6671,7 @@
         <v>78.930000000000007</v>
       </c>
       <c r="I91" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:9">

--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBD2014-5CA5-4030-8890-94D174B40914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FC9C68-8A9B-4C6C-975D-D9E2CA102A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
   <sheets>
-    <sheet name="final" sheetId="2" r:id="rId1"/>
-    <sheet name="old" sheetId="1" r:id="rId2"/>
+    <sheet name="histogram" sheetId="4" r:id="rId1"/>
+    <sheet name="final" sheetId="2" r:id="rId2"/>
+    <sheet name="old" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="173">
   <si>
     <t>apple</t>
   </si>
@@ -567,6 +568,18 @@
   </si>
   <si>
     <t>Scene_20</t>
+  </si>
+  <si>
+    <t>Grey Level</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>MIN</t>
   </si>
 </sst>
 </file>
@@ -635,7 +648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -648,8 +661,14 @@
         <bgColor theme="6" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -944,11 +963,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -994,6 +1039,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2680,10 +2739,2484 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D578D86-D93F-4507-92E5-98F2DF597463}">
+  <dimension ref="A1:BA16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="29" width="5" customWidth="1"/>
+    <col min="30" max="43" width="7.42578125" customWidth="1"/>
+    <col min="44" max="53" width="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:53">
+      <c r="A1" s="3"/>
+      <c r="B1" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="22">
+        <v>0</v>
+      </c>
+      <c r="D1" s="22">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E1" s="22">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F1" s="22">
+        <v>15.3</v>
+      </c>
+      <c r="G1" s="22">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="H1" s="22">
+        <v>25.5</v>
+      </c>
+      <c r="I1" s="22">
+        <v>30.6</v>
+      </c>
+      <c r="J1" s="22">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="K1" s="22">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="L1" s="22">
+        <v>45.9</v>
+      </c>
+      <c r="M1" s="22">
+        <v>51</v>
+      </c>
+      <c r="N1" s="22">
+        <v>56.1</v>
+      </c>
+      <c r="O1" s="22">
+        <v>61.2</v>
+      </c>
+      <c r="P1" s="22">
+        <v>66.3</v>
+      </c>
+      <c r="Q1" s="22">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="R1" s="22">
+        <v>76.5</v>
+      </c>
+      <c r="S1" s="22">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="T1" s="22">
+        <v>86.7</v>
+      </c>
+      <c r="U1" s="22">
+        <v>91.8</v>
+      </c>
+      <c r="V1" s="22">
+        <v>96.9</v>
+      </c>
+      <c r="W1" s="22">
+        <v>102</v>
+      </c>
+      <c r="X1" s="22">
+        <v>107.1</v>
+      </c>
+      <c r="Y1" s="22">
+        <v>112.2</v>
+      </c>
+      <c r="Z1" s="22">
+        <v>117.3</v>
+      </c>
+      <c r="AA1" s="22">
+        <v>122.4</v>
+      </c>
+      <c r="AB1" s="22">
+        <v>127.5</v>
+      </c>
+      <c r="AC1" s="22">
+        <v>132.6</v>
+      </c>
+      <c r="AD1" s="22">
+        <v>137.69999999999999</v>
+      </c>
+      <c r="AE1" s="22">
+        <v>142.80000000000001</v>
+      </c>
+      <c r="AF1" s="22">
+        <v>147.9</v>
+      </c>
+      <c r="AG1" s="22">
+        <v>153</v>
+      </c>
+      <c r="AH1" s="22">
+        <v>158.1</v>
+      </c>
+      <c r="AI1" s="22">
+        <v>163.19999999999999</v>
+      </c>
+      <c r="AJ1" s="22">
+        <v>168.3</v>
+      </c>
+      <c r="AK1" s="22">
+        <v>173.4</v>
+      </c>
+      <c r="AL1" s="22">
+        <v>178.5</v>
+      </c>
+      <c r="AM1" s="22">
+        <v>183.6</v>
+      </c>
+      <c r="AN1" s="22">
+        <v>188.7</v>
+      </c>
+      <c r="AO1" s="22">
+        <v>193.8</v>
+      </c>
+      <c r="AP1" s="22">
+        <v>198.9</v>
+      </c>
+      <c r="AQ1" s="22">
+        <v>204</v>
+      </c>
+      <c r="AR1" s="22">
+        <v>209.1</v>
+      </c>
+      <c r="AS1" s="22">
+        <v>214.2</v>
+      </c>
+      <c r="AT1" s="22">
+        <v>219.3</v>
+      </c>
+      <c r="AU1" s="22">
+        <v>224.4</v>
+      </c>
+      <c r="AV1" s="22">
+        <v>229.5</v>
+      </c>
+      <c r="AW1" s="22">
+        <v>234.6</v>
+      </c>
+      <c r="AX1" s="22">
+        <v>239.7</v>
+      </c>
+      <c r="AY1" s="22">
+        <v>244.8</v>
+      </c>
+      <c r="AZ1" s="22">
+        <v>249.9</v>
+      </c>
+      <c r="BA1" s="22">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53">
+      <c r="A2" s="6"/>
+      <c r="B2" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="52"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="52"/>
+      <c r="AO2" s="52"/>
+      <c r="AP2" s="52"/>
+      <c r="AQ2" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="22"/>
+      <c r="AT2" s="22"/>
+      <c r="AU2" s="22"/>
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+    </row>
+    <row r="3" spans="1:53">
+      <c r="A3" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="51">
+        <v>1</v>
+      </c>
+      <c r="C3" s="46">
+        <v>6062325</v>
+      </c>
+      <c r="D3" s="46">
+        <v>0</v>
+      </c>
+      <c r="E3" s="46">
+        <v>6</v>
+      </c>
+      <c r="F3" s="46">
+        <v>3</v>
+      </c>
+      <c r="G3" s="46">
+        <v>9</v>
+      </c>
+      <c r="H3" s="46">
+        <v>15</v>
+      </c>
+      <c r="I3" s="46">
+        <v>12</v>
+      </c>
+      <c r="J3" s="46">
+        <v>24</v>
+      </c>
+      <c r="K3" s="46">
+        <v>36</v>
+      </c>
+      <c r="L3" s="46">
+        <v>36</v>
+      </c>
+      <c r="M3" s="46">
+        <v>54</v>
+      </c>
+      <c r="N3" s="46">
+        <v>69</v>
+      </c>
+      <c r="O3" s="46">
+        <v>96</v>
+      </c>
+      <c r="P3" s="46">
+        <v>132</v>
+      </c>
+      <c r="Q3" s="46">
+        <v>129</v>
+      </c>
+      <c r="R3" s="46">
+        <v>183</v>
+      </c>
+      <c r="S3" s="46">
+        <v>162</v>
+      </c>
+      <c r="T3" s="46">
+        <v>156</v>
+      </c>
+      <c r="U3" s="46">
+        <v>189</v>
+      </c>
+      <c r="V3" s="46">
+        <v>228</v>
+      </c>
+      <c r="W3" s="46">
+        <v>261</v>
+      </c>
+      <c r="X3" s="46">
+        <v>273</v>
+      </c>
+      <c r="Y3" s="46">
+        <v>312</v>
+      </c>
+      <c r="Z3" s="46">
+        <v>438</v>
+      </c>
+      <c r="AA3" s="46">
+        <v>573</v>
+      </c>
+      <c r="AB3" s="46">
+        <v>765</v>
+      </c>
+      <c r="AC3" s="46">
+        <v>786</v>
+      </c>
+      <c r="AD3" s="48">
+        <v>1056</v>
+      </c>
+      <c r="AE3" s="47">
+        <v>1596</v>
+      </c>
+      <c r="AF3" s="47">
+        <v>2370</v>
+      </c>
+      <c r="AG3" s="47">
+        <v>3648</v>
+      </c>
+      <c r="AH3" s="47">
+        <v>4716</v>
+      </c>
+      <c r="AI3" s="47">
+        <v>7419</v>
+      </c>
+      <c r="AJ3" s="47">
+        <v>6663</v>
+      </c>
+      <c r="AK3" s="47">
+        <v>4452</v>
+      </c>
+      <c r="AL3" s="47">
+        <v>7617</v>
+      </c>
+      <c r="AM3" s="47">
+        <v>8223</v>
+      </c>
+      <c r="AN3" s="47">
+        <v>10728</v>
+      </c>
+      <c r="AO3" s="47">
+        <v>17538</v>
+      </c>
+      <c r="AP3" s="47">
+        <v>30069</v>
+      </c>
+      <c r="AQ3" s="49">
+        <v>47304</v>
+      </c>
+      <c r="AR3" s="46">
+        <v>129</v>
+      </c>
+      <c r="AS3" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX3" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53">
+      <c r="A4" s="50"/>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="46">
+        <v>5968608</v>
+      </c>
+      <c r="D4" s="46">
+        <v>6</v>
+      </c>
+      <c r="E4" s="46">
+        <v>3</v>
+      </c>
+      <c r="F4" s="46">
+        <v>3</v>
+      </c>
+      <c r="G4" s="46">
+        <v>6</v>
+      </c>
+      <c r="H4" s="46">
+        <v>12</v>
+      </c>
+      <c r="I4" s="46">
+        <v>9</v>
+      </c>
+      <c r="J4" s="46">
+        <v>15</v>
+      </c>
+      <c r="K4" s="46">
+        <v>105</v>
+      </c>
+      <c r="L4" s="46">
+        <v>111</v>
+      </c>
+      <c r="M4" s="46">
+        <v>159</v>
+      </c>
+      <c r="N4" s="46">
+        <v>24</v>
+      </c>
+      <c r="O4" s="46">
+        <v>39</v>
+      </c>
+      <c r="P4" s="46">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="46">
+        <v>0</v>
+      </c>
+      <c r="R4" s="46">
+        <v>87</v>
+      </c>
+      <c r="S4" s="46">
+        <v>0</v>
+      </c>
+      <c r="T4" s="46">
+        <v>60</v>
+      </c>
+      <c r="U4" s="46">
+        <v>120</v>
+      </c>
+      <c r="V4" s="46">
+        <v>120</v>
+      </c>
+      <c r="W4" s="46">
+        <v>375</v>
+      </c>
+      <c r="X4" s="46">
+        <v>510</v>
+      </c>
+      <c r="Y4" s="46">
+        <v>582</v>
+      </c>
+      <c r="Z4" s="46">
+        <v>867</v>
+      </c>
+      <c r="AA4" s="46">
+        <v>1332</v>
+      </c>
+      <c r="AB4" s="46">
+        <v>2574</v>
+      </c>
+      <c r="AC4" s="46">
+        <v>3024</v>
+      </c>
+      <c r="AD4" s="48">
+        <v>4713</v>
+      </c>
+      <c r="AE4" s="47">
+        <v>5979</v>
+      </c>
+      <c r="AF4" s="47">
+        <v>4935</v>
+      </c>
+      <c r="AG4" s="47">
+        <v>4464</v>
+      </c>
+      <c r="AH4" s="47">
+        <v>6054</v>
+      </c>
+      <c r="AI4" s="47">
+        <v>7626</v>
+      </c>
+      <c r="AJ4" s="47">
+        <v>11265</v>
+      </c>
+      <c r="AK4" s="47">
+        <v>23907</v>
+      </c>
+      <c r="AL4" s="47">
+        <v>51723</v>
+      </c>
+      <c r="AM4" s="47">
+        <v>45765</v>
+      </c>
+      <c r="AN4" s="47">
+        <v>4776</v>
+      </c>
+      <c r="AO4" s="47">
+        <v>3855</v>
+      </c>
+      <c r="AP4" s="47">
+        <v>39303</v>
+      </c>
+      <c r="AQ4" s="49">
+        <v>27504</v>
+      </c>
+      <c r="AR4" s="46">
+        <v>180</v>
+      </c>
+      <c r="AS4" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53">
+      <c r="A5" s="50"/>
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="46">
+        <v>6038766</v>
+      </c>
+      <c r="D5" s="46">
+        <v>120</v>
+      </c>
+      <c r="E5" s="46">
+        <v>129</v>
+      </c>
+      <c r="F5" s="46">
+        <v>75</v>
+      </c>
+      <c r="G5" s="46">
+        <v>93</v>
+      </c>
+      <c r="H5" s="46">
+        <v>126</v>
+      </c>
+      <c r="I5" s="46">
+        <v>117</v>
+      </c>
+      <c r="J5" s="46">
+        <v>135</v>
+      </c>
+      <c r="K5" s="46">
+        <v>156</v>
+      </c>
+      <c r="L5" s="46">
+        <v>126</v>
+      </c>
+      <c r="M5" s="46">
+        <v>84</v>
+      </c>
+      <c r="N5" s="46">
+        <v>102</v>
+      </c>
+      <c r="O5" s="46">
+        <v>96</v>
+      </c>
+      <c r="P5" s="46">
+        <v>102</v>
+      </c>
+      <c r="Q5" s="46">
+        <v>129</v>
+      </c>
+      <c r="R5" s="46">
+        <v>147</v>
+      </c>
+      <c r="S5" s="46">
+        <v>111</v>
+      </c>
+      <c r="T5" s="46">
+        <v>87</v>
+      </c>
+      <c r="U5" s="46">
+        <v>114</v>
+      </c>
+      <c r="V5" s="46">
+        <v>105</v>
+      </c>
+      <c r="W5" s="46">
+        <v>117</v>
+      </c>
+      <c r="X5" s="46">
+        <v>132</v>
+      </c>
+      <c r="Y5" s="46">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="46">
+        <v>174</v>
+      </c>
+      <c r="AA5" s="46">
+        <v>264</v>
+      </c>
+      <c r="AB5" s="46">
+        <v>549</v>
+      </c>
+      <c r="AC5" s="46">
+        <v>471</v>
+      </c>
+      <c r="AD5" s="48">
+        <v>561</v>
+      </c>
+      <c r="AE5" s="47">
+        <v>627</v>
+      </c>
+      <c r="AF5" s="47">
+        <v>765</v>
+      </c>
+      <c r="AG5" s="47">
+        <v>351</v>
+      </c>
+      <c r="AH5" s="47">
+        <v>678</v>
+      </c>
+      <c r="AI5" s="47">
+        <v>1284</v>
+      </c>
+      <c r="AJ5" s="47">
+        <v>2304</v>
+      </c>
+      <c r="AK5" s="47">
+        <v>1452</v>
+      </c>
+      <c r="AL5" s="47">
+        <v>4305</v>
+      </c>
+      <c r="AM5" s="47">
+        <v>27051</v>
+      </c>
+      <c r="AN5" s="47">
+        <v>47454</v>
+      </c>
+      <c r="AO5" s="47">
+        <v>53526</v>
+      </c>
+      <c r="AP5" s="47">
+        <v>22266</v>
+      </c>
+      <c r="AQ5" s="49">
+        <v>15180</v>
+      </c>
+      <c r="AR5" s="46">
+        <v>189</v>
+      </c>
+      <c r="AS5" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53">
+      <c r="A6" s="50"/>
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="46">
+        <v>5993547</v>
+      </c>
+      <c r="D6" s="46">
+        <v>0</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0</v>
+      </c>
+      <c r="F6" s="46">
+        <v>0</v>
+      </c>
+      <c r="G6" s="46">
+        <v>0</v>
+      </c>
+      <c r="H6" s="46">
+        <v>0</v>
+      </c>
+      <c r="I6" s="46">
+        <v>0</v>
+      </c>
+      <c r="J6" s="46">
+        <v>0</v>
+      </c>
+      <c r="K6" s="46">
+        <v>6</v>
+      </c>
+      <c r="L6" s="46">
+        <v>12</v>
+      </c>
+      <c r="M6" s="46">
+        <v>9</v>
+      </c>
+      <c r="N6" s="46">
+        <v>9</v>
+      </c>
+      <c r="O6" s="46">
+        <v>36</v>
+      </c>
+      <c r="P6" s="46">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="46">
+        <v>51</v>
+      </c>
+      <c r="R6" s="46">
+        <v>96</v>
+      </c>
+      <c r="S6" s="46">
+        <v>120</v>
+      </c>
+      <c r="T6" s="46">
+        <v>132</v>
+      </c>
+      <c r="U6" s="46">
+        <v>150</v>
+      </c>
+      <c r="V6" s="46">
+        <v>171</v>
+      </c>
+      <c r="W6" s="46">
+        <v>204</v>
+      </c>
+      <c r="X6" s="46">
+        <v>279</v>
+      </c>
+      <c r="Y6" s="46">
+        <v>429</v>
+      </c>
+      <c r="Z6" s="46">
+        <v>666</v>
+      </c>
+      <c r="AA6" s="46">
+        <v>756</v>
+      </c>
+      <c r="AB6" s="46">
+        <v>1179</v>
+      </c>
+      <c r="AC6" s="46">
+        <v>1350</v>
+      </c>
+      <c r="AD6" s="48">
+        <v>1185</v>
+      </c>
+      <c r="AE6" s="47">
+        <v>1059</v>
+      </c>
+      <c r="AF6" s="47">
+        <v>1692</v>
+      </c>
+      <c r="AG6" s="47">
+        <v>2550</v>
+      </c>
+      <c r="AH6" s="47">
+        <v>3186</v>
+      </c>
+      <c r="AI6" s="47">
+        <v>4293</v>
+      </c>
+      <c r="AJ6" s="47">
+        <v>6198</v>
+      </c>
+      <c r="AK6" s="47">
+        <v>7443</v>
+      </c>
+      <c r="AL6" s="47">
+        <v>11340</v>
+      </c>
+      <c r="AM6" s="47">
+        <v>13746</v>
+      </c>
+      <c r="AN6" s="47">
+        <v>25155</v>
+      </c>
+      <c r="AO6" s="47">
+        <v>32619</v>
+      </c>
+      <c r="AP6" s="47">
+        <v>65949</v>
+      </c>
+      <c r="AQ6" s="49">
+        <v>44700</v>
+      </c>
+      <c r="AR6" s="46">
+        <v>465</v>
+      </c>
+      <c r="AS6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53">
+      <c r="A7" s="50"/>
+      <c r="B7" s="19">
+        <v>6</v>
+      </c>
+      <c r="C7" s="46">
+        <v>5881356</v>
+      </c>
+      <c r="D7" s="46">
+        <v>0</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0</v>
+      </c>
+      <c r="F7" s="46">
+        <v>6</v>
+      </c>
+      <c r="G7" s="46">
+        <v>0</v>
+      </c>
+      <c r="H7" s="46">
+        <v>3</v>
+      </c>
+      <c r="I7" s="46">
+        <v>6</v>
+      </c>
+      <c r="J7" s="46">
+        <v>3</v>
+      </c>
+      <c r="K7" s="46">
+        <v>3</v>
+      </c>
+      <c r="L7" s="46">
+        <v>9</v>
+      </c>
+      <c r="M7" s="46">
+        <v>9</v>
+      </c>
+      <c r="N7" s="46">
+        <v>15</v>
+      </c>
+      <c r="O7" s="46">
+        <v>18</v>
+      </c>
+      <c r="P7" s="46">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="46">
+        <v>21</v>
+      </c>
+      <c r="R7" s="46">
+        <v>36</v>
+      </c>
+      <c r="S7" s="46">
+        <v>66</v>
+      </c>
+      <c r="T7" s="46">
+        <v>114</v>
+      </c>
+      <c r="U7" s="46">
+        <v>135</v>
+      </c>
+      <c r="V7" s="46">
+        <v>183</v>
+      </c>
+      <c r="W7" s="46">
+        <v>261</v>
+      </c>
+      <c r="X7" s="46">
+        <v>609</v>
+      </c>
+      <c r="Y7" s="46">
+        <v>1005</v>
+      </c>
+      <c r="Z7" s="46">
+        <v>1428</v>
+      </c>
+      <c r="AA7" s="46">
+        <v>2568</v>
+      </c>
+      <c r="AB7" s="46">
+        <v>5061</v>
+      </c>
+      <c r="AC7" s="46">
+        <v>6924</v>
+      </c>
+      <c r="AD7" s="48">
+        <v>11766</v>
+      </c>
+      <c r="AE7" s="47">
+        <v>15858</v>
+      </c>
+      <c r="AF7" s="47">
+        <v>20271</v>
+      </c>
+      <c r="AG7" s="47">
+        <v>19446</v>
+      </c>
+      <c r="AH7" s="47">
+        <v>23079</v>
+      </c>
+      <c r="AI7" s="47">
+        <v>23118</v>
+      </c>
+      <c r="AJ7" s="47">
+        <v>27720</v>
+      </c>
+      <c r="AK7" s="47">
+        <v>31776</v>
+      </c>
+      <c r="AL7" s="47">
+        <v>39426</v>
+      </c>
+      <c r="AM7" s="47">
+        <v>19419</v>
+      </c>
+      <c r="AN7" s="47">
+        <v>17856</v>
+      </c>
+      <c r="AO7" s="47">
+        <v>23394</v>
+      </c>
+      <c r="AP7" s="47">
+        <v>24750</v>
+      </c>
+      <c r="AQ7" s="49">
+        <v>22863</v>
+      </c>
+      <c r="AR7" s="46">
+        <v>201</v>
+      </c>
+      <c r="AS7" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53">
+      <c r="A8" s="50"/>
+      <c r="B8" s="19">
+        <v>7</v>
+      </c>
+      <c r="C8" s="46">
+        <v>5529423</v>
+      </c>
+      <c r="D8" s="46">
+        <v>6</v>
+      </c>
+      <c r="E8" s="46">
+        <v>3</v>
+      </c>
+      <c r="F8" s="46">
+        <v>3</v>
+      </c>
+      <c r="G8" s="46">
+        <v>0</v>
+      </c>
+      <c r="H8" s="46">
+        <v>3</v>
+      </c>
+      <c r="I8" s="46">
+        <v>9</v>
+      </c>
+      <c r="J8" s="46">
+        <v>15</v>
+      </c>
+      <c r="K8" s="46">
+        <v>18</v>
+      </c>
+      <c r="L8" s="46">
+        <v>24</v>
+      </c>
+      <c r="M8" s="46">
+        <v>18</v>
+      </c>
+      <c r="N8" s="46">
+        <v>30</v>
+      </c>
+      <c r="O8" s="46">
+        <v>42</v>
+      </c>
+      <c r="P8" s="46">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="46">
+        <v>72</v>
+      </c>
+      <c r="R8" s="46">
+        <v>108</v>
+      </c>
+      <c r="S8" s="46">
+        <v>132</v>
+      </c>
+      <c r="T8" s="46">
+        <v>186</v>
+      </c>
+      <c r="U8" s="46">
+        <v>261</v>
+      </c>
+      <c r="V8" s="46">
+        <v>294</v>
+      </c>
+      <c r="W8" s="46">
+        <v>474</v>
+      </c>
+      <c r="X8" s="46">
+        <v>573</v>
+      </c>
+      <c r="Y8" s="46">
+        <v>825</v>
+      </c>
+      <c r="Z8" s="46">
+        <v>1005</v>
+      </c>
+      <c r="AA8" s="46">
+        <v>1368</v>
+      </c>
+      <c r="AB8" s="46">
+        <v>2082</v>
+      </c>
+      <c r="AC8" s="46">
+        <v>2469</v>
+      </c>
+      <c r="AD8" s="48">
+        <v>3555</v>
+      </c>
+      <c r="AE8" s="47">
+        <v>4845</v>
+      </c>
+      <c r="AF8" s="47">
+        <v>7263</v>
+      </c>
+      <c r="AG8" s="47">
+        <v>10551</v>
+      </c>
+      <c r="AH8" s="47">
+        <v>12033</v>
+      </c>
+      <c r="AI8" s="47">
+        <v>14427</v>
+      </c>
+      <c r="AJ8" s="47">
+        <v>19080</v>
+      </c>
+      <c r="AK8" s="47">
+        <v>24702</v>
+      </c>
+      <c r="AL8" s="47">
+        <v>38523</v>
+      </c>
+      <c r="AM8" s="47">
+        <v>44310</v>
+      </c>
+      <c r="AN8" s="47">
+        <v>61470</v>
+      </c>
+      <c r="AO8" s="47">
+        <v>92166</v>
+      </c>
+      <c r="AP8" s="47">
+        <v>141819</v>
+      </c>
+      <c r="AQ8" s="49">
+        <v>204654</v>
+      </c>
+      <c r="AR8" s="46">
+        <v>1911</v>
+      </c>
+      <c r="AS8" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53">
+      <c r="A9" s="50"/>
+      <c r="B9" s="19">
+        <v>8</v>
+      </c>
+      <c r="C9" s="46">
+        <v>5513673</v>
+      </c>
+      <c r="D9" s="46">
+        <v>9</v>
+      </c>
+      <c r="E9" s="46">
+        <v>6</v>
+      </c>
+      <c r="F9" s="46">
+        <v>3</v>
+      </c>
+      <c r="G9" s="46">
+        <v>6</v>
+      </c>
+      <c r="H9" s="46">
+        <v>9</v>
+      </c>
+      <c r="I9" s="46">
+        <v>36</v>
+      </c>
+      <c r="J9" s="46">
+        <v>84</v>
+      </c>
+      <c r="K9" s="46">
+        <v>105</v>
+      </c>
+      <c r="L9" s="46">
+        <v>129</v>
+      </c>
+      <c r="M9" s="46">
+        <v>207</v>
+      </c>
+      <c r="N9" s="46">
+        <v>282</v>
+      </c>
+      <c r="O9" s="46">
+        <v>402</v>
+      </c>
+      <c r="P9" s="46">
+        <v>522</v>
+      </c>
+      <c r="Q9" s="46">
+        <v>600</v>
+      </c>
+      <c r="R9" s="46">
+        <v>864</v>
+      </c>
+      <c r="S9" s="46">
+        <v>906</v>
+      </c>
+      <c r="T9" s="46">
+        <v>966</v>
+      </c>
+      <c r="U9" s="46">
+        <v>1059</v>
+      </c>
+      <c r="V9" s="46">
+        <v>1173</v>
+      </c>
+      <c r="W9" s="46">
+        <v>1134</v>
+      </c>
+      <c r="X9" s="46">
+        <v>984</v>
+      </c>
+      <c r="Y9" s="46">
+        <v>1059</v>
+      </c>
+      <c r="Z9" s="46">
+        <v>933</v>
+      </c>
+      <c r="AA9" s="46">
+        <v>702</v>
+      </c>
+      <c r="AB9" s="46">
+        <v>984</v>
+      </c>
+      <c r="AC9" s="46">
+        <v>810</v>
+      </c>
+      <c r="AD9" s="48">
+        <v>630</v>
+      </c>
+      <c r="AE9" s="47">
+        <v>744</v>
+      </c>
+      <c r="AF9" s="47">
+        <v>813</v>
+      </c>
+      <c r="AG9" s="47">
+        <v>870</v>
+      </c>
+      <c r="AH9" s="47">
+        <v>1305</v>
+      </c>
+      <c r="AI9" s="47">
+        <v>1986</v>
+      </c>
+      <c r="AJ9" s="47">
+        <v>3168</v>
+      </c>
+      <c r="AK9" s="47">
+        <v>5256</v>
+      </c>
+      <c r="AL9" s="47">
+        <v>11235</v>
+      </c>
+      <c r="AM9" s="47">
+        <v>22242</v>
+      </c>
+      <c r="AN9" s="47">
+        <v>52749</v>
+      </c>
+      <c r="AO9" s="47">
+        <v>129933</v>
+      </c>
+      <c r="AP9" s="47">
+        <v>233859</v>
+      </c>
+      <c r="AQ9" s="49">
+        <v>225942</v>
+      </c>
+      <c r="AR9" s="46">
+        <v>2421</v>
+      </c>
+      <c r="AS9" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53">
+      <c r="A10" s="50"/>
+      <c r="B10" s="19">
+        <v>9</v>
+      </c>
+      <c r="C10" s="46">
+        <v>5973999</v>
+      </c>
+      <c r="D10" s="46">
+        <v>0</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0</v>
+      </c>
+      <c r="F10" s="46">
+        <v>6</v>
+      </c>
+      <c r="G10" s="46">
+        <v>3</v>
+      </c>
+      <c r="H10" s="46">
+        <v>9</v>
+      </c>
+      <c r="I10" s="46">
+        <v>6</v>
+      </c>
+      <c r="J10" s="46">
+        <v>18</v>
+      </c>
+      <c r="K10" s="46">
+        <v>30</v>
+      </c>
+      <c r="L10" s="46">
+        <v>66</v>
+      </c>
+      <c r="M10" s="46">
+        <v>39</v>
+      </c>
+      <c r="N10" s="46">
+        <v>51</v>
+      </c>
+      <c r="O10" s="46">
+        <v>27</v>
+      </c>
+      <c r="P10" s="46">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="46">
+        <v>78</v>
+      </c>
+      <c r="R10" s="46">
+        <v>105</v>
+      </c>
+      <c r="S10" s="46">
+        <v>156</v>
+      </c>
+      <c r="T10" s="46">
+        <v>222</v>
+      </c>
+      <c r="U10" s="46">
+        <v>270</v>
+      </c>
+      <c r="V10" s="46">
+        <v>360</v>
+      </c>
+      <c r="W10" s="46">
+        <v>447</v>
+      </c>
+      <c r="X10" s="46">
+        <v>612</v>
+      </c>
+      <c r="Y10" s="46">
+        <v>807</v>
+      </c>
+      <c r="Z10" s="46">
+        <v>1401</v>
+      </c>
+      <c r="AA10" s="46">
+        <v>2271</v>
+      </c>
+      <c r="AB10" s="46">
+        <v>4119</v>
+      </c>
+      <c r="AC10" s="46">
+        <v>5061</v>
+      </c>
+      <c r="AD10" s="48">
+        <v>5715</v>
+      </c>
+      <c r="AE10" s="47">
+        <v>6765</v>
+      </c>
+      <c r="AF10" s="47">
+        <v>9312</v>
+      </c>
+      <c r="AG10" s="47">
+        <v>12123</v>
+      </c>
+      <c r="AH10" s="47">
+        <v>13308</v>
+      </c>
+      <c r="AI10" s="47">
+        <v>6771</v>
+      </c>
+      <c r="AJ10" s="47">
+        <v>6165</v>
+      </c>
+      <c r="AK10" s="47">
+        <v>8769</v>
+      </c>
+      <c r="AL10" s="47">
+        <v>21138</v>
+      </c>
+      <c r="AM10" s="47">
+        <v>18390</v>
+      </c>
+      <c r="AN10" s="47">
+        <v>12873</v>
+      </c>
+      <c r="AO10" s="47">
+        <v>15480</v>
+      </c>
+      <c r="AP10" s="47">
+        <v>37914</v>
+      </c>
+      <c r="AQ10" s="49">
+        <v>54552</v>
+      </c>
+      <c r="AR10" s="46">
+        <v>1320</v>
+      </c>
+      <c r="AS10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" s="50"/>
+      <c r="B11" s="19">
+        <v>11</v>
+      </c>
+      <c r="C11" s="46">
+        <v>6133296</v>
+      </c>
+      <c r="D11" s="46">
+        <v>0</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0</v>
+      </c>
+      <c r="F11" s="46">
+        <v>3</v>
+      </c>
+      <c r="G11" s="46">
+        <v>0</v>
+      </c>
+      <c r="H11" s="46">
+        <v>0</v>
+      </c>
+      <c r="I11" s="46">
+        <v>3</v>
+      </c>
+      <c r="J11" s="46">
+        <v>0</v>
+      </c>
+      <c r="K11" s="46">
+        <v>3</v>
+      </c>
+      <c r="L11" s="46">
+        <v>6</v>
+      </c>
+      <c r="M11" s="46">
+        <v>0</v>
+      </c>
+      <c r="N11" s="46">
+        <v>0</v>
+      </c>
+      <c r="O11" s="46">
+        <v>24</v>
+      </c>
+      <c r="P11" s="46">
+        <v>12</v>
+      </c>
+      <c r="Q11" s="46">
+        <v>24</v>
+      </c>
+      <c r="R11" s="46">
+        <v>15</v>
+      </c>
+      <c r="S11" s="46">
+        <v>6</v>
+      </c>
+      <c r="T11" s="46">
+        <v>24</v>
+      </c>
+      <c r="U11" s="46">
+        <v>6</v>
+      </c>
+      <c r="V11" s="46">
+        <v>30</v>
+      </c>
+      <c r="W11" s="46">
+        <v>33</v>
+      </c>
+      <c r="X11" s="46">
+        <v>69</v>
+      </c>
+      <c r="Y11" s="46">
+        <v>87</v>
+      </c>
+      <c r="Z11" s="46">
+        <v>114</v>
+      </c>
+      <c r="AA11" s="46">
+        <v>123</v>
+      </c>
+      <c r="AB11" s="46">
+        <v>243</v>
+      </c>
+      <c r="AC11" s="46">
+        <v>312</v>
+      </c>
+      <c r="AD11" s="48">
+        <v>447</v>
+      </c>
+      <c r="AE11" s="47">
+        <v>552</v>
+      </c>
+      <c r="AF11" s="47">
+        <v>720</v>
+      </c>
+      <c r="AG11" s="47">
+        <v>975</v>
+      </c>
+      <c r="AH11" s="47">
+        <v>1341</v>
+      </c>
+      <c r="AI11" s="47">
+        <v>1788</v>
+      </c>
+      <c r="AJ11" s="47">
+        <v>2394</v>
+      </c>
+      <c r="AK11" s="47">
+        <v>3168</v>
+      </c>
+      <c r="AL11" s="47">
+        <v>5547</v>
+      </c>
+      <c r="AM11" s="47">
+        <v>6420</v>
+      </c>
+      <c r="AN11" s="47">
+        <v>9804</v>
+      </c>
+      <c r="AO11" s="47">
+        <v>11631</v>
+      </c>
+      <c r="AP11" s="47">
+        <v>18117</v>
+      </c>
+      <c r="AQ11" s="49">
+        <v>23259</v>
+      </c>
+      <c r="AR11" s="46">
+        <v>204</v>
+      </c>
+      <c r="AS11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="A12" s="50"/>
+      <c r="B12" s="19">
+        <v>14</v>
+      </c>
+      <c r="C12" s="46">
+        <v>6026241</v>
+      </c>
+      <c r="D12" s="46">
+        <v>0</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0</v>
+      </c>
+      <c r="F12" s="46">
+        <v>0</v>
+      </c>
+      <c r="G12" s="46">
+        <v>0</v>
+      </c>
+      <c r="H12" s="46">
+        <v>3</v>
+      </c>
+      <c r="I12" s="46">
+        <v>3</v>
+      </c>
+      <c r="J12" s="46">
+        <v>0</v>
+      </c>
+      <c r="K12" s="46">
+        <v>0</v>
+      </c>
+      <c r="L12" s="46">
+        <v>0</v>
+      </c>
+      <c r="M12" s="46">
+        <v>3</v>
+      </c>
+      <c r="N12" s="46">
+        <v>9</v>
+      </c>
+      <c r="O12" s="46">
+        <v>9</v>
+      </c>
+      <c r="P12" s="46">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="46">
+        <v>15</v>
+      </c>
+      <c r="R12" s="46">
+        <v>15</v>
+      </c>
+      <c r="S12" s="46">
+        <v>18</v>
+      </c>
+      <c r="T12" s="46">
+        <v>24</v>
+      </c>
+      <c r="U12" s="46">
+        <v>24</v>
+      </c>
+      <c r="V12" s="46">
+        <v>24</v>
+      </c>
+      <c r="W12" s="46">
+        <v>24</v>
+      </c>
+      <c r="X12" s="46">
+        <v>54</v>
+      </c>
+      <c r="Y12" s="46">
+        <v>54</v>
+      </c>
+      <c r="Z12" s="46">
+        <v>81</v>
+      </c>
+      <c r="AA12" s="46">
+        <v>99</v>
+      </c>
+      <c r="AB12" s="46">
+        <v>225</v>
+      </c>
+      <c r="AC12" s="46">
+        <v>282</v>
+      </c>
+      <c r="AD12" s="48">
+        <v>333</v>
+      </c>
+      <c r="AE12" s="47">
+        <v>474</v>
+      </c>
+      <c r="AF12" s="47">
+        <v>678</v>
+      </c>
+      <c r="AG12" s="47">
+        <v>942</v>
+      </c>
+      <c r="AH12" s="47">
+        <v>1362</v>
+      </c>
+      <c r="AI12" s="47">
+        <v>1815</v>
+      </c>
+      <c r="AJ12" s="47">
+        <v>3192</v>
+      </c>
+      <c r="AK12" s="47">
+        <v>5541</v>
+      </c>
+      <c r="AL12" s="47">
+        <v>12123</v>
+      </c>
+      <c r="AM12" s="47">
+        <v>24435</v>
+      </c>
+      <c r="AN12" s="47">
+        <v>35883</v>
+      </c>
+      <c r="AO12" s="47">
+        <v>55317</v>
+      </c>
+      <c r="AP12" s="47">
+        <v>47421</v>
+      </c>
+      <c r="AQ12" s="49">
+        <v>4065</v>
+      </c>
+      <c r="AR12" s="46">
+        <v>6</v>
+      </c>
+      <c r="AS12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="50"/>
+      <c r="B13" s="19">
+        <v>16</v>
+      </c>
+      <c r="C13" s="46">
+        <v>6066267</v>
+      </c>
+      <c r="D13" s="46">
+        <v>3</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0</v>
+      </c>
+      <c r="F13" s="46">
+        <v>3</v>
+      </c>
+      <c r="G13" s="46">
+        <v>24</v>
+      </c>
+      <c r="H13" s="46">
+        <v>30</v>
+      </c>
+      <c r="I13" s="46">
+        <v>30</v>
+      </c>
+      <c r="J13" s="46">
+        <v>48</v>
+      </c>
+      <c r="K13" s="46">
+        <v>66</v>
+      </c>
+      <c r="L13" s="46">
+        <v>57</v>
+      </c>
+      <c r="M13" s="46">
+        <v>90</v>
+      </c>
+      <c r="N13" s="46">
+        <v>108</v>
+      </c>
+      <c r="O13" s="46">
+        <v>117</v>
+      </c>
+      <c r="P13" s="46">
+        <v>153</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>162</v>
+      </c>
+      <c r="R13" s="46">
+        <v>504</v>
+      </c>
+      <c r="S13" s="46">
+        <v>678</v>
+      </c>
+      <c r="T13" s="46">
+        <v>903</v>
+      </c>
+      <c r="U13" s="46">
+        <v>630</v>
+      </c>
+      <c r="V13" s="46">
+        <v>615</v>
+      </c>
+      <c r="W13" s="46">
+        <v>642</v>
+      </c>
+      <c r="X13" s="46">
+        <v>735</v>
+      </c>
+      <c r="Y13" s="46">
+        <v>738</v>
+      </c>
+      <c r="Z13" s="46">
+        <v>813</v>
+      </c>
+      <c r="AA13" s="46">
+        <v>876</v>
+      </c>
+      <c r="AB13" s="46">
+        <v>1353</v>
+      </c>
+      <c r="AC13" s="46">
+        <v>1848</v>
+      </c>
+      <c r="AD13" s="48">
+        <v>2496</v>
+      </c>
+      <c r="AE13" s="47">
+        <v>3171</v>
+      </c>
+      <c r="AF13" s="47">
+        <v>3492</v>
+      </c>
+      <c r="AG13" s="47">
+        <v>3582</v>
+      </c>
+      <c r="AH13" s="47">
+        <v>3264</v>
+      </c>
+      <c r="AI13" s="47">
+        <v>2787</v>
+      </c>
+      <c r="AJ13" s="47">
+        <v>4068</v>
+      </c>
+      <c r="AK13" s="47">
+        <v>11064</v>
+      </c>
+      <c r="AL13" s="47">
+        <v>16314</v>
+      </c>
+      <c r="AM13" s="47">
+        <v>9267</v>
+      </c>
+      <c r="AN13" s="47">
+        <v>20094</v>
+      </c>
+      <c r="AO13" s="47">
+        <v>38409</v>
+      </c>
+      <c r="AP13" s="47">
+        <v>20220</v>
+      </c>
+      <c r="AQ13" s="49">
+        <v>5067</v>
+      </c>
+      <c r="AR13" s="46">
+        <v>12</v>
+      </c>
+      <c r="AS13" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="50"/>
+      <c r="B14" s="19">
+        <v>17</v>
+      </c>
+      <c r="C14" s="46">
+        <v>5915241</v>
+      </c>
+      <c r="D14" s="46">
+        <v>42</v>
+      </c>
+      <c r="E14" s="46">
+        <v>6</v>
+      </c>
+      <c r="F14" s="46">
+        <v>15</v>
+      </c>
+      <c r="G14" s="46">
+        <v>15</v>
+      </c>
+      <c r="H14" s="46">
+        <v>84</v>
+      </c>
+      <c r="I14" s="46">
+        <v>33</v>
+      </c>
+      <c r="J14" s="46">
+        <v>93</v>
+      </c>
+      <c r="K14" s="46">
+        <v>81</v>
+      </c>
+      <c r="L14" s="46">
+        <v>135</v>
+      </c>
+      <c r="M14" s="46">
+        <v>153</v>
+      </c>
+      <c r="N14" s="46">
+        <v>225</v>
+      </c>
+      <c r="O14" s="46">
+        <v>240</v>
+      </c>
+      <c r="P14" s="46">
+        <v>270</v>
+      </c>
+      <c r="Q14" s="46">
+        <v>366</v>
+      </c>
+      <c r="R14" s="46">
+        <v>495</v>
+      </c>
+      <c r="S14" s="46">
+        <v>696</v>
+      </c>
+      <c r="T14" s="46">
+        <v>1305</v>
+      </c>
+      <c r="U14" s="46">
+        <v>1362</v>
+      </c>
+      <c r="V14" s="46">
+        <v>915</v>
+      </c>
+      <c r="W14" s="46">
+        <v>807</v>
+      </c>
+      <c r="X14" s="46">
+        <v>801</v>
+      </c>
+      <c r="Y14" s="46">
+        <v>819</v>
+      </c>
+      <c r="Z14" s="46">
+        <v>924</v>
+      </c>
+      <c r="AA14" s="46">
+        <v>990</v>
+      </c>
+      <c r="AB14" s="46">
+        <v>1011</v>
+      </c>
+      <c r="AC14" s="46">
+        <v>1068</v>
+      </c>
+      <c r="AD14" s="48">
+        <v>1644</v>
+      </c>
+      <c r="AE14" s="47">
+        <v>90</v>
+      </c>
+      <c r="AF14" s="47">
+        <v>3</v>
+      </c>
+      <c r="AG14" s="47">
+        <v>15</v>
+      </c>
+      <c r="AH14" s="47">
+        <v>24</v>
+      </c>
+      <c r="AI14" s="47">
+        <v>21</v>
+      </c>
+      <c r="AJ14" s="47">
+        <v>33</v>
+      </c>
+      <c r="AK14" s="47">
+        <v>141</v>
+      </c>
+      <c r="AL14" s="47">
+        <v>5625</v>
+      </c>
+      <c r="AM14" s="47">
+        <v>8805</v>
+      </c>
+      <c r="AN14" s="47">
+        <v>20859</v>
+      </c>
+      <c r="AO14" s="47">
+        <v>43899</v>
+      </c>
+      <c r="AP14" s="47">
+        <v>92418</v>
+      </c>
+      <c r="AQ14" s="49">
+        <v>118257</v>
+      </c>
+      <c r="AR14" s="46">
+        <v>774</v>
+      </c>
+      <c r="AS14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="50"/>
+      <c r="B15" s="19">
+        <v>19</v>
+      </c>
+      <c r="C15" s="46">
+        <v>5970363</v>
+      </c>
+      <c r="D15" s="46">
+        <v>0</v>
+      </c>
+      <c r="E15" s="46">
+        <v>3</v>
+      </c>
+      <c r="F15" s="46">
+        <v>9</v>
+      </c>
+      <c r="G15" s="46">
+        <v>12</v>
+      </c>
+      <c r="H15" s="46">
+        <v>12</v>
+      </c>
+      <c r="I15" s="46">
+        <v>24</v>
+      </c>
+      <c r="J15" s="46">
+        <v>27</v>
+      </c>
+      <c r="K15" s="46">
+        <v>48</v>
+      </c>
+      <c r="L15" s="46">
+        <v>78</v>
+      </c>
+      <c r="M15" s="46">
+        <v>114</v>
+      </c>
+      <c r="N15" s="46">
+        <v>189</v>
+      </c>
+      <c r="O15" s="46">
+        <v>246</v>
+      </c>
+      <c r="P15" s="46">
+        <v>381</v>
+      </c>
+      <c r="Q15" s="46">
+        <v>663</v>
+      </c>
+      <c r="R15" s="46">
+        <v>1173</v>
+      </c>
+      <c r="S15" s="46">
+        <v>1350</v>
+      </c>
+      <c r="T15" s="46">
+        <v>2382</v>
+      </c>
+      <c r="U15" s="46">
+        <v>2052</v>
+      </c>
+      <c r="V15" s="46">
+        <v>1374</v>
+      </c>
+      <c r="W15" s="46">
+        <v>1365</v>
+      </c>
+      <c r="X15" s="46">
+        <v>1812</v>
+      </c>
+      <c r="Y15" s="46">
+        <v>1881</v>
+      </c>
+      <c r="Z15" s="46">
+        <v>2022</v>
+      </c>
+      <c r="AA15" s="46">
+        <v>2211</v>
+      </c>
+      <c r="AB15" s="46">
+        <v>2769</v>
+      </c>
+      <c r="AC15" s="46">
+        <v>2505</v>
+      </c>
+      <c r="AD15" s="48">
+        <v>2859</v>
+      </c>
+      <c r="AE15" s="47">
+        <v>3369</v>
+      </c>
+      <c r="AF15" s="47">
+        <v>6144</v>
+      </c>
+      <c r="AG15" s="47">
+        <v>8844</v>
+      </c>
+      <c r="AH15" s="47">
+        <v>12948</v>
+      </c>
+      <c r="AI15" s="47">
+        <v>21126</v>
+      </c>
+      <c r="AJ15" s="47">
+        <v>33669</v>
+      </c>
+      <c r="AK15" s="47">
+        <v>20268</v>
+      </c>
+      <c r="AL15" s="47">
+        <v>19020</v>
+      </c>
+      <c r="AM15" s="47">
+        <v>18069</v>
+      </c>
+      <c r="AN15" s="47">
+        <v>21201</v>
+      </c>
+      <c r="AO15" s="47">
+        <v>22974</v>
+      </c>
+      <c r="AP15" s="47">
+        <v>20511</v>
+      </c>
+      <c r="AQ15" s="49">
+        <v>14424</v>
+      </c>
+      <c r="AR15" s="46">
+        <v>309</v>
+      </c>
+      <c r="AS15" s="46">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="46">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="46">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="46">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="46">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="46">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="46">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="46">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53">
+      <c r="A16" s="50"/>
+      <c r="B16" s="19">
+        <v>20</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5829129</v>
+      </c>
+      <c r="D16" s="8">
+        <v>6</v>
+      </c>
+      <c r="E16" s="8">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8">
+        <v>6</v>
+      </c>
+      <c r="G16" s="8">
+        <v>3</v>
+      </c>
+      <c r="H16" s="8">
+        <v>3</v>
+      </c>
+      <c r="I16" s="8">
+        <v>3</v>
+      </c>
+      <c r="J16" s="8">
+        <v>6</v>
+      </c>
+      <c r="K16" s="8">
+        <v>3</v>
+      </c>
+      <c r="L16" s="8">
+        <v>6</v>
+      </c>
+      <c r="M16" s="8">
+        <v>15</v>
+      </c>
+      <c r="N16" s="8">
+        <v>18</v>
+      </c>
+      <c r="O16" s="8">
+        <v>24</v>
+      </c>
+      <c r="P16" s="8">
+        <v>54</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>87</v>
+      </c>
+      <c r="R16" s="8">
+        <v>99</v>
+      </c>
+      <c r="S16" s="8">
+        <v>102</v>
+      </c>
+      <c r="T16" s="8">
+        <v>132</v>
+      </c>
+      <c r="U16" s="8">
+        <v>183</v>
+      </c>
+      <c r="V16" s="8">
+        <v>252</v>
+      </c>
+      <c r="W16" s="8">
+        <v>351</v>
+      </c>
+      <c r="X16" s="8">
+        <v>471</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>597</v>
+      </c>
+      <c r="Z16" s="8">
+        <v>753</v>
+      </c>
+      <c r="AA16" s="8">
+        <v>885</v>
+      </c>
+      <c r="AB16" s="8">
+        <v>1566</v>
+      </c>
+      <c r="AC16" s="8">
+        <v>1602</v>
+      </c>
+      <c r="AD16" s="55">
+        <v>2103</v>
+      </c>
+      <c r="AE16" s="53">
+        <v>2724</v>
+      </c>
+      <c r="AF16" s="53">
+        <v>3363</v>
+      </c>
+      <c r="AG16" s="53">
+        <v>4398</v>
+      </c>
+      <c r="AH16" s="53">
+        <v>5637</v>
+      </c>
+      <c r="AI16" s="53">
+        <v>7467</v>
+      </c>
+      <c r="AJ16" s="53">
+        <v>9894</v>
+      </c>
+      <c r="AK16" s="53">
+        <v>13398</v>
+      </c>
+      <c r="AL16" s="53">
+        <v>23337</v>
+      </c>
+      <c r="AM16" s="53">
+        <v>30705</v>
+      </c>
+      <c r="AN16" s="53">
+        <v>47799</v>
+      </c>
+      <c r="AO16" s="53">
+        <v>58383</v>
+      </c>
+      <c r="AP16" s="53">
+        <v>82857</v>
+      </c>
+      <c r="AQ16" s="56">
+        <v>91551</v>
+      </c>
+      <c r="AR16" s="8">
+        <v>825</v>
+      </c>
+      <c r="AS16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEED5E-03E1-4D43-B753-B6D0E922BAC9}">
   <dimension ref="A2:H79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -4489,7 +7022,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305C46E9-DBCF-4732-A226-FBA3B04D35E8}">
   <dimension ref="A1:T114"/>
   <sheetViews>

--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FC9C68-8A9B-4C6C-975D-D9E2CA102A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A70D01-18D0-4CCE-84FB-6337008122B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="174">
   <si>
     <t>apple</t>
   </si>
@@ -580,6 +580,9 @@
   </si>
   <si>
     <t>MIN</t>
+  </si>
+  <si>
+    <t>object-solid_18</t>
   </si>
 </sst>
 </file>
@@ -993,7 +996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1040,24 +1043,317 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="73">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1949,300 +2245,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2257,19 +2259,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}" name="Table9" displayName="Table9" ref="A2:G15" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}" name="Table9" displayName="Table9" ref="A2:G15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
   <autoFilter ref="A2:G15" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G15">
     <sortCondition ref="B2:B15"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A4827EE5-A513-47B6-A2B8-5025802DF792}" name="Object" dataDxfId="67"/>
-    <tableColumn id="7" xr3:uid="{5C947B0D-2C2B-4626-A556-1DFD4728AEBA}" name="ID" dataDxfId="66"/>
-    <tableColumn id="2" xr3:uid="{B62FA381-A946-4C5D-87B0-25C94F47947E}" name="min (mm)" dataDxfId="65"/>
-    <tableColumn id="3" xr3:uid="{E5755554-E1B0-494A-92FB-875744A3C7EC}" name="max (mm)" dataDxfId="64"/>
-    <tableColumn id="4" xr3:uid="{146B5C7C-63AD-4333-A553-A05D927737AB}" name="difference (mm)" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{02D3617A-3D9C-4CA4-9AB7-E7F68D9DF901}" name="visible max" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{EC7B00FC-44A9-4F2E-97B8-AD1785358F4A}" name="visible range" dataDxfId="61">
+    <tableColumn id="1" xr3:uid="{A4827EE5-A513-47B6-A2B8-5025802DF792}" name="Object" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{5C947B0D-2C2B-4626-A556-1DFD4728AEBA}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B62FA381-A946-4C5D-87B0-25C94F47947E}" name="min (mm)" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E5755554-E1B0-494A-92FB-875744A3C7EC}" name="max (mm)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{146B5C7C-63AD-4333-A553-A05D927737AB}" name="difference (mm)" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{02D3617A-3D9C-4CA4-9AB7-E7F68D9DF901}" name="visible max" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{EC7B00FC-44A9-4F2E-97B8-AD1785358F4A}" name="visible range" dataDxfId="0">
       <calculatedColumnFormula>F3-C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2278,7 +2280,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="18">
   <autoFilter ref="I1:N16" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A15B9D7D-90D4-4490-AD0F-6639C18D4AFE}" name="Object"/>
@@ -2293,13 +2295,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="P25:T44" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7F529B42-9949-412D-81C6-BCE79AF237DB}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="0">
+    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="12">
       <calculatedColumnFormula>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3C9C5DEB-D604-4E60-9DAF-E87D2FCCDA70}" name="Name for Laurie"/>
@@ -2309,18 +2311,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}" name="Table2" displayName="Table2" ref="A17:G34" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}" name="Table2" displayName="Table2" ref="A17:G34" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
   <autoFilter ref="A17:G34" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{64BD9CC4-2E86-456F-BE06-53A8ED1C7C7D}" name="BodyPart (Becca location)" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{A5438927-E5F7-4143-BE61-D498392C844E}" name="ID" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{B405A793-A1A0-49A2-BFC0-0CCAEBC5B54E}" name="min (mm)" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{8855E515-3101-4EF1-87A2-13CF2977C9E3}" name="max (mm)" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{1A4988FC-4389-4AC8-81C3-B8E423D60DB7}" name="difference" dataDxfId="52">
+    <tableColumn id="1" xr3:uid="{64BD9CC4-2E86-456F-BE06-53A8ED1C7C7D}" name="BodyPart (Becca location)" dataDxfId="68"/>
+    <tableColumn id="2" xr3:uid="{A5438927-E5F7-4143-BE61-D498392C844E}" name="ID" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{B405A793-A1A0-49A2-BFC0-0CCAEBC5B54E}" name="min (mm)" dataDxfId="66"/>
+    <tableColumn id="4" xr3:uid="{8855E515-3101-4EF1-87A2-13CF2977C9E3}" name="max (mm)" dataDxfId="65"/>
+    <tableColumn id="5" xr3:uid="{1A4988FC-4389-4AC8-81C3-B8E423D60DB7}" name="difference" dataDxfId="64">
       <calculatedColumnFormula>D18-C18</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FA4BE08B-DFF9-4264-A09B-9D261A266D72}" name="visible max" dataDxfId="51"/>
-    <tableColumn id="7" xr3:uid="{921F4F1D-661B-4855-987A-03D73A69766C}" name="visible range" dataDxfId="50">
+    <tableColumn id="6" xr3:uid="{FA4BE08B-DFF9-4264-A09B-9D261A266D72}" name="visible max" dataDxfId="63"/>
+    <tableColumn id="7" xr3:uid="{921F4F1D-661B-4855-987A-03D73A69766C}" name="visible range" dataDxfId="62">
       <calculatedColumnFormula>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2329,18 +2331,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A36:G58" totalsRowShown="0" headerRowBorderDxfId="49" tableBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A36:G58" totalsRowShown="0" headerRowBorderDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A36:G58" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F9320C00-040A-4ECC-97A9-CCBA240DFE63}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="45"/>
-    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="44">
+    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="59"/>
+    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="56">
       <calculatedColumnFormula>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="43"/>
-    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="42">
+    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="54">
       <calculatedColumnFormula>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2349,18 +2351,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}" name="Table12" displayName="Table12" ref="A60:G75" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}" name="Table12" displayName="Table12" ref="A60:G75" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50">
   <autoFilter ref="A60:G75" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E0C98B60-AEE8-4106-98DF-C836FA204635}" name="Scene" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{4A5CA146-6F44-4292-AE40-9C210702001D}" name="ID" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{5BF1F243-5E74-4124-A4C6-50B3E8F4E9F7}" name="min (mm)" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{D6E08EAF-5732-4845-A782-4200E1A6DF31}" name="max (mm)" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{27AAF6CD-299E-4FA7-956A-A59501878BCF}" name="difference" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{E0C98B60-AEE8-4106-98DF-C836FA204635}" name="Scene" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{4A5CA146-6F44-4292-AE40-9C210702001D}" name="ID" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{5BF1F243-5E74-4124-A4C6-50B3E8F4E9F7}" name="min (mm)" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{D6E08EAF-5732-4845-A782-4200E1A6DF31}" name="max (mm)" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{27AAF6CD-299E-4FA7-956A-A59501878BCF}" name="difference" dataDxfId="45">
       <calculatedColumnFormula>D61-C61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D0C20C5C-D18A-4D4E-8C35-9D2154952AA2}" name="visible max" dataDxfId="32"/>
-    <tableColumn id="7" xr3:uid="{B4D1D7D5-609F-4DE3-8363-9CBC9B676053}" name="visible range" dataDxfId="31">
+    <tableColumn id="6" xr3:uid="{D0C20C5C-D18A-4D4E-8C35-9D2154952AA2}" name="visible max" dataDxfId="44"/>
+    <tableColumn id="7" xr3:uid="{B4D1D7D5-609F-4DE3-8363-9CBC9B676053}" name="visible range" dataDxfId="43">
       <calculatedColumnFormula>F61-C61</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2369,27 +2371,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="42">
   <autoFilter ref="A1:E23" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="29"/>
+    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="41"/>
     <tableColumn id="2" xr3:uid="{154C99C7-865E-4E8A-A7F6-E66DA111723A}" name="min (mm)"/>
-    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="A25:E44" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{618FF384-60A0-48F4-BD3B-20158698512B}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="20">
+    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="32">
       <calculatedColumnFormula>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B4C77F97-9F8F-4A06-A76F-20F90D6B2055}" name="Name for Laurie"/>
@@ -2399,13 +2401,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="31">
   <autoFilter ref="A46:D70" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A15C451F-5A5A-4ABC-B01B-2C4F05011809}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="16">
+    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="28">
       <calculatedColumnFormula>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2414,13 +2416,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="27">
   <autoFilter ref="A72:D92" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4ABA85F0-A778-40FD-BD59-C5D4666608AA}" name="Scene"/>
-    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="24">
       <calculatedColumnFormula>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2429,13 +2431,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="23">
   <autoFilter ref="A94:D114" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7067C8DA-7BB5-4270-8F77-26A275840009}" name="ObjectScrambled"/>
-    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="8">
+    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="20">
       <calculatedColumnFormula>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2743,7 +2745,7 @@
   <dimension ref="A1:BA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="C3" sqref="C3:BA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2947,25 +2949,25 @@
       <c r="AA2" s="22"/>
       <c r="AB2" s="22"/>
       <c r="AC2" s="45"/>
-      <c r="AD2" s="52" t="s">
+      <c r="AD2" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="AE2" s="52"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="52"/>
-      <c r="AO2" s="52"/>
-      <c r="AP2" s="52"/>
-      <c r="AQ2" s="52" t="s">
+      <c r="AE2" s="50"/>
+      <c r="AF2" s="50"/>
+      <c r="AG2" s="50"/>
+      <c r="AH2" s="50"/>
+      <c r="AI2" s="50"/>
+      <c r="AJ2" s="50"/>
+      <c r="AK2" s="50"/>
+      <c r="AL2" s="50"/>
+      <c r="AM2" s="50"/>
+      <c r="AN2" s="50"/>
+      <c r="AO2" s="50"/>
+      <c r="AP2" s="50"/>
+      <c r="AQ2" s="50" t="s">
         <v>172</v>
       </c>
-      <c r="AR2" s="54"/>
+      <c r="AR2" s="52"/>
       <c r="AS2" s="22"/>
       <c r="AT2" s="22"/>
       <c r="AU2" s="22"/>
@@ -2977,160 +2979,160 @@
       <c r="BA2" s="22"/>
     </row>
     <row r="3" spans="1:53">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="51">
+      <c r="B3" s="49">
         <v>1</v>
       </c>
-      <c r="C3" s="46">
+      <c r="C3">
         <v>6062325</v>
       </c>
-      <c r="D3" s="46">
-        <v>0</v>
-      </c>
-      <c r="E3" s="46">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>6</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3">
         <v>9</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3">
         <v>15</v>
       </c>
-      <c r="I3" s="46">
+      <c r="I3">
         <v>12</v>
       </c>
-      <c r="J3" s="46">
+      <c r="J3">
         <v>24</v>
       </c>
-      <c r="K3" s="46">
+      <c r="K3">
         <v>36</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3">
         <v>36</v>
       </c>
-      <c r="M3" s="46">
+      <c r="M3">
         <v>54</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3">
         <v>69</v>
       </c>
-      <c r="O3" s="46">
+      <c r="O3">
         <v>96</v>
       </c>
-      <c r="P3" s="46">
+      <c r="P3">
         <v>132</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3">
         <v>129</v>
       </c>
-      <c r="R3" s="46">
+      <c r="R3">
         <v>183</v>
       </c>
-      <c r="S3" s="46">
+      <c r="S3">
         <v>162</v>
       </c>
-      <c r="T3" s="46">
+      <c r="T3">
         <v>156</v>
       </c>
-      <c r="U3" s="46">
+      <c r="U3">
         <v>189</v>
       </c>
-      <c r="V3" s="46">
+      <c r="V3">
         <v>228</v>
       </c>
-      <c r="W3" s="46">
+      <c r="W3">
         <v>261</v>
       </c>
-      <c r="X3" s="46">
+      <c r="X3">
         <v>273</v>
       </c>
-      <c r="Y3" s="46">
+      <c r="Y3">
         <v>312</v>
       </c>
-      <c r="Z3" s="46">
+      <c r="Z3">
         <v>438</v>
       </c>
-      <c r="AA3" s="46">
+      <c r="AA3">
         <v>573</v>
       </c>
-      <c r="AB3" s="46">
+      <c r="AB3">
         <v>765</v>
       </c>
-      <c r="AC3" s="46">
+      <c r="AC3">
         <v>786</v>
       </c>
-      <c r="AD3" s="48">
+      <c r="AD3" s="47">
         <v>1056</v>
       </c>
-      <c r="AE3" s="47">
+      <c r="AE3" s="46">
         <v>1596</v>
       </c>
-      <c r="AF3" s="47">
+      <c r="AF3" s="46">
         <v>2370</v>
       </c>
-      <c r="AG3" s="47">
+      <c r="AG3" s="46">
         <v>3648</v>
       </c>
-      <c r="AH3" s="47">
+      <c r="AH3" s="46">
         <v>4716</v>
       </c>
-      <c r="AI3" s="47">
+      <c r="AI3" s="46">
         <v>7419</v>
       </c>
-      <c r="AJ3" s="47">
+      <c r="AJ3" s="46">
         <v>6663</v>
       </c>
-      <c r="AK3" s="47">
+      <c r="AK3" s="46">
         <v>4452</v>
       </c>
-      <c r="AL3" s="47">
+      <c r="AL3" s="46">
         <v>7617</v>
       </c>
-      <c r="AM3" s="47">
+      <c r="AM3" s="46">
         <v>8223</v>
       </c>
-      <c r="AN3" s="47">
+      <c r="AN3" s="46">
         <v>10728</v>
       </c>
-      <c r="AO3" s="47">
+      <c r="AO3" s="46">
         <v>17538</v>
       </c>
-      <c r="AP3" s="47">
+      <c r="AP3" s="46">
         <v>30069</v>
       </c>
-      <c r="AQ3" s="49">
+      <c r="AQ3" s="48">
         <v>47304</v>
       </c>
-      <c r="AR3" s="46">
+      <c r="AR3">
         <v>129</v>
       </c>
-      <c r="AS3" s="46">
-        <v>0</v>
-      </c>
-      <c r="AT3" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="46">
-        <v>0</v>
-      </c>
-      <c r="AV3" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="46">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="46">
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
         <v>0</v>
       </c>
       <c r="BA3" s="2">
@@ -3138,158 +3140,158 @@
       </c>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="50"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="19">
         <v>2</v>
       </c>
-      <c r="C4" s="46">
+      <c r="C4">
         <v>5968608</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4">
         <v>6</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4">
         <v>12</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4">
         <v>9</v>
       </c>
-      <c r="J4" s="46">
+      <c r="J4">
         <v>15</v>
       </c>
-      <c r="K4" s="46">
+      <c r="K4">
         <v>105</v>
       </c>
-      <c r="L4" s="46">
+      <c r="L4">
         <v>111</v>
       </c>
-      <c r="M4" s="46">
+      <c r="M4">
         <v>159</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4">
         <v>24</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4">
         <v>39</v>
       </c>
-      <c r="P4" s="46">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="46">
-        <v>0</v>
-      </c>
-      <c r="R4" s="46">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>87</v>
       </c>
-      <c r="S4" s="46">
-        <v>0</v>
-      </c>
-      <c r="T4" s="46">
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>60</v>
       </c>
-      <c r="U4" s="46">
+      <c r="U4">
         <v>120</v>
       </c>
-      <c r="V4" s="46">
+      <c r="V4">
         <v>120</v>
       </c>
-      <c r="W4" s="46">
+      <c r="W4">
         <v>375</v>
       </c>
-      <c r="X4" s="46">
+      <c r="X4">
         <v>510</v>
       </c>
-      <c r="Y4" s="46">
+      <c r="Y4">
         <v>582</v>
       </c>
-      <c r="Z4" s="46">
+      <c r="Z4">
         <v>867</v>
       </c>
-      <c r="AA4" s="46">
+      <c r="AA4">
         <v>1332</v>
       </c>
-      <c r="AB4" s="46">
+      <c r="AB4">
         <v>2574</v>
       </c>
-      <c r="AC4" s="46">
+      <c r="AC4">
         <v>3024</v>
       </c>
-      <c r="AD4" s="48">
+      <c r="AD4" s="47">
         <v>4713</v>
       </c>
-      <c r="AE4" s="47">
+      <c r="AE4" s="46">
         <v>5979</v>
       </c>
-      <c r="AF4" s="47">
+      <c r="AF4" s="46">
         <v>4935</v>
       </c>
-      <c r="AG4" s="47">
+      <c r="AG4" s="46">
         <v>4464</v>
       </c>
-      <c r="AH4" s="47">
+      <c r="AH4" s="46">
         <v>6054</v>
       </c>
-      <c r="AI4" s="47">
+      <c r="AI4" s="46">
         <v>7626</v>
       </c>
-      <c r="AJ4" s="47">
+      <c r="AJ4" s="46">
         <v>11265</v>
       </c>
-      <c r="AK4" s="47">
+      <c r="AK4" s="46">
         <v>23907</v>
       </c>
-      <c r="AL4" s="47">
+      <c r="AL4" s="46">
         <v>51723</v>
       </c>
-      <c r="AM4" s="47">
+      <c r="AM4" s="46">
         <v>45765</v>
       </c>
-      <c r="AN4" s="47">
+      <c r="AN4" s="46">
         <v>4776</v>
       </c>
-      <c r="AO4" s="47">
+      <c r="AO4" s="46">
         <v>3855</v>
       </c>
-      <c r="AP4" s="47">
+      <c r="AP4" s="46">
         <v>39303</v>
       </c>
-      <c r="AQ4" s="49">
+      <c r="AQ4" s="48">
         <v>27504</v>
       </c>
-      <c r="AR4" s="46">
+      <c r="AR4">
         <v>180</v>
       </c>
-      <c r="AS4" s="46">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="46">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="46">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="46">
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
         <v>0</v>
       </c>
       <c r="BA4" s="2">
@@ -3297,158 +3299,158 @@
       </c>
     </row>
     <row r="5" spans="1:53">
-      <c r="A5" s="50"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="19">
         <v>3</v>
       </c>
-      <c r="C5" s="46">
+      <c r="C5">
         <v>6038766</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5">
         <v>120</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5">
         <v>129</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5">
         <v>75</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5">
         <v>93</v>
       </c>
-      <c r="H5" s="46">
+      <c r="H5">
         <v>126</v>
       </c>
-      <c r="I5" s="46">
+      <c r="I5">
         <v>117</v>
       </c>
-      <c r="J5" s="46">
+      <c r="J5">
         <v>135</v>
       </c>
-      <c r="K5" s="46">
+      <c r="K5">
         <v>156</v>
       </c>
-      <c r="L5" s="46">
+      <c r="L5">
         <v>126</v>
       </c>
-      <c r="M5" s="46">
+      <c r="M5">
         <v>84</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5">
         <v>102</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5">
         <v>96</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5">
         <v>102</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5">
         <v>129</v>
       </c>
-      <c r="R5" s="46">
+      <c r="R5">
         <v>147</v>
       </c>
-      <c r="S5" s="46">
+      <c r="S5">
         <v>111</v>
       </c>
-      <c r="T5" s="46">
+      <c r="T5">
         <v>87</v>
       </c>
-      <c r="U5" s="46">
+      <c r="U5">
         <v>114</v>
       </c>
-      <c r="V5" s="46">
+      <c r="V5">
         <v>105</v>
       </c>
-      <c r="W5" s="46">
+      <c r="W5">
         <v>117</v>
       </c>
-      <c r="X5" s="46">
+      <c r="X5">
         <v>132</v>
       </c>
-      <c r="Y5" s="46">
+      <c r="Y5">
         <v>180</v>
       </c>
-      <c r="Z5" s="46">
+      <c r="Z5">
         <v>174</v>
       </c>
-      <c r="AA5" s="46">
+      <c r="AA5">
         <v>264</v>
       </c>
-      <c r="AB5" s="46">
+      <c r="AB5">
         <v>549</v>
       </c>
-      <c r="AC5" s="46">
+      <c r="AC5">
         <v>471</v>
       </c>
-      <c r="AD5" s="48">
+      <c r="AD5" s="47">
         <v>561</v>
       </c>
-      <c r="AE5" s="47">
+      <c r="AE5" s="46">
         <v>627</v>
       </c>
-      <c r="AF5" s="47">
+      <c r="AF5" s="46">
         <v>765</v>
       </c>
-      <c r="AG5" s="47">
+      <c r="AG5" s="46">
         <v>351</v>
       </c>
-      <c r="AH5" s="47">
+      <c r="AH5" s="46">
         <v>678</v>
       </c>
-      <c r="AI5" s="47">
+      <c r="AI5" s="46">
         <v>1284</v>
       </c>
-      <c r="AJ5" s="47">
+      <c r="AJ5" s="46">
         <v>2304</v>
       </c>
-      <c r="AK5" s="47">
+      <c r="AK5" s="46">
         <v>1452</v>
       </c>
-      <c r="AL5" s="47">
+      <c r="AL5" s="46">
         <v>4305</v>
       </c>
-      <c r="AM5" s="47">
+      <c r="AM5" s="46">
         <v>27051</v>
       </c>
-      <c r="AN5" s="47">
+      <c r="AN5" s="46">
         <v>47454</v>
       </c>
-      <c r="AO5" s="47">
+      <c r="AO5" s="46">
         <v>53526</v>
       </c>
-      <c r="AP5" s="47">
+      <c r="AP5" s="46">
         <v>22266</v>
       </c>
-      <c r="AQ5" s="49">
+      <c r="AQ5" s="48">
         <v>15180</v>
       </c>
-      <c r="AR5" s="46">
+      <c r="AR5">
         <v>189</v>
       </c>
-      <c r="AS5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AT5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="46">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="46">
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
         <v>0</v>
       </c>
       <c r="BA5" s="2">
@@ -3456,158 +3458,158 @@
       </c>
     </row>
     <row r="6" spans="1:53">
-      <c r="A6" s="50"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="19">
         <v>4</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6">
         <v>5993547</v>
       </c>
-      <c r="D6" s="46">
-        <v>0</v>
-      </c>
-      <c r="E6" s="46">
-        <v>0</v>
-      </c>
-      <c r="F6" s="46">
-        <v>0</v>
-      </c>
-      <c r="G6" s="46">
-        <v>0</v>
-      </c>
-      <c r="H6" s="46">
-        <v>0</v>
-      </c>
-      <c r="I6" s="46">
-        <v>0</v>
-      </c>
-      <c r="J6" s="46">
-        <v>0</v>
-      </c>
-      <c r="K6" s="46">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>6</v>
       </c>
-      <c r="L6" s="46">
+      <c r="L6">
         <v>12</v>
       </c>
-      <c r="M6" s="46">
+      <c r="M6">
         <v>9</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6">
         <v>9</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6">
         <v>36</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6">
         <v>18</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6">
         <v>51</v>
       </c>
-      <c r="R6" s="46">
+      <c r="R6">
         <v>96</v>
       </c>
-      <c r="S6" s="46">
+      <c r="S6">
         <v>120</v>
       </c>
-      <c r="T6" s="46">
+      <c r="T6">
         <v>132</v>
       </c>
-      <c r="U6" s="46">
+      <c r="U6">
         <v>150</v>
       </c>
-      <c r="V6" s="46">
+      <c r="V6">
         <v>171</v>
       </c>
-      <c r="W6" s="46">
+      <c r="W6">
         <v>204</v>
       </c>
-      <c r="X6" s="46">
+      <c r="X6">
         <v>279</v>
       </c>
-      <c r="Y6" s="46">
+      <c r="Y6">
         <v>429</v>
       </c>
-      <c r="Z6" s="46">
+      <c r="Z6">
         <v>666</v>
       </c>
-      <c r="AA6" s="46">
+      <c r="AA6">
         <v>756</v>
       </c>
-      <c r="AB6" s="46">
+      <c r="AB6">
         <v>1179</v>
       </c>
-      <c r="AC6" s="46">
+      <c r="AC6">
         <v>1350</v>
       </c>
-      <c r="AD6" s="48">
+      <c r="AD6" s="47">
         <v>1185</v>
       </c>
-      <c r="AE6" s="47">
+      <c r="AE6" s="46">
         <v>1059</v>
       </c>
-      <c r="AF6" s="47">
+      <c r="AF6" s="46">
         <v>1692</v>
       </c>
-      <c r="AG6" s="47">
+      <c r="AG6" s="46">
         <v>2550</v>
       </c>
-      <c r="AH6" s="47">
+      <c r="AH6" s="46">
         <v>3186</v>
       </c>
-      <c r="AI6" s="47">
+      <c r="AI6" s="46">
         <v>4293</v>
       </c>
-      <c r="AJ6" s="47">
+      <c r="AJ6" s="46">
         <v>6198</v>
       </c>
-      <c r="AK6" s="47">
+      <c r="AK6" s="46">
         <v>7443</v>
       </c>
-      <c r="AL6" s="47">
+      <c r="AL6" s="46">
         <v>11340</v>
       </c>
-      <c r="AM6" s="47">
+      <c r="AM6" s="46">
         <v>13746</v>
       </c>
-      <c r="AN6" s="47">
+      <c r="AN6" s="46">
         <v>25155</v>
       </c>
-      <c r="AO6" s="47">
+      <c r="AO6" s="46">
         <v>32619</v>
       </c>
-      <c r="AP6" s="47">
+      <c r="AP6" s="46">
         <v>65949</v>
       </c>
-      <c r="AQ6" s="49">
+      <c r="AQ6" s="48">
         <v>44700</v>
       </c>
-      <c r="AR6" s="46">
+      <c r="AR6">
         <v>465</v>
       </c>
-      <c r="AS6" s="46">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="46">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="46">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="46">
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
         <v>0</v>
       </c>
       <c r="BA6" s="2">
@@ -3615,158 +3617,158 @@
       </c>
     </row>
     <row r="7" spans="1:53">
-      <c r="A7" s="50"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="19">
         <v>6</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7">
         <v>5881356</v>
       </c>
-      <c r="D7" s="46">
-        <v>0</v>
-      </c>
-      <c r="E7" s="46">
-        <v>0</v>
-      </c>
-      <c r="F7" s="46">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="G7" s="46">
-        <v>0</v>
-      </c>
-      <c r="H7" s="46">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>3</v>
       </c>
-      <c r="I7" s="46">
+      <c r="I7">
         <v>6</v>
       </c>
-      <c r="J7" s="46">
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="K7" s="46">
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="L7" s="46">
+      <c r="L7">
         <v>9</v>
       </c>
-      <c r="M7" s="46">
+      <c r="M7">
         <v>9</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7">
         <v>15</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7">
         <v>18</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7">
         <v>18</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7">
         <v>21</v>
       </c>
-      <c r="R7" s="46">
+      <c r="R7">
         <v>36</v>
       </c>
-      <c r="S7" s="46">
+      <c r="S7">
         <v>66</v>
       </c>
-      <c r="T7" s="46">
+      <c r="T7">
         <v>114</v>
       </c>
-      <c r="U7" s="46">
+      <c r="U7">
         <v>135</v>
       </c>
-      <c r="V7" s="46">
+      <c r="V7">
         <v>183</v>
       </c>
-      <c r="W7" s="46">
+      <c r="W7">
         <v>261</v>
       </c>
-      <c r="X7" s="46">
+      <c r="X7">
         <v>609</v>
       </c>
-      <c r="Y7" s="46">
+      <c r="Y7">
         <v>1005</v>
       </c>
-      <c r="Z7" s="46">
+      <c r="Z7">
         <v>1428</v>
       </c>
-      <c r="AA7" s="46">
+      <c r="AA7">
         <v>2568</v>
       </c>
-      <c r="AB7" s="46">
+      <c r="AB7">
         <v>5061</v>
       </c>
-      <c r="AC7" s="46">
+      <c r="AC7">
         <v>6924</v>
       </c>
-      <c r="AD7" s="48">
+      <c r="AD7" s="47">
         <v>11766</v>
       </c>
-      <c r="AE7" s="47">
+      <c r="AE7" s="46">
         <v>15858</v>
       </c>
-      <c r="AF7" s="47">
+      <c r="AF7" s="46">
         <v>20271</v>
       </c>
-      <c r="AG7" s="47">
+      <c r="AG7" s="46">
         <v>19446</v>
       </c>
-      <c r="AH7" s="47">
+      <c r="AH7" s="46">
         <v>23079</v>
       </c>
-      <c r="AI7" s="47">
+      <c r="AI7" s="46">
         <v>23118</v>
       </c>
-      <c r="AJ7" s="47">
+      <c r="AJ7" s="46">
         <v>27720</v>
       </c>
-      <c r="AK7" s="47">
+      <c r="AK7" s="46">
         <v>31776</v>
       </c>
-      <c r="AL7" s="47">
+      <c r="AL7" s="46">
         <v>39426</v>
       </c>
-      <c r="AM7" s="47">
+      <c r="AM7" s="46">
         <v>19419</v>
       </c>
-      <c r="AN7" s="47">
+      <c r="AN7" s="46">
         <v>17856</v>
       </c>
-      <c r="AO7" s="47">
+      <c r="AO7" s="46">
         <v>23394</v>
       </c>
-      <c r="AP7" s="47">
+      <c r="AP7" s="46">
         <v>24750</v>
       </c>
-      <c r="AQ7" s="49">
+      <c r="AQ7" s="48">
         <v>22863</v>
       </c>
-      <c r="AR7" s="46">
+      <c r="AR7">
         <v>201</v>
       </c>
-      <c r="AS7" s="46">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="46">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="46">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="46">
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>0</v>
+      </c>
+      <c r="AZ7">
         <v>0</v>
       </c>
       <c r="BA7" s="2">
@@ -3774,158 +3776,158 @@
       </c>
     </row>
     <row r="8" spans="1:53">
-      <c r="A8" s="50"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="19">
         <v>7</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8">
         <v>5529423</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G8" s="46">
-        <v>0</v>
-      </c>
-      <c r="H8" s="46">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>3</v>
       </c>
-      <c r="I8" s="46">
+      <c r="I8">
         <v>9</v>
       </c>
-      <c r="J8" s="46">
+      <c r="J8">
         <v>15</v>
       </c>
-      <c r="K8" s="46">
+      <c r="K8">
         <v>18</v>
       </c>
-      <c r="L8" s="46">
+      <c r="L8">
         <v>24</v>
       </c>
-      <c r="M8" s="46">
+      <c r="M8">
         <v>18</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8">
         <v>30</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8">
         <v>42</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8">
         <v>48</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8">
         <v>72</v>
       </c>
-      <c r="R8" s="46">
+      <c r="R8">
         <v>108</v>
       </c>
-      <c r="S8" s="46">
+      <c r="S8">
         <v>132</v>
       </c>
-      <c r="T8" s="46">
+      <c r="T8">
         <v>186</v>
       </c>
-      <c r="U8" s="46">
+      <c r="U8">
         <v>261</v>
       </c>
-      <c r="V8" s="46">
+      <c r="V8">
         <v>294</v>
       </c>
-      <c r="W8" s="46">
+      <c r="W8">
         <v>474</v>
       </c>
-      <c r="X8" s="46">
+      <c r="X8">
         <v>573</v>
       </c>
-      <c r="Y8" s="46">
+      <c r="Y8">
         <v>825</v>
       </c>
-      <c r="Z8" s="46">
+      <c r="Z8">
         <v>1005</v>
       </c>
-      <c r="AA8" s="46">
+      <c r="AA8">
         <v>1368</v>
       </c>
-      <c r="AB8" s="46">
+      <c r="AB8">
         <v>2082</v>
       </c>
-      <c r="AC8" s="46">
+      <c r="AC8">
         <v>2469</v>
       </c>
-      <c r="AD8" s="48">
+      <c r="AD8" s="47">
         <v>3555</v>
       </c>
-      <c r="AE8" s="47">
+      <c r="AE8" s="46">
         <v>4845</v>
       </c>
-      <c r="AF8" s="47">
+      <c r="AF8" s="46">
         <v>7263</v>
       </c>
-      <c r="AG8" s="47">
+      <c r="AG8" s="46">
         <v>10551</v>
       </c>
-      <c r="AH8" s="47">
+      <c r="AH8" s="46">
         <v>12033</v>
       </c>
-      <c r="AI8" s="47">
+      <c r="AI8" s="46">
         <v>14427</v>
       </c>
-      <c r="AJ8" s="47">
+      <c r="AJ8" s="46">
         <v>19080</v>
       </c>
-      <c r="AK8" s="47">
+      <c r="AK8" s="46">
         <v>24702</v>
       </c>
-      <c r="AL8" s="47">
+      <c r="AL8" s="46">
         <v>38523</v>
       </c>
-      <c r="AM8" s="47">
+      <c r="AM8" s="46">
         <v>44310</v>
       </c>
-      <c r="AN8" s="47">
+      <c r="AN8" s="46">
         <v>61470</v>
       </c>
-      <c r="AO8" s="47">
+      <c r="AO8" s="46">
         <v>92166</v>
       </c>
-      <c r="AP8" s="47">
+      <c r="AP8" s="46">
         <v>141819</v>
       </c>
-      <c r="AQ8" s="49">
+      <c r="AQ8" s="48">
         <v>204654</v>
       </c>
-      <c r="AR8" s="46">
+      <c r="AR8">
         <v>1911</v>
       </c>
-      <c r="AS8" s="46">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU8" s="46">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="46">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="46">
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>0</v>
+      </c>
+      <c r="AZ8">
         <v>0</v>
       </c>
       <c r="BA8" s="2">
@@ -3933,158 +3935,158 @@
       </c>
     </row>
     <row r="9" spans="1:53">
-      <c r="A9" s="50"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="19">
         <v>8</v>
       </c>
-      <c r="C9" s="46">
-        <v>5513673</v>
-      </c>
-      <c r="D9" s="46">
+      <c r="C9">
+        <v>5753589</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
         <v>9</v>
       </c>
-      <c r="E9" s="46">
-        <v>6</v>
-      </c>
-      <c r="F9" s="46">
-        <v>3</v>
-      </c>
-      <c r="G9" s="46">
-        <v>6</v>
-      </c>
-      <c r="H9" s="46">
-        <v>9</v>
-      </c>
-      <c r="I9" s="46">
-        <v>36</v>
-      </c>
-      <c r="J9" s="46">
-        <v>84</v>
-      </c>
-      <c r="K9" s="46">
+      <c r="J9">
+        <v>24</v>
+      </c>
+      <c r="K9">
+        <v>54</v>
+      </c>
+      <c r="L9">
+        <v>102</v>
+      </c>
+      <c r="M9">
         <v>105</v>
       </c>
-      <c r="L9" s="46">
-        <v>129</v>
-      </c>
-      <c r="M9" s="46">
-        <v>207</v>
-      </c>
-      <c r="N9" s="46">
-        <v>282</v>
-      </c>
-      <c r="O9" s="46">
-        <v>402</v>
-      </c>
-      <c r="P9" s="46">
-        <v>522</v>
-      </c>
-      <c r="Q9" s="46">
+      <c r="N9">
+        <v>156</v>
+      </c>
+      <c r="O9">
+        <v>255</v>
+      </c>
+      <c r="P9">
+        <v>345</v>
+      </c>
+      <c r="Q9">
+        <v>393</v>
+      </c>
+      <c r="R9">
         <v>600</v>
       </c>
-      <c r="R9" s="46">
-        <v>864</v>
-      </c>
-      <c r="S9" s="46">
-        <v>906</v>
-      </c>
-      <c r="T9" s="46">
-        <v>966</v>
-      </c>
-      <c r="U9" s="46">
-        <v>1059</v>
-      </c>
-      <c r="V9" s="46">
-        <v>1173</v>
-      </c>
-      <c r="W9" s="46">
-        <v>1134</v>
-      </c>
-      <c r="X9" s="46">
-        <v>984</v>
-      </c>
-      <c r="Y9" s="46">
-        <v>1059</v>
-      </c>
-      <c r="Z9" s="46">
-        <v>933</v>
-      </c>
-      <c r="AA9" s="46">
-        <v>702</v>
-      </c>
-      <c r="AB9" s="46">
-        <v>984</v>
-      </c>
-      <c r="AC9" s="46">
-        <v>810</v>
-      </c>
-      <c r="AD9" s="48">
-        <v>630</v>
-      </c>
-      <c r="AE9" s="47">
+      <c r="S9">
+        <v>591</v>
+      </c>
+      <c r="T9">
+        <v>648</v>
+      </c>
+      <c r="U9">
+        <v>738</v>
+      </c>
+      <c r="V9">
+        <v>798</v>
+      </c>
+      <c r="W9">
+        <v>777</v>
+      </c>
+      <c r="X9">
         <v>744</v>
       </c>
-      <c r="AF9" s="47">
-        <v>813</v>
-      </c>
-      <c r="AG9" s="47">
-        <v>870</v>
-      </c>
-      <c r="AH9" s="47">
-        <v>1305</v>
-      </c>
-      <c r="AI9" s="47">
-        <v>1986</v>
-      </c>
-      <c r="AJ9" s="47">
-        <v>3168</v>
-      </c>
-      <c r="AK9" s="47">
-        <v>5256</v>
-      </c>
-      <c r="AL9" s="47">
-        <v>11235</v>
-      </c>
-      <c r="AM9" s="47">
-        <v>22242</v>
-      </c>
-      <c r="AN9" s="47">
-        <v>52749</v>
-      </c>
-      <c r="AO9" s="47">
-        <v>129933</v>
-      </c>
-      <c r="AP9" s="47">
-        <v>233859</v>
-      </c>
-      <c r="AQ9" s="49">
-        <v>225942</v>
-      </c>
-      <c r="AR9" s="46">
-        <v>2421</v>
-      </c>
-      <c r="AS9" s="46">
-        <v>0</v>
-      </c>
-      <c r="AT9" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU9" s="46">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="46">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="46">
+      <c r="Y9">
+        <v>708</v>
+      </c>
+      <c r="Z9">
+        <v>693</v>
+      </c>
+      <c r="AA9">
+        <v>465</v>
+      </c>
+      <c r="AB9">
+        <v>645</v>
+      </c>
+      <c r="AC9">
+        <v>534</v>
+      </c>
+      <c r="AD9" s="47">
+        <v>450</v>
+      </c>
+      <c r="AE9" s="46">
+        <v>471</v>
+      </c>
+      <c r="AF9" s="46">
+        <v>552</v>
+      </c>
+      <c r="AG9" s="46">
+        <v>567</v>
+      </c>
+      <c r="AH9" s="46">
+        <v>897</v>
+      </c>
+      <c r="AI9" s="46">
+        <v>1401</v>
+      </c>
+      <c r="AJ9" s="46">
+        <v>2280</v>
+      </c>
+      <c r="AK9" s="46">
+        <v>3693</v>
+      </c>
+      <c r="AL9" s="46">
+        <v>7881</v>
+      </c>
+      <c r="AM9" s="46">
+        <v>15330</v>
+      </c>
+      <c r="AN9" s="46">
+        <v>35454</v>
+      </c>
+      <c r="AO9" s="46">
+        <v>86811</v>
+      </c>
+      <c r="AP9" s="46">
+        <v>153936</v>
+      </c>
+      <c r="AQ9" s="48">
+        <v>146574</v>
+      </c>
+      <c r="AR9">
+        <v>1515</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
         <v>0</v>
       </c>
       <c r="BA9" s="2">
@@ -4092,158 +4094,158 @@
       </c>
     </row>
     <row r="10" spans="1:53">
-      <c r="A10" s="50"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="19">
         <v>9</v>
       </c>
-      <c r="C10" s="46">
+      <c r="C10">
         <v>5973999</v>
       </c>
-      <c r="D10" s="46">
-        <v>0</v>
-      </c>
-      <c r="E10" s="46">
-        <v>0</v>
-      </c>
-      <c r="F10" s="46">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="H10" s="46">
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="I10" s="46">
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="J10" s="46">
+      <c r="J10">
         <v>18</v>
       </c>
-      <c r="K10" s="46">
+      <c r="K10">
         <v>30</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10">
         <v>66</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10">
         <v>39</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10">
         <v>51</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10">
         <v>27</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10">
         <v>42</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10">
         <v>78</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R10">
         <v>105</v>
       </c>
-      <c r="S10" s="46">
+      <c r="S10">
         <v>156</v>
       </c>
-      <c r="T10" s="46">
+      <c r="T10">
         <v>222</v>
       </c>
-      <c r="U10" s="46">
+      <c r="U10">
         <v>270</v>
       </c>
-      <c r="V10" s="46">
+      <c r="V10">
         <v>360</v>
       </c>
-      <c r="W10" s="46">
+      <c r="W10">
         <v>447</v>
       </c>
-      <c r="X10" s="46">
+      <c r="X10">
         <v>612</v>
       </c>
-      <c r="Y10" s="46">
+      <c r="Y10">
         <v>807</v>
       </c>
-      <c r="Z10" s="46">
+      <c r="Z10">
         <v>1401</v>
       </c>
-      <c r="AA10" s="46">
+      <c r="AA10">
         <v>2271</v>
       </c>
-      <c r="AB10" s="46">
+      <c r="AB10">
         <v>4119</v>
       </c>
-      <c r="AC10" s="46">
+      <c r="AC10">
         <v>5061</v>
       </c>
-      <c r="AD10" s="48">
+      <c r="AD10" s="47">
         <v>5715</v>
       </c>
-      <c r="AE10" s="47">
+      <c r="AE10" s="46">
         <v>6765</v>
       </c>
-      <c r="AF10" s="47">
+      <c r="AF10" s="46">
         <v>9312</v>
       </c>
-      <c r="AG10" s="47">
+      <c r="AG10" s="46">
         <v>12123</v>
       </c>
-      <c r="AH10" s="47">
+      <c r="AH10" s="46">
         <v>13308</v>
       </c>
-      <c r="AI10" s="47">
+      <c r="AI10" s="46">
         <v>6771</v>
       </c>
-      <c r="AJ10" s="47">
+      <c r="AJ10" s="46">
         <v>6165</v>
       </c>
-      <c r="AK10" s="47">
+      <c r="AK10" s="46">
         <v>8769</v>
       </c>
-      <c r="AL10" s="47">
+      <c r="AL10" s="46">
         <v>21138</v>
       </c>
-      <c r="AM10" s="47">
+      <c r="AM10" s="46">
         <v>18390</v>
       </c>
-      <c r="AN10" s="47">
+      <c r="AN10" s="46">
         <v>12873</v>
       </c>
-      <c r="AO10" s="47">
+      <c r="AO10" s="46">
         <v>15480</v>
       </c>
-      <c r="AP10" s="47">
+      <c r="AP10" s="46">
         <v>37914</v>
       </c>
-      <c r="AQ10" s="49">
+      <c r="AQ10" s="48">
         <v>54552</v>
       </c>
-      <c r="AR10" s="46">
+      <c r="AR10">
         <v>1320</v>
       </c>
-      <c r="AS10" s="46">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="46">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="46">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="46">
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
         <v>0</v>
       </c>
       <c r="BA10" s="2">
@@ -4251,158 +4253,158 @@
       </c>
     </row>
     <row r="11" spans="1:53">
-      <c r="A11" s="50"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="19">
         <v>11</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11">
         <v>6133296</v>
       </c>
-      <c r="D11" s="46">
-        <v>0</v>
-      </c>
-      <c r="E11" s="46">
-        <v>0</v>
-      </c>
-      <c r="F11" s="46">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="G11" s="46">
-        <v>0</v>
-      </c>
-      <c r="H11" s="46">
-        <v>0</v>
-      </c>
-      <c r="I11" s="46">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>3</v>
       </c>
-      <c r="J11" s="46">
-        <v>0</v>
-      </c>
-      <c r="K11" s="46">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11">
         <v>6</v>
       </c>
-      <c r="M11" s="46">
-        <v>0</v>
-      </c>
-      <c r="N11" s="46">
-        <v>0</v>
-      </c>
-      <c r="O11" s="46">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>24</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11">
         <v>12</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11">
         <v>24</v>
       </c>
-      <c r="R11" s="46">
+      <c r="R11">
         <v>15</v>
       </c>
-      <c r="S11" s="46">
+      <c r="S11">
         <v>6</v>
       </c>
-      <c r="T11" s="46">
+      <c r="T11">
         <v>24</v>
       </c>
-      <c r="U11" s="46">
+      <c r="U11">
         <v>6</v>
       </c>
-      <c r="V11" s="46">
+      <c r="V11">
         <v>30</v>
       </c>
-      <c r="W11" s="46">
+      <c r="W11">
         <v>33</v>
       </c>
-      <c r="X11" s="46">
+      <c r="X11">
         <v>69</v>
       </c>
-      <c r="Y11" s="46">
+      <c r="Y11">
         <v>87</v>
       </c>
-      <c r="Z11" s="46">
+      <c r="Z11">
         <v>114</v>
       </c>
-      <c r="AA11" s="46">
+      <c r="AA11">
         <v>123</v>
       </c>
-      <c r="AB11" s="46">
+      <c r="AB11">
         <v>243</v>
       </c>
-      <c r="AC11" s="46">
+      <c r="AC11">
         <v>312</v>
       </c>
-      <c r="AD11" s="48">
+      <c r="AD11" s="47">
         <v>447</v>
       </c>
-      <c r="AE11" s="47">
+      <c r="AE11" s="46">
         <v>552</v>
       </c>
-      <c r="AF11" s="47">
+      <c r="AF11" s="46">
         <v>720</v>
       </c>
-      <c r="AG11" s="47">
+      <c r="AG11" s="46">
         <v>975</v>
       </c>
-      <c r="AH11" s="47">
+      <c r="AH11" s="46">
         <v>1341</v>
       </c>
-      <c r="AI11" s="47">
+      <c r="AI11" s="46">
         <v>1788</v>
       </c>
-      <c r="AJ11" s="47">
+      <c r="AJ11" s="46">
         <v>2394</v>
       </c>
-      <c r="AK11" s="47">
+      <c r="AK11" s="46">
         <v>3168</v>
       </c>
-      <c r="AL11" s="47">
+      <c r="AL11" s="46">
         <v>5547</v>
       </c>
-      <c r="AM11" s="47">
+      <c r="AM11" s="46">
         <v>6420</v>
       </c>
-      <c r="AN11" s="47">
+      <c r="AN11" s="46">
         <v>9804</v>
       </c>
-      <c r="AO11" s="47">
+      <c r="AO11" s="46">
         <v>11631</v>
       </c>
-      <c r="AP11" s="47">
+      <c r="AP11" s="46">
         <v>18117</v>
       </c>
-      <c r="AQ11" s="49">
+      <c r="AQ11" s="48">
         <v>23259</v>
       </c>
-      <c r="AR11" s="46">
+      <c r="AR11">
         <v>204</v>
       </c>
-      <c r="AS11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AT11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="46">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="46">
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
         <v>0</v>
       </c>
       <c r="BA11" s="2">
@@ -4410,158 +4412,158 @@
       </c>
     </row>
     <row r="12" spans="1:53">
-      <c r="A12" s="50"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="19">
         <v>14</v>
       </c>
-      <c r="C12" s="46">
-        <v>6026241</v>
-      </c>
-      <c r="D12" s="46">
-        <v>0</v>
-      </c>
-      <c r="E12" s="46">
-        <v>0</v>
-      </c>
-      <c r="F12" s="46">
-        <v>0</v>
-      </c>
-      <c r="G12" s="46">
-        <v>0</v>
-      </c>
-      <c r="H12" s="46">
+      <c r="C12">
+        <v>5639886</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
         <v>3</v>
       </c>
-      <c r="I12" s="46">
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>9</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>3</v>
       </c>
-      <c r="J12" s="46">
-        <v>0</v>
-      </c>
-      <c r="K12" s="46">
-        <v>0</v>
-      </c>
-      <c r="L12" s="46">
-        <v>0</v>
-      </c>
-      <c r="M12" s="46">
-        <v>3</v>
-      </c>
-      <c r="N12" s="46">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <v>9</v>
       </c>
-      <c r="O12" s="46">
+      <c r="N12">
         <v>9</v>
       </c>
-      <c r="P12" s="46">
-        <v>6</v>
-      </c>
-      <c r="Q12" s="46">
+      <c r="O12">
+        <v>12</v>
+      </c>
+      <c r="P12">
         <v>15</v>
       </c>
-      <c r="R12" s="46">
-        <v>15</v>
-      </c>
-      <c r="S12" s="46">
-        <v>18</v>
-      </c>
-      <c r="T12" s="46">
+      <c r="Q12">
         <v>24</v>
       </c>
-      <c r="U12" s="46">
+      <c r="R12">
         <v>24</v>
       </c>
-      <c r="V12" s="46">
-        <v>24</v>
-      </c>
-      <c r="W12" s="46">
-        <v>24</v>
-      </c>
-      <c r="X12" s="46">
+      <c r="S12">
+        <v>36</v>
+      </c>
+      <c r="T12">
         <v>54</v>
       </c>
-      <c r="Y12" s="46">
-        <v>54</v>
-      </c>
-      <c r="Z12" s="46">
-        <v>81</v>
-      </c>
-      <c r="AA12" s="46">
-        <v>99</v>
-      </c>
-      <c r="AB12" s="46">
-        <v>225</v>
-      </c>
-      <c r="AC12" s="46">
-        <v>282</v>
-      </c>
-      <c r="AD12" s="48">
-        <v>333</v>
-      </c>
-      <c r="AE12" s="47">
-        <v>474</v>
-      </c>
-      <c r="AF12" s="47">
-        <v>678</v>
-      </c>
-      <c r="AG12" s="47">
-        <v>942</v>
-      </c>
-      <c r="AH12" s="47">
-        <v>1362</v>
-      </c>
-      <c r="AI12" s="47">
-        <v>1815</v>
-      </c>
-      <c r="AJ12" s="47">
-        <v>3192</v>
-      </c>
-      <c r="AK12" s="47">
-        <v>5541</v>
-      </c>
-      <c r="AL12" s="47">
-        <v>12123</v>
-      </c>
-      <c r="AM12" s="47">
-        <v>24435</v>
-      </c>
-      <c r="AN12" s="47">
-        <v>35883</v>
-      </c>
-      <c r="AO12" s="47">
-        <v>55317</v>
-      </c>
-      <c r="AP12" s="47">
-        <v>47421</v>
-      </c>
-      <c r="AQ12" s="49">
-        <v>4065</v>
-      </c>
-      <c r="AR12" s="46">
-        <v>6</v>
-      </c>
-      <c r="AS12" s="46">
-        <v>0</v>
-      </c>
-      <c r="AT12" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU12" s="46">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX12" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="46">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="46">
+      <c r="U12">
+        <v>75</v>
+      </c>
+      <c r="V12">
+        <v>78</v>
+      </c>
+      <c r="W12">
+        <v>102</v>
+      </c>
+      <c r="X12">
+        <v>117</v>
+      </c>
+      <c r="Y12">
+        <v>144</v>
+      </c>
+      <c r="Z12">
+        <v>177</v>
+      </c>
+      <c r="AA12">
+        <v>237</v>
+      </c>
+      <c r="AB12">
+        <v>471</v>
+      </c>
+      <c r="AC12">
+        <v>642</v>
+      </c>
+      <c r="AD12" s="47">
+        <v>810</v>
+      </c>
+      <c r="AE12" s="46">
+        <v>1131</v>
+      </c>
+      <c r="AF12" s="46">
+        <v>1488</v>
+      </c>
+      <c r="AG12" s="46">
+        <v>2001</v>
+      </c>
+      <c r="AH12" s="46">
+        <v>3084</v>
+      </c>
+      <c r="AI12" s="46">
+        <v>4575</v>
+      </c>
+      <c r="AJ12" s="46">
+        <v>7422</v>
+      </c>
+      <c r="AK12" s="46">
+        <v>13320</v>
+      </c>
+      <c r="AL12" s="46">
+        <v>30627</v>
+      </c>
+      <c r="AM12" s="46">
+        <v>68283</v>
+      </c>
+      <c r="AN12" s="46">
+        <v>107346</v>
+      </c>
+      <c r="AO12" s="46">
+        <v>170400</v>
+      </c>
+      <c r="AP12" s="46">
+        <v>153564</v>
+      </c>
+      <c r="AQ12" s="48">
+        <v>14601</v>
+      </c>
+      <c r="AR12">
+        <v>21</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
         <v>0</v>
       </c>
       <c r="BA12" s="2">
@@ -4569,158 +4571,158 @@
       </c>
     </row>
     <row r="13" spans="1:53">
-      <c r="A13" s="50"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="19">
         <v>16</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13">
         <v>6066267</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" s="46">
-        <v>0</v>
-      </c>
-      <c r="F13" s="46">
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>3</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13">
         <v>24</v>
       </c>
-      <c r="H13" s="46">
+      <c r="H13">
         <v>30</v>
       </c>
-      <c r="I13" s="46">
+      <c r="I13">
         <v>30</v>
       </c>
-      <c r="J13" s="46">
+      <c r="J13">
         <v>48</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13">
         <v>66</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13">
         <v>57</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13">
         <v>90</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13">
         <v>108</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13">
         <v>117</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13">
         <v>153</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13">
         <v>162</v>
       </c>
-      <c r="R13" s="46">
+      <c r="R13">
         <v>504</v>
       </c>
-      <c r="S13" s="46">
+      <c r="S13">
         <v>678</v>
       </c>
-      <c r="T13" s="46">
+      <c r="T13">
         <v>903</v>
       </c>
-      <c r="U13" s="46">
+      <c r="U13">
         <v>630</v>
       </c>
-      <c r="V13" s="46">
+      <c r="V13">
         <v>615</v>
       </c>
-      <c r="W13" s="46">
+      <c r="W13">
         <v>642</v>
       </c>
-      <c r="X13" s="46">
+      <c r="X13">
         <v>735</v>
       </c>
-      <c r="Y13" s="46">
+      <c r="Y13">
         <v>738</v>
       </c>
-      <c r="Z13" s="46">
+      <c r="Z13">
         <v>813</v>
       </c>
-      <c r="AA13" s="46">
+      <c r="AA13">
         <v>876</v>
       </c>
-      <c r="AB13" s="46">
+      <c r="AB13">
         <v>1353</v>
       </c>
-      <c r="AC13" s="46">
+      <c r="AC13">
         <v>1848</v>
       </c>
-      <c r="AD13" s="48">
+      <c r="AD13" s="47">
         <v>2496</v>
       </c>
-      <c r="AE13" s="47">
+      <c r="AE13" s="46">
         <v>3171</v>
       </c>
-      <c r="AF13" s="47">
+      <c r="AF13" s="46">
         <v>3492</v>
       </c>
-      <c r="AG13" s="47">
+      <c r="AG13" s="46">
         <v>3582</v>
       </c>
-      <c r="AH13" s="47">
+      <c r="AH13" s="46">
         <v>3264</v>
       </c>
-      <c r="AI13" s="47">
+      <c r="AI13" s="46">
         <v>2787</v>
       </c>
-      <c r="AJ13" s="47">
+      <c r="AJ13" s="46">
         <v>4068</v>
       </c>
-      <c r="AK13" s="47">
+      <c r="AK13" s="46">
         <v>11064</v>
       </c>
-      <c r="AL13" s="47">
+      <c r="AL13" s="46">
         <v>16314</v>
       </c>
-      <c r="AM13" s="47">
+      <c r="AM13" s="46">
         <v>9267</v>
       </c>
-      <c r="AN13" s="47">
+      <c r="AN13" s="46">
         <v>20094</v>
       </c>
-      <c r="AO13" s="47">
+      <c r="AO13" s="46">
         <v>38409</v>
       </c>
-      <c r="AP13" s="47">
+      <c r="AP13" s="46">
         <v>20220</v>
       </c>
-      <c r="AQ13" s="49">
+      <c r="AQ13" s="48">
         <v>5067</v>
       </c>
-      <c r="AR13" s="46">
+      <c r="AR13">
         <v>12</v>
       </c>
-      <c r="AS13" s="46">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="46">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="46">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="46">
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
         <v>0</v>
       </c>
       <c r="BA13" s="2">
@@ -4728,158 +4730,158 @@
       </c>
     </row>
     <row r="14" spans="1:53">
-      <c r="A14" s="50"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="19">
         <v>17</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14">
         <v>5915241</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14">
         <v>42</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14">
         <v>6</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14">
         <v>15</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14">
         <v>15</v>
       </c>
-      <c r="H14" s="46">
+      <c r="H14">
         <v>84</v>
       </c>
-      <c r="I14" s="46">
+      <c r="I14">
         <v>33</v>
       </c>
-      <c r="J14" s="46">
+      <c r="J14">
         <v>93</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14">
         <v>81</v>
       </c>
-      <c r="L14" s="46">
+      <c r="L14">
         <v>135</v>
       </c>
-      <c r="M14" s="46">
+      <c r="M14">
         <v>153</v>
       </c>
-      <c r="N14" s="46">
+      <c r="N14">
         <v>225</v>
       </c>
-      <c r="O14" s="46">
+      <c r="O14">
         <v>240</v>
       </c>
-      <c r="P14" s="46">
+      <c r="P14">
         <v>270</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14">
         <v>366</v>
       </c>
-      <c r="R14" s="46">
+      <c r="R14">
         <v>495</v>
       </c>
-      <c r="S14" s="46">
+      <c r="S14">
         <v>696</v>
       </c>
-      <c r="T14" s="46">
+      <c r="T14">
         <v>1305</v>
       </c>
-      <c r="U14" s="46">
+      <c r="U14">
         <v>1362</v>
       </c>
-      <c r="V14" s="46">
+      <c r="V14">
         <v>915</v>
       </c>
-      <c r="W14" s="46">
+      <c r="W14">
         <v>807</v>
       </c>
-      <c r="X14" s="46">
+      <c r="X14">
         <v>801</v>
       </c>
-      <c r="Y14" s="46">
+      <c r="Y14">
         <v>819</v>
       </c>
-      <c r="Z14" s="46">
+      <c r="Z14">
         <v>924</v>
       </c>
-      <c r="AA14" s="46">
+      <c r="AA14">
         <v>990</v>
       </c>
-      <c r="AB14" s="46">
+      <c r="AB14">
         <v>1011</v>
       </c>
-      <c r="AC14" s="46">
+      <c r="AC14">
         <v>1068</v>
       </c>
-      <c r="AD14" s="48">
+      <c r="AD14" s="47">
         <v>1644</v>
       </c>
-      <c r="AE14" s="47">
+      <c r="AE14" s="46">
         <v>90</v>
       </c>
-      <c r="AF14" s="47">
+      <c r="AF14" s="46">
         <v>3</v>
       </c>
-      <c r="AG14" s="47">
+      <c r="AG14" s="46">
         <v>15</v>
       </c>
-      <c r="AH14" s="47">
+      <c r="AH14" s="46">
         <v>24</v>
       </c>
-      <c r="AI14" s="47">
+      <c r="AI14" s="46">
         <v>21</v>
       </c>
-      <c r="AJ14" s="47">
+      <c r="AJ14" s="46">
         <v>33</v>
       </c>
-      <c r="AK14" s="47">
+      <c r="AK14" s="46">
         <v>141</v>
       </c>
-      <c r="AL14" s="47">
+      <c r="AL14" s="46">
         <v>5625</v>
       </c>
-      <c r="AM14" s="47">
+      <c r="AM14" s="46">
         <v>8805</v>
       </c>
-      <c r="AN14" s="47">
+      <c r="AN14" s="46">
         <v>20859</v>
       </c>
-      <c r="AO14" s="47">
+      <c r="AO14" s="46">
         <v>43899</v>
       </c>
-      <c r="AP14" s="47">
+      <c r="AP14" s="46">
         <v>92418</v>
       </c>
-      <c r="AQ14" s="49">
+      <c r="AQ14" s="48">
         <v>118257</v>
       </c>
-      <c r="AR14" s="46">
+      <c r="AR14">
         <v>774</v>
       </c>
-      <c r="AS14" s="46">
-        <v>0</v>
-      </c>
-      <c r="AT14" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU14" s="46">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX14" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="46">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="46">
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
         <v>0</v>
       </c>
       <c r="BA14" s="2">
@@ -4887,158 +4889,158 @@
       </c>
     </row>
     <row r="15" spans="1:53">
-      <c r="A15" s="50"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="19">
         <v>19</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15">
         <v>5970363</v>
       </c>
-      <c r="D15" s="46">
-        <v>0</v>
-      </c>
-      <c r="E15" s="46">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
         <v>3</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15">
         <v>9</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15">
         <v>12</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15">
         <v>12</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15">
         <v>24</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15">
         <v>27</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15">
         <v>48</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15">
         <v>78</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15">
         <v>114</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15">
         <v>189</v>
       </c>
-      <c r="O15" s="46">
+      <c r="O15">
         <v>246</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15">
         <v>381</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15">
         <v>663</v>
       </c>
-      <c r="R15" s="46">
+      <c r="R15">
         <v>1173</v>
       </c>
-      <c r="S15" s="46">
+      <c r="S15">
         <v>1350</v>
       </c>
-      <c r="T15" s="46">
+      <c r="T15">
         <v>2382</v>
       </c>
-      <c r="U15" s="46">
+      <c r="U15">
         <v>2052</v>
       </c>
-      <c r="V15" s="46">
+      <c r="V15">
         <v>1374</v>
       </c>
-      <c r="W15" s="46">
+      <c r="W15">
         <v>1365</v>
       </c>
-      <c r="X15" s="46">
+      <c r="X15">
         <v>1812</v>
       </c>
-      <c r="Y15" s="46">
+      <c r="Y15">
         <v>1881</v>
       </c>
-      <c r="Z15" s="46">
+      <c r="Z15">
         <v>2022</v>
       </c>
-      <c r="AA15" s="46">
+      <c r="AA15">
         <v>2211</v>
       </c>
-      <c r="AB15" s="46">
+      <c r="AB15">
         <v>2769</v>
       </c>
-      <c r="AC15" s="46">
+      <c r="AC15">
         <v>2505</v>
       </c>
-      <c r="AD15" s="48">
+      <c r="AD15" s="47">
         <v>2859</v>
       </c>
-      <c r="AE15" s="47">
+      <c r="AE15" s="46">
         <v>3369</v>
       </c>
-      <c r="AF15" s="47">
+      <c r="AF15" s="46">
         <v>6144</v>
       </c>
-      <c r="AG15" s="47">
+      <c r="AG15" s="46">
         <v>8844</v>
       </c>
-      <c r="AH15" s="47">
+      <c r="AH15" s="46">
         <v>12948</v>
       </c>
-      <c r="AI15" s="47">
+      <c r="AI15" s="46">
         <v>21126</v>
       </c>
-      <c r="AJ15" s="47">
+      <c r="AJ15" s="46">
         <v>33669</v>
       </c>
-      <c r="AK15" s="47">
+      <c r="AK15" s="46">
         <v>20268</v>
       </c>
-      <c r="AL15" s="47">
+      <c r="AL15" s="46">
         <v>19020</v>
       </c>
-      <c r="AM15" s="47">
+      <c r="AM15" s="46">
         <v>18069</v>
       </c>
-      <c r="AN15" s="47">
+      <c r="AN15" s="46">
         <v>21201</v>
       </c>
-      <c r="AO15" s="47">
+      <c r="AO15" s="46">
         <v>22974</v>
       </c>
-      <c r="AP15" s="47">
+      <c r="AP15" s="46">
         <v>20511</v>
       </c>
-      <c r="AQ15" s="49">
+      <c r="AQ15" s="48">
         <v>14424</v>
       </c>
-      <c r="AR15" s="46">
+      <c r="AR15">
         <v>309</v>
       </c>
-      <c r="AS15" s="46">
-        <v>0</v>
-      </c>
-      <c r="AT15" s="46">
-        <v>0</v>
-      </c>
-      <c r="AU15" s="46">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="46">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="46">
-        <v>0</v>
-      </c>
-      <c r="AX15" s="46">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="46">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="46">
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
+      <c r="AZ15">
         <v>0</v>
       </c>
       <c r="BA15" s="2">
@@ -5046,135 +5048,135 @@
       </c>
     </row>
     <row r="16" spans="1:53">
-      <c r="A16" s="50"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="19">
         <v>20</v>
       </c>
       <c r="C16" s="8">
-        <v>5829129</v>
+        <v>5661705</v>
       </c>
       <c r="D16" s="8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E16" s="8">
         <v>3</v>
       </c>
       <c r="F16" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <v>3</v>
       </c>
       <c r="H16" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" s="8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J16" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K16" s="8">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L16" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="M16" s="8">
         <v>15</v>
       </c>
       <c r="N16" s="8">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O16" s="8">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="P16" s="8">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="8">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R16" s="8">
-        <v>99</v>
+        <v>150</v>
       </c>
       <c r="S16" s="8">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="T16" s="8">
-        <v>132</v>
+        <v>192</v>
       </c>
       <c r="U16" s="8">
-        <v>183</v>
+        <v>249</v>
       </c>
       <c r="V16" s="8">
-        <v>252</v>
+        <v>312</v>
       </c>
       <c r="W16" s="8">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="X16" s="8">
-        <v>471</v>
+        <v>558</v>
       </c>
       <c r="Y16" s="8">
-        <v>597</v>
+        <v>741</v>
       </c>
       <c r="Z16" s="8">
-        <v>753</v>
+        <v>897</v>
       </c>
       <c r="AA16" s="8">
-        <v>885</v>
+        <v>1185</v>
       </c>
       <c r="AB16" s="8">
-        <v>1566</v>
+        <v>2100</v>
       </c>
       <c r="AC16" s="8">
-        <v>1602</v>
-      </c>
-      <c r="AD16" s="55">
-        <v>2103</v>
-      </c>
-      <c r="AE16" s="53">
-        <v>2724</v>
-      </c>
-      <c r="AF16" s="53">
-        <v>3363</v>
-      </c>
-      <c r="AG16" s="53">
-        <v>4398</v>
-      </c>
-      <c r="AH16" s="53">
-        <v>5637</v>
-      </c>
-      <c r="AI16" s="53">
-        <v>7467</v>
-      </c>
-      <c r="AJ16" s="53">
-        <v>9894</v>
-      </c>
-      <c r="AK16" s="53">
-        <v>13398</v>
-      </c>
-      <c r="AL16" s="53">
-        <v>23337</v>
-      </c>
-      <c r="AM16" s="53">
-        <v>30705</v>
-      </c>
-      <c r="AN16" s="53">
-        <v>47799</v>
-      </c>
-      <c r="AO16" s="53">
-        <v>58383</v>
-      </c>
-      <c r="AP16" s="53">
-        <v>82857</v>
-      </c>
-      <c r="AQ16" s="56">
-        <v>91551</v>
+        <v>2082</v>
+      </c>
+      <c r="AD16" s="53">
+        <v>2718</v>
+      </c>
+      <c r="AE16" s="51">
+        <v>3642</v>
+      </c>
+      <c r="AF16" s="51">
+        <v>4632</v>
+      </c>
+      <c r="AG16" s="51">
+        <v>6072</v>
+      </c>
+      <c r="AH16" s="51">
+        <v>7809</v>
+      </c>
+      <c r="AI16" s="51">
+        <v>10269</v>
+      </c>
+      <c r="AJ16" s="51">
+        <v>13776</v>
+      </c>
+      <c r="AK16" s="51">
+        <v>18774</v>
+      </c>
+      <c r="AL16" s="51">
+        <v>32913</v>
+      </c>
+      <c r="AM16" s="51">
+        <v>43677</v>
+      </c>
+      <c r="AN16" s="51">
+        <v>68349</v>
+      </c>
+      <c r="AO16" s="51">
+        <v>83415</v>
+      </c>
+      <c r="AP16" s="51">
+        <v>119910</v>
+      </c>
+      <c r="AQ16" s="54">
+        <v>132672</v>
       </c>
       <c r="AR16" s="8">
-        <v>825</v>
+        <v>1275</v>
       </c>
       <c r="AS16" s="8">
         <v>0</v>
@@ -5217,7 +5219,7 @@
   <dimension ref="A2:H79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5343,7 +5345,7 @@
       </c>
       <c r="E6" s="33">
         <f>final!$D7-final!$C7</f>
-        <v>216.80500000000001</v>
+        <v>144.29129999999998</v>
       </c>
       <c r="F6" s="31">
         <v>186.46</v>
@@ -5361,21 +5363,21 @@
         <v>98</v>
       </c>
       <c r="C7" s="32">
-        <v>3.3250000000000002</v>
+        <v>-1.2813000000000001</v>
       </c>
       <c r="D7" s="33">
-        <v>220.13</v>
+        <v>143.01</v>
       </c>
       <c r="E7" s="33">
         <f>final!$D8-final!$C8</f>
         <v>192.851</v>
       </c>
       <c r="F7" s="31">
-        <v>187.28</v>
+        <v>113</v>
       </c>
       <c r="G7" s="30">
         <f t="shared" si="0"/>
-        <v>183.95500000000001</v>
+        <v>114.2813</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5411,20 +5413,20 @@
         <v>99</v>
       </c>
       <c r="C9" s="32">
-        <v>2.4942000000000002</v>
+        <v>0.11887</v>
       </c>
       <c r="D9" s="33">
-        <v>118.21</v>
+        <v>154.1</v>
       </c>
       <c r="E9" s="33">
         <v>115.7158</v>
       </c>
       <c r="F9" s="31">
-        <v>85.313999999999993</v>
+        <v>128.87</v>
       </c>
       <c r="G9" s="30">
         <f t="shared" si="0"/>
-        <v>82.819799999999987</v>
+        <v>128.75113000000002</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -5459,21 +5461,21 @@
         <v>102</v>
       </c>
       <c r="C11" s="32">
-        <v>-1.6990000000000001</v>
+        <v>-1.1919</v>
       </c>
       <c r="D11" s="33">
-        <v>184.25</v>
+        <v>165.73</v>
       </c>
       <c r="E11" s="33">
         <f>final!$D10-final!$C10</f>
         <v>109.5731</v>
       </c>
       <c r="F11" s="31">
-        <v>161.08000000000001</v>
+        <v>113.06</v>
       </c>
       <c r="G11" s="30">
         <f t="shared" si="0"/>
-        <v>162.77900000000002</v>
+        <v>114.25190000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5491,7 +5493,7 @@
       </c>
       <c r="E12" s="33">
         <f>final!$D11-final!$C11</f>
-        <v>185.94900000000001</v>
+        <v>166.92189999999999</v>
       </c>
       <c r="F12" s="31">
         <v>212.12</v>
@@ -5530,7 +5532,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="C14" s="32">
         <v>2.6749999999999998</v>
@@ -5554,25 +5556,25 @@
       <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>106</v>
+      <c r="B15" s="31" t="s">
+        <v>104</v>
       </c>
       <c r="C15" s="35">
-        <v>-1.216</v>
+        <v>1.5624</v>
       </c>
       <c r="D15" s="36">
-        <v>164.87</v>
+        <v>75.668999999999997</v>
       </c>
       <c r="E15" s="36">
         <f>final!$D15-final!$C15</f>
-        <v>166.08600000000001</v>
+        <v>74.1066</v>
       </c>
       <c r="F15" s="34">
-        <v>75.668999999999997</v>
+        <v>59.991999999999997</v>
       </c>
       <c r="G15" s="30">
         <f t="shared" si="0"/>
-        <v>76.884999999999991</v>
+        <v>58.429600000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7">

--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A70D01-18D0-4CCE-84FB-6337008122B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA0CF35-1CA6-4A68-8DE0-4562A414AEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="histogram" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="175">
   <si>
     <t>apple</t>
   </si>
@@ -583,6 +583,9 @@
   </si>
   <si>
     <t>object-solid_18</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2272,9 @@
     <tableColumn id="7" xr3:uid="{5C947B0D-2C2B-4626-A556-1DFD4728AEBA}" name="ID" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{B62FA381-A946-4C5D-87B0-25C94F47947E}" name="min (mm)" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{E5755554-E1B0-494A-92FB-875744A3C7EC}" name="max (mm)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{146B5C7C-63AD-4333-A553-A05D927737AB}" name="difference (mm)" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{146B5C7C-63AD-4333-A553-A05D927737AB}" name="difference (mm)" dataDxfId="2">
+      <calculatedColumnFormula>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="5" xr3:uid="{02D3617A-3D9C-4CA4-9AB7-E7F68D9DF901}" name="visible max" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{EC7B00FC-44A9-4F2E-97B8-AD1785358F4A}" name="visible range" dataDxfId="0">
       <calculatedColumnFormula>F3-C3</calculatedColumnFormula>
@@ -2744,7 +2749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D578D86-D93F-4507-92E5-98F2DF597463}">
   <dimension ref="A1:BA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3:BA16"/>
     </sheetView>
   </sheetViews>
@@ -5216,10 +5221,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEED5E-03E1-4D43-B753-B6D0E922BAC9}">
-  <dimension ref="A2:H79"/>
+  <dimension ref="A2:I79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5232,7 +5237,7 @@
     <col min="6" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1">
       <c r="A2" s="38" t="s">
         <v>25</v>
       </c>
@@ -5254,8 +5259,15 @@
       <c r="G2" s="41" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickTop="1">
+      <c r="H2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I2">
+        <f>AVERAGE(Table9[visible range])</f>
+        <v>136.06099999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickTop="1">
       <c r="A3" s="31" t="s">
         <v>1</v>
       </c>
@@ -5263,24 +5275,24 @@
         <v>94</v>
       </c>
       <c r="C3" s="32">
-        <v>-0.90100000000000002</v>
+        <v>0</v>
       </c>
       <c r="D3" s="33">
-        <v>194.2</v>
+        <v>195.12</v>
       </c>
       <c r="E3" s="33">
-        <f>final!$D4-final!$C4</f>
-        <v>175.81800000000001</v>
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>195.12</v>
       </c>
       <c r="F3" s="31">
         <v>179.68</v>
       </c>
       <c r="G3" s="30">
-        <f t="shared" ref="G3:G15" si="0">F3-C3</f>
-        <v>180.58100000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <f>F3-C3</f>
+        <v>179.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="31" t="s">
         <v>2</v>
       </c>
@@ -5288,24 +5300,24 @@
         <v>95</v>
       </c>
       <c r="C4" s="32">
-        <v>-0.19800000000000001</v>
+        <v>0</v>
       </c>
       <c r="D4" s="33">
-        <v>175.62</v>
+        <v>175.82</v>
       </c>
       <c r="E4" s="33">
-        <f>final!$D5-final!$C5</f>
-        <v>181.755</v>
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>175.82</v>
       </c>
       <c r="F4" s="31">
         <v>157.1</v>
       </c>
       <c r="G4" s="30">
-        <f t="shared" si="0"/>
-        <v>157.298</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <f>F4-C4</f>
+        <v>157.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="31" t="s">
         <v>3</v>
       </c>
@@ -5313,24 +5325,24 @@
         <v>96</v>
       </c>
       <c r="C5" s="32">
-        <v>1.345</v>
+        <v>0</v>
       </c>
       <c r="D5" s="33">
-        <v>183.1</v>
+        <v>181.751</v>
       </c>
       <c r="E5" s="33">
-        <f>final!$D6-final!$C6</f>
-        <v>244.828</v>
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>181.751</v>
       </c>
       <c r="F5" s="31">
         <v>103.26</v>
       </c>
       <c r="G5" s="30">
-        <f t="shared" si="0"/>
-        <v>101.91500000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <f>F5-C5</f>
+        <v>103.26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
@@ -5338,24 +5350,24 @@
         <v>97</v>
       </c>
       <c r="C6" s="32">
-        <v>0.65200000000000002</v>
+        <v>0</v>
       </c>
       <c r="D6" s="33">
-        <v>245.48</v>
+        <v>145.874</v>
       </c>
       <c r="E6" s="33">
-        <f>final!$D7-final!$C7</f>
-        <v>144.29129999999998</v>
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>145.874</v>
       </c>
       <c r="F6" s="31">
-        <v>186.46</v>
+        <v>128.85</v>
       </c>
       <c r="G6" s="30">
-        <f t="shared" si="0"/>
-        <v>185.80800000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <f>F6-C6</f>
+        <v>128.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="31" t="s">
         <v>5</v>
       </c>
@@ -5363,24 +5375,24 @@
         <v>98</v>
       </c>
       <c r="C7" s="32">
-        <v>-1.2813000000000001</v>
+        <v>0</v>
       </c>
       <c r="D7" s="33">
-        <v>143.01</v>
+        <v>144.76</v>
       </c>
       <c r="E7" s="33">
-        <f>final!$D8-final!$C8</f>
-        <v>192.851</v>
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>144.76</v>
       </c>
       <c r="F7" s="31">
         <v>113</v>
       </c>
       <c r="G7" s="30">
-        <f t="shared" si="0"/>
-        <v>114.2813</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <f>F7-C7</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="31" t="s">
         <v>0</v>
       </c>
@@ -5388,24 +5400,24 @@
         <v>93</v>
       </c>
       <c r="C8" s="32">
-        <v>3.5190000000000001</v>
+        <v>0</v>
       </c>
       <c r="D8" s="33">
-        <v>196.37</v>
+        <v>192.85</v>
       </c>
       <c r="E8" s="33">
-        <f>final!$D3-final!$C3</f>
-        <v>195.101</v>
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>192.85</v>
       </c>
       <c r="F8" s="31">
         <v>124.35</v>
       </c>
       <c r="G8" s="30">
-        <f t="shared" si="0"/>
-        <v>120.83099999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <f>F8-C8</f>
+        <v>124.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="31" t="s">
         <v>6</v>
       </c>
@@ -5413,23 +5425,24 @@
         <v>99</v>
       </c>
       <c r="C9" s="32">
-        <v>0.11887</v>
+        <v>0</v>
       </c>
       <c r="D9" s="33">
-        <v>154.1</v>
+        <v>154.18</v>
       </c>
       <c r="E9" s="33">
-        <v>115.7158</v>
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>154.18</v>
       </c>
       <c r="F9" s="31">
         <v>128.87</v>
       </c>
       <c r="G9" s="30">
-        <f t="shared" si="0"/>
-        <v>128.75113000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <f>F9-C9</f>
+        <v>128.87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="31" t="s">
         <v>143</v>
       </c>
@@ -5437,23 +5450,24 @@
         <v>100</v>
       </c>
       <c r="C10" s="32">
-        <v>1.0669</v>
+        <v>0</v>
       </c>
       <c r="D10" s="33">
-        <v>110.64</v>
+        <v>113.92</v>
       </c>
       <c r="E10" s="33">
-        <v>109.5731</v>
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>113.92</v>
       </c>
       <c r="F10" s="31">
-        <v>206.13</v>
+        <v>112.93</v>
       </c>
       <c r="G10" s="30">
-        <f t="shared" si="0"/>
-        <v>205.06309999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <f>F10-C10</f>
+        <v>112.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="31" t="s">
         <v>10</v>
       </c>
@@ -5461,24 +5475,24 @@
         <v>102</v>
       </c>
       <c r="C11" s="32">
-        <v>-1.1919</v>
+        <v>0</v>
       </c>
       <c r="D11" s="33">
-        <v>165.73</v>
+        <v>166.92500000000001</v>
       </c>
       <c r="E11" s="33">
-        <f>final!$D10-final!$C10</f>
-        <v>109.5731</v>
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>166.92500000000001</v>
       </c>
       <c r="F11" s="31">
         <v>113.06</v>
       </c>
       <c r="G11" s="30">
-        <f t="shared" si="0"/>
-        <v>114.25190000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <f>F11-C11</f>
+        <v>113.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
@@ -5486,24 +5500,24 @@
         <v>103</v>
       </c>
       <c r="C12" s="32">
-        <v>1.0129999999999999</v>
+        <v>0</v>
       </c>
       <c r="D12" s="33">
-        <v>216.27</v>
+        <v>215.63900000000001</v>
       </c>
       <c r="E12" s="33">
-        <f>final!$D11-final!$C11</f>
-        <v>166.92189999999999</v>
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>215.63900000000001</v>
       </c>
       <c r="F12" s="31">
         <v>212.12</v>
       </c>
       <c r="G12" s="30">
-        <f t="shared" si="0"/>
-        <v>211.107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <f>F12-C12</f>
+        <v>212.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="31" t="s">
         <v>15</v>
       </c>
@@ -5511,23 +5525,24 @@
         <v>105</v>
       </c>
       <c r="C13" s="32">
-        <v>7.79</v>
+        <v>0</v>
       </c>
       <c r="D13" s="33">
-        <v>131.26</v>
+        <v>168.446</v>
       </c>
       <c r="E13" s="33">
-        <v>123.47</v>
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>168.446</v>
       </c>
       <c r="F13" s="31">
-        <v>112.9</v>
+        <v>166.15100000000001</v>
       </c>
       <c r="G13" s="30">
-        <f t="shared" si="0"/>
-        <v>105.11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <f>F13-C13</f>
+        <v>166.15100000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="31" t="s">
         <v>17</v>
       </c>
@@ -5535,24 +5550,24 @@
         <v>173</v>
       </c>
       <c r="C14" s="32">
-        <v>2.6749999999999998</v>
+        <v>0</v>
       </c>
       <c r="D14" s="33">
-        <v>185.83</v>
+        <v>183.06700000000001</v>
       </c>
       <c r="E14" s="33">
-        <f>final!$D14-final!$C14</f>
-        <v>183.155</v>
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>183.06700000000001</v>
       </c>
       <c r="F14" s="31">
         <v>169.43</v>
       </c>
       <c r="G14" s="30">
-        <f t="shared" si="0"/>
-        <v>166.755</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <f>F14-C14</f>
+        <v>169.43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="34" t="s">
         <v>18</v>
       </c>
@@ -5560,24 +5575,24 @@
         <v>104</v>
       </c>
       <c r="C15" s="35">
-        <v>1.5624</v>
+        <v>0</v>
       </c>
       <c r="D15" s="36">
-        <v>75.668999999999997</v>
-      </c>
-      <c r="E15" s="36">
-        <f>final!$D15-final!$C15</f>
-        <v>74.1066</v>
+        <v>132.87200000000001</v>
+      </c>
+      <c r="E15" s="33">
+        <f>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</f>
+        <v>132.87200000000001</v>
       </c>
       <c r="F15" s="34">
         <v>59.991999999999997</v>
       </c>
       <c r="G15" s="30">
-        <f t="shared" si="0"/>
-        <v>58.429600000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <f>F15-C15</f>
+        <v>59.991999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="30"/>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -5586,7 +5601,7 @@
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1">
+    <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="37" t="s">
         <v>91</v>
       </c>
@@ -5608,8 +5623,12 @@
       <c r="G17" s="37" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="I17">
+        <f>AVERAGE(Table2[visible range])</f>
+        <v>115.71791647058822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickTop="1">
       <c r="A18" s="30" t="s">
         <v>33</v>
       </c>
@@ -5623,7 +5642,7 @@
         <v>107.57</v>
       </c>
       <c r="E18" s="31">
-        <f t="shared" ref="E18:E34" si="1">D18-C18</f>
+        <f t="shared" ref="E18:E34" si="0">D18-C18</f>
         <v>88.768000000000001</v>
       </c>
       <c r="F18" s="31">
@@ -5634,7 +5653,7 @@
         <v>81.298000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19" s="30" t="s">
         <v>32</v>
       </c>
@@ -5648,7 +5667,7 @@
         <v>63.771000000000001</v>
       </c>
       <c r="E19" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>65.040900000000008</v>
       </c>
       <c r="F19" s="31">
@@ -5659,7 +5678,7 @@
         <v>51.322899999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20" s="30" t="s">
         <v>31</v>
       </c>
@@ -5673,7 +5692,7 @@
         <v>149.52000000000001</v>
       </c>
       <c r="E20" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>150.31393</v>
       </c>
       <c r="F20" s="31">
@@ -5684,7 +5703,7 @@
         <v>125.21393</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9">
       <c r="A21" s="30" t="s">
         <v>30</v>
       </c>
@@ -5692,24 +5711,24 @@
         <v>75</v>
       </c>
       <c r="C21" s="32">
-        <v>-4.0918999999999999</v>
+        <v>0</v>
       </c>
       <c r="D21" s="33">
-        <v>128.72</v>
+        <v>132.83000000000001</v>
       </c>
       <c r="E21" s="31">
-        <f t="shared" si="1"/>
-        <v>132.81190000000001</v>
+        <f t="shared" si="0"/>
+        <v>132.83000000000001</v>
       </c>
       <c r="F21" s="31">
-        <v>103.06</v>
+        <v>101.886</v>
       </c>
       <c r="G21" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>107.1519</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>101.886</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="30" t="s">
         <v>29</v>
       </c>
@@ -5723,7 +5742,7 @@
         <v>107.87</v>
       </c>
       <c r="E22" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>106.622</v>
       </c>
       <c r="F22" s="31">
@@ -5734,7 +5753,7 @@
         <v>88.481999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:9">
       <c r="A23" s="30" t="s">
         <v>34</v>
       </c>
@@ -5748,7 +5767,7 @@
         <v>145.69</v>
       </c>
       <c r="E23" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>154.93279999999999</v>
       </c>
       <c r="F23" s="31">
@@ -5759,7 +5778,7 @@
         <v>100.0128</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9">
       <c r="A24" s="30" t="s">
         <v>35</v>
       </c>
@@ -5773,7 +5792,7 @@
         <v>204.01</v>
       </c>
       <c r="E24" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>208.56829999999999</v>
       </c>
       <c r="F24" s="31">
@@ -5784,7 +5803,7 @@
         <v>189.63830000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:9">
       <c r="A25" s="30" t="s">
         <v>36</v>
       </c>
@@ -5798,7 +5817,7 @@
         <v>118.52</v>
       </c>
       <c r="E25" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>121.0046</v>
       </c>
       <c r="F25" s="31">
@@ -5809,7 +5828,7 @@
         <v>105.49460000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9">
       <c r="A26" s="30" t="s">
         <v>37</v>
       </c>
@@ -5823,7 +5842,7 @@
         <v>146.65</v>
       </c>
       <c r="E26" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>145.59620000000001</v>
       </c>
       <c r="F26" s="31">
@@ -5834,7 +5853,7 @@
         <v>126.53620000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:9">
       <c r="A27" s="30" t="s">
         <v>38</v>
       </c>
@@ -5848,7 +5867,7 @@
         <v>122.57</v>
       </c>
       <c r="E27" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>121.78063999999999</v>
       </c>
       <c r="F27" s="31">
@@ -5859,7 +5878,7 @@
         <v>104.96064</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:9">
       <c r="A28" s="30" t="s">
         <v>39</v>
       </c>
@@ -5873,7 +5892,7 @@
         <v>195.61</v>
       </c>
       <c r="E28" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>180.04400000000001</v>
       </c>
       <c r="F28" s="31">
@@ -5884,7 +5903,7 @@
         <v>145.41399999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:9">
       <c r="A29" s="30" t="s">
         <v>40</v>
       </c>
@@ -5898,7 +5917,7 @@
         <v>90.212999999999994</v>
       </c>
       <c r="E29" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>88.77579999999999</v>
       </c>
       <c r="F29" s="31">
@@ -5909,7 +5928,7 @@
         <v>59.876800000000003</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:9">
       <c r="A30" s="30" t="s">
         <v>41</v>
       </c>
@@ -5923,7 +5942,7 @@
         <v>194.42</v>
       </c>
       <c r="E30" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>200.54479999999998</v>
       </c>
       <c r="F30" s="31">
@@ -5934,7 +5953,7 @@
         <v>177.54479999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:9">
       <c r="A31" s="30" t="s">
         <v>43</v>
       </c>
@@ -5948,7 +5967,7 @@
         <v>127.26</v>
       </c>
       <c r="E31" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>133.28919999999999</v>
       </c>
       <c r="F31" s="31">
@@ -5959,7 +5978,7 @@
         <v>119.7392</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:9">
       <c r="A32" s="30" t="s">
         <v>44</v>
       </c>
@@ -5973,7 +5992,7 @@
         <v>138.08000000000001</v>
       </c>
       <c r="E32" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>137.42746000000002</v>
       </c>
       <c r="F32" s="31">
@@ -5998,7 +6017,7 @@
         <v>201.68</v>
       </c>
       <c r="E33" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>200.94985</v>
       </c>
       <c r="F33" s="31">
@@ -6023,7 +6042,7 @@
         <v>146.99</v>
       </c>
       <c r="E34" s="31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>145.4871</v>
       </c>
       <c r="F34" s="34">
@@ -6672,14 +6691,14 @@
         <v>177.65700000000001</v>
       </c>
       <c r="E62">
-        <f t="shared" ref="E62:E75" si="2">D62-C62</f>
+        <f t="shared" ref="E62:E75" si="1">D62-C62</f>
         <v>193.51400000000001</v>
       </c>
       <c r="F62" s="2">
         <v>177.65700000000001</v>
       </c>
       <c r="G62">
-        <f t="shared" ref="G62:G75" si="3">F62-C62</f>
+        <f t="shared" ref="G62:G75" si="2">F62-C62</f>
         <v>193.51400000000001</v>
       </c>
     </row>
@@ -6697,14 +6716,14 @@
         <v>311.38</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>277.46199999999999</v>
       </c>
       <c r="F63" s="2">
         <v>311.38</v>
       </c>
       <c r="G63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>277.46199999999999</v>
       </c>
     </row>
@@ -6722,14 +6741,14 @@
         <v>310.5</v>
       </c>
       <c r="E64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>324.863</v>
       </c>
       <c r="F64" s="2">
         <v>310.5</v>
       </c>
       <c r="G64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>324.863</v>
       </c>
     </row>
@@ -6747,14 +6766,14 @@
         <v>429.14</v>
       </c>
       <c r="E65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>411.06</v>
       </c>
       <c r="F65" s="2">
         <v>429.14</v>
       </c>
       <c r="G65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>411.06</v>
       </c>
     </row>
@@ -6772,14 +6791,14 @@
         <v>605.14</v>
       </c>
       <c r="E66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>616.16899999999998</v>
       </c>
       <c r="F66" s="2">
         <v>605.14</v>
       </c>
       <c r="G66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>616.16899999999998</v>
       </c>
     </row>
@@ -6797,14 +6816,14 @@
         <v>934324</v>
       </c>
       <c r="E67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9780</v>
       </c>
       <c r="F67" s="2">
         <v>934324</v>
       </c>
       <c r="G67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9780</v>
       </c>
     </row>
@@ -6822,14 +6841,14 @@
         <v>934554</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11377</v>
       </c>
       <c r="F68" s="2">
         <v>934554</v>
       </c>
       <c r="G68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11377</v>
       </c>
     </row>
@@ -6847,14 +6866,14 @@
         <v>597.16</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>279.34999999999997</v>
       </c>
       <c r="F69" s="2">
         <v>597.16</v>
       </c>
       <c r="G69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>279.34999999999997</v>
       </c>
     </row>
@@ -6872,14 +6891,14 @@
         <v>598.79999999999995</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>269.81999999999994</v>
       </c>
       <c r="F70" s="2">
         <v>598.79999999999995</v>
       </c>
       <c r="G70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>269.81999999999994</v>
       </c>
     </row>
@@ -6897,14 +6916,14 @@
         <v>502</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>354.15</v>
       </c>
       <c r="F71" s="2">
         <v>502</v>
       </c>
       <c r="G71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>354.15</v>
       </c>
     </row>
@@ -6922,14 +6941,14 @@
         <v>821.09</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>473.02000000000004</v>
       </c>
       <c r="F72" s="2">
         <v>821.09</v>
       </c>
       <c r="G72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>473.02000000000004</v>
       </c>
     </row>
@@ -6947,14 +6966,14 @@
         <v>684.41</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>666.66199999999992</v>
       </c>
       <c r="F73" s="2">
         <v>684.41</v>
       </c>
       <c r="G73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>666.66199999999992</v>
       </c>
     </row>
@@ -6972,14 +6991,14 @@
         <v>248.88</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>404.63</v>
       </c>
       <c r="F74" s="2">
         <v>248.88</v>
       </c>
       <c r="G74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>404.63</v>
       </c>
     </row>
@@ -6997,14 +7016,14 @@
         <v>482.67</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>516.90100000000007</v>
       </c>
       <c r="F75" s="2">
         <v>482.67</v>
       </c>
       <c r="G75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>516.90100000000007</v>
       </c>
     </row>

--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA0CF35-1CA6-4A68-8DE0-4562A414AEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28D1637-C7CC-4121-AEB4-23DE8C6DCB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
+    <workbookView xWindow="1980" yWindow="1545" windowWidth="16260" windowHeight="11640" activeTab="1" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="histogram" sheetId="4" r:id="rId1"/>
@@ -1063,300 +1063,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="73">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="double">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -2248,6 +1954,300 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="double">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2262,21 +2262,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}" name="Table9" displayName="Table9" ref="A2:G15" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9" totalsRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}" name="Table9" displayName="Table9" ref="A2:G15" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69" totalsRowBorderDxfId="68">
   <autoFilter ref="A2:G15" xr:uid="{55B54145-A393-472B-8434-76CA7A644A25}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G15">
     <sortCondition ref="B2:B15"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{A4827EE5-A513-47B6-A2B8-5025802DF792}" name="Object" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{5C947B0D-2C2B-4626-A556-1DFD4728AEBA}" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{B62FA381-A946-4C5D-87B0-25C94F47947E}" name="min (mm)" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{E5755554-E1B0-494A-92FB-875744A3C7EC}" name="max (mm)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{146B5C7C-63AD-4333-A553-A05D927737AB}" name="difference (mm)" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{A4827EE5-A513-47B6-A2B8-5025802DF792}" name="Object" dataDxfId="67"/>
+    <tableColumn id="7" xr3:uid="{5C947B0D-2C2B-4626-A556-1DFD4728AEBA}" name="ID" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{B62FA381-A946-4C5D-87B0-25C94F47947E}" name="min (mm)" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{E5755554-E1B0-494A-92FB-875744A3C7EC}" name="max (mm)" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{146B5C7C-63AD-4333-A553-A05D927737AB}" name="difference (mm)" dataDxfId="63">
       <calculatedColumnFormula>Table9[[#This Row],[max (mm)]]-Table9[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{02D3617A-3D9C-4CA4-9AB7-E7F68D9DF901}" name="visible max" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{EC7B00FC-44A9-4F2E-97B8-AD1785358F4A}" name="visible range" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{02D3617A-3D9C-4CA4-9AB7-E7F68D9DF901}" name="visible max" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{EC7B00FC-44A9-4F2E-97B8-AD1785358F4A}" name="visible range" dataDxfId="61">
       <calculatedColumnFormula>F3-C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2285,7 +2285,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}" name="Table3" displayName="Table3" ref="I1:N16" totalsRowShown="0" headerRowDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="I1:N16" xr:uid="{8AAEEF0F-4CE0-4FD5-A4F7-FD22EBC0B6F5}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A15B9D7D-90D4-4490-AD0F-6639C18D4AFE}" name="Object"/>
@@ -2300,13 +2300,13 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}" name="Table55" displayName="Table55" ref="P25:T44" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <autoFilter ref="P25:T44" xr:uid="{AB6AA9CF-A7EC-4231-A753-D4D7DC54AD79}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{7F529B42-9949-412D-81C6-BCE79AF237DB}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{DB3AD73E-DB0F-4103-89D0-0836D2BDA43B}" name="min (mm)" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E2A83526-83AF-442A-BC53-4A7E9897DAB0}" name="max (mm)" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8F424AB7-E597-407F-B3E1-9BF86EBEFDBC}" name="difference" dataDxfId="0">
       <calculatedColumnFormula>Table55[[#This Row],[max (mm)]]-Table55[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{3C9C5DEB-D604-4E60-9DAF-E87D2FCCDA70}" name="Name for Laurie"/>
@@ -2316,18 +2316,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}" name="Table2" displayName="Table2" ref="A17:G34" totalsRowShown="0" headerRowDxfId="72" dataDxfId="70" headerRowBorderDxfId="71" tableBorderDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}" name="Table2" displayName="Table2" ref="A17:G34" totalsRowShown="0" headerRowDxfId="60" dataDxfId="58" headerRowBorderDxfId="59" tableBorderDxfId="57">
   <autoFilter ref="A17:G34" xr:uid="{E72A5D51-6432-49A8-B079-57D57F26A6CB}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{64BD9CC4-2E86-456F-BE06-53A8ED1C7C7D}" name="BodyPart (Becca location)" dataDxfId="68"/>
-    <tableColumn id="2" xr3:uid="{A5438927-E5F7-4143-BE61-D498392C844E}" name="ID" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{B405A793-A1A0-49A2-BFC0-0CCAEBC5B54E}" name="min (mm)" dataDxfId="66"/>
-    <tableColumn id="4" xr3:uid="{8855E515-3101-4EF1-87A2-13CF2977C9E3}" name="max (mm)" dataDxfId="65"/>
-    <tableColumn id="5" xr3:uid="{1A4988FC-4389-4AC8-81C3-B8E423D60DB7}" name="difference" dataDxfId="64">
+    <tableColumn id="1" xr3:uid="{64BD9CC4-2E86-456F-BE06-53A8ED1C7C7D}" name="BodyPart (Becca location)" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{A5438927-E5F7-4143-BE61-D498392C844E}" name="ID" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{B405A793-A1A0-49A2-BFC0-0CCAEBC5B54E}" name="min (mm)" dataDxfId="54"/>
+    <tableColumn id="4" xr3:uid="{8855E515-3101-4EF1-87A2-13CF2977C9E3}" name="max (mm)" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{1A4988FC-4389-4AC8-81C3-B8E423D60DB7}" name="difference" dataDxfId="52">
       <calculatedColumnFormula>D18-C18</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{FA4BE08B-DFF9-4264-A09B-9D261A266D72}" name="visible max" dataDxfId="63"/>
-    <tableColumn id="7" xr3:uid="{921F4F1D-661B-4855-987A-03D73A69766C}" name="visible range" dataDxfId="62">
+    <tableColumn id="6" xr3:uid="{FA4BE08B-DFF9-4264-A09B-9D261A266D72}" name="visible max" dataDxfId="51"/>
+    <tableColumn id="7" xr3:uid="{921F4F1D-661B-4855-987A-03D73A69766C}" name="visible range" dataDxfId="50">
       <calculatedColumnFormula>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2336,18 +2336,18 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A36:G58" totalsRowShown="0" headerRowBorderDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}" name="Table611" displayName="Table611" ref="A36:G58" totalsRowShown="0" headerRowBorderDxfId="49" tableBorderDxfId="48">
   <autoFilter ref="A36:G58" xr:uid="{E472754D-6120-45DB-9B76-7AEEF3BA3569}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F9320C00-040A-4ECC-97A9-CCBA240DFE63}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="59"/>
-    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="58"/>
-    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="57"/>
-    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="56">
+    <tableColumn id="2" xr3:uid="{2FC7C249-590B-468C-BC8C-B96B94DBA26E}" name="ID" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{A4CB079B-C1BF-49E5-9E72-C6B10ACA17D3}" name="min (mm)" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{64818F11-D8DC-41F8-B1FD-AE731B24F029}" name="max (mm)" dataDxfId="45"/>
+    <tableColumn id="5" xr3:uid="{27E62C54-5B10-41EC-ADAA-AB63C0930484}" name="difference" dataDxfId="44">
       <calculatedColumnFormula>Table611[[#This Row],[max (mm)]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="55"/>
-    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="54">
+    <tableColumn id="6" xr3:uid="{342D4F29-9773-46AB-AE2A-8E255DC903CB}" name="visible max" dataDxfId="43"/>
+    <tableColumn id="7" xr3:uid="{86622D85-B5CA-43F2-9218-204C4A6CD32B}" name="visible range" dataDxfId="42">
       <calculatedColumnFormula>Table611[[#This Row],[visible max]]-Table611[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2356,18 +2356,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}" name="Table12" displayName="Table12" ref="A60:G75" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}" name="Table12" displayName="Table12" ref="A60:G75" totalsRowShown="0" headerRowDxfId="41" dataDxfId="39" headerRowBorderDxfId="40" tableBorderDxfId="38">
   <autoFilter ref="A60:G75" xr:uid="{D004EDFA-948D-4EB4-A7BD-7698CDD22208}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{E0C98B60-AEE8-4106-98DF-C836FA204635}" name="Scene" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{4A5CA146-6F44-4292-AE40-9C210702001D}" name="ID" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{5BF1F243-5E74-4124-A4C6-50B3E8F4E9F7}" name="min (mm)" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{D6E08EAF-5732-4845-A782-4200E1A6DF31}" name="max (mm)" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{27AAF6CD-299E-4FA7-956A-A59501878BCF}" name="difference" dataDxfId="45">
+    <tableColumn id="1" xr3:uid="{E0C98B60-AEE8-4106-98DF-C836FA204635}" name="Scene" dataDxfId="37"/>
+    <tableColumn id="2" xr3:uid="{4A5CA146-6F44-4292-AE40-9C210702001D}" name="ID" dataDxfId="36"/>
+    <tableColumn id="3" xr3:uid="{5BF1F243-5E74-4124-A4C6-50B3E8F4E9F7}" name="min (mm)" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{D6E08EAF-5732-4845-A782-4200E1A6DF31}" name="max (mm)" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{27AAF6CD-299E-4FA7-956A-A59501878BCF}" name="difference" dataDxfId="33">
       <calculatedColumnFormula>D61-C61</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D0C20C5C-D18A-4D4E-8C35-9D2154952AA2}" name="visible max" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{B4D1D7D5-609F-4DE3-8363-9CBC9B676053}" name="visible range" dataDxfId="43">
+    <tableColumn id="6" xr3:uid="{D0C20C5C-D18A-4D4E-8C35-9D2154952AA2}" name="visible max" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{B4D1D7D5-609F-4DE3-8363-9CBC9B676053}" name="visible range" dataDxfId="31">
       <calculatedColumnFormula>F61-C61</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2376,27 +2376,27 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A1:E23" xr:uid="{3A449E8A-54D5-4F96-B244-604FFA469FAB}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{55B9CB86-FFCE-4001-84E7-926E143A4754}" name="Object" dataDxfId="29"/>
     <tableColumn id="2" xr3:uid="{154C99C7-865E-4E8A-A7F6-E66DA111723A}" name="min (mm)"/>
-    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="39"/>
-    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{AE9CF431-6E41-4056-8560-A1AC568C7EBE}" name="max (mm)" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{76DFDC72-E303-4FEC-BA19-A7B7905D48E6}" name="difference" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{86CCC425-700A-4799-9101-C4A00D694DF1}" name="Name for Laurie" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="37" headerRowBorderDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}" name="Table5" displayName="Table5" ref="A25:E44" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23">
   <autoFilter ref="A25:E44" xr:uid="{FE072183-D5FA-43E1-89BF-9F243014692F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{618FF384-60A0-48F4-BD3B-20158698512B}" name="BodyPart (Becca location)"/>
-    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="32">
+    <tableColumn id="2" xr3:uid="{73362064-2006-433A-A85F-837EE9C72422}" name="min (mm)" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{3CB21645-326E-4574-AFB3-34F9791D5471}" name="max (mm)" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{918C54AB-7387-4D94-AA80-5131BB40203A}" name="difference" dataDxfId="20">
       <calculatedColumnFormula>Table5[[#This Row],[max (mm)]]-Table5[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{B4C77F97-9F8F-4A06-A76F-20F90D6B2055}" name="Name for Laurie"/>
@@ -2406,13 +2406,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}" name="Table6" displayName="Table6" ref="A46:D70" totalsRowShown="0" tableBorderDxfId="19">
   <autoFilter ref="A46:D70" xr:uid="{F335BACF-6277-4FBB-B4EE-984D3767FD02}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A15C451F-5A5A-4ABC-B01B-2C4F05011809}" name="Face"/>
-    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="29"/>
-    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="28">
+    <tableColumn id="2" xr3:uid="{0146E859-8651-41CB-956F-F590C743D7CB}" name="min (mm)" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{FB15EA57-A619-4964-9361-C1A3E27175D2}" name="max (mm)" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{E1869867-A80E-41A7-B31F-522489EEE516}" name="difference" dataDxfId="16">
       <calculatedColumnFormula>Table6[[#This Row],[max (mm)]]-Table6[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2421,13 +2421,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}" name="Table7" displayName="Table7" ref="A72:D92" totalsRowShown="0" tableBorderDxfId="15">
   <autoFilter ref="A72:D92" xr:uid="{82ADFF8D-38DE-4250-8A0C-49E0A87E2037}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{4ABA85F0-A778-40FD-BD59-C5D4666608AA}" name="Scene"/>
-    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="24">
+    <tableColumn id="2" xr3:uid="{3129B5D4-5B36-42DC-865A-763B70468ED6}" name="min (mm)" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{8074353A-B484-4914-9393-50D4D9F35826}" name="max (mm)" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{899C8A0F-DBCF-4438-A411-376E69E1AA2C}" name="difference" dataDxfId="12">
       <calculatedColumnFormula>Table7[[#This Row],[max (mm)]]-Table7[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2436,13 +2436,13 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}" name="Table8" displayName="Table8" ref="A94:D114" totalsRowShown="0" tableBorderDxfId="11">
   <autoFilter ref="A94:D114" xr:uid="{2B6F9A1B-02BF-441D-9CBC-94E25C7BC2C8}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7067C8DA-7BB5-4270-8F77-26A275840009}" name="ObjectScrambled"/>
-    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{F7B29552-7A3B-4E09-9A0F-AB83C604075D}" name="min (mm)" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{83E3347B-3390-4FF2-A393-EE91BEFE460B}" name="max (mm)" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{7B1D1000-160D-42F2-9CD5-738BA9E02C5D}" name="difference" dataDxfId="8">
       <calculatedColumnFormula>Table8[[#This Row],[max (mm)]]-Table8[[#This Row],[min (mm)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -5223,8 +5223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEED5E-03E1-4D43-B753-B6D0E922BAC9}">
   <dimension ref="A2:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5288,7 +5288,7 @@
         <v>179.68</v>
       </c>
       <c r="G3" s="30">
-        <f>F3-C3</f>
+        <f t="shared" ref="G3:G15" si="0">F3-C3</f>
         <v>179.68</v>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
         <v>157.1</v>
       </c>
       <c r="G4" s="30">
-        <f>F4-C4</f>
+        <f t="shared" si="0"/>
         <v>157.1</v>
       </c>
     </row>
@@ -5338,7 +5338,7 @@
         <v>103.26</v>
       </c>
       <c r="G5" s="30">
-        <f>F5-C5</f>
+        <f t="shared" si="0"/>
         <v>103.26</v>
       </c>
     </row>
@@ -5363,7 +5363,7 @@
         <v>128.85</v>
       </c>
       <c r="G6" s="30">
-        <f>F6-C6</f>
+        <f t="shared" si="0"/>
         <v>128.85</v>
       </c>
     </row>
@@ -5388,7 +5388,7 @@
         <v>113</v>
       </c>
       <c r="G7" s="30">
-        <f>F7-C7</f>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
     </row>
@@ -5413,7 +5413,7 @@
         <v>124.35</v>
       </c>
       <c r="G8" s="30">
-        <f>F8-C8</f>
+        <f t="shared" si="0"/>
         <v>124.35</v>
       </c>
     </row>
@@ -5438,7 +5438,7 @@
         <v>128.87</v>
       </c>
       <c r="G9" s="30">
-        <f>F9-C9</f>
+        <f t="shared" si="0"/>
         <v>128.87</v>
       </c>
     </row>
@@ -5463,7 +5463,7 @@
         <v>112.93</v>
       </c>
       <c r="G10" s="30">
-        <f>F10-C10</f>
+        <f t="shared" si="0"/>
         <v>112.93</v>
       </c>
     </row>
@@ -5488,7 +5488,7 @@
         <v>113.06</v>
       </c>
       <c r="G11" s="30">
-        <f>F11-C11</f>
+        <f t="shared" si="0"/>
         <v>113.06</v>
       </c>
     </row>
@@ -5513,7 +5513,7 @@
         <v>212.12</v>
       </c>
       <c r="G12" s="30">
-        <f>F12-C12</f>
+        <f t="shared" si="0"/>
         <v>212.12</v>
       </c>
     </row>
@@ -5538,7 +5538,7 @@
         <v>166.15100000000001</v>
       </c>
       <c r="G13" s="30">
-        <f>F13-C13</f>
+        <f t="shared" si="0"/>
         <v>166.15100000000001</v>
       </c>
     </row>
@@ -5563,7 +5563,7 @@
         <v>169.43</v>
       </c>
       <c r="G14" s="30">
-        <f>F14-C14</f>
+        <f t="shared" si="0"/>
         <v>169.43</v>
       </c>
     </row>
@@ -5588,7 +5588,7 @@
         <v>59.991999999999997</v>
       </c>
       <c r="G15" s="30">
-        <f>F15-C15</f>
+        <f t="shared" si="0"/>
         <v>59.991999999999997</v>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="I17">
         <f>AVERAGE(Table2[visible range])</f>
-        <v>115.71791647058822</v>
+        <v>115.27856764705882</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickTop="1">
@@ -5636,21 +5636,21 @@
         <v>72</v>
       </c>
       <c r="C18" s="32">
-        <v>18.802</v>
+        <v>0</v>
       </c>
       <c r="D18" s="33">
-        <v>107.57</v>
+        <v>88.817499999999995</v>
       </c>
       <c r="E18" s="31">
-        <f t="shared" ref="E18:E34" si="0">D18-C18</f>
-        <v>88.768000000000001</v>
+        <f t="shared" ref="E18:E34" si="1">D18-C18</f>
+        <v>88.817499999999995</v>
       </c>
       <c r="F18" s="31">
-        <v>100.1</v>
+        <v>81.344200000000001</v>
       </c>
       <c r="G18" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>81.298000000000002</v>
+        <v>81.344200000000001</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5661,21 +5661,21 @@
         <v>73</v>
       </c>
       <c r="C19" s="32">
-        <v>-1.2699</v>
+        <v>0</v>
       </c>
       <c r="D19" s="33">
-        <v>63.771000000000001</v>
+        <v>96.592500000000001</v>
       </c>
       <c r="E19" s="31">
-        <f t="shared" si="0"/>
-        <v>65.040900000000008</v>
+        <f t="shared" si="1"/>
+        <v>96.592500000000001</v>
       </c>
       <c r="F19" s="31">
-        <v>50.052999999999997</v>
+        <v>77.637799999999999</v>
       </c>
       <c r="G19" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>51.322899999999997</v>
+        <v>77.637799999999999</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5686,21 +5686,21 @@
         <v>74</v>
       </c>
       <c r="C20" s="32">
-        <v>-0.79393000000000002</v>
+        <v>0</v>
       </c>
       <c r="D20" s="33">
-        <v>149.52000000000001</v>
+        <v>150.417</v>
       </c>
       <c r="E20" s="31">
-        <f t="shared" si="0"/>
-        <v>150.31393</v>
+        <f t="shared" si="1"/>
+        <v>150.417</v>
       </c>
       <c r="F20" s="31">
-        <v>124.42</v>
+        <v>125.315</v>
       </c>
       <c r="G20" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>125.21393</v>
+        <v>125.315</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -5717,7 +5717,7 @@
         <v>132.83000000000001</v>
       </c>
       <c r="E21" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>132.83000000000001</v>
       </c>
       <c r="F21" s="31">
@@ -5736,21 +5736,21 @@
         <v>76</v>
       </c>
       <c r="C22" s="32">
-        <v>1.248</v>
+        <v>0</v>
       </c>
       <c r="D22" s="33">
-        <v>107.87</v>
+        <v>106.654</v>
       </c>
       <c r="E22" s="31">
-        <f t="shared" si="0"/>
-        <v>106.622</v>
+        <f t="shared" si="1"/>
+        <v>106.654</v>
       </c>
       <c r="F22" s="31">
-        <v>89.73</v>
+        <v>88.513000000000005</v>
       </c>
       <c r="G22" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>88.481999999999999</v>
+        <v>88.513000000000005</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -5761,21 +5761,21 @@
         <v>78</v>
       </c>
       <c r="C23" s="32">
-        <v>-9.2428000000000008</v>
+        <v>0</v>
       </c>
       <c r="D23" s="33">
-        <v>145.69</v>
+        <v>113.319</v>
       </c>
       <c r="E23" s="31">
-        <f t="shared" si="0"/>
-        <v>154.93279999999999</v>
+        <f t="shared" si="1"/>
+        <v>113.319</v>
       </c>
       <c r="F23" s="31">
-        <v>90.77</v>
+        <v>99.578999999999994</v>
       </c>
       <c r="G23" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>100.0128</v>
+        <v>99.578999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -5786,21 +5786,21 @@
         <v>79</v>
       </c>
       <c r="C24" s="32">
-        <v>-4.5583</v>
+        <v>0</v>
       </c>
       <c r="D24" s="33">
-        <v>204.01</v>
+        <v>208.46700000000001</v>
       </c>
       <c r="E24" s="31">
-        <f t="shared" si="0"/>
-        <v>208.56829999999999</v>
+        <f t="shared" si="1"/>
+        <v>208.46700000000001</v>
       </c>
       <c r="F24" s="31">
-        <v>185.08</v>
+        <v>156.11000000000001</v>
       </c>
       <c r="G24" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>189.63830000000002</v>
+        <v>156.11000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -5817,7 +5817,7 @@
         <v>118.52</v>
       </c>
       <c r="E25" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>121.0046</v>
       </c>
       <c r="F25" s="31">
@@ -5842,7 +5842,7 @@
         <v>146.65</v>
       </c>
       <c r="E26" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>145.59620000000001</v>
       </c>
       <c r="F26" s="31">
@@ -5867,7 +5867,7 @@
         <v>122.57</v>
       </c>
       <c r="E27" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>121.78063999999999</v>
       </c>
       <c r="F27" s="31">
@@ -5892,7 +5892,7 @@
         <v>195.61</v>
       </c>
       <c r="E28" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>180.04400000000001</v>
       </c>
       <c r="F28" s="31">
@@ -5917,7 +5917,7 @@
         <v>90.212999999999994</v>
       </c>
       <c r="E29" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.77579999999999</v>
       </c>
       <c r="F29" s="31">
@@ -5942,7 +5942,7 @@
         <v>194.42</v>
       </c>
       <c r="E30" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200.54479999999998</v>
       </c>
       <c r="F30" s="31">
@@ -5967,7 +5967,7 @@
         <v>127.26</v>
       </c>
       <c r="E31" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>133.28919999999999</v>
       </c>
       <c r="F31" s="31">
@@ -5992,7 +5992,7 @@
         <v>138.08000000000001</v>
       </c>
       <c r="E32" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>137.42746000000002</v>
       </c>
       <c r="F32" s="31">
@@ -6017,7 +6017,7 @@
         <v>201.68</v>
       </c>
       <c r="E33" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>200.94985</v>
       </c>
       <c r="F33" s="31">
@@ -6042,7 +6042,7 @@
         <v>146.99</v>
       </c>
       <c r="E34" s="31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>145.4871</v>
       </c>
       <c r="F34" s="34">
@@ -6691,14 +6691,14 @@
         <v>177.65700000000001</v>
       </c>
       <c r="E62">
-        <f t="shared" ref="E62:E75" si="1">D62-C62</f>
+        <f t="shared" ref="E62:E75" si="2">D62-C62</f>
         <v>193.51400000000001</v>
       </c>
       <c r="F62" s="2">
         <v>177.65700000000001</v>
       </c>
       <c r="G62">
-        <f t="shared" ref="G62:G75" si="2">F62-C62</f>
+        <f t="shared" ref="G62:G75" si="3">F62-C62</f>
         <v>193.51400000000001</v>
       </c>
     </row>
@@ -6716,14 +6716,14 @@
         <v>311.38</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>277.46199999999999</v>
       </c>
       <c r="F63" s="2">
         <v>311.38</v>
       </c>
       <c r="G63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>277.46199999999999</v>
       </c>
     </row>
@@ -6741,14 +6741,14 @@
         <v>310.5</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>324.863</v>
       </c>
       <c r="F64" s="2">
         <v>310.5</v>
       </c>
       <c r="G64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>324.863</v>
       </c>
     </row>
@@ -6766,14 +6766,14 @@
         <v>429.14</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>411.06</v>
       </c>
       <c r="F65" s="2">
         <v>429.14</v>
       </c>
       <c r="G65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>411.06</v>
       </c>
     </row>
@@ -6791,14 +6791,14 @@
         <v>605.14</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>616.16899999999998</v>
       </c>
       <c r="F66" s="2">
         <v>605.14</v>
       </c>
       <c r="G66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>616.16899999999998</v>
       </c>
     </row>
@@ -6816,14 +6816,14 @@
         <v>934324</v>
       </c>
       <c r="E67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9780</v>
       </c>
       <c r="F67" s="2">
         <v>934324</v>
       </c>
       <c r="G67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9780</v>
       </c>
     </row>
@@ -6841,14 +6841,14 @@
         <v>934554</v>
       </c>
       <c r="E68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11377</v>
       </c>
       <c r="F68" s="2">
         <v>934554</v>
       </c>
       <c r="G68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11377</v>
       </c>
     </row>
@@ -6866,14 +6866,14 @@
         <v>597.16</v>
       </c>
       <c r="E69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>279.34999999999997</v>
       </c>
       <c r="F69" s="2">
         <v>597.16</v>
       </c>
       <c r="G69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>279.34999999999997</v>
       </c>
     </row>
@@ -6891,14 +6891,14 @@
         <v>598.79999999999995</v>
       </c>
       <c r="E70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>269.81999999999994</v>
       </c>
       <c r="F70" s="2">
         <v>598.79999999999995</v>
       </c>
       <c r="G70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>269.81999999999994</v>
       </c>
     </row>
@@ -6916,14 +6916,14 @@
         <v>502</v>
       </c>
       <c r="E71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>354.15</v>
       </c>
       <c r="F71" s="2">
         <v>502</v>
       </c>
       <c r="G71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>354.15</v>
       </c>
     </row>
@@ -6941,14 +6941,14 @@
         <v>821.09</v>
       </c>
       <c r="E72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>473.02000000000004</v>
       </c>
       <c r="F72" s="2">
         <v>821.09</v>
       </c>
       <c r="G72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>473.02000000000004</v>
       </c>
     </row>
@@ -6966,14 +6966,14 @@
         <v>684.41</v>
       </c>
       <c r="E73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>666.66199999999992</v>
       </c>
       <c r="F73" s="2">
         <v>684.41</v>
       </c>
       <c r="G73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>666.66199999999992</v>
       </c>
     </row>
@@ -6991,14 +6991,14 @@
         <v>248.88</v>
       </c>
       <c r="E74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>404.63</v>
       </c>
       <c r="F74" s="2">
         <v>248.88</v>
       </c>
       <c r="G74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>404.63</v>
       </c>
     </row>
@@ -7016,14 +7016,14 @@
         <v>482.67</v>
       </c>
       <c r="E75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>516.90100000000007</v>
       </c>
       <c r="F75" s="2">
         <v>482.67</v>
       </c>
       <c r="G75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>516.90100000000007</v>
       </c>
     </row>
@@ -7047,8 +7047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{305C46E9-DBCF-4732-A226-FBA3B04D35E8}">
   <dimension ref="A1:T114"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D28D1637-C7CC-4121-AEB4-23DE8C6DCB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FD006F-1E4D-4669-9DEA-612881235A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="1545" windowWidth="16260" windowHeight="11640" activeTab="1" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
   <sheets>
     <sheet name="histogram" sheetId="4" r:id="rId1"/>
@@ -674,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -970,19 +970,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -999,7 +986,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1045,19 +1032,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2749,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D578D86-D93F-4507-92E5-98F2DF597463}">
   <dimension ref="A1:BA16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:BA16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ20" sqref="AJ20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2758,7 +2760,12 @@
     <col min="1" max="1" width="4.140625" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="29" width="5" customWidth="1"/>
+    <col min="4" max="24" width="5" customWidth="1"/>
+    <col min="25" max="25" width="6.85546875" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" customWidth="1"/>
+    <col min="27" max="27" width="6.42578125" customWidth="1"/>
+    <col min="28" max="28" width="6" customWidth="1"/>
+    <col min="29" max="29" width="6.42578125" customWidth="1"/>
     <col min="30" max="43" width="7.42578125" customWidth="1"/>
     <col min="44" max="53" width="5" customWidth="1"/>
   </cols>
@@ -2949,30 +2956,30 @@
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="50" t="s">
+      <c r="Y2" s="61" t="s">
         <v>171</v>
       </c>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="50"/>
-      <c r="AG2" s="50"/>
-      <c r="AH2" s="50"/>
-      <c r="AI2" s="50"/>
-      <c r="AJ2" s="50"/>
-      <c r="AK2" s="50"/>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50" t="s">
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="49"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="61"/>
+      <c r="AF2" s="61"/>
+      <c r="AG2" s="61"/>
+      <c r="AH2" s="61"/>
+      <c r="AI2" s="61"/>
+      <c r="AJ2" s="61"/>
+      <c r="AK2" s="61"/>
+      <c r="AL2" s="61"/>
+      <c r="AM2" s="61"/>
+      <c r="AN2" s="61"/>
+      <c r="AO2" s="61"/>
+      <c r="AP2" s="61"/>
+      <c r="AQ2" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="AR2" s="52"/>
+      <c r="AR2" s="51"/>
       <c r="AS2" s="22"/>
       <c r="AT2" s="22"/>
       <c r="AU2" s="22"/>
@@ -2983,138 +2990,138 @@
       <c r="AZ2" s="22"/>
       <c r="BA2" s="22"/>
     </row>
-    <row r="3" spans="1:53">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:53" ht="15" customHeight="1">
+      <c r="A3" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="48">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6062325</v>
+        <v>5762223</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>9</v>
-      </c>
       <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3">
         <v>15</v>
       </c>
-      <c r="I3">
-        <v>12</v>
-      </c>
       <c r="J3">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="L3">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="M3">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="N3">
-        <v>69</v>
+        <v>177</v>
       </c>
       <c r="O3">
-        <v>96</v>
+        <v>264</v>
       </c>
       <c r="P3">
-        <v>132</v>
+        <v>420</v>
       </c>
       <c r="Q3">
-        <v>129</v>
+        <v>507</v>
       </c>
       <c r="R3">
-        <v>183</v>
+        <v>741</v>
       </c>
       <c r="S3">
-        <v>162</v>
+        <v>972</v>
       </c>
       <c r="T3">
-        <v>156</v>
+        <v>1260</v>
       </c>
       <c r="U3">
-        <v>189</v>
+        <v>1773</v>
       </c>
       <c r="V3">
-        <v>228</v>
+        <v>1179</v>
       </c>
       <c r="W3">
-        <v>261</v>
+        <v>1197</v>
       </c>
       <c r="X3">
-        <v>273</v>
-      </c>
-      <c r="Y3">
-        <v>312</v>
-      </c>
-      <c r="Z3">
-        <v>438</v>
-      </c>
-      <c r="AA3">
-        <v>573</v>
-      </c>
-      <c r="AB3">
-        <v>765</v>
-      </c>
-      <c r="AC3">
-        <v>786</v>
-      </c>
-      <c r="AD3" s="47">
-        <v>1056</v>
-      </c>
-      <c r="AE3" s="46">
-        <v>1596</v>
-      </c>
-      <c r="AF3" s="46">
-        <v>2370</v>
-      </c>
-      <c r="AG3" s="46">
-        <v>3648</v>
-      </c>
-      <c r="AH3" s="46">
-        <v>4716</v>
-      </c>
-      <c r="AI3" s="46">
-        <v>7419</v>
-      </c>
-      <c r="AJ3" s="46">
-        <v>6663</v>
-      </c>
-      <c r="AK3" s="46">
-        <v>4452</v>
-      </c>
-      <c r="AL3" s="46">
-        <v>7617</v>
-      </c>
-      <c r="AM3" s="46">
-        <v>8223</v>
-      </c>
-      <c r="AN3" s="46">
-        <v>10728</v>
-      </c>
-      <c r="AO3" s="46">
-        <v>17538</v>
-      </c>
-      <c r="AP3" s="46">
-        <v>30069</v>
-      </c>
-      <c r="AQ3" s="48">
-        <v>47304</v>
+        <v>1425</v>
+      </c>
+      <c r="Y3" s="62">
+        <v>1530</v>
+      </c>
+      <c r="Z3" s="57">
+        <v>1665</v>
+      </c>
+      <c r="AA3" s="57">
+        <v>1995</v>
+      </c>
+      <c r="AB3" s="57">
+        <v>2901</v>
+      </c>
+      <c r="AC3" s="57">
+        <v>2952</v>
+      </c>
+      <c r="AD3" s="57">
+        <v>3507</v>
+      </c>
+      <c r="AE3" s="57">
+        <v>2973</v>
+      </c>
+      <c r="AF3" s="57">
+        <v>1524</v>
+      </c>
+      <c r="AG3" s="57">
+        <v>795</v>
+      </c>
+      <c r="AH3" s="57">
+        <v>1392</v>
+      </c>
+      <c r="AI3" s="57">
+        <v>4260</v>
+      </c>
+      <c r="AJ3" s="57">
+        <v>9852</v>
+      </c>
+      <c r="AK3" s="57">
+        <v>19605</v>
+      </c>
+      <c r="AL3" s="57">
+        <v>40107</v>
+      </c>
+      <c r="AM3" s="57">
+        <v>42897</v>
+      </c>
+      <c r="AN3" s="57">
+        <v>52353</v>
+      </c>
+      <c r="AO3" s="57">
+        <v>80643</v>
+      </c>
+      <c r="AP3" s="57">
+        <v>91590</v>
+      </c>
+      <c r="AQ3" s="64">
+        <v>84933</v>
       </c>
       <c r="AR3">
-        <v>129</v>
+        <v>858</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -3145,135 +3152,135 @@
       </c>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="55"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="19">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>5968608</v>
+        <v>5682825</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H4">
+        <v>15</v>
+      </c>
+      <c r="I4">
         <v>12</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
       </c>
       <c r="J4">
         <v>15</v>
       </c>
       <c r="K4">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>21</v>
+      </c>
+      <c r="M4">
+        <v>27</v>
+      </c>
+      <c r="N4">
+        <v>21</v>
+      </c>
+      <c r="O4">
+        <v>36</v>
+      </c>
+      <c r="P4">
+        <v>33</v>
+      </c>
+      <c r="Q4">
+        <v>138</v>
+      </c>
+      <c r="R4">
+        <v>147</v>
+      </c>
+      <c r="S4">
+        <v>123</v>
+      </c>
+      <c r="T4">
+        <v>129</v>
+      </c>
+      <c r="U4">
         <v>105</v>
       </c>
-      <c r="L4">
-        <v>111</v>
-      </c>
-      <c r="M4">
-        <v>159</v>
-      </c>
-      <c r="N4">
-        <v>24</v>
-      </c>
-      <c r="O4">
-        <v>39</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>87</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>60</v>
-      </c>
-      <c r="U4">
-        <v>120</v>
-      </c>
       <c r="V4">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="W4">
-        <v>375</v>
+        <v>138</v>
       </c>
       <c r="X4">
-        <v>510</v>
-      </c>
-      <c r="Y4">
-        <v>582</v>
-      </c>
-      <c r="Z4">
-        <v>867</v>
-      </c>
-      <c r="AA4">
-        <v>1332</v>
-      </c>
-      <c r="AB4">
-        <v>2574</v>
-      </c>
-      <c r="AC4">
-        <v>3024</v>
-      </c>
-      <c r="AD4" s="47">
-        <v>4713</v>
-      </c>
-      <c r="AE4" s="46">
-        <v>5979</v>
-      </c>
-      <c r="AF4" s="46">
-        <v>4935</v>
-      </c>
-      <c r="AG4" s="46">
-        <v>4464</v>
-      </c>
-      <c r="AH4" s="46">
-        <v>6054</v>
-      </c>
-      <c r="AI4" s="46">
-        <v>7626</v>
-      </c>
-      <c r="AJ4" s="46">
-        <v>11265</v>
-      </c>
-      <c r="AK4" s="46">
-        <v>23907</v>
-      </c>
-      <c r="AL4" s="46">
-        <v>51723</v>
-      </c>
-      <c r="AM4" s="46">
-        <v>45765</v>
-      </c>
-      <c r="AN4" s="46">
-        <v>4776</v>
-      </c>
-      <c r="AO4" s="46">
-        <v>3855</v>
-      </c>
-      <c r="AP4" s="46">
-        <v>39303</v>
-      </c>
-      <c r="AQ4" s="48">
-        <v>27504</v>
+        <v>138</v>
+      </c>
+      <c r="Y4" s="46">
+        <v>195</v>
+      </c>
+      <c r="Z4" s="55">
+        <v>216</v>
+      </c>
+      <c r="AA4" s="55">
+        <v>660</v>
+      </c>
+      <c r="AB4" s="55">
+        <v>1215</v>
+      </c>
+      <c r="AC4" s="55">
+        <v>1524</v>
+      </c>
+      <c r="AD4" s="55">
+        <v>2235</v>
+      </c>
+      <c r="AE4" s="55">
+        <v>3273</v>
+      </c>
+      <c r="AF4" s="55">
+        <v>3840</v>
+      </c>
+      <c r="AG4" s="55">
+        <v>4797</v>
+      </c>
+      <c r="AH4" s="55">
+        <v>6084</v>
+      </c>
+      <c r="AI4" s="55">
+        <v>6663</v>
+      </c>
+      <c r="AJ4" s="55">
+        <v>8232</v>
+      </c>
+      <c r="AK4" s="55">
+        <v>10416</v>
+      </c>
+      <c r="AL4" s="55">
+        <v>20016</v>
+      </c>
+      <c r="AM4" s="55">
+        <v>29313</v>
+      </c>
+      <c r="AN4" s="55">
+        <v>61314</v>
+      </c>
+      <c r="AO4" s="55">
+        <v>134529</v>
+      </c>
+      <c r="AP4" s="55">
+        <v>198522</v>
+      </c>
+      <c r="AQ4" s="47">
+        <v>43485</v>
       </c>
       <c r="AR4">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AS4">
         <v>0</v>
@@ -3304,135 +3311,135 @@
       </c>
     </row>
     <row r="5" spans="1:53">
-      <c r="A5" s="55"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="19">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>6038766</v>
+        <v>5421729</v>
       </c>
       <c r="D5">
-        <v>120</v>
+        <v>15</v>
       </c>
       <c r="E5">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="G5">
-        <v>93</v>
+        <v>123</v>
       </c>
       <c r="H5">
-        <v>126</v>
+        <v>222</v>
       </c>
       <c r="I5">
-        <v>117</v>
+        <v>264</v>
       </c>
       <c r="J5">
-        <v>135</v>
+        <v>306</v>
       </c>
       <c r="K5">
-        <v>156</v>
+        <v>381</v>
       </c>
       <c r="L5">
-        <v>126</v>
+        <v>465</v>
       </c>
       <c r="M5">
-        <v>84</v>
+        <v>543</v>
       </c>
       <c r="N5">
-        <v>102</v>
+        <v>633</v>
       </c>
       <c r="O5">
-        <v>96</v>
+        <v>690</v>
       </c>
       <c r="P5">
-        <v>102</v>
+        <v>735</v>
       </c>
       <c r="Q5">
-        <v>129</v>
+        <v>636</v>
       </c>
       <c r="R5">
-        <v>147</v>
+        <v>540</v>
       </c>
       <c r="S5">
-        <v>111</v>
+        <v>327</v>
       </c>
       <c r="T5">
-        <v>87</v>
+        <v>285</v>
       </c>
       <c r="U5">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="V5">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="W5">
-        <v>117</v>
+        <v>189</v>
       </c>
       <c r="X5">
-        <v>132</v>
-      </c>
-      <c r="Y5">
-        <v>180</v>
-      </c>
-      <c r="Z5">
-        <v>174</v>
-      </c>
-      <c r="AA5">
-        <v>264</v>
-      </c>
-      <c r="AB5">
-        <v>549</v>
-      </c>
-      <c r="AC5">
-        <v>471</v>
-      </c>
-      <c r="AD5" s="47">
-        <v>561</v>
-      </c>
-      <c r="AE5" s="46">
-        <v>627</v>
-      </c>
-      <c r="AF5" s="46">
-        <v>765</v>
-      </c>
-      <c r="AG5" s="46">
-        <v>351</v>
-      </c>
-      <c r="AH5" s="46">
-        <v>678</v>
-      </c>
-      <c r="AI5" s="46">
-        <v>1284</v>
-      </c>
-      <c r="AJ5" s="46">
-        <v>2304</v>
-      </c>
-      <c r="AK5" s="46">
-        <v>1452</v>
-      </c>
-      <c r="AL5" s="46">
-        <v>4305</v>
-      </c>
-      <c r="AM5" s="46">
-        <v>27051</v>
-      </c>
-      <c r="AN5" s="46">
-        <v>47454</v>
-      </c>
-      <c r="AO5" s="46">
-        <v>53526</v>
-      </c>
-      <c r="AP5" s="46">
-        <v>22266</v>
-      </c>
-      <c r="AQ5" s="48">
-        <v>15180</v>
+        <v>141</v>
+      </c>
+      <c r="Y5" s="46">
+        <v>69</v>
+      </c>
+      <c r="Z5" s="55">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="55">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="55">
+        <v>369</v>
+      </c>
+      <c r="AC5" s="55">
+        <v>900</v>
+      </c>
+      <c r="AD5" s="55">
+        <v>2007</v>
+      </c>
+      <c r="AE5" s="55">
+        <v>10185</v>
+      </c>
+      <c r="AF5" s="55">
+        <v>19884</v>
+      </c>
+      <c r="AG5" s="55">
+        <v>27591</v>
+      </c>
+      <c r="AH5" s="55">
+        <v>38193</v>
+      </c>
+      <c r="AI5" s="55">
+        <v>39960</v>
+      </c>
+      <c r="AJ5" s="55">
+        <v>50376</v>
+      </c>
+      <c r="AK5" s="55">
+        <v>53457</v>
+      </c>
+      <c r="AL5" s="55">
+        <v>83187</v>
+      </c>
+      <c r="AM5" s="55">
+        <v>87684</v>
+      </c>
+      <c r="AN5" s="55">
+        <v>96792</v>
+      </c>
+      <c r="AO5" s="55">
+        <v>115146</v>
+      </c>
+      <c r="AP5" s="55">
+        <v>102303</v>
+      </c>
+      <c r="AQ5" s="47">
+        <v>62847</v>
       </c>
       <c r="AR5">
-        <v>189</v>
+        <v>1035</v>
       </c>
       <c r="AS5">
         <v>0</v>
@@ -3463,12 +3470,12 @@
       </c>
     </row>
     <row r="6" spans="1:53">
-      <c r="A6" s="55"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="19">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5993547</v>
+        <v>5861466</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -3489,109 +3496,109 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="N6">
-        <v>9</v>
+        <v>66</v>
       </c>
       <c r="O6">
+        <v>99</v>
+      </c>
+      <c r="P6">
+        <v>129</v>
+      </c>
+      <c r="Q6">
+        <v>87</v>
+      </c>
+      <c r="R6">
+        <v>138</v>
+      </c>
+      <c r="S6">
+        <v>189</v>
+      </c>
+      <c r="T6">
+        <v>219</v>
+      </c>
+      <c r="U6">
+        <v>171</v>
+      </c>
+      <c r="V6">
         <v>36</v>
       </c>
-      <c r="P6">
-        <v>18</v>
-      </c>
-      <c r="Q6">
-        <v>51</v>
-      </c>
-      <c r="R6">
-        <v>96</v>
-      </c>
-      <c r="S6">
-        <v>120</v>
-      </c>
-      <c r="T6">
-        <v>132</v>
-      </c>
-      <c r="U6">
-        <v>150</v>
-      </c>
-      <c r="V6">
-        <v>171</v>
-      </c>
       <c r="W6">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>279</v>
-      </c>
-      <c r="Y6">
-        <v>429</v>
-      </c>
-      <c r="Z6">
-        <v>666</v>
-      </c>
-      <c r="AA6">
-        <v>756</v>
-      </c>
-      <c r="AB6">
-        <v>1179</v>
-      </c>
-      <c r="AC6">
-        <v>1350</v>
-      </c>
-      <c r="AD6" s="47">
-        <v>1185</v>
-      </c>
-      <c r="AE6" s="46">
-        <v>1059</v>
-      </c>
-      <c r="AF6" s="46">
-        <v>1692</v>
-      </c>
-      <c r="AG6" s="46">
-        <v>2550</v>
-      </c>
-      <c r="AH6" s="46">
-        <v>3186</v>
-      </c>
-      <c r="AI6" s="46">
-        <v>4293</v>
-      </c>
-      <c r="AJ6" s="46">
-        <v>6198</v>
-      </c>
-      <c r="AK6" s="46">
-        <v>7443</v>
-      </c>
-      <c r="AL6" s="46">
-        <v>11340</v>
-      </c>
-      <c r="AM6" s="46">
-        <v>13746</v>
-      </c>
-      <c r="AN6" s="46">
-        <v>25155</v>
-      </c>
-      <c r="AO6" s="46">
-        <v>32619</v>
-      </c>
-      <c r="AP6" s="46">
-        <v>65949</v>
-      </c>
-      <c r="AQ6" s="48">
-        <v>44700</v>
+        <v>3</v>
+      </c>
+      <c r="Y6" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="55">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="55">
+        <v>273</v>
+      </c>
+      <c r="AB6" s="55">
+        <v>789</v>
+      </c>
+      <c r="AC6" s="55">
+        <v>1251</v>
+      </c>
+      <c r="AD6" s="55">
+        <v>2646</v>
+      </c>
+      <c r="AE6" s="55">
+        <v>3183</v>
+      </c>
+      <c r="AF6" s="55">
+        <v>2985</v>
+      </c>
+      <c r="AG6" s="55">
+        <v>3042</v>
+      </c>
+      <c r="AH6" s="55">
+        <v>4125</v>
+      </c>
+      <c r="AI6" s="55">
+        <v>4116</v>
+      </c>
+      <c r="AJ6" s="55">
+        <v>6744</v>
+      </c>
+      <c r="AK6" s="55">
+        <v>13401</v>
+      </c>
+      <c r="AL6" s="55">
+        <v>22899</v>
+      </c>
+      <c r="AM6" s="55">
+        <v>27789</v>
+      </c>
+      <c r="AN6" s="55">
+        <v>48195</v>
+      </c>
+      <c r="AO6" s="55">
+        <v>72021</v>
+      </c>
+      <c r="AP6" s="55">
+        <v>82953</v>
+      </c>
+      <c r="AQ6" s="47">
+        <v>60855</v>
       </c>
       <c r="AR6">
-        <v>465</v>
+        <v>810</v>
       </c>
       <c r="AS6">
         <v>0</v>
@@ -3622,12 +3629,12 @@
       </c>
     </row>
     <row r="7" spans="1:53">
-      <c r="A7" s="55"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="19">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5881356</v>
+        <v>5908230</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -3636,121 +3643,121 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="L7">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="N7">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="O7">
-        <v>18</v>
+        <v>93</v>
       </c>
       <c r="P7">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="Q7">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="R7">
-        <v>36</v>
+        <v>381</v>
       </c>
       <c r="S7">
-        <v>66</v>
+        <v>534</v>
       </c>
       <c r="T7">
-        <v>114</v>
+        <v>720</v>
       </c>
       <c r="U7">
-        <v>135</v>
+        <v>1161</v>
       </c>
       <c r="V7">
-        <v>183</v>
+        <v>1818</v>
       </c>
       <c r="W7">
-        <v>261</v>
+        <v>2778</v>
       </c>
       <c r="X7">
-        <v>609</v>
-      </c>
-      <c r="Y7">
-        <v>1005</v>
-      </c>
-      <c r="Z7">
-        <v>1428</v>
-      </c>
-      <c r="AA7">
-        <v>2568</v>
-      </c>
-      <c r="AB7">
-        <v>5061</v>
-      </c>
-      <c r="AC7">
-        <v>6924</v>
-      </c>
-      <c r="AD7" s="47">
-        <v>11766</v>
-      </c>
-      <c r="AE7" s="46">
-        <v>15858</v>
-      </c>
-      <c r="AF7" s="46">
-        <v>20271</v>
-      </c>
-      <c r="AG7" s="46">
-        <v>19446</v>
-      </c>
-      <c r="AH7" s="46">
-        <v>23079</v>
-      </c>
-      <c r="AI7" s="46">
-        <v>23118</v>
-      </c>
-      <c r="AJ7" s="46">
-        <v>27720</v>
-      </c>
-      <c r="AK7" s="46">
-        <v>31776</v>
-      </c>
-      <c r="AL7" s="46">
-        <v>39426</v>
-      </c>
-      <c r="AM7" s="46">
-        <v>19419</v>
-      </c>
-      <c r="AN7" s="46">
-        <v>17856</v>
-      </c>
-      <c r="AO7" s="46">
-        <v>23394</v>
-      </c>
-      <c r="AP7" s="46">
-        <v>24750</v>
-      </c>
-      <c r="AQ7" s="48">
-        <v>22863</v>
+        <v>3690</v>
+      </c>
+      <c r="Y7" s="46">
+        <v>4143</v>
+      </c>
+      <c r="Z7" s="55">
+        <v>4605</v>
+      </c>
+      <c r="AA7" s="55">
+        <v>5592</v>
+      </c>
+      <c r="AB7" s="55">
+        <v>8994</v>
+      </c>
+      <c r="AC7" s="55">
+        <v>9378</v>
+      </c>
+      <c r="AD7" s="55">
+        <v>14685</v>
+      </c>
+      <c r="AE7" s="55">
+        <v>13740</v>
+      </c>
+      <c r="AF7" s="55">
+        <v>15867</v>
+      </c>
+      <c r="AG7" s="55">
+        <v>19236</v>
+      </c>
+      <c r="AH7" s="55">
+        <v>21837</v>
+      </c>
+      <c r="AI7" s="55">
+        <v>22362</v>
+      </c>
+      <c r="AJ7" s="55">
+        <v>25977</v>
+      </c>
+      <c r="AK7" s="55">
+        <v>32052</v>
+      </c>
+      <c r="AL7" s="55">
+        <v>14775</v>
+      </c>
+      <c r="AM7" s="55">
+        <v>13359</v>
+      </c>
+      <c r="AN7" s="55">
+        <v>16686</v>
+      </c>
+      <c r="AO7" s="55">
+        <v>15447</v>
+      </c>
+      <c r="AP7" s="55">
+        <v>17835</v>
+      </c>
+      <c r="AQ7" s="47">
+        <v>24168</v>
       </c>
       <c r="AR7">
-        <v>201</v>
+        <v>42</v>
       </c>
       <c r="AS7">
         <v>0</v>
@@ -3781,135 +3788,135 @@
       </c>
     </row>
     <row r="8" spans="1:53">
-      <c r="A8" s="55"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="19">
         <v>7</v>
       </c>
       <c r="C8">
-        <v>5529423</v>
+        <v>5575407</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>3</v>
       </c>
       <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>9</v>
-      </c>
       <c r="J8">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>24</v>
+      </c>
+      <c r="L8">
+        <v>36</v>
+      </c>
+      <c r="M8">
+        <v>36</v>
+      </c>
+      <c r="N8">
         <v>15</v>
       </c>
-      <c r="K8">
+      <c r="O8">
+        <v>33</v>
+      </c>
+      <c r="P8">
         <v>18</v>
       </c>
-      <c r="L8">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>18</v>
-      </c>
-      <c r="N8">
-        <v>30</v>
-      </c>
-      <c r="O8">
-        <v>42</v>
-      </c>
-      <c r="P8">
-        <v>48</v>
-      </c>
       <c r="Q8">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="R8">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="S8">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="T8">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="U8">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="V8">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="W8">
-        <v>474</v>
+        <v>423</v>
       </c>
       <c r="X8">
-        <v>573</v>
-      </c>
-      <c r="Y8">
-        <v>825</v>
-      </c>
-      <c r="Z8">
-        <v>1005</v>
-      </c>
-      <c r="AA8">
-        <v>1368</v>
-      </c>
-      <c r="AB8">
-        <v>2082</v>
-      </c>
-      <c r="AC8">
-        <v>2469</v>
-      </c>
-      <c r="AD8" s="47">
-        <v>3555</v>
-      </c>
-      <c r="AE8" s="46">
-        <v>4845</v>
-      </c>
-      <c r="AF8" s="46">
-        <v>7263</v>
-      </c>
-      <c r="AG8" s="46">
-        <v>10551</v>
-      </c>
-      <c r="AH8" s="46">
-        <v>12033</v>
-      </c>
-      <c r="AI8" s="46">
-        <v>14427</v>
-      </c>
-      <c r="AJ8" s="46">
-        <v>19080</v>
-      </c>
-      <c r="AK8" s="46">
-        <v>24702</v>
-      </c>
-      <c r="AL8" s="46">
-        <v>38523</v>
-      </c>
-      <c r="AM8" s="46">
-        <v>44310</v>
-      </c>
-      <c r="AN8" s="46">
-        <v>61470</v>
-      </c>
-      <c r="AO8" s="46">
-        <v>92166</v>
-      </c>
-      <c r="AP8" s="46">
-        <v>141819</v>
-      </c>
-      <c r="AQ8" s="48">
-        <v>204654</v>
+        <v>600</v>
+      </c>
+      <c r="Y8" s="46">
+        <v>783</v>
+      </c>
+      <c r="Z8" s="55">
+        <v>945</v>
+      </c>
+      <c r="AA8" s="55">
+        <v>1206</v>
+      </c>
+      <c r="AB8" s="55">
+        <v>1938</v>
+      </c>
+      <c r="AC8" s="55">
+        <v>2283</v>
+      </c>
+      <c r="AD8" s="55">
+        <v>3138</v>
+      </c>
+      <c r="AE8" s="55">
+        <v>4482</v>
+      </c>
+      <c r="AF8" s="55">
+        <v>6726</v>
+      </c>
+      <c r="AG8" s="55">
+        <v>10029</v>
+      </c>
+      <c r="AH8" s="55">
+        <v>11541</v>
+      </c>
+      <c r="AI8" s="55">
+        <v>13848</v>
+      </c>
+      <c r="AJ8" s="55">
+        <v>18030</v>
+      </c>
+      <c r="AK8" s="55">
+        <v>23208</v>
+      </c>
+      <c r="AL8" s="55">
+        <v>36228</v>
+      </c>
+      <c r="AM8" s="55">
+        <v>41673</v>
+      </c>
+      <c r="AN8" s="55">
+        <v>57783</v>
+      </c>
+      <c r="AO8" s="55">
+        <v>85827</v>
+      </c>
+      <c r="AP8" s="55">
+        <v>132150</v>
+      </c>
+      <c r="AQ8" s="47">
+        <v>189495</v>
       </c>
       <c r="AR8">
-        <v>1911</v>
+        <v>1740</v>
       </c>
       <c r="AS8">
         <v>0</v>
@@ -3940,12 +3947,12 @@
       </c>
     </row>
     <row r="9" spans="1:53">
-      <c r="A9" s="55"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="19">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>5753589</v>
+        <v>5746935</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -3954,121 +3961,121 @@
         <v>3</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>3</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="L9">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="M9">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="N9">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="O9">
-        <v>255</v>
+        <v>285</v>
       </c>
       <c r="P9">
-        <v>345</v>
+        <v>363</v>
       </c>
       <c r="Q9">
-        <v>393</v>
+        <v>453</v>
       </c>
       <c r="R9">
-        <v>600</v>
+        <v>621</v>
       </c>
       <c r="S9">
-        <v>591</v>
+        <v>624</v>
       </c>
       <c r="T9">
-        <v>648</v>
+        <v>681</v>
       </c>
       <c r="U9">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="V9">
-        <v>798</v>
+        <v>819</v>
       </c>
       <c r="W9">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="X9">
-        <v>744</v>
-      </c>
-      <c r="Y9">
-        <v>708</v>
-      </c>
-      <c r="Z9">
-        <v>693</v>
-      </c>
-      <c r="AA9">
-        <v>465</v>
-      </c>
-      <c r="AB9">
-        <v>645</v>
-      </c>
-      <c r="AC9">
-        <v>534</v>
-      </c>
-      <c r="AD9" s="47">
-        <v>450</v>
-      </c>
-      <c r="AE9" s="46">
-        <v>471</v>
-      </c>
-      <c r="AF9" s="46">
+        <v>705</v>
+      </c>
+      <c r="Y9" s="46">
+        <v>726</v>
+      </c>
+      <c r="Z9" s="55">
+        <v>663</v>
+      </c>
+      <c r="AA9" s="55">
+        <v>522</v>
+      </c>
+      <c r="AB9" s="55">
+        <v>690</v>
+      </c>
+      <c r="AC9" s="55">
+        <v>654</v>
+      </c>
+      <c r="AD9" s="55">
+        <v>519</v>
+      </c>
+      <c r="AE9" s="55">
         <v>552</v>
       </c>
-      <c r="AG9" s="46">
-        <v>567</v>
-      </c>
-      <c r="AH9" s="46">
-        <v>897</v>
-      </c>
-      <c r="AI9" s="46">
-        <v>1401</v>
-      </c>
-      <c r="AJ9" s="46">
-        <v>2280</v>
-      </c>
-      <c r="AK9" s="46">
-        <v>3693</v>
-      </c>
-      <c r="AL9" s="46">
-        <v>7881</v>
-      </c>
-      <c r="AM9" s="46">
-        <v>15330</v>
-      </c>
-      <c r="AN9" s="46">
-        <v>35454</v>
-      </c>
-      <c r="AO9" s="46">
-        <v>86811</v>
-      </c>
-      <c r="AP9" s="46">
-        <v>153936</v>
-      </c>
-      <c r="AQ9" s="48">
-        <v>146574</v>
+      <c r="AF9" s="55">
+        <v>681</v>
+      </c>
+      <c r="AG9" s="55">
+        <v>687</v>
+      </c>
+      <c r="AH9" s="55">
+        <v>1197</v>
+      </c>
+      <c r="AI9" s="55">
+        <v>1818</v>
+      </c>
+      <c r="AJ9" s="55">
+        <v>2784</v>
+      </c>
+      <c r="AK9" s="55">
+        <v>4257</v>
+      </c>
+      <c r="AL9" s="55">
+        <v>9225</v>
+      </c>
+      <c r="AM9" s="55">
+        <v>16671</v>
+      </c>
+      <c r="AN9" s="55">
+        <v>36699</v>
+      </c>
+      <c r="AO9" s="55">
+        <v>87156</v>
+      </c>
+      <c r="AP9" s="55">
+        <v>153768</v>
+      </c>
+      <c r="AQ9" s="47">
+        <v>146343</v>
       </c>
       <c r="AR9">
-        <v>1515</v>
+        <v>1581</v>
       </c>
       <c r="AS9">
         <v>0</v>
@@ -4099,186 +4106,186 @@
       </c>
     </row>
     <row r="10" spans="1:53">
-      <c r="A10" s="55"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="19">
         <v>9</v>
       </c>
       <c r="C10">
-        <v>5973999</v>
+        <v>6014433</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>24</v>
+      </c>
+      <c r="J10">
+        <v>33</v>
+      </c>
+      <c r="K10">
+        <v>54</v>
+      </c>
+      <c r="L10">
+        <v>81</v>
+      </c>
+      <c r="M10">
+        <v>90</v>
+      </c>
+      <c r="N10">
+        <v>114</v>
+      </c>
+      <c r="O10">
+        <v>153</v>
+      </c>
+      <c r="P10">
+        <v>144</v>
+      </c>
+      <c r="Q10">
+        <v>216</v>
+      </c>
+      <c r="R10">
+        <v>243</v>
+      </c>
+      <c r="S10">
+        <v>276</v>
+      </c>
+      <c r="T10">
+        <v>288</v>
+      </c>
+      <c r="U10">
+        <v>297</v>
+      </c>
+      <c r="V10">
+        <v>357</v>
+      </c>
+      <c r="W10">
+        <v>360</v>
+      </c>
+      <c r="X10">
+        <v>435</v>
+      </c>
+      <c r="Y10" s="46">
+        <v>459</v>
+      </c>
+      <c r="Z10" s="55">
+        <v>531</v>
+      </c>
+      <c r="AA10" s="55">
+        <v>621</v>
+      </c>
+      <c r="AB10" s="55">
+        <v>810</v>
+      </c>
+      <c r="AC10" s="55">
+        <v>825</v>
+      </c>
+      <c r="AD10" s="55">
+        <v>996</v>
+      </c>
+      <c r="AE10" s="55">
+        <v>1167</v>
+      </c>
+      <c r="AF10" s="55">
+        <v>1377</v>
+      </c>
+      <c r="AG10" s="55">
+        <v>1572</v>
+      </c>
+      <c r="AH10" s="55">
+        <v>1632</v>
+      </c>
+      <c r="AI10" s="55">
+        <v>2193</v>
+      </c>
+      <c r="AJ10" s="55">
+        <v>3996</v>
+      </c>
+      <c r="AK10" s="55">
+        <v>6504</v>
+      </c>
+      <c r="AL10" s="55">
+        <v>15504</v>
+      </c>
+      <c r="AM10" s="55">
+        <v>18927</v>
+      </c>
+      <c r="AN10" s="55">
+        <v>14136</v>
+      </c>
+      <c r="AO10" s="55">
+        <v>21051</v>
+      </c>
+      <c r="AP10" s="55">
+        <v>54135</v>
+      </c>
+      <c r="AQ10" s="47">
+        <v>56430</v>
+      </c>
+      <c r="AR10">
+        <v>297</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53">
+      <c r="A11" s="59"/>
+      <c r="B11" s="19">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>5642202</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>3</v>
-      </c>
-      <c r="H10">
-        <v>9</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>18</v>
-      </c>
-      <c r="K10">
-        <v>30</v>
-      </c>
-      <c r="L10">
-        <v>66</v>
-      </c>
-      <c r="M10">
-        <v>39</v>
-      </c>
-      <c r="N10">
-        <v>51</v>
-      </c>
-      <c r="O10">
-        <v>27</v>
-      </c>
-      <c r="P10">
-        <v>42</v>
-      </c>
-      <c r="Q10">
-        <v>78</v>
-      </c>
-      <c r="R10">
-        <v>105</v>
-      </c>
-      <c r="S10">
-        <v>156</v>
-      </c>
-      <c r="T10">
-        <v>222</v>
-      </c>
-      <c r="U10">
-        <v>270</v>
-      </c>
-      <c r="V10">
-        <v>360</v>
-      </c>
-      <c r="W10">
-        <v>447</v>
-      </c>
-      <c r="X10">
-        <v>612</v>
-      </c>
-      <c r="Y10">
-        <v>807</v>
-      </c>
-      <c r="Z10">
-        <v>1401</v>
-      </c>
-      <c r="AA10">
-        <v>2271</v>
-      </c>
-      <c r="AB10">
-        <v>4119</v>
-      </c>
-      <c r="AC10">
-        <v>5061</v>
-      </c>
-      <c r="AD10" s="47">
-        <v>5715</v>
-      </c>
-      <c r="AE10" s="46">
-        <v>6765</v>
-      </c>
-      <c r="AF10" s="46">
-        <v>9312</v>
-      </c>
-      <c r="AG10" s="46">
-        <v>12123</v>
-      </c>
-      <c r="AH10" s="46">
-        <v>13308</v>
-      </c>
-      <c r="AI10" s="46">
-        <v>6771</v>
-      </c>
-      <c r="AJ10" s="46">
-        <v>6165</v>
-      </c>
-      <c r="AK10" s="46">
-        <v>8769</v>
-      </c>
-      <c r="AL10" s="46">
-        <v>21138</v>
-      </c>
-      <c r="AM10" s="46">
-        <v>18390</v>
-      </c>
-      <c r="AN10" s="46">
-        <v>12873</v>
-      </c>
-      <c r="AO10" s="46">
-        <v>15480</v>
-      </c>
-      <c r="AP10" s="46">
-        <v>37914</v>
-      </c>
-      <c r="AQ10" s="48">
-        <v>54552</v>
-      </c>
-      <c r="AR10">
-        <v>1320</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:53">
-      <c r="A11" s="55"/>
-      <c r="B11" s="19">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>6133296</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
       </c>
       <c r="I11">
         <v>3</v>
@@ -4293,736 +4300,736 @@
         <v>6</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11">
+        <v>21</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>15</v>
+      </c>
+      <c r="R11">
+        <v>30</v>
+      </c>
+      <c r="S11">
         <v>24</v>
       </c>
-      <c r="P11">
+      <c r="T11">
+        <v>30</v>
+      </c>
+      <c r="U11">
+        <v>45</v>
+      </c>
+      <c r="V11">
+        <v>60</v>
+      </c>
+      <c r="W11">
+        <v>96</v>
+      </c>
+      <c r="X11">
+        <v>126</v>
+      </c>
+      <c r="Y11" s="46">
+        <v>153</v>
+      </c>
+      <c r="Z11" s="55">
+        <v>219</v>
+      </c>
+      <c r="AA11" s="55">
+        <v>258</v>
+      </c>
+      <c r="AB11" s="55">
+        <v>480</v>
+      </c>
+      <c r="AC11" s="55">
+        <v>663</v>
+      </c>
+      <c r="AD11" s="55">
+        <v>903</v>
+      </c>
+      <c r="AE11" s="55">
+        <v>1116</v>
+      </c>
+      <c r="AF11" s="55">
+        <v>1434</v>
+      </c>
+      <c r="AG11" s="55">
+        <v>1749</v>
+      </c>
+      <c r="AH11" s="55">
+        <v>2913</v>
+      </c>
+      <c r="AI11" s="55">
+        <v>4491</v>
+      </c>
+      <c r="AJ11" s="55">
+        <v>7227</v>
+      </c>
+      <c r="AK11" s="55">
+        <v>12756</v>
+      </c>
+      <c r="AL11" s="55">
+        <v>28077</v>
+      </c>
+      <c r="AM11" s="55">
+        <v>65586</v>
+      </c>
+      <c r="AN11" s="55">
+        <v>107610</v>
+      </c>
+      <c r="AO11" s="55">
+        <v>169998</v>
+      </c>
+      <c r="AP11" s="55">
+        <v>156396</v>
+      </c>
+      <c r="AQ11" s="47">
+        <v>16059</v>
+      </c>
+      <c r="AR11">
+        <v>36</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="A12" s="59"/>
+      <c r="B12" s="19">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>6007881</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>39</v>
+      </c>
+      <c r="F12">
+        <v>66</v>
+      </c>
+      <c r="G12">
+        <v>72</v>
+      </c>
+      <c r="H12">
+        <v>147</v>
+      </c>
+      <c r="I12">
+        <v>144</v>
+      </c>
+      <c r="J12">
+        <v>201</v>
+      </c>
+      <c r="K12">
+        <v>255</v>
+      </c>
+      <c r="L12">
+        <v>324</v>
+      </c>
+      <c r="M12">
+        <v>384</v>
+      </c>
+      <c r="N12">
+        <v>465</v>
+      </c>
+      <c r="O12">
+        <v>723</v>
+      </c>
+      <c r="P12">
+        <v>675</v>
+      </c>
+      <c r="Q12">
+        <v>567</v>
+      </c>
+      <c r="R12">
+        <v>627</v>
+      </c>
+      <c r="S12">
+        <v>519</v>
+      </c>
+      <c r="T12">
+        <v>405</v>
+      </c>
+      <c r="U12">
+        <v>345</v>
+      </c>
+      <c r="V12">
+        <v>132</v>
+      </c>
+      <c r="W12">
+        <v>84</v>
+      </c>
+      <c r="X12">
+        <v>72</v>
+      </c>
+      <c r="Y12" s="46">
+        <v>51</v>
+      </c>
+      <c r="Z12" s="55">
+        <v>114</v>
+      </c>
+      <c r="AA12" s="55">
+        <v>336</v>
+      </c>
+      <c r="AB12" s="55">
+        <v>1041</v>
+      </c>
+      <c r="AC12" s="55">
+        <v>1524</v>
+      </c>
+      <c r="AD12" s="55">
+        <v>2340</v>
+      </c>
+      <c r="AE12" s="55">
+        <v>4089</v>
+      </c>
+      <c r="AF12" s="55">
+        <v>8661</v>
+      </c>
+      <c r="AG12" s="55">
+        <v>6804</v>
+      </c>
+      <c r="AH12" s="55">
+        <v>5556</v>
+      </c>
+      <c r="AI12" s="55">
+        <v>8727</v>
+      </c>
+      <c r="AJ12" s="55">
+        <v>9624</v>
+      </c>
+      <c r="AK12" s="55">
+        <v>13248</v>
+      </c>
+      <c r="AL12" s="55">
+        <v>17871</v>
+      </c>
+      <c r="AM12" s="55">
+        <v>41505</v>
+      </c>
+      <c r="AN12" s="55">
+        <v>30234</v>
+      </c>
+      <c r="AO12" s="55">
+        <v>29877</v>
+      </c>
+      <c r="AP12" s="55">
+        <v>15603</v>
+      </c>
+      <c r="AQ12" s="47">
+        <v>9423</v>
+      </c>
+      <c r="AR12">
+        <v>27</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="59"/>
+      <c r="B13" s="19">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>5708397</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>90</v>
+      </c>
+      <c r="H13">
+        <v>66</v>
+      </c>
+      <c r="I13">
+        <v>132</v>
+      </c>
+      <c r="J13">
+        <v>162</v>
+      </c>
+      <c r="K13">
+        <v>186</v>
+      </c>
+      <c r="L13">
+        <v>267</v>
+      </c>
+      <c r="M13">
+        <v>327</v>
+      </c>
+      <c r="N13">
+        <v>408</v>
+      </c>
+      <c r="O13">
+        <v>477</v>
+      </c>
+      <c r="P13">
+        <v>594</v>
+      </c>
+      <c r="Q13">
+        <v>675</v>
+      </c>
+      <c r="R13">
+        <v>1008</v>
+      </c>
+      <c r="S13">
+        <v>1476</v>
+      </c>
+      <c r="T13">
+        <v>2385</v>
+      </c>
+      <c r="U13">
+        <v>1560</v>
+      </c>
+      <c r="V13">
+        <v>1194</v>
+      </c>
+      <c r="W13">
+        <v>1065</v>
+      </c>
+      <c r="X13">
+        <v>957</v>
+      </c>
+      <c r="Y13" s="46">
+        <v>705</v>
+      </c>
+      <c r="Z13" s="55">
+        <v>543</v>
+      </c>
+      <c r="AA13" s="55">
+        <v>645</v>
+      </c>
+      <c r="AB13" s="55">
+        <v>969</v>
+      </c>
+      <c r="AC13" s="55">
+        <v>1047</v>
+      </c>
+      <c r="AD13" s="55">
+        <v>840</v>
+      </c>
+      <c r="AE13" s="55">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="55">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="55">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="55">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="55">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="55">
         <v>12</v>
       </c>
-      <c r="Q11">
-        <v>24</v>
-      </c>
-      <c r="R11">
-        <v>15</v>
-      </c>
-      <c r="S11">
+      <c r="AK13" s="55">
+        <v>102</v>
+      </c>
+      <c r="AL13" s="55">
+        <v>8031</v>
+      </c>
+      <c r="AM13" s="55">
+        <v>12927</v>
+      </c>
+      <c r="AN13" s="55">
+        <v>36036</v>
+      </c>
+      <c r="AO13" s="55">
+        <v>80724</v>
+      </c>
+      <c r="AP13" s="55">
+        <v>165849</v>
+      </c>
+      <c r="AQ13" s="47">
+        <v>190725</v>
+      </c>
+      <c r="AR13">
+        <v>153</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="59"/>
+      <c r="B14" s="19">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>5959452</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
         <v>6</v>
       </c>
-      <c r="T11">
-        <v>24</v>
-      </c>
-      <c r="U11">
+      <c r="G14">
         <v>6</v>
       </c>
-      <c r="V11">
-        <v>30</v>
-      </c>
-      <c r="W11">
-        <v>33</v>
-      </c>
-      <c r="X11">
-        <v>69</v>
-      </c>
-      <c r="Y11">
-        <v>87</v>
-      </c>
-      <c r="Z11">
-        <v>114</v>
-      </c>
-      <c r="AA11">
-        <v>123</v>
-      </c>
-      <c r="AB11">
-        <v>243</v>
-      </c>
-      <c r="AC11">
-        <v>312</v>
-      </c>
-      <c r="AD11" s="47">
-        <v>447</v>
-      </c>
-      <c r="AE11" s="46">
-        <v>552</v>
-      </c>
-      <c r="AF11" s="46">
-        <v>720</v>
-      </c>
-      <c r="AG11" s="46">
-        <v>975</v>
-      </c>
-      <c r="AH11" s="46">
-        <v>1341</v>
-      </c>
-      <c r="AI11" s="46">
-        <v>1788</v>
-      </c>
-      <c r="AJ11" s="46">
-        <v>2394</v>
-      </c>
-      <c r="AK11" s="46">
-        <v>3168</v>
-      </c>
-      <c r="AL11" s="46">
-        <v>5547</v>
-      </c>
-      <c r="AM11" s="46">
-        <v>6420</v>
-      </c>
-      <c r="AN11" s="46">
-        <v>9804</v>
-      </c>
-      <c r="AO11" s="46">
-        <v>11631</v>
-      </c>
-      <c r="AP11" s="46">
-        <v>18117</v>
-      </c>
-      <c r="AQ11" s="48">
-        <v>23259</v>
-      </c>
-      <c r="AR11">
-        <v>204</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:53">
-      <c r="A12" s="55"/>
-      <c r="B12" s="19">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>5639886</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>9</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>9</v>
-      </c>
-      <c r="N12">
-        <v>9</v>
-      </c>
-      <c r="O12">
-        <v>12</v>
-      </c>
-      <c r="P12">
-        <v>15</v>
-      </c>
-      <c r="Q12">
-        <v>24</v>
-      </c>
-      <c r="R12">
-        <v>24</v>
-      </c>
-      <c r="S12">
-        <v>36</v>
-      </c>
-      <c r="T12">
-        <v>54</v>
-      </c>
-      <c r="U12">
-        <v>75</v>
-      </c>
-      <c r="V12">
-        <v>78</v>
-      </c>
-      <c r="W12">
-        <v>102</v>
-      </c>
-      <c r="X12">
-        <v>117</v>
-      </c>
-      <c r="Y12">
-        <v>144</v>
-      </c>
-      <c r="Z12">
-        <v>177</v>
-      </c>
-      <c r="AA12">
-        <v>237</v>
-      </c>
-      <c r="AB12">
-        <v>471</v>
-      </c>
-      <c r="AC12">
-        <v>642</v>
-      </c>
-      <c r="AD12" s="47">
-        <v>810</v>
-      </c>
-      <c r="AE12" s="46">
-        <v>1131</v>
-      </c>
-      <c r="AF12" s="46">
-        <v>1488</v>
-      </c>
-      <c r="AG12" s="46">
-        <v>2001</v>
-      </c>
-      <c r="AH12" s="46">
-        <v>3084</v>
-      </c>
-      <c r="AI12" s="46">
-        <v>4575</v>
-      </c>
-      <c r="AJ12" s="46">
-        <v>7422</v>
-      </c>
-      <c r="AK12" s="46">
-        <v>13320</v>
-      </c>
-      <c r="AL12" s="46">
-        <v>30627</v>
-      </c>
-      <c r="AM12" s="46">
-        <v>68283</v>
-      </c>
-      <c r="AN12" s="46">
-        <v>107346</v>
-      </c>
-      <c r="AO12" s="46">
-        <v>170400</v>
-      </c>
-      <c r="AP12" s="46">
-        <v>153564</v>
-      </c>
-      <c r="AQ12" s="48">
-        <v>14601</v>
-      </c>
-      <c r="AR12">
-        <v>21</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:53">
-      <c r="A13" s="55"/>
-      <c r="B13" s="19">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>6066267</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>24</v>
-      </c>
-      <c r="H13">
-        <v>30</v>
-      </c>
-      <c r="I13">
-        <v>30</v>
-      </c>
-      <c r="J13">
-        <v>48</v>
-      </c>
-      <c r="K13">
-        <v>66</v>
-      </c>
-      <c r="L13">
-        <v>57</v>
-      </c>
-      <c r="M13">
-        <v>90</v>
-      </c>
-      <c r="N13">
-        <v>108</v>
-      </c>
-      <c r="O13">
-        <v>117</v>
-      </c>
-      <c r="P13">
-        <v>153</v>
-      </c>
-      <c r="Q13">
-        <v>162</v>
-      </c>
-      <c r="R13">
-        <v>504</v>
-      </c>
-      <c r="S13">
-        <v>678</v>
-      </c>
-      <c r="T13">
-        <v>903</v>
-      </c>
-      <c r="U13">
-        <v>630</v>
-      </c>
-      <c r="V13">
-        <v>615</v>
-      </c>
-      <c r="W13">
-        <v>642</v>
-      </c>
-      <c r="X13">
-        <v>735</v>
-      </c>
-      <c r="Y13">
-        <v>738</v>
-      </c>
-      <c r="Z13">
-        <v>813</v>
-      </c>
-      <c r="AA13">
-        <v>876</v>
-      </c>
-      <c r="AB13">
-        <v>1353</v>
-      </c>
-      <c r="AC13">
-        <v>1848</v>
-      </c>
-      <c r="AD13" s="47">
-        <v>2496</v>
-      </c>
-      <c r="AE13" s="46">
-        <v>3171</v>
-      </c>
-      <c r="AF13" s="46">
-        <v>3492</v>
-      </c>
-      <c r="AG13" s="46">
-        <v>3582</v>
-      </c>
-      <c r="AH13" s="46">
-        <v>3264</v>
-      </c>
-      <c r="AI13" s="46">
-        <v>2787</v>
-      </c>
-      <c r="AJ13" s="46">
-        <v>4068</v>
-      </c>
-      <c r="AK13" s="46">
-        <v>11064</v>
-      </c>
-      <c r="AL13" s="46">
-        <v>16314</v>
-      </c>
-      <c r="AM13" s="46">
-        <v>9267</v>
-      </c>
-      <c r="AN13" s="46">
-        <v>20094</v>
-      </c>
-      <c r="AO13" s="46">
-        <v>38409</v>
-      </c>
-      <c r="AP13" s="46">
-        <v>20220</v>
-      </c>
-      <c r="AQ13" s="48">
-        <v>5067</v>
-      </c>
-      <c r="AR13">
-        <v>12</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:53">
-      <c r="A14" s="55"/>
-      <c r="B14" s="19">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>5915241</v>
-      </c>
-      <c r="D14">
-        <v>42</v>
-      </c>
-      <c r="E14">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>15</v>
-      </c>
-      <c r="G14">
-        <v>15</v>
-      </c>
       <c r="H14">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I14">
         <v>33</v>
       </c>
       <c r="J14">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="K14">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="L14">
         <v>135</v>
       </c>
       <c r="M14">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="N14">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="O14">
-        <v>240</v>
+        <v>339</v>
       </c>
       <c r="P14">
-        <v>270</v>
+        <v>519</v>
       </c>
       <c r="Q14">
-        <v>366</v>
+        <v>822</v>
       </c>
       <c r="R14">
-        <v>495</v>
+        <v>1359</v>
       </c>
       <c r="S14">
-        <v>696</v>
+        <v>1680</v>
       </c>
       <c r="T14">
-        <v>1305</v>
+        <v>2490</v>
       </c>
       <c r="U14">
-        <v>1362</v>
+        <v>1560</v>
       </c>
       <c r="V14">
-        <v>915</v>
+        <v>1287</v>
       </c>
       <c r="W14">
-        <v>807</v>
+        <v>1578</v>
       </c>
       <c r="X14">
-        <v>801</v>
-      </c>
-      <c r="Y14">
-        <v>819</v>
-      </c>
-      <c r="Z14">
-        <v>924</v>
-      </c>
-      <c r="AA14">
-        <v>990</v>
-      </c>
-      <c r="AB14">
-        <v>1011</v>
-      </c>
-      <c r="AC14">
-        <v>1068</v>
-      </c>
-      <c r="AD14" s="47">
-        <v>1644</v>
-      </c>
-      <c r="AE14" s="46">
-        <v>90</v>
-      </c>
-      <c r="AF14" s="46">
+        <v>1794</v>
+      </c>
+      <c r="Y14" s="46">
+        <v>1920</v>
+      </c>
+      <c r="Z14" s="55">
+        <v>2055</v>
+      </c>
+      <c r="AA14" s="55">
+        <v>2202</v>
+      </c>
+      <c r="AB14" s="55">
+        <v>2805</v>
+      </c>
+      <c r="AC14" s="55">
+        <v>2619</v>
+      </c>
+      <c r="AD14" s="55">
+        <v>2883</v>
+      </c>
+      <c r="AE14" s="55">
+        <v>3654</v>
+      </c>
+      <c r="AF14" s="55">
+        <v>6594</v>
+      </c>
+      <c r="AG14" s="55">
+        <v>9399</v>
+      </c>
+      <c r="AH14" s="55">
+        <v>13488</v>
+      </c>
+      <c r="AI14" s="55">
+        <v>23322</v>
+      </c>
+      <c r="AJ14" s="55">
+        <v>32865</v>
+      </c>
+      <c r="AK14" s="55">
+        <v>20874</v>
+      </c>
+      <c r="AL14" s="55">
+        <v>20634</v>
+      </c>
+      <c r="AM14" s="55">
+        <v>19488</v>
+      </c>
+      <c r="AN14" s="55">
+        <v>22491</v>
+      </c>
+      <c r="AO14" s="55">
+        <v>24177</v>
+      </c>
+      <c r="AP14" s="55">
+        <v>21012</v>
+      </c>
+      <c r="AQ14" s="47">
+        <v>14490</v>
+      </c>
+      <c r="AR14">
+        <v>258</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53">
+      <c r="A15" s="60"/>
+      <c r="B15" s="15">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>5659911</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="AG14" s="46">
-        <v>15</v>
-      </c>
-      <c r="AH14" s="46">
-        <v>24</v>
-      </c>
-      <c r="AI14" s="46">
-        <v>21</v>
-      </c>
-      <c r="AJ14" s="46">
-        <v>33</v>
-      </c>
-      <c r="AK14" s="46">
-        <v>141</v>
-      </c>
-      <c r="AL14" s="46">
-        <v>5625</v>
-      </c>
-      <c r="AM14" s="46">
-        <v>8805</v>
-      </c>
-      <c r="AN14" s="46">
-        <v>20859</v>
-      </c>
-      <c r="AO14" s="46">
-        <v>43899</v>
-      </c>
-      <c r="AP14" s="46">
-        <v>92418</v>
-      </c>
-      <c r="AQ14" s="48">
-        <v>118257</v>
-      </c>
-      <c r="AR14">
-        <v>774</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:53">
-      <c r="A15" s="55"/>
-      <c r="B15" s="19">
-        <v>19</v>
-      </c>
-      <c r="C15">
-        <v>5970363</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="F15">
-        <v>9</v>
-      </c>
-      <c r="G15">
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
         <v>12</v>
       </c>
-      <c r="H15">
-        <v>12</v>
-      </c>
-      <c r="I15">
-        <v>24</v>
-      </c>
-      <c r="J15">
-        <v>27</v>
-      </c>
-      <c r="K15">
+      <c r="O15">
+        <v>39</v>
+      </c>
+      <c r="P15">
         <v>48</v>
       </c>
-      <c r="L15">
-        <v>78</v>
-      </c>
-      <c r="M15">
-        <v>114</v>
-      </c>
-      <c r="N15">
-        <v>189</v>
-      </c>
-      <c r="O15">
-        <v>246</v>
-      </c>
-      <c r="P15">
-        <v>381</v>
-      </c>
       <c r="Q15">
-        <v>663</v>
+        <v>45</v>
       </c>
       <c r="R15">
-        <v>1173</v>
+        <v>66</v>
       </c>
       <c r="S15">
-        <v>1350</v>
+        <v>60</v>
       </c>
       <c r="T15">
-        <v>2382</v>
+        <v>147</v>
       </c>
       <c r="U15">
-        <v>2052</v>
+        <v>219</v>
       </c>
       <c r="V15">
-        <v>1374</v>
+        <v>300</v>
       </c>
       <c r="W15">
-        <v>1365</v>
+        <v>393</v>
       </c>
       <c r="X15">
-        <v>1812</v>
-      </c>
-      <c r="Y15">
-        <v>1881</v>
-      </c>
-      <c r="Z15">
-        <v>2022</v>
-      </c>
-      <c r="AA15">
-        <v>2211</v>
-      </c>
-      <c r="AB15">
-        <v>2769</v>
-      </c>
-      <c r="AC15">
-        <v>2505</v>
-      </c>
-      <c r="AD15" s="47">
-        <v>2859</v>
-      </c>
-      <c r="AE15" s="46">
-        <v>3369</v>
-      </c>
-      <c r="AF15" s="46">
-        <v>6144</v>
-      </c>
-      <c r="AG15" s="46">
-        <v>8844</v>
-      </c>
-      <c r="AH15" s="46">
-        <v>12948</v>
-      </c>
-      <c r="AI15" s="46">
-        <v>21126</v>
-      </c>
-      <c r="AJ15" s="46">
-        <v>33669</v>
-      </c>
-      <c r="AK15" s="46">
-        <v>20268</v>
-      </c>
-      <c r="AL15" s="46">
-        <v>19020</v>
-      </c>
-      <c r="AM15" s="46">
-        <v>18069</v>
-      </c>
-      <c r="AN15" s="46">
-        <v>21201</v>
-      </c>
-      <c r="AO15" s="46">
-        <v>22974</v>
-      </c>
-      <c r="AP15" s="46">
-        <v>20511</v>
-      </c>
-      <c r="AQ15" s="48">
-        <v>14424</v>
+        <v>630</v>
+      </c>
+      <c r="Y15" s="52">
+        <v>765</v>
+      </c>
+      <c r="Z15" s="50">
+        <v>948</v>
+      </c>
+      <c r="AA15" s="50">
+        <v>1236</v>
+      </c>
+      <c r="AB15" s="50">
+        <v>2091</v>
+      </c>
+      <c r="AC15" s="50">
+        <v>2208</v>
+      </c>
+      <c r="AD15" s="50">
+        <v>2916</v>
+      </c>
+      <c r="AE15" s="50">
+        <v>3684</v>
+      </c>
+      <c r="AF15" s="50">
+        <v>4647</v>
+      </c>
+      <c r="AG15" s="50">
+        <v>6183</v>
+      </c>
+      <c r="AH15" s="50">
+        <v>7902</v>
+      </c>
+      <c r="AI15" s="50">
+        <v>10431</v>
+      </c>
+      <c r="AJ15" s="50">
+        <v>13887</v>
+      </c>
+      <c r="AK15" s="50">
+        <v>19059</v>
+      </c>
+      <c r="AL15" s="50">
+        <v>33129</v>
+      </c>
+      <c r="AM15" s="50">
+        <v>44490</v>
+      </c>
+      <c r="AN15" s="50">
+        <v>68196</v>
+      </c>
+      <c r="AO15" s="50">
+        <v>83412</v>
+      </c>
+      <c r="AP15" s="50">
+        <v>119613</v>
+      </c>
+      <c r="AQ15" s="53">
+        <v>132912</v>
       </c>
       <c r="AR15">
-        <v>309</v>
+        <v>1206</v>
       </c>
       <c r="AS15">
         <v>0</v>
@@ -5052,168 +5059,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
-      <c r="A16" s="55"/>
-      <c r="B16" s="19">
-        <v>20</v>
-      </c>
-      <c r="C16" s="8">
-        <v>5661705</v>
-      </c>
-      <c r="D16" s="8">
-        <v>3</v>
-      </c>
-      <c r="E16" s="8">
-        <v>3</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>3</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>9</v>
-      </c>
-      <c r="L16" s="8">
-        <v>12</v>
-      </c>
-      <c r="M16" s="8">
-        <v>15</v>
-      </c>
-      <c r="N16" s="8">
-        <v>15</v>
-      </c>
-      <c r="O16" s="8">
-        <v>42</v>
-      </c>
-      <c r="P16" s="8">
-        <v>63</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>84</v>
-      </c>
-      <c r="R16" s="8">
-        <v>150</v>
-      </c>
-      <c r="S16" s="8">
-        <v>114</v>
-      </c>
-      <c r="T16" s="8">
-        <v>192</v>
-      </c>
-      <c r="U16" s="8">
-        <v>249</v>
-      </c>
-      <c r="V16" s="8">
-        <v>312</v>
-      </c>
-      <c r="W16" s="8">
-        <v>363</v>
-      </c>
-      <c r="X16" s="8">
-        <v>558</v>
-      </c>
-      <c r="Y16" s="8">
-        <v>741</v>
-      </c>
-      <c r="Z16" s="8">
-        <v>897</v>
-      </c>
-      <c r="AA16" s="8">
-        <v>1185</v>
-      </c>
-      <c r="AB16" s="8">
-        <v>2100</v>
-      </c>
-      <c r="AC16" s="8">
-        <v>2082</v>
-      </c>
-      <c r="AD16" s="53">
-        <v>2718</v>
-      </c>
-      <c r="AE16" s="51">
-        <v>3642</v>
-      </c>
-      <c r="AF16" s="51">
-        <v>4632</v>
-      </c>
-      <c r="AG16" s="51">
-        <v>6072</v>
-      </c>
-      <c r="AH16" s="51">
-        <v>7809</v>
-      </c>
-      <c r="AI16" s="51">
-        <v>10269</v>
-      </c>
-      <c r="AJ16" s="51">
-        <v>13776</v>
-      </c>
-      <c r="AK16" s="51">
-        <v>18774</v>
-      </c>
-      <c r="AL16" s="51">
-        <v>32913</v>
-      </c>
-      <c r="AM16" s="51">
-        <v>43677</v>
-      </c>
-      <c r="AN16" s="51">
-        <v>68349</v>
-      </c>
-      <c r="AO16" s="51">
-        <v>83415</v>
-      </c>
-      <c r="AP16" s="51">
-        <v>119910</v>
-      </c>
-      <c r="AQ16" s="54">
-        <v>132672</v>
-      </c>
-      <c r="AR16" s="8">
-        <v>1275</v>
-      </c>
-      <c r="AS16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="8">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="8">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="9">
-        <v>0</v>
-      </c>
+    <row r="16" spans="1:53" s="4" customFormat="1">
+      <c r="A16" s="56"/>
+      <c r="B16" s="16"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="63"/>
+      <c r="AN16" s="63"/>
+      <c r="AO16" s="63"/>
+      <c r="AP16" s="63"/>
+      <c r="AQ16" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="A3:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5223,8 +5094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEAEED5E-03E1-4D43-B753-B6D0E922BAC9}">
   <dimension ref="A2:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5625,7 +5496,7 @@
       </c>
       <c r="I17">
         <f>AVERAGE(Table2[visible range])</f>
-        <v>115.27856764705882</v>
+        <v>114.25034411764705</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickTop="1">
@@ -5811,21 +5682,21 @@
         <v>83</v>
       </c>
       <c r="C25" s="32">
-        <v>-2.4845999999999999</v>
+        <v>0</v>
       </c>
       <c r="D25" s="33">
-        <v>118.52</v>
+        <v>121</v>
       </c>
       <c r="E25" s="31">
         <f t="shared" si="1"/>
-        <v>121.0046</v>
+        <v>121</v>
       </c>
       <c r="F25" s="31">
-        <v>103.01</v>
+        <v>107.764</v>
       </c>
       <c r="G25" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>105.49460000000001</v>
+        <v>107.764</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5836,21 +5707,21 @@
         <v>82</v>
       </c>
       <c r="C26" s="32">
-        <v>1.0538000000000001</v>
+        <v>0</v>
       </c>
       <c r="D26" s="33">
-        <v>146.65</v>
+        <v>145.60900000000001</v>
       </c>
       <c r="E26" s="31">
         <f t="shared" si="1"/>
-        <v>145.59620000000001</v>
+        <v>145.60900000000001</v>
       </c>
       <c r="F26" s="31">
-        <v>127.59</v>
+        <v>106.78700000000001</v>
       </c>
       <c r="G26" s="33">
         <f>Table2[[#This Row],[visible max]]-Table2[[#This Row],[min (mm)]]</f>
-        <v>126.53620000000001</v>
+        <v>106.78700000000001</v>
       </c>
     </row>
     <row r="27" spans="1:9">

--- a/Stimuli/Images/DepthMaps/depths.xlsx
+++ b/Stimuli/Images/DepthMaps/depths.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Becca\Documents\GitHub\fMRI_ef_scrambled-objects_2022\Stimuli\Images\DepthMaps\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FD006F-1E4D-4669-9DEA-612881235A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F4CC16-3FC4-4D53-AD4F-099D22421B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A60B6263-5EC6-4E52-B93A-1BC494533CA5}"/>
   </bookViews>
@@ -674,7 +674,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -969,24 +969,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1036,9 +1023,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -2751,8 +2736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D578D86-D93F-4507-92E5-98F2DF597463}">
   <dimension ref="A1:BA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ20" sqref="AJ20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="AI22" sqref="AI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2767,7 +2752,8 @@
     <col min="28" max="28" width="6" customWidth="1"/>
     <col min="29" max="29" width="6.42578125" customWidth="1"/>
     <col min="30" max="43" width="7.42578125" customWidth="1"/>
-    <col min="44" max="53" width="5" customWidth="1"/>
+    <col min="44" max="44" width="6.7109375" customWidth="1"/>
+    <col min="45" max="53" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
@@ -2956,30 +2942,30 @@
       <c r="V2" s="22"/>
       <c r="W2" s="22"/>
       <c r="X2" s="22"/>
-      <c r="Y2" s="61" t="s">
+      <c r="Y2" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
-      <c r="AB2" s="61"/>
-      <c r="AC2" s="49"/>
+      <c r="Z2" s="59"/>
+      <c r="AA2" s="59"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
       <c r="AD2" s="45"/>
-      <c r="AE2" s="61"/>
-      <c r="AF2" s="61"/>
-      <c r="AG2" s="61"/>
-      <c r="AH2" s="61"/>
-      <c r="AI2" s="61"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="61"/>
-      <c r="AN2" s="61"/>
-      <c r="AO2" s="61"/>
-      <c r="AP2" s="61"/>
-      <c r="AQ2" s="61" t="s">
+      <c r="AE2" s="59"/>
+      <c r="AF2" s="59"/>
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="59"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="59"/>
+      <c r="AM2" s="59"/>
+      <c r="AN2" s="59"/>
+      <c r="AO2" s="59"/>
+      <c r="AP2" s="59"/>
+      <c r="AQ2" s="59"/>
+      <c r="AR2" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="AR2" s="51"/>
       <c r="AS2" s="22"/>
       <c r="AT2" s="22"/>
       <c r="AU2" s="22"/>
@@ -2991,7 +2977,7 @@
       <c r="BA2" s="22"/>
     </row>
     <row r="3" spans="1:53" ht="15" customHeight="1">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="56" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="48">
@@ -3063,64 +3049,64 @@
       <c r="X3">
         <v>1425</v>
       </c>
-      <c r="Y3" s="62">
+      <c r="Y3" s="60">
         <v>1530</v>
       </c>
-      <c r="Z3" s="57">
+      <c r="Z3" s="55">
         <v>1665</v>
       </c>
-      <c r="AA3" s="57">
+      <c r="AA3" s="55">
         <v>1995</v>
       </c>
-      <c r="AB3" s="57">
+      <c r="AB3" s="55">
         <v>2901</v>
       </c>
-      <c r="AC3" s="57">
+      <c r="AC3" s="55">
         <v>2952</v>
       </c>
-      <c r="AD3" s="57">
+      <c r="AD3" s="55">
         <v>3507</v>
       </c>
-      <c r="AE3" s="57">
+      <c r="AE3" s="55">
         <v>2973</v>
       </c>
-      <c r="AF3" s="57">
+      <c r="AF3" s="55">
         <v>1524</v>
       </c>
-      <c r="AG3" s="57">
+      <c r="AG3" s="55">
         <v>795</v>
       </c>
-      <c r="AH3" s="57">
+      <c r="AH3" s="55">
         <v>1392</v>
       </c>
-      <c r="AI3" s="57">
+      <c r="AI3" s="55">
         <v>4260</v>
       </c>
-      <c r="AJ3" s="57">
+      <c r="AJ3" s="55">
         <v>9852</v>
       </c>
-      <c r="AK3" s="57">
+      <c r="AK3" s="55">
         <v>19605</v>
       </c>
-      <c r="AL3" s="57">
+      <c r="AL3" s="55">
         <v>40107</v>
       </c>
-      <c r="AM3" s="57">
+      <c r="AM3" s="55">
         <v>42897</v>
       </c>
-      <c r="AN3" s="57">
+      <c r="AN3" s="55">
         <v>52353</v>
       </c>
-      <c r="AO3" s="57">
+      <c r="AO3" s="55">
         <v>80643</v>
       </c>
-      <c r="AP3" s="57">
+      <c r="AP3" s="55">
         <v>91590</v>
       </c>
-      <c r="AQ3" s="64">
+      <c r="AQ3" s="55">
         <v>84933</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="62">
         <v>858</v>
       </c>
       <c r="AS3">
@@ -3152,7 +3138,7 @@
       </c>
     </row>
     <row r="4" spans="1:53">
-      <c r="A4" s="59"/>
+      <c r="A4" s="57"/>
       <c r="B4" s="19">
         <v>2</v>
       </c>
@@ -3225,61 +3211,61 @@
       <c r="Y4" s="46">
         <v>195</v>
       </c>
-      <c r="Z4" s="55">
+      <c r="Z4" s="53">
         <v>216</v>
       </c>
-      <c r="AA4" s="55">
+      <c r="AA4" s="53">
         <v>660</v>
       </c>
-      <c r="AB4" s="55">
+      <c r="AB4" s="53">
         <v>1215</v>
       </c>
-      <c r="AC4" s="55">
+      <c r="AC4" s="53">
         <v>1524</v>
       </c>
-      <c r="AD4" s="55">
+      <c r="AD4" s="53">
         <v>2235</v>
       </c>
-      <c r="AE4" s="55">
+      <c r="AE4" s="53">
         <v>3273</v>
       </c>
-      <c r="AF4" s="55">
+      <c r="AF4" s="53">
         <v>3840</v>
       </c>
-      <c r="AG4" s="55">
+      <c r="AG4" s="53">
         <v>4797</v>
       </c>
-      <c r="AH4" s="55">
+      <c r="AH4" s="53">
         <v>6084</v>
       </c>
-      <c r="AI4" s="55">
+      <c r="AI4" s="53">
         <v>6663</v>
       </c>
-      <c r="AJ4" s="55">
+      <c r="AJ4" s="53">
         <v>8232</v>
       </c>
-      <c r="AK4" s="55">
+      <c r="AK4" s="53">
         <v>10416</v>
       </c>
-      <c r="AL4" s="55">
+      <c r="AL4" s="53">
         <v>20016</v>
       </c>
-      <c r="AM4" s="55">
+      <c r="AM4" s="53">
         <v>29313</v>
       </c>
-      <c r="AN4" s="55">
+      <c r="AN4" s="53">
         <v>61314</v>
       </c>
-      <c r="AO4" s="55">
+      <c r="AO4" s="53">
         <v>134529</v>
       </c>
-      <c r="AP4" s="55">
+      <c r="AP4" s="53">
         <v>198522</v>
       </c>
-      <c r="AQ4" s="47">
+      <c r="AQ4" s="53">
         <v>43485</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="47">
         <v>174</v>
       </c>
       <c r="AS4">
@@ -3311,7 +3297,7 @@
       </c>
     </row>
     <row r="5" spans="1:53">
-      <c r="A5" s="59"/>
+      <c r="A5" s="57"/>
       <c r="B5" s="19">
         <v>3</v>
       </c>
@@ -3384,61 +3370,61 @@
       <c r="Y5" s="46">
         <v>69</v>
       </c>
-      <c r="Z5" s="55">
+      <c r="Z5" s="53">
         <v>27</v>
       </c>
-      <c r="AA5" s="55">
+      <c r="AA5" s="53">
         <v>45</v>
       </c>
-      <c r="AB5" s="55">
+      <c r="AB5" s="53">
         <v>369</v>
       </c>
-      <c r="AC5" s="55">
+      <c r="AC5" s="53">
         <v>900</v>
       </c>
-      <c r="AD5" s="55">
+      <c r="AD5" s="53">
         <v>2007</v>
       </c>
-      <c r="AE5" s="55">
+      <c r="AE5" s="53">
         <v>10185</v>
       </c>
-      <c r="AF5" s="55">
+      <c r="AF5" s="53">
         <v>19884</v>
       </c>
-      <c r="AG5" s="55">
+      <c r="AG5" s="53">
         <v>27591</v>
       </c>
-      <c r="AH5" s="55">
+      <c r="AH5" s="53">
         <v>38193</v>
       </c>
-      <c r="AI5" s="55">
+      <c r="AI5" s="53">
         <v>39960</v>
       </c>
-      <c r="AJ5" s="55">
+      <c r="AJ5" s="53">
         <v>50376</v>
       </c>
-      <c r="AK5" s="55">
+      <c r="AK5" s="53">
         <v>53457</v>
       </c>
-      <c r="AL5" s="55">
+      <c r="AL5" s="53">
         <v>83187</v>
       </c>
-      <c r="AM5" s="55">
+      <c r="AM5" s="53">
         <v>87684</v>
       </c>
-      <c r="AN5" s="55">
+      <c r="AN5" s="53">
         <v>96792</v>
       </c>
-      <c r="AO5" s="55">
+      <c r="AO5" s="53">
         <v>115146</v>
       </c>
-      <c r="AP5" s="55">
+      <c r="AP5" s="53">
         <v>102303</v>
       </c>
-      <c r="AQ5" s="47">
+      <c r="AQ5" s="53">
         <v>62847</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="47">
         <v>1035</v>
       </c>
       <c r="AS5">
@@ -3470,7 +3456,7 @@
       </c>
     </row>
     <row r="6" spans="1:53">
-      <c r="A6" s="59"/>
+      <c r="A6" s="57"/>
       <c r="B6" s="19">
         <v>4</v>
       </c>
@@ -3543,61 +3529,61 @@
       <c r="Y6" s="46">
         <v>0</v>
       </c>
-      <c r="Z6" s="55">
+      <c r="Z6" s="53">
         <v>33</v>
       </c>
-      <c r="AA6" s="55">
+      <c r="AA6" s="53">
         <v>273</v>
       </c>
-      <c r="AB6" s="55">
+      <c r="AB6" s="53">
         <v>789</v>
       </c>
-      <c r="AC6" s="55">
+      <c r="AC6" s="53">
         <v>1251</v>
       </c>
-      <c r="AD6" s="55">
+      <c r="AD6" s="53">
         <v>2646</v>
       </c>
-      <c r="AE6" s="55">
+      <c r="AE6" s="53">
         <v>3183</v>
       </c>
-      <c r="AF6" s="55">
+      <c r="AF6" s="53">
         <v>2985</v>
       </c>
-      <c r="AG6" s="55">
+      <c r="AG6" s="53">
         <v>3042</v>
       </c>
-      <c r="AH6" s="55">
+      <c r="AH6" s="53">
         <v>4125</v>
       </c>
-      <c r="AI6" s="55">
+      <c r="AI6" s="53">
         <v>4116</v>
       </c>
-      <c r="AJ6" s="55">
+      <c r="AJ6" s="53">
         <v>6744</v>
       </c>
-      <c r="AK6" s="55">
+      <c r="AK6" s="53">
         <v>13401</v>
       </c>
-      <c r="AL6" s="55">
+      <c r="AL6" s="53">
         <v>22899</v>
       </c>
-      <c r="AM6" s="55">
+      <c r="AM6" s="53">
         <v>27789</v>
       </c>
-      <c r="AN6" s="55">
+      <c r="AN6" s="53">
         <v>48195</v>
       </c>
-      <c r="AO6" s="55">
+      <c r="AO6" s="53">
         <v>72021</v>
       </c>
-      <c r="AP6" s="55">
+      <c r="AP6" s="53">
         <v>82953</v>
       </c>
-      <c r="AQ6" s="47">
+      <c r="AQ6" s="53">
         <v>60855</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="47">
         <v>810</v>
       </c>
       <c r="AS6">
@@ -3629,7 +3615,7 @@
       </c>
     </row>
     <row r="7" spans="1:53">
-      <c r="A7" s="59"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="19">
         <v>6</v>
       </c>
@@ -3702,61 +3688,61 @@
       <c r="Y7" s="46">
         <v>4143</v>
       </c>
-      <c r="Z7" s="55">
+      <c r="Z7" s="53">
         <v>4605</v>
       </c>
-      <c r="AA7" s="55">
+      <c r="AA7" s="53">
         <v>5592</v>
       </c>
-      <c r="AB7" s="55">
+      <c r="AB7" s="53">
         <v>8994</v>
       </c>
-      <c r="AC7" s="55">
+      <c r="AC7" s="53">
         <v>9378</v>
       </c>
-      <c r="AD7" s="55">
+      <c r="AD7" s="53">
         <v>14685</v>
       </c>
-      <c r="AE7" s="55">
+      <c r="AE7" s="53">
         <v>13740</v>
       </c>
-      <c r="AF7" s="55">
+      <c r="AF7" s="53">
         <v>15867</v>
       </c>
-      <c r="AG7" s="55">
+      <c r="AG7" s="53">
         <v>19236</v>
       </c>
-      <c r="AH7" s="55">
+      <c r="AH7" s="53">
         <v>21837</v>
       </c>
-      <c r="AI7" s="55">
+      <c r="AI7" s="53">
         <v>22362</v>
       </c>
-      <c r="AJ7" s="55">
+      <c r="AJ7" s="53">
         <v>25977</v>
       </c>
-      <c r="AK7" s="55">
+      <c r="AK7" s="53">
         <v>32052</v>
       </c>
-      <c r="AL7" s="55">
+      <c r="AL7" s="53">
         <v>14775</v>
       </c>
-      <c r="AM7" s="55">
+      <c r="AM7" s="53">
         <v>13359</v>
       </c>
-      <c r="AN7" s="55">
+      <c r="AN7" s="53">
         <v>16686</v>
       </c>
-      <c r="AO7" s="55">
+      <c r="AO7" s="53">
         <v>15447</v>
       </c>
-      <c r="AP7" s="55">
+      <c r="AP7" s="53">
         <v>17835</v>
       </c>
-      <c r="AQ7" s="47">
+      <c r="AQ7" s="53">
         <v>24168</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="47">
         <v>42</v>
       </c>
       <c r="AS7">
@@ -3788,7 +3774,7 @@
       </c>
     </row>
     <row r="8" spans="1:53">
-      <c r="A8" s="59"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="19">
         <v>7</v>
       </c>
@@ -3861,61 +3847,61 @@
       <c r="Y8" s="46">
         <v>783</v>
       </c>
-      <c r="Z8" s="55">
+      <c r="Z8" s="53">
         <v>945</v>
       </c>
-      <c r="AA8" s="55">
+      <c r="AA8" s="53">
         <v>1206</v>
       </c>
-      <c r="AB8" s="55">
+      <c r="AB8" s="53">
         <v>1938</v>
       </c>
-      <c r="AC8" s="55">
+      <c r="AC8" s="53">
         <v>2283</v>
       </c>
-      <c r="AD8" s="55">
+      <c r="AD8" s="53">
         <v>3138</v>
       </c>
-      <c r="AE8" s="55">
+      <c r="AE8" s="53">
         <v>4482</v>
       </c>
-      <c r="AF8" s="55">
+      <c r="AF8" s="53">
         <v>6726</v>
       </c>
-      <c r="AG8" s="55">
+      <c r="AG8" s="53">
         <v>10029</v>
       </c>
-      <c r="AH8" s="55">
+      <c r="AH8" s="53">
         <v>11541</v>
       </c>
-      <c r="AI8" s="55">
+      <c r="AI8" s="53">
         <v>13848</v>
       </c>
-      <c r="AJ8" s="55">
+      <c r="AJ8" s="53">
         <v>18030</v>
       </c>
-      <c r="AK8" s="55">
+      <c r="AK8" s="53">
         <v>23208</v>
       </c>
-      <c r="AL8" s="55">
+      <c r="AL8" s="53">
         <v>36228</v>
       </c>
-      <c r="AM8" s="55">
+      <c r="AM8" s="53">
         <v>41673</v>
       </c>
-      <c r="AN8" s="55">
+      <c r="AN8" s="53">
         <v>57783</v>
       </c>
-      <c r="AO8" s="55">
+      <c r="AO8" s="53">
         <v>85827</v>
       </c>
-      <c r="AP8" s="55">
+      <c r="AP8" s="53">
         <v>132150</v>
       </c>
-      <c r="AQ8" s="47">
+      <c r="AQ8" s="53">
         <v>189495</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" s="47">
         <v>1740</v>
       </c>
       <c r="AS8">
@@ -3947,7 +3933,7 @@
       </c>
     </row>
     <row r="9" spans="1:53">
-      <c r="A9" s="59"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="19">
         <v>8</v>
       </c>
@@ -4020,61 +4006,61 @@
       <c r="Y9" s="46">
         <v>726</v>
       </c>
-      <c r="Z9" s="55">
+      <c r="Z9" s="53">
         <v>663</v>
       </c>
-      <c r="AA9" s="55">
+      <c r="AA9" s="53">
         <v>522</v>
       </c>
-      <c r="AB9" s="55">
+      <c r="AB9" s="53">
         <v>690</v>
       </c>
-      <c r="AC9" s="55">
+      <c r="AC9" s="53">
         <v>654</v>
       </c>
-      <c r="AD9" s="55">
+      <c r="AD9" s="53">
         <v>519</v>
       </c>
-      <c r="AE9" s="55">
+      <c r="AE9" s="53">
         <v>552</v>
       </c>
-      <c r="AF9" s="55">
+      <c r="AF9" s="53">
         <v>681</v>
       </c>
-      <c r="AG9" s="55">
+      <c r="AG9" s="53">
         <v>687</v>
       </c>
-      <c r="AH9" s="55">
+      <c r="AH9" s="53">
         <v>1197</v>
       </c>
-      <c r="AI9" s="55">
+      <c r="AI9" s="53">
         <v>1818</v>
       </c>
-      <c r="AJ9" s="55">
+      <c r="AJ9" s="53">
         <v>2784</v>
       </c>
-      <c r="AK9" s="55">
+      <c r="AK9" s="53">
         <v>4257</v>
       </c>
-      <c r="AL9" s="55">
+      <c r="AL9" s="53">
         <v>9225</v>
       </c>
-      <c r="AM9" s="55">
+      <c r="AM9" s="53">
         <v>16671</v>
       </c>
-      <c r="AN9" s="55">
+      <c r="AN9" s="53">
         <v>36699</v>
       </c>
-      <c r="AO9" s="55">
+      <c r="AO9" s="53">
         <v>87156</v>
       </c>
-      <c r="AP9" s="55">
+      <c r="AP9" s="53">
         <v>153768</v>
       </c>
-      <c r="AQ9" s="47">
+      <c r="AQ9" s="53">
         <v>146343</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" s="47">
         <v>1581</v>
       </c>
       <c r="AS9">
@@ -4106,7 +4092,7 @@
       </c>
     </row>
     <row r="10" spans="1:53">
-      <c r="A10" s="59"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="19">
         <v>9</v>
       </c>
@@ -4179,61 +4165,61 @@
       <c r="Y10" s="46">
         <v>459</v>
       </c>
-      <c r="Z10" s="55">
+      <c r="Z10" s="53">
         <v>531</v>
       </c>
-      <c r="AA10" s="55">
+      <c r="AA10" s="53">
         <v>621</v>
       </c>
-      <c r="AB10" s="55">
+      <c r="AB10" s="53">
         <v>810</v>
       </c>
-      <c r="AC10" s="55">
+      <c r="AC10" s="53">
         <v>825</v>
       </c>
-      <c r="AD10" s="55">
+      <c r="AD10" s="53">
         <v>996</v>
       </c>
-      <c r="AE10" s="55">
+      <c r="AE10" s="53">
         <v>1167</v>
       </c>
-      <c r="AF10" s="55">
+      <c r="AF10" s="53">
         <v>1377</v>
       </c>
-      <c r="AG10" s="55">
+      <c r="AG10" s="53">
         <v>1572</v>
       </c>
-      <c r="AH10" s="55">
+      <c r="AH10" s="53">
         <v>1632</v>
       </c>
-      <c r="AI10" s="55">
+      <c r="AI10" s="53">
         <v>2193</v>
       </c>
-      <c r="AJ10" s="55">
+      <c r="AJ10" s="53">
         <v>3996</v>
       </c>
-      <c r="AK10" s="55">
+      <c r="AK10" s="53">
         <v>6504</v>
       </c>
-      <c r="AL10" s="55">
+      <c r="AL10" s="53">
         <v>15504</v>
       </c>
-      <c r="AM10" s="55">
+      <c r="AM10" s="53">
         <v>18927</v>
       </c>
-      <c r="AN10" s="55">
+      <c r="AN10" s="53">
         <v>14136</v>
       </c>
-      <c r="AO10" s="55">
+      <c r="AO10" s="53">
         <v>21051</v>
       </c>
-      <c r="AP10" s="55">
+      <c r="AP10" s="53">
         <v>54135</v>
       </c>
-      <c r="AQ10" s="47">
+      <c r="AQ10" s="53">
         <v>56430</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" s="47">
         <v>297</v>
       </c>
       <c r="AS10">
@@ -4265,7 +4251,7 @@
       </c>
     </row>
     <row r="11" spans="1:53">
-      <c r="A11" s="59"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="19">
         <v>14</v>
       </c>
@@ -4338,61 +4324,61 @@
       <c r="Y11" s="46">
         <v>153</v>
       </c>
-      <c r="Z11" s="55">
+      <c r="Z11" s="53">
         <v>219</v>
       </c>
-      <c r="AA11" s="55">
+      <c r="AA11" s="53">
         <v>258</v>
       </c>
-      <c r="AB11" s="55">
+      <c r="AB11" s="53">
         <v>480</v>
       </c>
-      <c r="AC11" s="55">
+      <c r="AC11" s="53">
         <v>663</v>
       </c>
-      <c r="AD11" s="55">
+      <c r="AD11" s="53">
         <v>903</v>
       </c>
-      <c r="AE11" s="55">
+      <c r="AE11" s="53">
         <v>1116</v>
       </c>
-      <c r="AF11" s="55">
+      <c r="AF11" s="53">
         <v>1434</v>
       </c>
-      <c r="AG11" s="55">
+      <c r="AG11" s="53">
         <v>1749</v>
       </c>
-      <c r="AH11" s="55">
+      <c r="AH11" s="53">
         <v>2913</v>
       </c>
-      <c r="AI11" s="55">
+      <c r="AI11" s="53">
         <v>4491</v>
       </c>
-      <c r="AJ11" s="55">
+      <c r="AJ11" s="53">
         <v>7227</v>
       </c>
-      <c r="AK11" s="55">
+      <c r="AK11" s="53">
         <v>12756</v>
       </c>
-      <c r="AL11" s="55">
+      <c r="AL11" s="53">
         <v>28077</v>
       </c>
-      <c r="AM11" s="55">
+      <c r="AM11" s="53">
         <v>65586</v>
       </c>
-      <c r="AN11" s="55">
+      <c r="AN11" s="53">
         <v>107610</v>
       </c>
-      <c r="AO11" s="55">
+      <c r="AO11" s="53">
         <v>169998</v>
       </c>
-      <c r="AP11" s="55">
+      <c r="AP11" s="53">
         <v>156396</v>
       </c>
-      <c r="AQ11" s="47">
+      <c r="AQ11" s="53">
         <v>16059</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" s="47">
         <v>36</v>
       </c>
       <c r="AS11">
@@ -4424,7 +4410,7 @@
       </c>
     </row>
     <row r="12" spans="1:53">
-      <c r="A12" s="59"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="19">
         <v>16</v>
       </c>
@@ -4497,61 +4483,61 @@
       <c r="Y12" s="46">
         <v>51</v>
       </c>
-      <c r="Z12" s="55">
+      <c r="Z12" s="53">
         <v>114</v>
       </c>
-      <c r="AA12" s="55">
+      <c r="AA12" s="53">
         <v>336</v>
       </c>
-      <c r="AB12" s="55">
+      <c r="AB12" s="53">
         <v>1041</v>
       </c>
-      <c r="AC12" s="55">
+      <c r="AC12" s="53">
         <v>1524</v>
       </c>
-      <c r="AD12" s="55">
+      <c r="AD12" s="53">
         <v>2340</v>
       </c>
-      <c r="AE12" s="55">
+      <c r="AE12" s="53">
         <v>4089</v>
       </c>
-      <c r="AF12" s="55">
+      <c r="AF12" s="53">
         <v>8661</v>
       </c>
-      <c r="AG12" s="55">
+      <c r="AG12" s="53">
         <v>6804</v>
       </c>
-      <c r="AH12" s="55">
+      <c r="AH12" s="53">
         <v>5556</v>
       </c>
-      <c r="AI12" s="55">
+      <c r="AI12" s="53">
         <v>8727</v>
       </c>
-      <c r="AJ12" s="55">
+      <c r="AJ12" s="53">
         <v>9624</v>
       </c>
-      <c r="AK12" s="55">
+      <c r="AK12" s="53">
         <v>13248</v>
       </c>
-      <c r="AL12" s="55">
+      <c r="AL12" s="53">
         <v>17871</v>
       </c>
-      <c r="AM12" s="55">
+      <c r="AM12" s="53">
         <v>41505</v>
       </c>
-      <c r="AN12" s="55">
+      <c r="AN12" s="53">
         <v>30234</v>
       </c>
-      <c r="AO12" s="55">
+      <c r="AO12" s="53">
         <v>29877</v>
       </c>
-      <c r="AP12" s="55">
+      <c r="AP12" s="53">
         <v>15603</v>
       </c>
-      <c r="AQ12" s="47">
+      <c r="AQ12" s="53">
         <v>9423</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" s="47">
         <v>27</v>
       </c>
       <c r="AS12">
@@ -4583,7 +4569,7 @@
       </c>
     </row>
     <row r="13" spans="1:53">
-      <c r="A13" s="59"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="19">
         <v>17</v>
       </c>
@@ -4656,61 +4642,61 @@
       <c r="Y13" s="46">
         <v>705</v>
       </c>
-      <c r="Z13" s="55">
+      <c r="Z13" s="53">
         <v>543</v>
       </c>
-      <c r="AA13" s="55">
+      <c r="AA13" s="53">
         <v>645</v>
       </c>
-      <c r="AB13" s="55">
+      <c r="AB13" s="53">
         <v>969</v>
       </c>
-      <c r="AC13" s="55">
+      <c r="AC13" s="53">
         <v>1047</v>
       </c>
-      <c r="AD13" s="55">
+      <c r="AD13" s="53">
         <v>840</v>
       </c>
-      <c r="AE13" s="55">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="55">
-        <v>0</v>
-      </c>
-      <c r="AG13" s="55">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="55">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="55">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="55">
+      <c r="AE13" s="53">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="53">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="53">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="53">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="53">
         <v>12</v>
       </c>
-      <c r="AK13" s="55">
+      <c r="AK13" s="53">
         <v>102</v>
       </c>
-      <c r="AL13" s="55">
+      <c r="AL13" s="53">
         <v>8031</v>
       </c>
-      <c r="AM13" s="55">
+      <c r="AM13" s="53">
         <v>12927</v>
       </c>
-      <c r="AN13" s="55">
+      <c r="AN13" s="53">
         <v>36036</v>
       </c>
-      <c r="AO13" s="55">
+      <c r="AO13" s="53">
         <v>80724</v>
       </c>
-      <c r="AP13" s="55">
+      <c r="AP13" s="53">
         <v>165849</v>
       </c>
-      <c r="AQ13" s="47">
+      <c r="AQ13" s="53">
         <v>190725</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" s="47">
         <v>153</v>
       </c>
       <c r="AS13">
@@ -4742,7 +4728,7 @@
       </c>
     </row>
     <row r="14" spans="1:53">
-      <c r="A14" s="59"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="19">
         <v>18</v>
       </c>
@@ -4815,61 +4801,61 @@
       <c r="Y14" s="46">
         <v>1920</v>
       </c>
-      <c r="Z14" s="55">
+      <c r="Z14" s="53">
         <v>2055</v>
       </c>
-      <c r="AA14" s="55">
+      <c r="AA14" s="53">
         <v>2202</v>
       </c>
-      <c r="AB14" s="55">
+      <c r="AB14" s="53">
         <v>2805</v>
       </c>
-      <c r="AC14" s="55">
+      <c r="AC14" s="53">
         <v>2619</v>
       </c>
-      <c r="AD14" s="55">
+      <c r="AD14" s="53">
         <v>2883</v>
       </c>
-      <c r="AE14" s="55">
+      <c r="AE14" s="53">
         <v>3654</v>
       </c>
-      <c r="AF14" s="55">
+      <c r="AF14" s="53">
         <v>6594</v>
       </c>
-      <c r="AG14" s="55">
+      <c r="AG14" s="53">
         <v>9399</v>
       </c>
-      <c r="AH14" s="55">
+      <c r="AH14" s="53">
         <v>13488</v>
       </c>
-      <c r="AI14" s="55">
+      <c r="AI14" s="53">
         <v>23322</v>
       </c>
-      <c r="AJ14" s="55">
+      <c r="AJ14" s="53">
         <v>32865</v>
       </c>
-      <c r="AK14" s="55">
+      <c r="AK14" s="53">
         <v>20874</v>
       </c>
-      <c r="AL14" s="55">
+      <c r="AL14" s="53">
         <v>20634</v>
       </c>
-      <c r="AM14" s="55">
+      <c r="AM14" s="53">
         <v>19488</v>
       </c>
-      <c r="AN14" s="55">
+      <c r="AN14" s="53">
         <v>22491</v>
       </c>
-      <c r="AO14" s="55">
+      <c r="AO14" s="53">
         <v>24177</v>
       </c>
-      <c r="AP14" s="55">
+      <c r="AP14" s="53">
         <v>21012</v>
       </c>
-      <c r="AQ14" s="47">
+      <c r="AQ14" s="53">
         <v>14490</v>
       </c>
-      <c r="AR14">
+      <c r="AR14" s="47">
         <v>258</v>
       </c>
       <c r="AS14">
@@ -4901,7 +4887,7 @@
       </c>
     </row>
     <row r="15" spans="1:53">
-      <c r="A15" s="60"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="15">
         <v>19</v>
       </c>
@@ -4971,64 +4957,64 @@
       <c r="X15">
         <v>630</v>
       </c>
-      <c r="Y15" s="52">
+      <c r="Y15" s="50">
         <v>765</v>
       </c>
-      <c r="Z15" s="50">
+      <c r="Z15" s="49">
         <v>948</v>
       </c>
-      <c r="AA15" s="50">
+      <c r="AA15" s="49">
         <v>1236</v>
       </c>
-      <c r="AB15" s="50">
+      <c r="AB15" s="49">
         <v>2091</v>
       </c>
-      <c r="AC15" s="50">
+      <c r="AC15" s="49">
         <v>2208</v>
       </c>
-      <c r="AD15" s="50">
+      <c r="AD15" s="49">
         <v>2916</v>
       </c>
-      <c r="AE15" s="50">
+      <c r="AE15" s="49">
         <v>3684</v>
       </c>
-      <c r="AF15" s="50">
+      <c r="AF15" s="49">
         <v>4647</v>
       </c>
-      <c r="AG15" s="50">
+      <c r="AG15" s="49">
         <v>6183</v>
       </c>
-      <c r="AH15" s="50">
+      <c r="AH15" s="49">
         <v>7902</v>
       </c>
-      <c r="AI15" s="50">
+      <c r="AI15" s="49">
         <v>10431</v>
       </c>
-      <c r="AJ15" s="50">
+      <c r="AJ15" s="49">
         <v>13887</v>
       </c>
-      <c r="AK15" s="50">
+      <c r="AK15" s="49">
         <v>19059</v>
       </c>
-      <c r="AL15" s="50">
+      <c r="AL15" s="49">
         <v>33129</v>
       </c>
-      <c r="AM15" s="50">
+      <c r="AM15" s="49">
         <v>44490</v>
       </c>
-      <c r="AN15" s="50">
+      <c r="AN15" s="49">
         <v>68196</v>
       </c>
-      <c r="AO15" s="50">
+      <c r="AO15" s="49">
         <v>83412</v>
       </c>
-      <c r="AP15" s="50">
+      <c r="AP15" s="49">
         <v>119613</v>
       </c>
-      <c r="AQ15" s="53">
+      <c r="AQ15" s="49">
         <v>132912</v>
       </c>
-      <c r="AR15">
+      <c r="AR15" s="51">
         <v>1206</v>
       </c>
       <c r="AS15">
@@ -5060,27 +5046,28 @@
       </c>
     </row>
     <row r="16" spans="1:53" s="4" customFormat="1">
-      <c r="A16" s="56"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="16"/>
-      <c r="Y16" s="54"/>
-      <c r="Z16" s="54"/>
-      <c r="AA16" s="54"/>
-      <c r="AB16" s="54"/>
-      <c r="AC16" s="54"/>
-      <c r="AD16" s="63"/>
-      <c r="AE16" s="63"/>
-      <c r="AF16" s="63"/>
-      <c r="AG16" s="63"/>
-      <c r="AH16" s="63"/>
-      <c r="AI16" s="63"/>
-      <c r="AJ16" s="63"/>
-      <c r="AK16" s="63"/>
-      <c r="AL16" s="63"/>
-      <c r="AM16" s="63"/>
-      <c r="AN16" s="63"/>
-      <c r="AO16" s="63"/>
-      <c r="AP16" s="63"/>
-      <c r="AQ16" s="63"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="61"/>
+      <c r="AJ16" s="61"/>
+      <c r="AK16" s="61"/>
+      <c r="AL16" s="61"/>
+      <c r="AM16" s="61"/>
+      <c r="AN16" s="61"/>
+      <c r="AO16" s="61"/>
+      <c r="AP16" s="61"/>
+      <c r="AQ16" s="61"/>
+      <c r="AR16" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
